--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E981EEE-89D0-421A-B352-1E5F7509359B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6D5495-CA97-4E4E-85A0-D336204738D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="1665" windowWidth="16605" windowHeight="11535" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="690" yWindow="14415" windowWidth="14130" windowHeight="12375" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
     <sheet name="Set1" sheetId="4" r:id="rId2"/>
+    <sheet name="Set2" sheetId="6" r:id="rId3"/>
+    <sheet name="Set3" sheetId="7" r:id="rId4"/>
+    <sheet name="Normal Distribution Test" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Normal Distribution Test'!$D$5:$D$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Normal Distribution Test'!$D$5:$D$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -110,6 +117,21 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>1 - Number of nodes</t>
+  </si>
+  <si>
+    <t>2 - Numer of evil node</t>
+  </si>
+  <si>
+    <t>3 - Transmission speed</t>
+  </si>
+  <si>
+    <t>To compute</t>
+  </si>
+  <si>
+    <t>t student (non normal)</t>
   </si>
 </sst>
 </file>
@@ -259,6 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,7 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -288,6 +310,722 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Chart Title</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{25ED4015-0958-4046-9F1F-E31B8E1A9E9A}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958A89FF-0374-4007-AE46-8A77DC831195}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2957512" y="1157287"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,14 +1325,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -657,8 +1396,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
+      <c r="A2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -700,7 +1439,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -712,7 +1451,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E12" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E13" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -744,7 +1483,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -752,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f>2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D13" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -791,7 +1530,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -799,7 +1538,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1">
-        <f>2*LOG(C5)/(C5-1)</f>
+        <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E5" s="1">
@@ -835,7 +1574,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -843,14 +1582,17 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1">
-        <f>2*LOG(C6)/(C6-1)</f>
+        <f t="shared" si="1"/>
         <v>6.006006006006006E-3</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <f>E6</f>
+        <v>6.9077552789821367E-3</v>
+      </c>
       <c r="G6" s="1">
         <v>10</v>
       </c>
@@ -877,7 +1619,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -885,7 +1627,7 @@
         <v>10000</v>
       </c>
       <c r="D7" s="1">
-        <f>2*LOG(C7)/(C7-1)</f>
+        <f t="shared" si="1"/>
         <v>8.0008000800080011E-4</v>
       </c>
       <c r="E7" s="1">
@@ -919,24 +1661,26 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2</v>
+      <c r="A8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <f>2*LOG(C8)/(C8-1)</f>
-        <v>8.0008000800080011E-4</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F8" s="1"/>
+        <f>LN(C8)/(C8)</f>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G8" s="1">
         <v>10</v>
       </c>
@@ -944,7 +1688,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
@@ -956,29 +1700,31 @@
         <v>10</v>
       </c>
       <c r="M8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
         <f>2*LOG(C9)/(C9-1)</f>
-        <v>8.0008000800080011E-4</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F9" s="1"/>
+        <f>LN(C9)/(C9)</f>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G9" s="1">
         <v>10</v>
       </c>
@@ -986,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
@@ -998,28 +1744,31 @@
         <v>10</v>
       </c>
       <c r="M9" s="1">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>10000</v>
-      </c>
       <c r="D10" s="1">
-        <f>2*LOG(C10)/(C10-1)</f>
-        <v>8.0008000800080011E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G10" s="1">
         <v>10</v>
       </c>
@@ -1027,38 +1776,42 @@
         <v>100</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10000</v>
-      </c>
       <c r="D11" s="1">
-        <f>2*LOG(C11)/(C11-1)</f>
-        <v>8.0008000800080011E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G11" s="1">
         <v>10</v>
       </c>
@@ -1072,32 +1825,34 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10000</v>
-      </c>
       <c r="D12" s="1">
-        <f>2*LOG(C12)/(C12-1)</f>
-        <v>8.0008000800080011E-4</v>
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G12" s="1">
         <v>10</v>
       </c>
@@ -1111,35 +1866,57 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>100</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>13</v>
-      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1153,9 +1930,6 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>14</v>
-      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1169,9 +1943,6 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>15</v>
-      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1184,10 +1955,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1200,10 +1968,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1216,10 +1981,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1232,10 +1994,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>19</v>
-      </c>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1248,10 +2007,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>20</v>
-      </c>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1264,10 +2020,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>21</v>
-      </c>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1280,10 +2033,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>22</v>
-      </c>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1296,10 +2046,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>23</v>
-      </c>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1312,10 +2059,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>24</v>
-      </c>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1328,10 +2072,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>25</v>
-      </c>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1344,10 +2085,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1360,10 +2098,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>27</v>
-      </c>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1376,10 +2111,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>28</v>
-      </c>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1392,10 +2124,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>29</v>
-      </c>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1408,10 +2137,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>30</v>
-      </c>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1424,10 +2150,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>31</v>
-      </c>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1440,10 +2163,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>32</v>
-      </c>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1456,10 +2176,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>33</v>
-      </c>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1472,10 +2189,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>34</v>
-      </c>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1488,10 +2202,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>35</v>
-      </c>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1504,10 +2215,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>36</v>
-      </c>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1520,126 +2228,24 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>59</v>
-      </c>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1650,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,6 +2301,9 @@
       <c r="E2">
         <v>0.91530000000300005</v>
       </c>
+      <c r="F2">
+        <v>0.91530000000300005</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -1709,6 +2318,9 @@
       <c r="E3">
         <v>0.91530000000300005</v>
       </c>
+      <c r="F3">
+        <v>0.99268824148599999</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1723,6 +2335,9 @@
       <c r="E4">
         <v>1.2204000000040001</v>
       </c>
+      <c r="F4">
+        <v>0.94797846390899998</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1737,6 +2352,9 @@
       <c r="E5">
         <v>0.61020000000200003</v>
       </c>
+      <c r="F5">
+        <v>1.2216387008730001</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -1751,6 +2369,9 @@
       <c r="E6">
         <v>0.91530000000300005</v>
       </c>
+      <c r="F6">
+        <v>1.423855858874</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -1764,6 +2385,9 @@
       </c>
       <c r="E7">
         <v>0.30510000000100002</v>
+      </c>
+      <c r="F7">
+        <v>0.91560787649700004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,27 +3007,27 @@
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="10">
+      <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.65907088731205998</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="7">
         <f t="shared" ref="C52:F52" si="0">AVERAGE(C2:C51)</f>
         <v>0.96447097937686022</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="7">
         <f t="shared" ref="D52" si="1">AVERAGE(D2:D51)</f>
         <v>0.89090111111418024</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="7">
         <f t="shared" ref="E52" si="2">AVERAGE(E2:E51)</f>
         <v>0.91610186017854023</v>
       </c>
-      <c r="F52" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="10" t="e">
+      <c r="F52" s="7">
+        <f>AVERAGE(F2:F7)</f>
+        <v>1.0695115236070001</v>
+      </c>
+      <c r="G52" s="7" t="e">
         <f>AVERAGE(G2:G51)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2411,4 +3035,2064 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
+  <dimension ref="A1:D172"/>
+  <sheetViews>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C2">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D2">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C3">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D3">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C4">
+        <v>0.915806248366</v>
+      </c>
+      <c r="D4">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C5">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D5">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C6">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D6">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="C7">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D7">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="C8">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D8">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C9">
+        <v>1.280352210762</v>
+      </c>
+      <c r="D9">
+        <v>0.94558310152400005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C10">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D10">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="C11">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D11">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.221610090177</v>
+      </c>
+      <c r="C12">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D12">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C13">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D13">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="C14">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D14">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="C15">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D15">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C16">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D16">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C17">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D17">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C18">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D18">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C19">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D19">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C20">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="D20">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C21">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D21">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="C22">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D22">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C23">
+        <v>1.222405676763</v>
+      </c>
+      <c r="D23">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C24">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D24">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C25">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D25">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="C26">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D26">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C27">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D27">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="C28">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="D28">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1.220789647273</v>
+      </c>
+      <c r="C29">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D29">
+        <v>0.92352396971999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C30">
+        <v>1.656184664959</v>
+      </c>
+      <c r="D30">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C31">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D31">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="C32">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D32">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C33">
+        <v>0.91691372466400001</v>
+      </c>
+      <c r="D33">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C34">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D34">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="C35">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D35">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C36">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D36">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C37">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D37">
+        <v>0.91718800025799996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C38">
+        <v>1.220444444448</v>
+      </c>
+      <c r="D38">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.915326595774</v>
+      </c>
+      <c r="C39">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D39">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C40">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D40">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C41">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D41">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1.222507013815</v>
+      </c>
+      <c r="C42">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D42">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C43">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D43">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="C44">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D44">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C45">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D45">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="C46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D46">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="C47">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D47">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C48">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D48">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="C49">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D49">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C50">
+        <v>0.61060000000799997</v>
+      </c>
+      <c r="D50">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="C51">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D51">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f>AVERAGE(B2:B51)</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C52">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D52">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1.5395876522780001</v>
+      </c>
+      <c r="D53">
+        <v>1.118633333337</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="D54">
+        <v>1.220582246283</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D55">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D56">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D57">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D58">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D59">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D60">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D61">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D62">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D63">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D64">
+        <v>1.2209736502540001</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D65">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D66">
+        <v>0.92289895828400004</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D67">
+        <v>0.30520000000300002</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D68">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0.61022222222400002</v>
+      </c>
+      <c r="D69">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D70">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1.5276068351000001</v>
+      </c>
+      <c r="D71">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D72">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D73">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D74">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D75">
+        <v>1.3364599372699999</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>0.915326595774</v>
+      </c>
+      <c r="D76">
+        <v>1.323053183736</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D77">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D78">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D79">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D80">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D81">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D82">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D83">
+        <v>0.61084038065199997</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D84">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D85">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D86">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="D87">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D88">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D89">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="D90">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D91">
+        <v>1.5384070988680001</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D92">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D93">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1.220600000008</v>
+      </c>
+      <c r="D94">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1.2210915012470001</v>
+      </c>
+      <c r="D95">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D96">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>0.30511111111200001</v>
+      </c>
+      <c r="D97">
+        <v>0.91550000000700005</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="D98">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="D99">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="D100">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>0.98059810808299996</v>
+      </c>
+      <c r="D101">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="7">
+        <f>AVERAGE(C2:C101)</f>
+        <v>0.99138745213406054</v>
+      </c>
+      <c r="D102">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>0.91686666667000005</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>1.5304000000060001</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>1.2214198581310001</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0.71176666666900001</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>1.2253000000050001</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>0.91674478006500004</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>1.2308922936190001</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>1.221645148516</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>0.61537386395000004</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0.93349356470199996</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>0.93779698294799996</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>0.91533333333599998</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>0.91643363415099999</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>0.91588086857700002</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="7">
+        <f>AVERAGE(D2:D171)</f>
+        <v>0.88866890437745838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D12">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.60007359999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1.2002937600000001</v>
+      </c>
+      <c r="D14">
+        <v>1.2001468799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D16">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1.2002937600000001</v>
+      </c>
+      <c r="D18">
+        <v>1.2001468799999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.90022080000000004</v>
+      </c>
+      <c r="D22">
+        <v>0.90011039999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D24">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.2002937600000001</v>
+      </c>
+      <c r="D29">
+        <v>1.2001468799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D30">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D33">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D35">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D37">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D38">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D39">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D40">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D41">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D42">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D43">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D44">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D45">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.90022080000000004</v>
+      </c>
+      <c r="D46">
+        <v>0.90011039999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D47">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D48">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D49">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.60014688000000005</v>
+      </c>
+      <c r="D50">
+        <v>0.60007343999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0.90022031999999996</v>
+      </c>
+      <c r="D51">
+        <v>0.90011015999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="7">
+        <f>AVERAGE(C2:C51)</f>
+        <v>0.85821005760000002</v>
+      </c>
+      <c r="D52" s="7">
+        <f>AVERAGE(D2:D51)</f>
+        <v>0.85210429759999984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
+  <dimension ref="D5:D54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.30511111111200001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.61293325438599999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D54">
+    <sortCondition ref="D5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6D5495-CA97-4E4E-85A0-D336204738D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BE576-C808-4518-8404-6E0EFE464B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="14415" windowWidth="14130" windowHeight="12375" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Normal Distribution Test'!$D$5:$D$54</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Normal Distribution Test'!$D$5:$D$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -105,9 +104,6 @@
   </si>
   <si>
     <t>()</t>
-  </si>
-  <si>
-    <t>look at mpi optimizaion</t>
   </si>
   <si>
     <t>Run simulations</t>
@@ -317,7 +313,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1328,7 +1324,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1392,12 +1388,12 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1479,7 +1475,7 @@
         <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1522,9 +1518,7 @@
       <c r="M4" s="1">
         <v>50</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1662,7 +1656,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1747,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1793,7 +1787,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -3012,7 +3006,7 @@
         <v>0.65907088731205998</v>
       </c>
       <c r="C52" s="7">
-        <f t="shared" ref="C52:F52" si="0">AVERAGE(C2:C51)</f>
+        <f t="shared" ref="C52" si="0">AVERAGE(C2:C51)</f>
         <v>0.96447097937686022</v>
       </c>
       <c r="D52" s="7">
@@ -3041,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -4412,7 +4406,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.60014688000000005</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BE576-C808-4518-8404-6E0EFE464B83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3C543-061A-47F7-9619-3D83460A81FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="3495" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>3 - Transmission speed</t>
-  </si>
-  <si>
-    <t>To compute</t>
   </si>
   <si>
     <t>t student (non normal)</t>
@@ -1324,7 +1321,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1738,7 @@
         <v>50</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2250,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -3035,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -4381,12 +4378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4405,8 +4403,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="B2">
+        <v>9.0206898844950008</v>
       </c>
       <c r="C2">
         <v>0.60014688000000005</v>
@@ -4416,6 +4414,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>8.1138732029790006</v>
+      </c>
       <c r="C3">
         <v>0.90022031999999996</v>
       </c>
@@ -4424,6 +4425,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>86.067229126341999</v>
+      </c>
       <c r="C4">
         <v>0.90022031999999996</v>
       </c>
@@ -4432,6 +4436,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>54.070096199817002</v>
+      </c>
       <c r="C5">
         <v>0.90022031999999996</v>
       </c>
@@ -4440,6 +4447,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>14.367122357386</v>
+      </c>
       <c r="C6">
         <v>0.60014688000000005</v>
       </c>
@@ -4448,6 +4458,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>12.070704133185</v>
+      </c>
       <c r="C7">
         <v>0.90022031999999996</v>
       </c>
@@ -4456,6 +4469,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>18.447748734832</v>
+      </c>
       <c r="C8">
         <v>0.90022031999999996</v>
       </c>
@@ -4464,6 +4480,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>23.197372250868</v>
+      </c>
       <c r="C9">
         <v>0.90022031999999996</v>
       </c>
@@ -4472,6 +4491,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>44.948244063537999</v>
+      </c>
       <c r="C10">
         <v>0.90022031999999996</v>
       </c>
@@ -4480,6 +4502,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>57.710943001135</v>
+      </c>
       <c r="C11">
         <v>0.60014688000000005</v>
       </c>
@@ -4488,6 +4513,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>24.943014619688</v>
+      </c>
       <c r="C12">
         <v>0.90022031999999996</v>
       </c>
@@ -4496,6 +4524,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>72.021443379562996</v>
+      </c>
       <c r="C13">
         <v>0.90022031999999996</v>
       </c>
@@ -4504,6 +4535,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13.29247041627</v>
+      </c>
       <c r="C14">
         <v>1.2002937600000001</v>
       </c>
@@ -4512,6 +4546,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>49.968599852063001</v>
+      </c>
       <c r="C15">
         <v>0.90022031999999996</v>
       </c>
@@ -4520,6 +4557,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12.860552572982</v>
+      </c>
       <c r="C16">
         <v>0.90022031999999996</v>
       </c>
@@ -4527,7 +4567,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>60.394606775823</v>
+      </c>
       <c r="C17">
         <v>0.90022031999999996</v>
       </c>
@@ -4535,7 +4578,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>39.426105506888</v>
+      </c>
       <c r="C18">
         <v>1.2002937600000001</v>
       </c>
@@ -4543,7 +4589,10 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3.972</v>
+      </c>
       <c r="C19">
         <v>0.90022031999999996</v>
       </c>
@@ -4551,7 +4600,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>9.0575738742429994</v>
+      </c>
       <c r="C20">
         <v>0.60014688000000005</v>
       </c>
@@ -4559,7 +4611,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13.397505731812</v>
+      </c>
       <c r="C21">
         <v>0.90022031999999996</v>
       </c>
@@ -4567,7 +4622,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>143.93527849712899</v>
+      </c>
       <c r="C22">
         <v>0.90022080000000004</v>
       </c>
@@ -4575,7 +4633,10 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>55.563554033761001</v>
+      </c>
       <c r="C23">
         <v>0.90022031999999996</v>
       </c>
@@ -4583,7 +4644,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>93.640797061903996</v>
+      </c>
       <c r="C24">
         <v>0.60014688000000005</v>
       </c>
@@ -4591,7 +4655,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>32.155406817093997</v>
+      </c>
       <c r="C25">
         <v>0.90022031999999996</v>
       </c>
@@ -4599,7 +4666,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>18.171900619224999</v>
+      </c>
       <c r="C26">
         <v>0.90022031999999996</v>
       </c>
@@ -4607,7 +4677,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>9.5322335704780006</v>
+      </c>
       <c r="C27">
         <v>0.90022031999999996</v>
       </c>
@@ -4615,7 +4688,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>12.720240520995</v>
+      </c>
       <c r="C28">
         <v>0.90022031999999996</v>
       </c>
@@ -4623,7 +4699,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>8.3306891203820008</v>
+      </c>
       <c r="C29">
         <v>1.2002937600000001</v>
       </c>
@@ -4631,7 +4710,10 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>23.585135122760999</v>
+      </c>
       <c r="C30">
         <v>0.90022031999999996</v>
       </c>
@@ -4639,7 +4721,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>48.680945211054997</v>
+      </c>
       <c r="C31">
         <v>0.90022031999999996</v>
       </c>
@@ -4647,7 +4732,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>14.783931176242</v>
+      </c>
       <c r="C32">
         <v>0.90022031999999996</v>
       </c>
@@ -4655,7 +4743,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>11.740539271312</v>
+      </c>
       <c r="C33">
         <v>0.90022031999999996</v>
       </c>
@@ -4663,7 +4754,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>9.730876510621</v>
+      </c>
       <c r="C34">
         <v>0.90022031999999996</v>
       </c>
@@ -4671,7 +4765,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>13.138436714696001</v>
+      </c>
       <c r="C35">
         <v>0.90022031999999996</v>
       </c>
@@ -4679,7 +4776,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>16.969290059820999</v>
+      </c>
       <c r="C36">
         <v>0.60014688000000005</v>
       </c>
@@ -4687,7 +4787,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>8.1146932180049998</v>
+      </c>
       <c r="C37">
         <v>0.60014688000000005</v>
       </c>
@@ -4695,7 +4798,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>80.001357786857</v>
+      </c>
       <c r="C38">
         <v>0.90022031999999996</v>
       </c>
@@ -4703,7 +4809,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>58.296201882939002</v>
+      </c>
       <c r="C39">
         <v>0.90022031999999996</v>
       </c>
@@ -4711,7 +4820,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>14.434934680985</v>
+      </c>
       <c r="C40">
         <v>0.90022031999999996</v>
       </c>
@@ -4719,7 +4831,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>8.3342570105539995</v>
+      </c>
       <c r="C41">
         <v>0.90022031999999996</v>
       </c>
@@ -4727,7 +4842,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>26.973621089051999</v>
+      </c>
       <c r="C42">
         <v>0.90022031999999996</v>
       </c>
@@ -4735,7 +4853,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>28.607744638524</v>
+      </c>
       <c r="C43">
         <v>0.90022031999999996</v>
       </c>
@@ -4743,7 +4864,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>12.721196538475001</v>
+      </c>
       <c r="C44">
         <v>0.60014688000000005</v>
       </c>
@@ -4751,7 +4875,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>8.1412469709550006</v>
+      </c>
       <c r="C45">
         <v>0.90022031999999996</v>
       </c>
@@ -4759,7 +4886,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>23.976391888582999</v>
+      </c>
       <c r="C46">
         <v>0.90022080000000004</v>
       </c>
@@ -4767,7 +4897,10 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>32.661469806021003</v>
+      </c>
       <c r="C47">
         <v>0.90022031999999996</v>
       </c>
@@ -4775,7 +4908,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>39.767233249124999</v>
+      </c>
       <c r="C48">
         <v>0.90022031999999996</v>
       </c>
@@ -4783,7 +4919,10 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>10.544</v>
+      </c>
       <c r="C49">
         <v>0.60014688000000005</v>
       </c>
@@ -4791,7 +4930,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>14.722160793601001</v>
+      </c>
       <c r="C50">
         <v>0.60014688000000005</v>
       </c>
@@ -4799,7 +4941,10 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10.594007882210001</v>
+      </c>
       <c r="C51">
         <v>0.90022031999999996</v>
       </c>
@@ -4807,7 +4952,11 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f>AVERAGE(B3:B51)</f>
+        <v>30.793815868219912</v>
+      </c>
       <c r="C52" s="7">
         <f>AVERAGE(C2:C51)</f>
         <v>0.85821005760000002</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E3C543-061A-47F7-9619-3D83460A81FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B57629-8D23-4B6D-8004-309AFED05FB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
     <sheet name="Set1" sheetId="4" r:id="rId2"/>
     <sheet name="Set2" sheetId="6" r:id="rId3"/>
     <sheet name="Set3" sheetId="7" r:id="rId4"/>
-    <sheet name="Normal Distribution Test" sheetId="5" r:id="rId5"/>
+    <sheet name="Set4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Normal Distribution Test'!$D$5:$D$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$D$5:$D$54</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Set4'!$E$5:$E$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -126,12 +130,39 @@
   <si>
     <t>t student (non normal)</t>
   </si>
+  <si>
+    <t>4 - Normalization Test</t>
+  </si>
+  <si>
+    <t>5 - Delay Variation</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Data Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skewness </t>
+  </si>
+  <si>
+    <t>http://www.real-statistics.com/tests-normality-and-symmetry/graphical-tests-normality-symmetry/</t>
+  </si>
+  <si>
+    <t>http://www.psychwiki.com/wiki/How_do_I_determine_whether_my_data_are_normal%3F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +215,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +259,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -254,15 +306,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,10 +353,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,7 +383,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -318,50 +391,40 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Chart Title</cx:v>
+          <cx:v>Histogram Of Standardized Data</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:sysClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Chart Title</a:t>
+            <a:t>Histogram Of Standardized Data</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{25ED4015-0958-4046-9F1F-E31B8E1A9E9A}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Standardized </cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
@@ -369,12 +432,11 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:catScaling/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -423,7 +485,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -434,7 +496,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -457,7 +519,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -480,7 +542,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -488,11 +550,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -517,14 +579,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -539,7 +601,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -556,7 +618,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -571,10 +633,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -587,7 +647,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -597,13 +657,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -622,18 +682,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -704,12 +762,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -741,8 +793,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -797,7 +849,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -825,7 +877,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -835,12 +898,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -856,7 +916,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -872,7 +932,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -886,7 +946,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -919,7 +979,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -928,12 +988,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -942,25 +996,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
+            <xdr:cNvPr id="3" name="Chart 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958A89FF-0374-4007-AE46-8A77DC831195}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6876E1-88FD-4B33-B29E-E15212E7ADD7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -987,8 +1041,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2957512" y="1157287"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5029199" y="633412"/>
+              <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1320,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1498,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E13" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:F14" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -1484,7 +1538,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D13" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D14" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -1866,7 +1920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="6">
         <v>3</v>
@@ -1907,20 +1961,54 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f>E14</f>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2247,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A160" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -4378,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4973,269 +5061,1082 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
-  <dimension ref="D5:D54"/>
+  <dimension ref="B1:P57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <f>D55</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C5">
+        <f>D56</f>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D5">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E5">
+        <f>STANDARDIZE(D5,B5,C5)</f>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P5">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <f>B5</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C6">
+        <f>C5</f>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D6">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E6">
+        <f>STANDARDIZE(D6,B6,C6)</f>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P6">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <f>B6</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C54" si="0">C6</f>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D7">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E54" si="1">STANDARDIZE(D7,B7,C7)</f>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P7">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <f>B7</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D8">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P8">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <f t="shared" ref="B9:B54" si="2">B8</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D9">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P9">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D10">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="P10">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D11">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.414523081071541</v>
+      </c>
+      <c r="P11">
+        <v>1.5506994742060001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D12">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P12">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D13">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P13">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D14">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="E14">
+        <f>STANDARDIZE(D14,B14,C14)</f>
+        <v>6.5550037892175858E-6</v>
+      </c>
+      <c r="P14">
+        <v>0.91610358299899997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D15">
+        <v>1.221610090177</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.1624006401585281</v>
+      </c>
+      <c r="P15">
+        <v>1.221610090177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P16">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D17">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4.2600011872385318E-4</v>
+      </c>
+      <c r="P17">
+        <v>0.91621382376299998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D18">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.506446801941168E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.92268943506099999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D19">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P19">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D20">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P20">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D21">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P21">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D22">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P22">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D23">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P23">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D24">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P24">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D25">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="P25">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D26">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P26">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D27">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P27">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D28">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P28">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D29">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-1.4365884498521388E-3</v>
+      </c>
+      <c r="P29">
+        <v>0.91572428847099996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D30">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P30">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D31">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-1.1439574403569071E-3</v>
+      </c>
+      <c r="P31">
+        <v>0.91580119928699999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D32">
+        <v>1.220789647273</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.1592790111378373</v>
+      </c>
+      <c r="P32">
+        <v>1.220789647273</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D33">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P33">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D34">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P34">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D35">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.1135326074608154E-3</v>
+      </c>
+      <c r="P35">
+        <v>0.91639452465600002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D36">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P36">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D37">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P37">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D38">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>-2.9240982927114748E-3</v>
+      </c>
+      <c r="P38">
+        <v>0.91533333333599998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D39">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P39">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D40">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P40">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D41">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P41">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D42">
+        <v>0.915326595774</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>-2.9497334331524544E-3</v>
+      </c>
+      <c r="P42">
+        <v>0.915326595774</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D43">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P43">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D44">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P44">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D45">
+        <v>1.222507013815</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1.165813263808601</v>
+      </c>
+      <c r="P45">
+        <v>1.222507013815</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P46">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D47">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>2.3186438802295588</v>
+      </c>
+      <c r="P47">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D48">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P48">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D49">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="P49">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D50">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="P50">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D51">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P51">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D52">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D14">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="P52">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>0.30511111111200001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>0.61293325438599999</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D53">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P53">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.26282524238527133</v>
+      </c>
       <c r="D54">
-        <v>1.2204000000040001</v>
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="P54">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="7">
+        <f>AVERAGE(D5:D54)</f>
+        <v>0.91610186017854023</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <f>STDEV(D5:D54)</f>
+        <v>0.26282524238527133</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <f>SKEW(D5:D54)</f>
+        <v>-0.17350563726348589</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D54">
     <sortCondition ref="D5"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{F105CD29-8A17-4EAC-98D6-18F43AF3306F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6D4BAFBE-A532-44D4-A8B2-37DA1423BD3B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B57629-8D23-4B6D-8004-309AFED05FB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA4AE4C-33FB-4C61-B648-DBF19A10D496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
@@ -20,11 +20,16 @@
     <sheet name="Set4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$D$5:$D$54</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Set4'!$E$62:$E$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -156,6 +161,33 @@
   </si>
   <si>
     <t>http://www.psychwiki.com/wiki/How_do_I_determine_whether_my_data_are_normal%3F</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Prob I = (i-0.5)/n</t>
+  </si>
+  <si>
+    <t>Z score of I</t>
+  </si>
+  <si>
+    <t>Standardized X</t>
+  </si>
+  <si>
+    <t>Sorted data X</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Normal Q-Q Plot</t>
+  </si>
+  <si>
+    <t>SET 1.4</t>
+  </si>
+  <si>
+    <t>SET4.1</t>
   </si>
 </sst>
 </file>
@@ -344,6 +376,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,8 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -378,12 +410,1582 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Normal Q-Q Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Set4'!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardized X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Set4'!$R$5:$R$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-2.3263478740408408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8807936081512509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6448536269514726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4757910281791702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3407550336902161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2265281200366105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1263911290388013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.0364333894937898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.95416525314619549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.87789629505122846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.80642124701824058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.73884684918521393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67448975019608193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.61281299101662734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.55338471955567303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.49585034734745354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.43991316567323374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.38532046640756784</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.33185334643681658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.27931903444745415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2275449766411495</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.17637416478086138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12566134685507402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.5269862099829901E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.506890825871106E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.506890825871106E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5269862099829901E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12566134685507416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17637416478086121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22754497664114934</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27931903444745415</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33185334643681658</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38532046640756784</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43991316567323396</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49585034734745331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5533847195556727</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.61281299101662734</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.67448975019608193</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73884684918521393</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80642124701824058</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.87789629505122857</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95416525314619549</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0364333894937898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1263911290388013</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2265281200366105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3407550336902161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4757910281791713</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6448536269514715</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8807936081512504</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3263478740408408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Set4'!$S$5:$S$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-2.3247457307844104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3247457307844104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3247457307844104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1638983280309203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.0509252774302462E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.949733433151597E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.9240982927106174E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.4365884498512879E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.1439574403560573E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5550037900623962E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.260001187246962E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1135326074616554E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5064468019412419E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1577964774760598</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1592790111378333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1624006401585241</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.165813263808597</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3186438802295499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4145230810715312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAE1-4524-AF60-C5AA308B7EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650725119"/>
+        <c:axId val="660575855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650725119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660575855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="660575855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650725119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Normal Q-Q Plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Set4'!$S$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardized X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Set4'!$R$62:$R$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-2.5758293035488999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1700903775845601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9599639845400538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8119106729525978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6953977102721358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5981931399228173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5141018876192833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4395314709384572</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3722038089987272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3105791121681303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2535654384704511</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2003588580308597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.1503493803760083</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1030625561995977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.058121617684777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0152220332170301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.97411387705930974</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.93458929107347943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.89647336400191613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.85961736424191304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.82389363033855767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.78919165265822189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.75541502636046909</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.72247905192806261</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.69030882393303394</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.65883769273618775</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.62800601443756987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.59776012604247841</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.56805149833898283</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.5388360302784504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.51007345696859485</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.48172684958473044</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.45376219016987951</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.42614800784127821</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.39885506564233691</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.3718560893850747</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.34512553147047242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.3186393639643752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.29237489622680418</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.26631061320409499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.2404260311423079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.21470156800174456</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.18911842627279254</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.16365848623314128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.1383042079614045</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.11303854064456513</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.7844837895871677E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.2706777943213846E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.7608287661255936E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.2533469508069276E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2533469508069276E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7608287661255936E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2706777943213846E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7844837895871816E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.11303854064456527</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13830420796140466</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16365848623314114</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18911842627279243</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.21470156800174439</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2404260311423079</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26631061320409499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29237489622680418</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.3186393639643752</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.34512553147047242</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3718560893850747</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.39885506564233691</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.42614800784127838</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.45376219016987968</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48172684958473044</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.51007345696859474</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53883603027845006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.56805149833898272</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59776012604247841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.62800601443756987</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65883769273618775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69030882393303394</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.72247905192806261</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.75541502636046909</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78919165265822189</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.82389363033855767</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.85961736424191149</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.89647336400191591</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.9345892910734801</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.97411387705930974</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0152220332170301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.058121617684777</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1030625561995977</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1503493803760083</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2003588580308597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2535654384704511</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3105791121681303</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3722038089987258</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4395314709384563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5141018876192844</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5981931399228169</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6953977102721358</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8119106729525971</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9599639845400536</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1700903775845601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5758293035488999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Set4'!$S$62:$S$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2089248849057839</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.084551009489128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.0817217722382295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.95887324401258467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.9822865927527859E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.9920878350041163E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.994570804095153E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1311977670285036E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1386480706479323E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.1669917324791778E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2784280963346917E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.3190547220466488E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.3856477614937286E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4169432091506561E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.7054880785855808E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.12247865266325354</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1641967413441838</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1646602124126055</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1656326941789577</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1658600953974474</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.168054396896695</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1680831720416993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1686562424173239</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1719616423085322</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3047829720878932</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2885706167608397</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3814373177301857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4175-4E72-AC4A-A96AF49BB41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="650727919"/>
+        <c:axId val="575540655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="650727919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575540655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575540655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650727919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -421,7 +2023,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -444,7 +2046,195 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram Of Standardized Data</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histogram Of Standardized Data</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Standardized </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="1"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.330000013"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -992,20 +2782,1560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1041,7 +4371,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5029199" y="633412"/>
+              <a:off x="4324349" y="547687"/>
               <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1070,6 +4400,156 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5ED0AF-3726-4F71-92F3-CE361E951AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1766461-1A8B-4D36-B136-57BE1DFAC781}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4438650" y="11753850"/>
+              <a:ext cx="4733925" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F84968-C191-4F0D-9ED3-41DCF565E4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1443,7 +4923,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4">
@@ -1486,7 +4966,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -1498,7 +4978,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F14" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E14" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -1530,7 +5010,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -1575,7 +5055,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -1619,7 +5099,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -1664,7 +5144,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -1706,7 +5186,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="5">
@@ -1752,7 +5232,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1796,7 +5276,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -1837,7 +5317,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="6">
@@ -1880,7 +5360,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -1921,7 +5401,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -1965,7 +5445,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -5061,10 +8541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
-  <dimension ref="B1:P57"/>
+  <dimension ref="A1:S164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,19 +8552,32 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -5097,11 +8590,23 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
       <c r="P4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f>D55</f>
         <v>0.91610186017854023</v>
@@ -5117,11 +8622,26 @@
         <f>STANDARDIZE(D5,B5,C5)</f>
         <v>-3.050925277431104E-3</v>
       </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="P5">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q5">
+        <f>(O5-0.5)/50</f>
+        <v>0.01</v>
+      </c>
+      <c r="R5">
+        <f>_xlfn.NORM.S.INV(Q5)</f>
+        <v>-2.3263478740408408</v>
+      </c>
+      <c r="S5">
+        <f>(P5-$P$55)/$P$56</f>
+        <v>-2.3247457307844104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f>B5</f>
         <v>0.91610186017854023</v>
@@ -5137,157 +8657,277 @@
         <f>STANDARDIZE(D6,B6,C6)</f>
         <v>-3.050925277431104E-3</v>
       </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
       <c r="P6">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q6">
+        <f>(O6-0.5)/50</f>
+        <v>0.03</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:R54" si="0">_xlfn.NORM.S.INV(Q6)</f>
+        <v>-1.8807936081512509</v>
+      </c>
+      <c r="S6">
+        <f>(P6-$P$55)/$P$56</f>
+        <v>-2.3247457307844104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f>B6</f>
         <v>0.91610186017854023</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C54" si="0">C6</f>
+        <f t="shared" ref="C7:C54" si="1">C6</f>
         <v>0.26282524238527133</v>
       </c>
       <c r="D7">
         <v>1.2204000000040001</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E54" si="1">STANDARDIZE(D7,B7,C7)</f>
+        <f t="shared" ref="E7:E54" si="2">STANDARDIZE(D7,B7,C7)</f>
         <v>1.1577964774760638</v>
       </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
       <c r="P7">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q54" si="3">(O7-0.5)/50</f>
+        <v>0.05</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-1.6448536269514726</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S54" si="4">(P7-$P$55)/$P$56</f>
+        <v>-2.3247457307844104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>B7</f>
         <v>0.91610186017854023</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D8">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
+        <v>-1.4757910281791702</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <f t="shared" ref="B9:B54" si="5">B8</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D8">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E8">
+      <c r="D9">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-1.3407550336902161</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P8">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <f t="shared" ref="B9:B54" si="2">B8</f>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D9">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P9">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D10">
         <v>0.30510000000100002</v>
       </c>
       <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-1.2265281200366105</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
-        <v>-2.324745730784421</v>
-      </c>
-      <c r="P10">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D11">
         <v>1.5506994742060001</v>
       </c>
       <c r="E11">
+        <f t="shared" si="2"/>
+        <v>2.414523081071541</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-1.1263911290388013</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>2.414523081071541</v>
-      </c>
-      <c r="P11">
-        <v>1.5506994742060001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D12">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
+      <c r="P12">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-1.0364333894937898</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C12">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D13">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O13">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D12">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E12">
+        <v>-0.95416525314619549</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P12">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D13">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P13">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D14">
@@ -5297,811 +8937,1426 @@
         <f>STANDARDIZE(D14,B14,C14)</f>
         <v>6.5550037892175858E-6</v>
       </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
       <c r="P14">
-        <v>0.91610358299899997</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>-0.87789629505122846</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>-1.1638983280309203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D15">
         <v>1.221610090177</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1.1624006401585281</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>-0.80642124701824058</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="1"/>
-        <v>1.1624006401585281</v>
-      </c>
-      <c r="P15">
-        <v>1.221610090177</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>-0.73884684918521393</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E16">
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P16">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D17">
         <v>0.91621382376299998</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>4.2600011872385318E-4</v>
+      </c>
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>-0.67448975019608193</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="1"/>
-        <v>4.2600011872385318E-4</v>
-      </c>
-      <c r="P17">
-        <v>0.91621382376299998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D18">
         <v>0.92268943506099999</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2.506446801941168E-2</v>
+      </c>
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>-0.61281299101662734</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="1"/>
-        <v>2.506446801941168E-2</v>
-      </c>
-      <c r="P18">
-        <v>0.92268943506099999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D19">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>-0.55338471955567303</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C19">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D20">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="0"/>
+        <v>-0.49585034734745354</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D19">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E19">
+      <c r="D21">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>-0.43991316567323374</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P19">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D22">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="P22">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>-0.38532046640756784</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C20">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D23">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="0"/>
+        <v>-0.33185334643681658</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E20">
+      <c r="D24">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>-0.27931903444745415</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P20">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D21">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P21">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D22">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P22">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D23">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1.1577964774760638</v>
-      </c>
-      <c r="P23">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D24">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P24">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D25">
         <v>0.30510000000100002</v>
       </c>
       <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>0.41</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>-0.2275449766411495</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="1"/>
-        <v>-2.324745730784421</v>
-      </c>
-      <c r="P25">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D26">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O26">
+        <v>22</v>
+      </c>
+      <c r="P26">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>-0.17637416478086138</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C26">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D27">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="O27">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="0"/>
+        <v>-0.12566134685507402</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D26">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E26">
+      <c r="D28">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O28">
+        <v>24</v>
+      </c>
+      <c r="P28">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>-7.5269862099829901E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P26">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D27">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>1.1577964774760638</v>
-      </c>
-      <c r="P27">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D28">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P28">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D29">
         <v>0.91572428847099996</v>
       </c>
       <c r="E29">
+        <f t="shared" si="2"/>
+        <v>-1.4365884498521388E-3</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+      <c r="P29">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>-2.506890825871106E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="1"/>
-        <v>-1.4365884498521388E-3</v>
-      </c>
-      <c r="P29">
-        <v>0.91572428847099996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D30">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O30">
+        <v>26</v>
+      </c>
+      <c r="P30">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>2.506890825871106E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D30">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E30">
+      <c r="C31">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P30">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D31">
         <v>0.91580119928699999</v>
       </c>
       <c r="E31">
+        <f t="shared" si="2"/>
+        <v>-1.1439574403569071E-3</v>
+      </c>
+      <c r="O31">
+        <v>27</v>
+      </c>
+      <c r="P31">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>0.53</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>7.5269862099829901E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="1"/>
-        <v>-1.1439574403569071E-3</v>
-      </c>
-      <c r="P31">
-        <v>0.91580119928699999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D32">
         <v>1.220789647273</v>
       </c>
       <c r="E32">
+        <f t="shared" si="2"/>
+        <v>1.1592790111378373</v>
+      </c>
+      <c r="O32">
+        <v>28</v>
+      </c>
+      <c r="P32">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>0.12566134685507416</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="1"/>
-        <v>1.1592790111378373</v>
-      </c>
-      <c r="P32">
-        <v>1.220789647273</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D33">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="2"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="O33">
+        <v>29</v>
+      </c>
+      <c r="P33">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0.17637416478086121</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C33">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D34">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
+      </c>
+      <c r="P34">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D33">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E33">
+        <v>0.22754497664114934</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="1"/>
-        <v>1.1577964774760638</v>
-      </c>
-      <c r="P33">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D34">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P34">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D35">
         <v>0.91639452465600002</v>
       </c>
       <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1.1135326074608154E-3</v>
+      </c>
+      <c r="O35">
+        <v>31</v>
+      </c>
+      <c r="P35">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>0.27931903444745415</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>-3.0509252774302462E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="1"/>
-        <v>1.1135326074608154E-3</v>
-      </c>
-      <c r="P35">
-        <v>0.91639452465600002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D36">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O36">
+        <v>32</v>
+      </c>
+      <c r="P36">
+        <v>0.915326595774</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>0.33185334643681658</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>-2.949733433151597E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C36">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D37">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O37">
+        <v>33</v>
+      </c>
+      <c r="P37">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D36">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E36">
+        <v>0.38532046640756784</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>-2.9240982927106174E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C38">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P36">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D37">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P37">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D38">
         <v>0.91533333333599998</v>
       </c>
       <c r="E38">
+        <f t="shared" si="2"/>
+        <v>-2.9240982927114748E-3</v>
+      </c>
+      <c r="O38">
+        <v>34</v>
+      </c>
+      <c r="P38">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.67</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>0.43991316567323396</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>-1.4365884498512879E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C39">
         <f t="shared" si="1"/>
-        <v>-2.9240982927114748E-3</v>
-      </c>
-      <c r="P38">
-        <v>0.91533333333599998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D39">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O39">
+        <v>35</v>
+      </c>
+      <c r="P39">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.69</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>0.49585034734745331</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>-1.1439574403560573E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C39">
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D40">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O40">
+        <v>36</v>
+      </c>
+      <c r="P40">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="0"/>
+        <v>0.5533847195556727</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>6.5550037900623962E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D39">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E39">
+      <c r="D41">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O41">
+        <v>37</v>
+      </c>
+      <c r="P41">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.73</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>0.61281299101662734</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>4.260001187246962E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P39">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D40">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P40">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D41">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P41">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D42">
         <v>0.915326595774</v>
       </c>
       <c r="E42">
+        <f t="shared" si="2"/>
+        <v>-2.9497334331524544E-3</v>
+      </c>
+      <c r="O42">
+        <v>38</v>
+      </c>
+      <c r="P42">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>0.67448975019608193</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>1.1135326074616554E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C43">
         <f t="shared" si="1"/>
-        <v>-2.9497334331524544E-3</v>
-      </c>
-      <c r="P42">
-        <v>0.915326595774</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D43">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O43">
+        <v>39</v>
+      </c>
+      <c r="P43">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>0.73884684918521393</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>2.5064468019412419E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C43">
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D44">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O44">
+        <v>40</v>
+      </c>
+      <c r="P44">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D43">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E43">
+        <v>0.80642124701824058</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C45">
         <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P43">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D44">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P44">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D45">
         <v>1.222507013815</v>
       </c>
       <c r="E45">
+        <f t="shared" si="2"/>
+        <v>1.165813263808601</v>
+      </c>
+      <c r="O45">
+        <v>41</v>
+      </c>
+      <c r="P45">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>0.87789629505122857</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C46">
         <f t="shared" si="1"/>
-        <v>1.165813263808601</v>
-      </c>
-      <c r="P45">
-        <v>1.222507013815</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="2"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="O46">
+        <v>42</v>
+      </c>
+      <c r="P46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="3"/>
+        <v>0.83</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>0.95416525314619549</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D46">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E46">
+      <c r="C47">
         <f t="shared" si="1"/>
-        <v>1.1577964774760638</v>
-      </c>
-      <c r="P46">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D47">
         <v>1.5255000000050001</v>
       </c>
       <c r="E47">
+        <f t="shared" si="2"/>
+        <v>2.3186438802295588</v>
+      </c>
+      <c r="O47">
+        <v>43</v>
+      </c>
+      <c r="P47">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>1.0364333894937898</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C48">
         <f t="shared" si="1"/>
-        <v>2.3186438802295588</v>
-      </c>
-      <c r="P47">
-        <v>1.5255000000050001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D48">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O48">
+        <v>44</v>
+      </c>
+      <c r="P48">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>1.1263911290388013</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C48">
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D49">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>1.1577964774760638</v>
+      </c>
+      <c r="O49">
+        <v>45</v>
+      </c>
+      <c r="P49">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="3"/>
+        <v>0.89</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="0"/>
+        <v>1.2265281200366105</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>1.1577964774760598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
         <v>0.26282524238527133</v>
       </c>
-      <c r="D48">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E48">
+      <c r="D50">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>-1.1638983280309261</v>
+      </c>
+      <c r="O50">
+        <v>46</v>
+      </c>
+      <c r="P50">
+        <v>1.220789647273</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>1.3407550336902161</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>1.1592790111378333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D51">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
         <v>-3.050925277431104E-3</v>
       </c>
-      <c r="P48">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="7">
-        <f t="shared" si="2"/>
+      <c r="O51">
+        <v>47</v>
+      </c>
+      <c r="P51">
+        <v>1.221610090177</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>1.4757910281791713</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>1.1624006401585241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D49">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E49">
+      <c r="C52">
         <f t="shared" si="1"/>
-        <v>1.1577964774760638</v>
-      </c>
-      <c r="P49">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D50">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>-1.1638983280309261</v>
-      </c>
-      <c r="P50">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D51">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P51">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
         <v>0.26282524238527133</v>
       </c>
       <c r="D52">
         <v>0.30510000000100002</v>
       </c>
       <c r="E52">
+        <f t="shared" si="2"/>
+        <v>-2.324745730784421</v>
+      </c>
+      <c r="O52">
+        <v>48</v>
+      </c>
+      <c r="P52">
+        <v>1.222507013815</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>1.165813263808597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="1"/>
-        <v>-2.324745730784421</v>
-      </c>
-      <c r="P52">
-        <v>0.30510000000100002</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="7">
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D53">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O53">
+        <v>49</v>
+      </c>
+      <c r="P53">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>1.8807936081512504</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>2.3186438802295499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
       </c>
-      <c r="C53">
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.26282524238527133</v>
+      </c>
+      <c r="D54">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>-3.050925277431104E-3</v>
+      </c>
+      <c r="O54">
+        <v>50</v>
+      </c>
+      <c r="P54">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="3"/>
+        <v>0.99</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D53">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P53">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0.26282524238527133</v>
-      </c>
-      <c r="D54">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>-3.050925277431104E-3</v>
-      </c>
-      <c r="P54">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+        <v>2.3263478740408408</v>
+      </c>
+      <c r="S54">
+        <f>(P54-$P$55)/$P$56</f>
+        <v>2.4145230810715312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>31</v>
       </c>
@@ -6109,8 +10364,15 @@
         <f>AVERAGE(D5:D54)</f>
         <v>0.91610186017854023</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="7">
+        <f>AVERAGE(P5:P54)</f>
+        <v>0.91610186017854001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>32</v>
       </c>
@@ -6118,8 +10380,15 @@
         <f>STDEV(D5:D54)</f>
         <v>0.26282524238527133</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56">
+        <f>_xlfn.STDEV.S(P5:P54)</f>
+        <v>0.26282524238527244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>35</v>
       </c>
@@ -6128,9 +10397,2778 @@
         <v>-0.17350563726348589</v>
       </c>
     </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E62">
+        <f>STANDARDIZE(D62,$D$162,$D$163)</f>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q62">
+        <f>(O62-0.5)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R62">
+        <f>_xlfn.NORM.S.INV(Q62)</f>
+        <v>-2.5758293035488999</v>
+      </c>
+      <c r="S62">
+        <f>STANDARDIZE(P62,$P$162,$P$163)</f>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E126" si="6">STANDARDIZE(D63,$D$162,$D$163)</f>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63:Q126" si="7">(O63-0.5)/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63:R126" si="8">_xlfn.NORM.S.INV(Q63)</f>
+        <v>-2.1700903775845601</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63:S126" si="9">STANDARDIZE(P63,$P$162,$P$163)</f>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="7"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="8"/>
+        <v>-1.9599639845400538</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="9"/>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="7"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="8"/>
+        <v>-1.8119106729525978</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="9"/>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O66">
+        <v>5</v>
+      </c>
+      <c r="P66">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="7"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="8"/>
+        <v>-1.6953977102721358</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="9"/>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="7"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="8"/>
+        <v>-1.5981931399228173</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="9"/>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>2.3814373177301777</v>
+      </c>
+      <c r="O68">
+        <v>7</v>
+      </c>
+      <c r="P68">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="7"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>-1.5141018876192833</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="9"/>
+        <v>-2.2089248849057839</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O69">
+        <v>8</v>
+      </c>
+      <c r="P69">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>-1.4395314709384572</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O70">
+        <v>9</v>
+      </c>
+      <c r="P70">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>-1.3722038089987272</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>4.2784280963347576E-2</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>-1.3105791121681303</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1.221610090177</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>1.1686562424173204</v>
+      </c>
+      <c r="O72">
+        <v>11</v>
+      </c>
+      <c r="P72">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>0.105</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>-1.2535654384704511</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O73">
+        <v>12</v>
+      </c>
+      <c r="P73">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>0.115</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>-1.2003588580308597</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="6"/>
+        <v>4.3190547220467147E-2</v>
+      </c>
+      <c r="O74">
+        <v>13</v>
+      </c>
+      <c r="P74">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>-1.1503493803760083</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="6"/>
+        <v>6.7054880785856391E-2</v>
+      </c>
+      <c r="O75">
+        <v>14</v>
+      </c>
+      <c r="P75">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>-1.1030625561995977</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O76">
+        <v>15</v>
+      </c>
+      <c r="P76">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>-1.058121617684777</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O77">
+        <v>16</v>
+      </c>
+      <c r="P77">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>0.155</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>-1.0152220332170301</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O78">
+        <v>17</v>
+      </c>
+      <c r="P78">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>-0.97411387705930974</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O79">
+        <v>18</v>
+      </c>
+      <c r="P79">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>-0.93458929107347943</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O80">
+        <v>19</v>
+      </c>
+      <c r="P80">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>0.185</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="8"/>
+        <v>-0.89647336400191613</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O81">
+        <v>20</v>
+      </c>
+      <c r="P81">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="8"/>
+        <v>-0.85961736424191304</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="6"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O82">
+        <v>21</v>
+      </c>
+      <c r="P82">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>-0.82389363033855767</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O83">
+        <v>22</v>
+      </c>
+      <c r="P83">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>0.215</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>-0.78919165265822189</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O84">
+        <v>23</v>
+      </c>
+      <c r="P84">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>-0.75541502636046909</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="9"/>
+        <v>-1.084551009489128</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O85">
+        <v>24</v>
+      </c>
+      <c r="P85">
+        <v>0.61096771642100001</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>-0.72247905192806261</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="9"/>
+        <v>-1.0817217722382295</v>
+      </c>
+    </row>
+    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="6"/>
+        <v>4.1386480706479989E-2</v>
+      </c>
+      <c r="O86">
+        <v>25</v>
+      </c>
+      <c r="P86">
+        <v>0.64430279008400004</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>0.245</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="8"/>
+        <v>-0.69030882393303394</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="9"/>
+        <v>-0.95887324401258467</v>
+      </c>
+    </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O87">
+        <v>26</v>
+      </c>
+      <c r="P87">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>0.255</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>-0.65883769273618775</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="6"/>
+        <v>4.1669917324792444E-2</v>
+      </c>
+      <c r="O88">
+        <v>27</v>
+      </c>
+      <c r="P88">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>-0.62800601443756987</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1.220789647273</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="6"/>
+        <v>1.1656326941789543</v>
+      </c>
+      <c r="O89">
+        <v>28</v>
+      </c>
+      <c r="P89">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>-0.59776012604247841</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O90">
+        <v>29</v>
+      </c>
+      <c r="P90">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>-0.56805149833898283</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O91">
+        <v>30</v>
+      </c>
+      <c r="P91">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>-0.5388360302784504</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="6"/>
+        <v>4.3856477614937946E-2</v>
+      </c>
+      <c r="O92">
+        <v>31</v>
+      </c>
+      <c r="P92">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>-0.51007345696859485</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O93">
+        <v>32</v>
+      </c>
+      <c r="P93">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>0.315</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>-0.48172684958473044</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O94">
+        <v>33</v>
+      </c>
+      <c r="P94">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>-0.45376219016987951</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="6"/>
+        <v>3.9945708040952203E-2</v>
+      </c>
+      <c r="O95">
+        <v>34</v>
+      </c>
+      <c r="P95">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>-0.42614800784127821</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O96">
+        <v>35</v>
+      </c>
+      <c r="P96">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>-0.39885506564233691</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O97">
+        <v>36</v>
+      </c>
+      <c r="P97">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>-0.3718560893850747</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O98">
+        <v>37</v>
+      </c>
+      <c r="P98">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>-0.34512553147047242</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>0.915326595774</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="6"/>
+        <v>3.9920878350041829E-2</v>
+      </c>
+      <c r="O99">
+        <v>38</v>
+      </c>
+      <c r="P99">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="8"/>
+        <v>-0.3186393639643752</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O100">
+        <v>39</v>
+      </c>
+      <c r="P100">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="8"/>
+        <v>-0.29237489622680418</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O101">
+        <v>40</v>
+      </c>
+      <c r="P101">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>-0.26631061320409499</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>1.222507013815</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="6"/>
+        <v>1.1719616423085286</v>
+      </c>
+      <c r="O102">
+        <v>41</v>
+      </c>
+      <c r="P102">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>-0.2404260311423079</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O103">
+        <v>42</v>
+      </c>
+      <c r="P103">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="7"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="8"/>
+        <v>-0.21470156800174456</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="6"/>
+        <v>2.2885706167608322</v>
+      </c>
+      <c r="O104">
+        <v>43</v>
+      </c>
+      <c r="P104">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="7"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="8"/>
+        <v>-0.18911842627279254</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O105">
+        <v>44</v>
+      </c>
+      <c r="P105">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="7"/>
+        <v>0.435</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="8"/>
+        <v>-0.16365848623314128</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O106">
+        <v>45</v>
+      </c>
+      <c r="P106">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="7"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="8"/>
+        <v>-0.1383042079614045</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O107">
+        <v>46</v>
+      </c>
+      <c r="P107">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="7"/>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="8"/>
+        <v>-0.11303854064456513</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O108">
+        <v>47</v>
+      </c>
+      <c r="P108">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="7"/>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="8"/>
+        <v>-8.7844837895871677E-2</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="6"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O109">
+        <v>48</v>
+      </c>
+      <c r="P109">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="7"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="8"/>
+        <v>-6.2706777943213846E-2</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O110">
+        <v>49</v>
+      </c>
+      <c r="P110">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="7"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="8"/>
+        <v>-3.7608287661255936E-2</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O111">
+        <v>50</v>
+      </c>
+      <c r="P111">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="7"/>
+        <v>0.495</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="8"/>
+        <v>-1.2533469508069276E-2</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O112">
+        <v>51</v>
+      </c>
+      <c r="P112">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="7"/>
+        <v>0.505</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="8"/>
+        <v>1.2533469508069276E-2</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O113">
+        <v>52</v>
+      </c>
+      <c r="P113">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="7"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="8"/>
+        <v>3.7608287661255936E-2</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O114">
+        <v>53</v>
+      </c>
+      <c r="P114">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="7"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="8"/>
+        <v>6.2706777943213846E-2</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O115">
+        <v>54</v>
+      </c>
+      <c r="P115">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="7"/>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="8"/>
+        <v>8.7844837895871816E-2</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O116">
+        <v>55</v>
+      </c>
+      <c r="P116">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="7"/>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="8"/>
+        <v>0.11303854064456527</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="6"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O117">
+        <v>56</v>
+      </c>
+      <c r="P117">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="7"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="8"/>
+        <v>0.13830420796140466</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O118">
+        <v>57</v>
+      </c>
+      <c r="P118">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="7"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="8"/>
+        <v>0.16365848623314114</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O119">
+        <v>58</v>
+      </c>
+      <c r="P119">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="7"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="8"/>
+        <v>0.18911842627279243</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="6"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O120">
+        <v>59</v>
+      </c>
+      <c r="P120">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="7"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="8"/>
+        <v>0.21470156800174439</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O121">
+        <v>60</v>
+      </c>
+      <c r="P121">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="7"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="8"/>
+        <v>0.2404260311423079</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O122">
+        <v>61</v>
+      </c>
+      <c r="P122">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="7"/>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="8"/>
+        <v>0.26631061320409499</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="6"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O123">
+        <v>62</v>
+      </c>
+      <c r="P123">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="7"/>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="8"/>
+        <v>0.29237489622680418</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O124">
+        <v>63</v>
+      </c>
+      <c r="P124">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="8"/>
+        <v>0.3186393639643752</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="9"/>
+        <v>3.9822865927527859E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>0.64430279008400004</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="6"/>
+        <v>-0.95887324401258034</v>
+      </c>
+      <c r="O125">
+        <v>64</v>
+      </c>
+      <c r="P125">
+        <v>0.915326595774</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="7"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="8"/>
+        <v>0.34512553147047242</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="9"/>
+        <v>3.9920878350041163E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="6"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O126">
+        <v>65</v>
+      </c>
+      <c r="P126">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="7"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="8"/>
+        <v>0.3718560893850747</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="9"/>
+        <v>3.994570804095153E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127:E161" si="10">STANDARDIZE(D127,$D$162,$D$163)</f>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O127">
+        <v>66</v>
+      </c>
+      <c r="P127">
+        <v>0.91570407199600001</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ref="Q127:Q163" si="11">(O127-0.5)/100</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="R127">
+        <f t="shared" ref="R127:R163" si="12">_xlfn.NORM.S.INV(Q127)</f>
+        <v>0.39885506564233691</v>
+      </c>
+      <c r="S127">
+        <f t="shared" ref="S127:S163" si="13">STANDARDIZE(P127,$P$162,$P$163)</f>
+        <v>4.1311977670285036E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>0.93772873219300001</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="10"/>
+        <v>0.1224786526632539</v>
+      </c>
+      <c r="O128">
+        <v>67</v>
+      </c>
+      <c r="P128">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="11"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="12"/>
+        <v>0.42614800784127838</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="13"/>
+        <v>4.1386480706479323E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>1.2205257633519999</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="10"/>
+        <v>1.1646602124126022</v>
+      </c>
+      <c r="O129">
+        <v>68</v>
+      </c>
+      <c r="P129">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="11"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="12"/>
+        <v>0.45376219016987968</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="13"/>
+        <v>4.1669917324791778E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O130">
+        <v>69</v>
+      </c>
+      <c r="P130">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="11"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="12"/>
+        <v>0.48172684958473044</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="13"/>
+        <v>4.2784280963346917E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O131">
+        <v>70</v>
+      </c>
+      <c r="P131">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="11"/>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="12"/>
+        <v>0.51007345696859474</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="13"/>
+        <v>4.3190547220466488E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>0.91570407199600001</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="10"/>
+        <v>4.1311977670285702E-2</v>
+      </c>
+      <c r="O132">
+        <v>71</v>
+      </c>
+      <c r="P132">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="11"/>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="12"/>
+        <v>0.53883603027845006</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="13"/>
+        <v>4.3856477614937286E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="10"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O133">
+        <v>72</v>
+      </c>
+      <c r="P133">
+        <v>0.91647944517299995</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="11"/>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="12"/>
+        <v>0.56805149833898272</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="13"/>
+        <v>4.4169432091506561E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="10"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O134">
+        <v>73</v>
+      </c>
+      <c r="P134">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="11"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="12"/>
+        <v>0.59776012604247841</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="13"/>
+        <v>6.7054880785855808E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>1.2208513528260001</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="10"/>
+        <v>1.1658600953974441</v>
+      </c>
+      <c r="O135">
+        <v>74</v>
+      </c>
+      <c r="P135">
+        <v>0.93772873219300001</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="11"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="12"/>
+        <v>0.62800601443756987</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="13"/>
+        <v>0.12247865266325354</v>
+      </c>
+    </row>
+    <row r="136" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O136">
+        <v>75</v>
+      </c>
+      <c r="P136">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="11"/>
+        <v>0.745</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="12"/>
+        <v>0.65883769273618775</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="137" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O137">
+        <v>76</v>
+      </c>
+      <c r="P137">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="11"/>
+        <v>0.755</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="12"/>
+        <v>0.69030882393303394</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="138" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O138">
+        <v>77</v>
+      </c>
+      <c r="P138">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="11"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="12"/>
+        <v>0.72247905192806261</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="139" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="10"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O139">
+        <v>78</v>
+      </c>
+      <c r="P139">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="11"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="12"/>
+        <v>0.75541502636046909</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="140" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>1.2214467787800001</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="10"/>
+        <v>1.1680543968966914</v>
+      </c>
+      <c r="O140">
+        <v>79</v>
+      </c>
+      <c r="P140">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="11"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="12"/>
+        <v>0.78919165265822189</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="141" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O141">
+        <v>80</v>
+      </c>
+      <c r="P141">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="11"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="12"/>
+        <v>0.82389363033855767</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="142" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="10"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O142">
+        <v>81</v>
+      </c>
+      <c r="P142">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="11"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="12"/>
+        <v>0.85961736424191149</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="143" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O143">
+        <v>82</v>
+      </c>
+      <c r="P143">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="11"/>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="12"/>
+        <v>0.89647336400191591</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="144" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="10"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O144">
+        <v>83</v>
+      </c>
+      <c r="P144">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="11"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="12"/>
+        <v>0.9345892910734801</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="145" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O145">
+        <v>84</v>
+      </c>
+      <c r="P145">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="11"/>
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="12"/>
+        <v>0.97411387705930974</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="146" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O146">
+        <v>85</v>
+      </c>
+      <c r="P146">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="11"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="12"/>
+        <v>1.0152220332170301</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="147" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O147">
+        <v>86</v>
+      </c>
+      <c r="P147">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="11"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="12"/>
+        <v>1.058121617684777</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="148" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="10"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O148">
+        <v>87</v>
+      </c>
+      <c r="P148">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="11"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="12"/>
+        <v>1.1030625561995977</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="149" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O149">
+        <v>88</v>
+      </c>
+      <c r="P149">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="11"/>
+        <v>0.875</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="12"/>
+        <v>1.1503493803760083</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="150" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>1.221454586945</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="10"/>
+        <v>1.1680831720416958</v>
+      </c>
+      <c r="O150">
+        <v>89</v>
+      </c>
+      <c r="P150">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="11"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="12"/>
+        <v>1.2003588580308597</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="151" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O151">
+        <v>90</v>
+      </c>
+      <c r="P151">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="11"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="12"/>
+        <v>1.2535654384704511</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="13"/>
+        <v>1.1641967413441838</v>
+      </c>
+    </row>
+    <row r="152" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O152">
+        <v>91</v>
+      </c>
+      <c r="P152">
+        <v>1.2205257633519999</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="11"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="12"/>
+        <v>1.3105791121681303</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="13"/>
+        <v>1.1646602124126055</v>
+      </c>
+    </row>
+    <row r="153" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="10"/>
+        <v>-1.0845510094891233</v>
+      </c>
+      <c r="O153">
+        <v>92</v>
+      </c>
+      <c r="P153">
+        <v>1.220789647273</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="11"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="12"/>
+        <v>1.3722038089987258</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="13"/>
+        <v>1.1656326941789577</v>
+      </c>
+    </row>
+    <row r="154" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="10"/>
+        <v>-2.208924884905775</v>
+      </c>
+      <c r="O154">
+        <v>93</v>
+      </c>
+      <c r="P154">
+        <v>1.2208513528260001</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="11"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="12"/>
+        <v>1.4395314709384563</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="13"/>
+        <v>1.1658600953974474</v>
+      </c>
+    </row>
+    <row r="155" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>1.25854821737</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="10"/>
+        <v>1.3047829720878892</v>
+      </c>
+      <c r="O155">
+        <v>94</v>
+      </c>
+      <c r="P155">
+        <v>1.2214467787800001</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="11"/>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="12"/>
+        <v>1.5141018876192844</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="13"/>
+        <v>1.168054396896695</v>
+      </c>
+    </row>
+    <row r="156" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O156">
+        <v>95</v>
+      </c>
+      <c r="P156">
+        <v>1.221454586945</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="11"/>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="12"/>
+        <v>1.5981931399228169</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="13"/>
+        <v>1.1680831720416993</v>
+      </c>
+    </row>
+    <row r="157" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O157">
+        <v>96</v>
+      </c>
+      <c r="P157">
+        <v>1.221610090177</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" si="11"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="12"/>
+        <v>1.6953977102721358</v>
+      </c>
+      <c r="S157">
+        <f>STANDARDIZE(P157,$P$162,$P$163)</f>
+        <v>1.1686562424173239</v>
+      </c>
+    </row>
+    <row r="158" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>0.91647944517299995</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="10"/>
+        <v>4.4169432091507213E-2</v>
+      </c>
+      <c r="O158">
+        <v>97</v>
+      </c>
+      <c r="P158">
+        <v>1.222507013815</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="11"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="12"/>
+        <v>1.8119106729525971</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="13"/>
+        <v>1.1719616423085322</v>
+      </c>
+    </row>
+    <row r="159" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>0.61096771642100001</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="10"/>
+        <v>-1.0817217722382246</v>
+      </c>
+      <c r="O159">
+        <v>98</v>
+      </c>
+      <c r="P159">
+        <v>1.25854821737</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="11"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="12"/>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="13"/>
+        <v>1.3047829720878932</v>
+      </c>
+    </row>
+    <row r="160" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="10"/>
+        <v>1.1641967413441803</v>
+      </c>
+      <c r="O160">
+        <v>99</v>
+      </c>
+      <c r="P160">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="11"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="12"/>
+        <v>2.1700903775845601</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="13"/>
+        <v>2.2885706167608397</v>
+      </c>
+    </row>
+    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="10"/>
+        <v>3.9822865927528532E-2</v>
+      </c>
+      <c r="O161">
+        <v>100</v>
+      </c>
+      <c r="P161">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="Q161">
+        <f>(O161-0.5)/100</f>
+        <v>0.995</v>
+      </c>
+      <c r="R161">
+        <f>_xlfn.NORM.S.INV(Q161)</f>
+        <v>2.5758293035488999</v>
+      </c>
+      <c r="S161">
+        <f>STANDARDIZE(P161,$P$162,$P$163)</f>
+        <v>2.3814373177301857</v>
+      </c>
+    </row>
+    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="7">
+        <f>AVERAGE(D62:D161)</f>
+        <v>0.90449402464180051</v>
+      </c>
+      <c r="O162" t="s">
+        <v>31</v>
+      </c>
+      <c r="P162" s="7">
+        <f>AVERAGE(P62:P161)</f>
+        <v>0.90449402464180073</v>
+      </c>
+    </row>
+    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163">
+        <f>STDEV(D62:D161)</f>
+        <v>0.27135102181909121</v>
+      </c>
+      <c r="O163" t="s">
+        <v>32</v>
+      </c>
+      <c r="P163">
+        <f>STDEV(P62:P161)</f>
+        <v>0.27135102181909021</v>
+      </c>
+    </row>
+    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164">
+        <f>SKEW(D62:D161)</f>
+        <v>-0.34940133072128365</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D54">
-    <sortCondition ref="D5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P62:P161">
+    <sortCondition ref="P161"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{F105CD29-8A17-4EAC-98D6-18F43AF3306F}"/>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA4AE4C-33FB-4C61-B648-DBF19A10D496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F1CBC-7C0B-4570-8C62-809CAE204CE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -18,18 +18,13 @@
     <sheet name="Set2" sheetId="6" r:id="rId3"/>
     <sheet name="Set3" sheetId="7" r:id="rId4"/>
     <sheet name="Set4" sheetId="5" r:id="rId5"/>
+    <sheet name="Set6" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Set4'!$E$62:$E$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -112,9 +107,6 @@
     <t>Learn stat tests</t>
   </si>
   <si>
-    <t>()</t>
-  </si>
-  <si>
     <t>Run simulations</t>
   </si>
   <si>
@@ -137,9 +129,6 @@
   </si>
   <si>
     <t>4 - Normalization Test</t>
-  </si>
-  <si>
-    <t>5 - Delay Variation</t>
   </si>
   <si>
     <t>AVG</t>
@@ -189,12 +178,39 @@
   <si>
     <t>SET4.1</t>
   </si>
+  <si>
+    <t>2.5 Min</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>5 - Test execution time</t>
+  </si>
+  <si>
+    <t>6 - Delay variation</t>
+  </si>
+  <si>
+    <t>1ms</t>
+  </si>
+  <si>
+    <t>10ms</t>
+  </si>
+  <si>
+    <t>1000ms</t>
+  </si>
+  <si>
+    <t>10000ms</t>
+  </si>
+  <si>
+    <t>7 - Initial Transaction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +279,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +324,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +395,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,8 +403,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,8 +430,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
+    <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1079,12 +1130,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Normal Q-Q Plot</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
+            <a:endParaRPr lang="en-GB" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1985,7 +2036,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2023,7 +2074,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -2051,7 +2102,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2089,7 +2140,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -4852,15 +4903,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -4874,13 +4925,13 @@
     <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4919,12 +4970,15 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4965,7 +5019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -4978,7 +5032,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E14" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E27" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -5005,11 +5059,8 @@
       <c r="M3" s="1">
         <v>50</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -5018,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D14" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D27" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -5049,12 +5100,12 @@
       <c r="M4" s="1">
         <v>50</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -5094,11 +5145,9 @@
       <c r="M5" s="1">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -5139,11 +5188,11 @@
       <c r="M6" s="1">
         <v>50</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -5181,13 +5230,13 @@
       <c r="M7" s="1">
         <v>50</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -5227,11 +5276,11 @@
       <c r="M8" s="1">
         <v>50</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -5271,11 +5320,11 @@
       <c r="M9" s="1">
         <v>50</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -5315,10 +5364,13 @@
       <c r="M10" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
@@ -5359,7 +5411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="6">
         <v>2</v>
@@ -5400,7 +5452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="6">
         <v>3</v>
@@ -5441,12 +5493,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6">
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -5460,39 +5510,35 @@
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F14" s="1">
-        <f>E14</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>100</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>4.7E-2</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -5501,163 +5547,511 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f>E16</f>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>100</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.243E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>100</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <f>2*LOG(C23)/(C23-1)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>100</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1">
+        <v>100</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -5670,7 +6064,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5683,7 +6077,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5696,7 +6090,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -5709,7 +6103,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5800,11 +6194,26 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5815,7 +6224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -7944,10 +8353,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,7 +8365,7 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7969,8 +8378,14 @@
       <c r="D1" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>9.0206898844950008</v>
       </c>
@@ -7981,7 +8396,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>8.1138732029790006</v>
       </c>
@@ -7992,7 +8407,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>86.067229126341999</v>
       </c>
@@ -8003,7 +8418,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>54.070096199817002</v>
       </c>
@@ -8014,7 +8429,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.367122357386</v>
       </c>
@@ -8025,7 +8440,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>12.070704133185</v>
       </c>
@@ -8036,7 +8451,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>18.447748734832</v>
       </c>
@@ -8047,7 +8462,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>23.197372250868</v>
       </c>
@@ -8058,7 +8473,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>44.948244063537999</v>
       </c>
@@ -8069,7 +8484,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>57.710943001135</v>
       </c>
@@ -8080,7 +8495,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>24.943014619688</v>
       </c>
@@ -8091,7 +8506,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>72.021443379562996</v>
       </c>
@@ -8102,7 +8517,7 @@
         <v>0.60007359999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13.29247041627</v>
       </c>
@@ -8113,7 +8528,7 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>49.968599852063001</v>
       </c>
@@ -8124,7 +8539,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12.860552572982</v>
       </c>
@@ -8543,8 +8958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8561,49 +8976,49 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
       <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -8707,7 +9122,7 @@
         <v>-1.6448536269514726</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:S54" si="4">(P7-$P$55)/$P$56</f>
+        <f t="shared" ref="S7:S53" si="4">(P7-$P$55)/$P$56</f>
         <v>-2.3247457307844104</v>
       </c>
     </row>
@@ -10358,14 +10773,14 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D55" s="7">
         <f>AVERAGE(D5:D54)</f>
         <v>0.91610186017854023</v>
       </c>
       <c r="O55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P55" s="7">
         <f>AVERAGE(P5:P54)</f>
@@ -10374,14 +10789,14 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <f>STDEV(D5:D54)</f>
         <v>0.26282524238527133</v>
       </c>
       <c r="O56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P56">
         <f>_xlfn.STDEV.S(P5:P54)</f>
@@ -10390,7 +10805,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <f>SKEW(D5:D54)</f>
@@ -10399,30 +10814,30 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O61" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s">
         <v>38</v>
       </c>
-      <c r="P61" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>39</v>
-      </c>
-      <c r="R61" t="s">
-        <v>40</v>
-      </c>
-      <c r="S61" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -12195,15 +12610,15 @@
         <v>0.91570407199600001</v>
       </c>
       <c r="Q127">
-        <f t="shared" ref="Q127:Q163" si="11">(O127-0.5)/100</f>
+        <f t="shared" ref="Q127:Q160" si="11">(O127-0.5)/100</f>
         <v>0.65500000000000003</v>
       </c>
       <c r="R127">
-        <f t="shared" ref="R127:R163" si="12">_xlfn.NORM.S.INV(Q127)</f>
+        <f t="shared" ref="R127:R160" si="12">_xlfn.NORM.S.INV(Q127)</f>
         <v>0.39885506564233691</v>
       </c>
       <c r="S127">
-        <f t="shared" ref="S127:S163" si="13">STANDARDIZE(P127,$P$162,$P$163)</f>
+        <f t="shared" ref="S127:S160" si="13">STANDARDIZE(P127,$P$162,$P$163)</f>
         <v>4.1311977670285036E-2</v>
       </c>
     </row>
@@ -13127,14 +13542,14 @@
     </row>
     <row r="162" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D162" s="7">
         <f>AVERAGE(D62:D161)</f>
         <v>0.90449402464180051</v>
       </c>
       <c r="O162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P162" s="7">
         <f>AVERAGE(P62:P161)</f>
@@ -13143,14 +13558,14 @@
     </row>
     <row r="163" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D163">
         <f>STDEV(D62:D161)</f>
         <v>0.27135102181909121</v>
       </c>
       <c r="O163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P163">
         <f>STDEV(P62:P161)</f>
@@ -13159,7 +13574,7 @@
     </row>
     <row r="164" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D164">
         <f>SKEW(D62:D161)</f>
@@ -13177,4 +13592,1736 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
+  <dimension ref="C1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.10696251452199999</v>
+      </c>
+      <c r="E2">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F2">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G2">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2.4644617290999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F3">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G3">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E4">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F4">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G4">
+        <v>120.020444444448</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.106950502157</v>
+      </c>
+      <c r="E5">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F5">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G5">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.3533333336000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F6">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G6">
+        <v>30.005100000001001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E7">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F7">
+        <v>9.0168154843719996</v>
+      </c>
+      <c r="G7">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3.2795122231E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E8">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="F8">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G8">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E9">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F9">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G9">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2.9633333336999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E10">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F10">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G10">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E11">
+        <v>0.91610358299899997</v>
+      </c>
+      <c r="F11">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G11">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E12">
+        <v>1.221610090177</v>
+      </c>
+      <c r="F12">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G12">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E13">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F13">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G13">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E14">
+        <v>0.91621382376299998</v>
+      </c>
+      <c r="F14">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G14">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.92268943506099999</v>
+      </c>
+      <c r="F15">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G15">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2.5733333340000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.14273731846599999</v>
+      </c>
+      <c r="E16">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F16">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G16">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2.4526741179999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E17">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F17">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G17">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2.696666667E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.17580000001500001</v>
+      </c>
+      <c r="E18">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F18">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G18">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.14591726123400001</v>
+      </c>
+      <c r="E19">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F19">
+        <v>9.0153333333360006</v>
+      </c>
+      <c r="G19">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3.0300000003999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.128088256648</v>
+      </c>
+      <c r="E20">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F20">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G20">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E21">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F21">
+        <v>12.020444444448</v>
+      </c>
+      <c r="G21">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2.7000000002999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E22">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F22">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G22">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2.5933333342999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.105471172073</v>
+      </c>
+      <c r="E23">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F23">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G23">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1.7533333341000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.14044987923899999</v>
+      </c>
+      <c r="E24">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F24">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G24">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D25">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F25">
+        <v>9.0466619928219991</v>
+      </c>
+      <c r="G25">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2.4333333336000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>0.140416466209</v>
+      </c>
+      <c r="E26">
+        <v>0.91572428847099996</v>
+      </c>
+      <c r="F26">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G26">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E27">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F27">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G27">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E28">
+        <v>0.91580119928699999</v>
+      </c>
+      <c r="F28">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G28">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1.8866666668999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E29">
+        <v>1.220789647273</v>
+      </c>
+      <c r="F29">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G29">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E30">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F30">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G30">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>8.100000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>0.10533333333600001</v>
+      </c>
+      <c r="E31">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F31">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G31">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>2.4754959478999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E32">
+        <v>0.91639452465600002</v>
+      </c>
+      <c r="F32">
+        <v>3.0051000000010002</v>
+      </c>
+      <c r="G32">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>3.1300000004000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E33">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F33">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G33">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E34">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F34">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G34">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.91533333333599998</v>
+      </c>
+      <c r="F35">
+        <v>6.0102222222239998</v>
+      </c>
+      <c r="G35">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>3.2300000003999997E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F36">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G36">
+        <v>150.025500000005</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>3.3600000009E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.14070000001399999</v>
+      </c>
+      <c r="E37">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F37">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G37">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2.5833333340999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E38">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F38">
+        <v>3.0051000000010002</v>
+      </c>
+      <c r="G38">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>5.2442095458999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.915326595774</v>
+      </c>
+      <c r="F39">
+        <v>3.0051000000010002</v>
+      </c>
+      <c r="G39">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.14145486296400001</v>
+      </c>
+      <c r="E40">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F40">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G40">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3.5800000011999997E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.5100000000999998E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F41">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G41">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>3.5633333337999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E42">
+        <v>1.222507013815</v>
+      </c>
+      <c r="F42">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G42">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1.7733333340000001E-2</v>
+      </c>
+      <c r="D43">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F43">
+        <v>9.0153333333360006</v>
+      </c>
+      <c r="G43">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>2.6986828327000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.19794260142299999</v>
+      </c>
+      <c r="E44">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="F44">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G44">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>3.0202053311E-2</v>
+      </c>
+      <c r="D45">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F45">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G45">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>3.4856977349999999E-2</v>
+      </c>
+      <c r="D46">
+        <v>3.5100000000999998E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F46">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G46">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>2.8633333338E-2</v>
+      </c>
+      <c r="D47">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F47">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G47">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D48">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F48">
+        <v>6.0102222222239998</v>
+      </c>
+      <c r="G48">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2.9739232094999998E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E49">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F49">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G49">
+        <v>150.025500000005</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>3.0014655859000001E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.106647814236</v>
+      </c>
+      <c r="E50">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F50">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G50">
+        <v>30.005111111112001</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.105765365869</v>
+      </c>
+      <c r="E51">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F51">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G51">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E52">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F52">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G52">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>4.0500000005000002E-2</v>
+      </c>
+      <c r="D53">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E53">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F53">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G53">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>4.8500000012E-2</v>
+      </c>
+      <c r="D54">
+        <v>0.105527794733</v>
+      </c>
+      <c r="E54">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F54">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G54">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D55">
+        <v>0.10648743881099999</v>
+      </c>
+      <c r="E55">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F55">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G55">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D56">
+        <v>0.10648178686</v>
+      </c>
+      <c r="E56">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F56">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G56">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E57">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F57">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G57">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>3.4583902894999997E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E58">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F58">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G58">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E59">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F59">
+        <v>3.0051000000010002</v>
+      </c>
+      <c r="G59">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D60">
+        <v>4.8433333335000002E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F60">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G60">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>5.6833333340999999E-2</v>
+      </c>
+      <c r="D61">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E61">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F61">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G61">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2.696666667E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E62">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F62">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G62">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2.5400000012000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E63">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F63">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G63">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.10631527459499999</v>
+      </c>
+      <c r="E64">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F64">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G64">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>4.0500000005000002E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E65">
+        <v>0.64430279008400004</v>
+      </c>
+      <c r="F65">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G65">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2.6633333344000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>7.6966666675999995E-2</v>
+      </c>
+      <c r="E66">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F66">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G66">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D67">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E67">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F67">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G67">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.17550000000499999</v>
+      </c>
+      <c r="E68">
+        <v>0.93772873219300001</v>
+      </c>
+      <c r="F68">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G68">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E69">
+        <v>1.2205257633519999</v>
+      </c>
+      <c r="F69">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G69">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>3.2300000003999997E-2</v>
+      </c>
+      <c r="D70">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E70">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F70">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G70">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0.12069403091600001</v>
+      </c>
+      <c r="D71">
+        <v>0.106848746386</v>
+      </c>
+      <c r="E71">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F71">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G71">
+        <v>120.020444444448</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>2.5700000011E-2</v>
+      </c>
+      <c r="D72">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.91570407199600001</v>
+      </c>
+      <c r="F72">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G72">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1.2433333335E-2</v>
+      </c>
+      <c r="D73">
+        <v>0.105600000017</v>
+      </c>
+      <c r="E73">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F73">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G73">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1.7733333342000002E-2</v>
+      </c>
+      <c r="D74">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E74">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F74">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G74">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D75">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.2208513528260001</v>
+      </c>
+      <c r="F75">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G75">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E76">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F76">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G76">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>2.5833333340999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E77">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F77">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G77">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2.696666667E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E78">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F78">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G78">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D79">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E79">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F79">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G79">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D80">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E80">
+        <v>1.2214467787800001</v>
+      </c>
+      <c r="F80">
+        <v>9.0153333333360006</v>
+      </c>
+      <c r="G80">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>3.2300000003999997E-2</v>
+      </c>
+      <c r="D81">
+        <v>0.10557824439000001</v>
+      </c>
+      <c r="E81">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F81">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G81">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>2.8633333337000001E-2</v>
+      </c>
+      <c r="D82">
+        <v>0.105720322921</v>
+      </c>
+      <c r="E82">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F82">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G82">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D83">
+        <v>7.1639761361000004E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F83">
+        <v>6.0503963230490001</v>
+      </c>
+      <c r="G83">
+        <v>90.015333333336002</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>2.696666667E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E84">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F84">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G84">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>2.696666667E-2</v>
+      </c>
+      <c r="D85">
+        <v>3.5444444459000003E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F85">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G85">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>3.1218777297999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>7.0400000010000005E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F86">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G86">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>2.3200000003000001E-2</v>
+      </c>
+      <c r="D87">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E87">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F87">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G87">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.106335568012</v>
+      </c>
+      <c r="E88">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F88">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G88">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>2.1533333336E-2</v>
+      </c>
+      <c r="D89">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E89">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F89">
+        <v>12.028629794889</v>
+      </c>
+      <c r="G89">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>4.2064791759999998E-2</v>
+      </c>
+      <c r="D90">
+        <v>3.8633333346999997E-2</v>
+      </c>
+      <c r="E90">
+        <v>1.221454586945</v>
+      </c>
+      <c r="F90">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G90">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>8.100000001E-3</v>
+      </c>
+      <c r="D91">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E91">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F91">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G91">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E92">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F92">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G92">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>3.2400000004E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E93">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="F93">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G93">
+        <v>120.020400000004</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>3.1300000004000003E-2</v>
+      </c>
+      <c r="D94">
+        <v>0.14040000000399999</v>
+      </c>
+      <c r="E94">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="F94">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G94">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>2.4300000003000002E-2</v>
+      </c>
+      <c r="D95">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E95">
+        <v>1.25854821737</v>
+      </c>
+      <c r="F95">
+        <v>12.020400000004001</v>
+      </c>
+      <c r="G95">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>3.3951164999E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.10530000000299999</v>
+      </c>
+      <c r="E96">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F96">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G96">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D97">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F97">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G97">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>4.1600000009999999E-2</v>
+      </c>
+      <c r="D98">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.91647944517299995</v>
+      </c>
+      <c r="F98">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G98">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>2.3200000003000001E-2</v>
+      </c>
+      <c r="D99">
+        <v>0.140444444448</v>
+      </c>
+      <c r="E99">
+        <v>0.61096771642100001</v>
+      </c>
+      <c r="F99">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G99">
+        <v>90.016600273750996</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>1.6200000002E-2</v>
+      </c>
+      <c r="D100">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E100">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="F100">
+        <v>9.0153000000030001</v>
+      </c>
+      <c r="G100">
+        <v>60.010200000002001</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>1.7966666676000002E-2</v>
+      </c>
+      <c r="D101">
+        <v>7.0200000001999996E-2</v>
+      </c>
+      <c r="E101">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="F101">
+        <v>6.0102000000020004</v>
+      </c>
+      <c r="G101">
+        <v>90.015300000002995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83973577-40CD-423E-89D8-089786D40218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0ED94-84D0-4BBA-A369-B545736FB722}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="87">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -188,9 +188,6 @@
     <t>SET4.1</t>
   </si>
   <si>
-    <t>2.5 Min</t>
-  </si>
-  <si>
     <t>Extra</t>
   </si>
   <si>
@@ -307,12 +304,21 @@
   <si>
     <t>Column6</t>
   </si>
+  <si>
+    <t>Exection time: 2.5 Min</t>
+  </si>
+  <si>
+    <t>Exection time: 0.2s</t>
+  </si>
+  <si>
+    <t>Exection time: 14 s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +409,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -454,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -530,8 +544,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,8 +571,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,18 +592,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="9" applyBorder="1"/>
@@ -586,8 +604,21 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="10"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -598,6 +629,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="10" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3436,6 +3468,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14882,7 +14915,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4324349" y="547687"/>
+              <a:off x="5553074" y="595312"/>
               <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -14996,7 +15029,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4438650" y="11753850"/>
+              <a:off x="5667375" y="11801475"/>
               <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15268,8 +15301,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15594,15 +15627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -15616,12 +15649,12 @@
     <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -15664,11 +15697,11 @@
         <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15711,7 +15744,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15723,7 +15756,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E34" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E35" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -15752,7 +15785,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -15760,7 +15793,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D35" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -15797,7 +15830,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -15839,7 +15872,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -15884,7 +15917,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -15926,7 +15959,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -15972,7 +16005,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16016,7 +16049,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16060,7 +16093,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16103,7 +16136,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16134,7 +16167,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>10</v>
@@ -16144,7 +16177,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16175,7 +16208,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>10</v>
@@ -16185,7 +16218,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16216,7 +16249,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>10</v>
@@ -16226,7 +16259,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16267,7 +16300,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16308,7 +16341,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="8">
@@ -16352,10 +16385,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="24">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -16394,32 +16427,29 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
+      <c r="B19" s="24">
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>4.0404040404040407E-2</v>
+        <v>1.0817515047438954E-2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>4.6051701859880917E-2</v>
+        <v>1.2429216196844383E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>4.7E-2</v>
+        <v>1.243E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -16428,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>7</v>
@@ -16437,13 +16467,18 @@
         <v>10</v>
       </c>
       <c r="M19" s="1">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11">
-        <v>2</v>
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>100</v>
@@ -16469,7 +16504,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>7</v>
@@ -16482,9 +16517,9 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="10">
-        <v>3</v>
+      <c r="A21" s="20"/>
+      <c r="B21" s="11">
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>100</v>
@@ -16510,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>7</v>
@@ -16523,9 +16558,9 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11">
-        <v>4</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="10">
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -16551,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>7</v>
@@ -16564,9 +16599,9 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="10">
-        <v>5</v>
+      <c r="A23" s="20"/>
+      <c r="B23" s="11">
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>100</v>
@@ -16592,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>7</v>
@@ -16605,17 +16640,15 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="12">
-        <v>1</v>
+      <c r="A24" s="20"/>
+      <c r="B24" s="10">
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>100</v>
       </c>
       <c r="D24" s="1">
-        <f>2*LOG(C24)/(C24-1)</f>
+        <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E24" s="1">
@@ -16626,7 +16659,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1">
         <v>100</v>
@@ -16635,7 +16668,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>7</v>
@@ -16648,9 +16681,11 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
@@ -16667,7 +16702,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>100</v>
@@ -16687,17 +16722,20 @@
       <c r="M25" s="1">
         <v>100</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C26)/(C26-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E26" s="1">
@@ -16708,7 +16746,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>100</v>
@@ -16730,9 +16768,9 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1">
         <v>100</v>
@@ -16749,7 +16787,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1">
         <v>100</v>
@@ -16771,9 +16809,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
         <v>100</v>
@@ -16790,7 +16828,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
         <v>100</v>
@@ -16812,9 +16850,9 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
@@ -16831,7 +16869,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1">
         <v>100</v>
@@ -16853,11 +16891,9 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1</v>
+      <c r="A30" s="23"/>
+      <c r="B30" s="12">
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
@@ -16874,7 +16910,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1">
         <v>100</v>
@@ -16889,16 +16925,18 @@
         <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="18">
-        <v>2</v>
+      <c r="A31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>100</v>
@@ -16930,16 +16968,16 @@
         <v>7</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M31" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="18">
-        <v>3</v>
+      <c r="A32" s="20"/>
+      <c r="B32" s="14">
+        <v>2</v>
       </c>
       <c r="C32" s="1">
         <v>100</v>
@@ -16971,16 +17009,16 @@
         <v>7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M32" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18">
-        <v>4</v>
+      <c r="A33" s="20"/>
+      <c r="B33" s="14">
+        <v>3</v>
       </c>
       <c r="C33" s="1">
         <v>100</v>
@@ -17012,16 +17050,16 @@
         <v>7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M33" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="18">
-        <v>5</v>
+      <c r="A34" s="20"/>
+      <c r="B34" s="14">
+        <v>4</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
@@ -17053,24 +17091,52 @@
         <v>7</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M34" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="14">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>100</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
@@ -17150,18 +17216,31 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="F48" s="7"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A31:A35"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17222,7 +17301,7 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -17241,26 +17320,26 @@
       <c r="F3">
         <v>0.99268824148599999</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="J3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="P3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="S3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="22"/>
-      <c r="V3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="22"/>
+      <c r="T3" s="18"/>
+      <c r="V3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -17278,16 +17357,16 @@
       <c r="F4">
         <v>0.94797846390899998</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -17305,34 +17384,34 @@
       <c r="F5">
         <v>1.2216387008730001</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="J5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="16">
         <v>0.65907088731205998</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="20">
+      <c r="M5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="16">
         <v>0.96447097937686022</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="20">
+      <c r="P5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="16">
         <v>0.89090111111418024</v>
       </c>
-      <c r="S5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" s="20">
+      <c r="S5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="16">
         <v>0.91610186017854023</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="20">
+      <c r="V5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="16">
         <v>1.0695115236070001</v>
       </c>
     </row>
@@ -17352,34 +17431,34 @@
       <c r="F6">
         <v>1.423855858874</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="J6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="16">
         <v>4.3022931756713616E-2</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="M6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="16">
         <v>5.4692431251639792E-2</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="P6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="16">
         <v>3.7836865796969356E-2</v>
       </c>
-      <c r="S6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" s="20">
+      <c r="S6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="16">
         <v>3.643300751720354E-2</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="V6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="16">
         <v>8.5018079230275018E-2</v>
       </c>
     </row>
@@ -17399,34 +17478,34 @@
       <c r="F7">
         <v>0.91560787649700004</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="20">
+      <c r="J7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="16">
         <v>0.61020000000200003</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="P7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="T7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" s="20">
+      <c r="M7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="16">
         <v>0.97033335269749998</v>
       </c>
     </row>
@@ -17443,34 +17522,34 @@
       <c r="E8">
         <v>1.5506994742060001</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="J8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="16">
         <v>0.61020000000200003</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="W8" s="20" t="e">
+      <c r="M8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" s="16" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -17487,34 +17566,34 @@
       <c r="E9">
         <v>0.91530000000300005</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="16">
         <v>0.30421806791698264</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="16">
         <v>0.38673389017613552</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="P9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="16">
         <v>0.26754704383882377</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="S9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="16">
         <v>0.26018371562067272</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="16">
         <v>0.20825091302568619</v>
       </c>
     </row>
@@ -17531,34 +17610,34 @@
       <c r="E10">
         <v>0.61020000000200003</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="16">
         <v>9.2548632847141848E-2</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="20">
+      <c r="M10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="16">
         <v>0.14956310181076726</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="20">
+      <c r="P10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="16">
         <v>7.1581420666893478E-2</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="20">
+      <c r="S10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" s="16">
         <v>6.7695565874179089E-2</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W10" s="20">
+      <c r="V10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="16">
         <v>4.3368442776031912E-2</v>
       </c>
     </row>
@@ -17575,34 +17654,34 @@
       <c r="E11">
         <v>0.91610358299899997</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="J11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="16">
         <v>-0.82635308083923675</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="M11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="16">
         <v>-0.39915931653301362</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="P11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="16">
         <v>-0.5239911534935402</v>
       </c>
-      <c r="S11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T11" s="20">
+      <c r="S11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="16">
         <v>1.0288759383420598</v>
       </c>
-      <c r="V11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="W11" s="20">
+      <c r="V11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="16">
         <v>0.33027136427514669</v>
       </c>
     </row>
@@ -17619,34 +17698,34 @@
       <c r="E12">
         <v>1.221610090177</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="16">
         <v>0.43711523073040359</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="16">
         <v>0.31095602990822668</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q12" s="20">
+      <c r="P12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="16">
         <v>-0.40775931790969783</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="20">
+      <c r="S12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="16">
         <v>-0.17512408574241317</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="20">
+      <c r="V12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="16">
         <v>1.2772222108687623</v>
       </c>
     </row>
@@ -17663,34 +17742,34 @@
       <c r="E13">
         <v>0.91530000000300005</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="J13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="16">
         <v>1.5255000000050001</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T13" s="20">
+      <c r="P13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" s="16">
         <v>1.2455994742050001</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="20">
+      <c r="V13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W13" s="16">
         <v>0.50855585887099997</v>
       </c>
     </row>
@@ -17707,34 +17786,34 @@
       <c r="E14">
         <v>0.91621382376299998</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="J14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="P14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q14" s="20">
+      <c r="P14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="20">
+      <c r="S14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" s="16">
         <v>0.91530000000300005</v>
       </c>
     </row>
@@ -17751,34 +17830,34 @@
       <c r="E15">
         <v>0.92268943506099999</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="J15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="16">
         <v>1.2204000000040001</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="16">
         <v>1.8306000000060001</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="20">
+      <c r="P15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="16">
         <v>1.2204000000040001</v>
       </c>
-      <c r="S15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="20">
+      <c r="S15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="16">
         <v>1.5506994742060001</v>
       </c>
-      <c r="V15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="V15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="16">
         <v>1.423855858874</v>
       </c>
     </row>
@@ -17795,34 +17874,34 @@
       <c r="E16">
         <v>0.61020000000200003</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="J16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="16">
         <v>32.953544365603001</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="16">
         <v>48.223548968843012</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="20">
+      <c r="P16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="16">
         <v>44.545055555709013</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" s="20">
+      <c r="S16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="16">
         <v>46.721194869105553</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W16" s="16">
         <v>6.417069141642</v>
       </c>
     </row>
@@ -17839,34 +17918,34 @@
       <c r="E17">
         <v>0.91530000000300005</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="J17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="16">
         <v>50</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="20">
+      <c r="M17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="16">
         <v>50</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="20">
+      <c r="P17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="16">
         <v>50</v>
       </c>
-      <c r="S17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T17" s="20">
+      <c r="S17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" s="16">
         <v>51</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W17" s="20">
+      <c r="V17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="16">
         <v>6</v>
       </c>
     </row>
@@ -17883,34 +17962,34 @@
       <c r="E18">
         <v>0.91530000000300005</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="J18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="17">
         <v>8.6457818286992824E-2</v>
       </c>
-      <c r="M18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="21">
+      <c r="M18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="17">
         <v>0.10990855550168863</v>
       </c>
-      <c r="P18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="21">
+      <c r="P18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="17">
         <v>7.6036028556171878E-2</v>
       </c>
-      <c r="S18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="T18" s="21">
+      <c r="S18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="17">
         <v>7.3177849229914702E-2</v>
       </c>
-      <c r="V18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" s="21">
+      <c r="V18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" s="17">
         <v>0.21854593017003399</v>
       </c>
     </row>
@@ -17969,7 +18048,7 @@
       <c r="E22">
         <v>0.30510000000100002</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="K22">
@@ -18007,7 +18086,7 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23">
         <f>K18</f>
@@ -18503,18 +18582,18 @@
       <c r="D3">
         <v>0.91530000000300005</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="M3" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -18526,12 +18605,12 @@
       <c r="D4">
         <v>0.30510000000100002</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -18543,22 +18622,22 @@
       <c r="D5">
         <v>0.30510000000100002</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="G5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="16">
         <v>0.91610186017854023</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="J5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="16">
         <v>0.99138745213406054</v>
       </c>
-      <c r="M5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="20">
+      <c r="M5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="16">
         <v>0.88866890437745838</v>
       </c>
     </row>
@@ -18572,22 +18651,22 @@
       <c r="D6">
         <v>1.5255000000050001</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="G6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="16">
         <v>3.716910223152467E-2</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="J6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="16">
         <v>3.308078824736186E-2</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="M6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="16">
         <v>2.2883776814626361E-2</v>
       </c>
     </row>
@@ -18601,22 +18680,22 @@
       <c r="D7">
         <v>0.91530000000300005</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="16">
         <v>0.91530000000300005</v>
       </c>
     </row>
@@ -18630,22 +18709,22 @@
       <c r="D8">
         <v>1.2204000000040001</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="G8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="16">
         <v>0.91530000000300005</v>
       </c>
     </row>
@@ -18659,22 +18738,22 @@
       <c r="D9">
         <v>0.94558310152400005</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="16">
         <v>0.26282524238527133</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="16">
         <v>0.33080788247361859</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="16">
         <v>0.29836794570006558</v>
       </c>
     </row>
@@ -18688,22 +18767,22 @@
       <c r="D10">
         <v>0.91530000000300005</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="G10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="16">
         <v>6.9077108034876628E-2</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="20">
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="16">
         <v>0.10943385510667944</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="20">
+      <c r="M10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="16">
         <v>8.9023431021277272E-2</v>
       </c>
     </row>
@@ -18717,22 +18796,22 @@
       <c r="D11">
         <v>1.2204000000040001</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="20">
+      <c r="G11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="16">
         <v>0.95062648443506248</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="J11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="16">
         <v>-0.21523242251904318</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="M11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="16">
         <v>-0.44256535023355958</v>
       </c>
     </row>
@@ -18746,22 +18825,22 @@
       <c r="D12">
         <v>1.2204000000040001</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="16">
         <v>-0.17350563726348589</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="16">
         <v>-0.26603416963740556</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="16">
         <v>-0.18942064705263315</v>
       </c>
     </row>
@@ -18775,22 +18854,22 @@
       <c r="D13">
         <v>0.30510000000100002</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="20">
+      <c r="G13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="16">
         <v>1.2455994742050001</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="20">
+      <c r="J13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="16">
         <v>1.3510846649579999</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="16">
         <v>1.2333070988670001</v>
       </c>
     </row>
@@ -18804,22 +18883,22 @@
       <c r="D14">
         <v>0.61020000000200003</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="20">
+      <c r="G14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="J14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="16">
         <v>0.30510000000100002</v>
       </c>
     </row>
@@ -18833,22 +18912,22 @@
       <c r="D15">
         <v>0.61020000000200003</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="16">
         <v>1.5506994742060001</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="J15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="16">
         <v>1.656184664959</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="16">
         <v>1.5384070988680001</v>
       </c>
     </row>
@@ -18862,22 +18941,22 @@
       <c r="D16">
         <v>0.61020000000200003</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="20">
+      <c r="G16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="16">
         <v>45.80509300892701</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="J16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="16">
         <v>99.138745213406054</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="16">
         <v>151.07371374416792</v>
       </c>
     </row>
@@ -18891,22 +18970,22 @@
       <c r="D17">
         <v>0.91530000000300005</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="G17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="16">
         <v>50</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="J17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="16">
         <v>100</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="20">
+      <c r="M17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" s="16">
         <v>170</v>
       </c>
     </row>
@@ -18920,22 +18999,22 @@
       <c r="D18">
         <v>0.91530000000300005</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="17">
         <v>7.4694107430797102E-2</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="J18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="17">
         <v>6.5639460812256106E-2</v>
       </c>
-      <c r="M18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="21">
+      <c r="M18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="17">
         <v>4.5174874047932294E-2</v>
       </c>
     </row>
@@ -18998,7 +19077,7 @@
         <v>1.2204000000040001</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <f>H18</f>
@@ -20106,7 +20185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
@@ -20218,30 +20297,30 @@
       <c r="G5">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="M5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="P5" s="22" t="s">
+      <c r="Q5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="S5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" s="22"/>
-      <c r="V5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="22"/>
-      <c r="Y5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="22"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="Y5" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -20262,18 +20341,18 @@
       <c r="G6">
         <v>0.60007343999999996</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -20294,40 +20373,40 @@
       <c r="G7">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="20">
+      <c r="J7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="16">
         <v>30.35835334854541</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="M7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="16">
         <v>4.6450038692464597</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="P7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="16">
         <v>1.0394700224709197</v>
       </c>
-      <c r="S7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="20">
+      <c r="S7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="16">
         <v>0.89921969659393997</v>
       </c>
-      <c r="V7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="20">
+      <c r="V7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="16">
         <v>0.85821005760000002</v>
       </c>
-      <c r="Y7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="20">
+      <c r="Y7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="16">
         <v>0.85210429759999984</v>
       </c>
     </row>
@@ -20350,40 +20429,40 @@
       <c r="G8">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="J8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="16">
         <v>3.9786515116837391</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="M8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="16">
         <v>0.37843043030180157</v>
       </c>
-      <c r="P8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="20">
+      <c r="P8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="16">
         <v>4.2992463624376857E-2</v>
       </c>
-      <c r="S8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="20">
+      <c r="S8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="16">
         <v>3.7850881994858983E-2</v>
       </c>
-      <c r="V8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="20">
+      <c r="V8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="16">
         <v>2.1018260231787159E-2</v>
       </c>
-      <c r="Y8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z8" s="20">
+      <c r="Y8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" s="16">
         <v>2.1618965876333159E-2</v>
       </c>
     </row>
@@ -20406,40 +20485,40 @@
       <c r="G9">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="J9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="16">
         <v>17.570595339522999</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="M9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="16">
         <v>4.1503227907099998</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="20">
+      <c r="P9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="16">
         <v>1.0122917635570001</v>
       </c>
-      <c r="S9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" s="20">
+      <c r="S9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" s="16">
         <v>0.91101600000000005</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="20">
+      <c r="V9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="16">
         <v>0.90022031999999996</v>
       </c>
-      <c r="Y9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z9" s="20">
+      <c r="Y9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" s="16">
         <v>0.90011015999999999</v>
       </c>
     </row>
@@ -20462,40 +20541,40 @@
       <c r="G10">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="20" t="e">
+      <c r="J10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="20" t="e">
+      <c r="M10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="20">
+      <c r="P10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="16">
         <v>0.67344000000000004</v>
       </c>
-      <c r="S10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" s="20">
+      <c r="S10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="16">
         <v>0.91101600000000005</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" s="20">
+      <c r="V10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" s="16">
         <v>0.90022031999999996</v>
       </c>
-      <c r="Y10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z10" s="20">
+      <c r="Y10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="16">
         <v>0.90011015999999999</v>
       </c>
     </row>
@@ -20518,40 +20597,40 @@
       <c r="G11">
         <v>0.60007343999999996</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="16">
         <v>28.133314638896803</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <v>2.6759072347374704</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="16">
         <v>0.30400262568712849</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="S11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="16">
         <v>0.26764615332456582</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="V11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="16">
         <v>0.14862154338640238</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="16">
         <v>0.1528691737339575</v>
       </c>
     </row>
@@ -20574,40 +20653,40 @@
       <c r="G12">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="16">
         <v>791.48339257116504</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="16">
         <v>7.1604795289203356</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="20">
+      <c r="P12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="16">
         <v>9.2417596424668347E-2</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" s="20">
+      <c r="S12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="16">
         <v>7.1634463389437006E-2</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12" s="20">
+      <c r="V12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="16">
         <v>2.2088363158556286E-2</v>
       </c>
-      <c r="Y12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z12" s="20">
+      <c r="Y12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" s="16">
         <v>2.336898427810288E-2</v>
       </c>
     </row>
@@ -20630,40 +20709,40 @@
       <c r="G13">
         <v>0.60007359999999998</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="20">
+      <c r="J13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="16">
         <v>4.4687568880047408</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="16">
         <v>5.1603461840415878</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="P13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="16">
         <v>2.2636698534198132</v>
       </c>
-      <c r="S13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="20">
+      <c r="S13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="16">
         <v>-0.35131931869417699</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="20">
+      <c r="V13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" s="16">
         <v>0.8519063509639242</v>
       </c>
-      <c r="Y13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z13" s="20">
+      <c r="Y13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z13" s="16">
         <v>0.54937545153038503</v>
       </c>
     </row>
@@ -20686,40 +20765,40 @@
       <c r="G14">
         <v>1.2001468799999999</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="J14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="16">
         <v>1.9200689217981888</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="16">
         <v>1.8291795233340864</v>
       </c>
-      <c r="P14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="20">
+      <c r="P14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="16">
         <v>1.1325022502116975</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="T14" s="20">
+      <c r="S14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="16">
         <v>-9.5682782674612679E-2</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" s="16">
         <v>-0.31747066476646851</v>
       </c>
-      <c r="Y14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z14" s="20">
+      <c r="Y14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z14" s="16">
         <v>-0.27156897758618631</v>
       </c>
     </row>
@@ -20742,40 +20821,40 @@
       <c r="G15">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="J15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="16">
         <v>139.96327849712898</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="16">
         <v>14.183568125889</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q15" s="20">
+      <c r="P15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="16">
         <v>1.451073014264</v>
       </c>
-      <c r="S15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T15" s="20">
+      <c r="S15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T15" s="16">
         <v>1.225912408236</v>
       </c>
-      <c r="V15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="V15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" s="16">
         <v>0.60014688000000005</v>
       </c>
-      <c r="Y15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z15" s="20">
+      <c r="Y15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="16">
         <v>0.60007343999999996</v>
       </c>
     </row>
@@ -20798,40 +20877,40 @@
       <c r="G16">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="J16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="16">
         <v>3.972</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="16">
         <v>1.553891955953</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="20">
+      <c r="P16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="16">
         <v>0.67344000000000004</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="T16" s="20">
+      <c r="S16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="16">
         <v>0.303672</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W16" s="16">
         <v>0.60014688000000005</v>
       </c>
-      <c r="Y16" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="20">
+      <c r="Y16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="16">
         <v>0.60007343999999996</v>
       </c>
     </row>
@@ -20854,40 +20933,40 @@
       <c r="G17">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="J17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="16">
         <v>143.93527849712899</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="20">
+      <c r="M17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="16">
         <v>15.737460081842</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="20">
+      <c r="P17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="16">
         <v>2.1245130142640001</v>
       </c>
-      <c r="S17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="20">
+      <c r="S17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="16">
         <v>1.5295844082359999</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W17" s="20">
+      <c r="V17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" s="16">
         <v>1.2002937600000001</v>
       </c>
-      <c r="Y17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z17" s="20">
+      <c r="Y17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="16">
         <v>1.2001468799999999</v>
       </c>
     </row>
@@ -20910,40 +20989,40 @@
       <c r="G18">
         <v>1.2001468799999999</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="J18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="16">
         <v>1517.9176674272705</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="M18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="16">
         <v>232.25019346232298</v>
       </c>
-      <c r="P18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q18" s="20">
+      <c r="P18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="16">
         <v>51.973501123545987</v>
       </c>
-      <c r="S18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T18" s="20">
+      <c r="S18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" s="16">
         <v>44.960984829696997</v>
       </c>
-      <c r="V18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="V18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" s="16">
         <v>42.910502880000003</v>
       </c>
-      <c r="Y18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z18" s="20">
+      <c r="Y18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="16">
         <v>42.605214879999991</v>
       </c>
     </row>
@@ -20966,40 +21045,40 @@
       <c r="G19">
         <v>0.90011015999999999</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="20">
+      <c r="J19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="16">
         <v>50</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="20">
+      <c r="M19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="16">
         <v>50</v>
       </c>
-      <c r="P19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="20">
+      <c r="P19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="16">
         <v>50</v>
       </c>
-      <c r="S19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T19" s="20">
+      <c r="S19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="16">
         <v>50</v>
       </c>
-      <c r="V19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W19" s="20">
+      <c r="V19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="16">
         <v>50</v>
       </c>
-      <c r="Y19" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z19" s="20">
+      <c r="Y19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" s="16">
         <v>50</v>
       </c>
     </row>
@@ -21022,40 +21101,40 @@
       <c r="G20">
         <v>0.60007343999999996</v>
       </c>
-      <c r="J20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="J20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="17">
         <v>7.9953995550464541</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="21">
+      <c r="M20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="17">
         <v>0.76048442171066277</v>
       </c>
-      <c r="P20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="21">
+      <c r="P20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="17">
         <v>8.6396590282727295E-2</v>
       </c>
-      <c r="S20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" s="21">
+      <c r="S20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="17">
         <v>7.606419516036958E-2</v>
       </c>
-      <c r="V20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="W20" s="21">
+      <c r="V20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" s="17">
         <v>4.2237775289337733E-2</v>
       </c>
-      <c r="Y20" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z20" s="21">
+      <c r="Y20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z20" s="17">
         <v>4.3444938477421133E-2</v>
       </c>
     </row>
@@ -21166,7 +21245,7 @@
         <v>0.60007343999999996</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <f>K20</f>
@@ -21769,8 +21848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26425,7 +26504,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -26476,26 +26555,26 @@
       <c r="F3">
         <v>60.010200000002001</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="H3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="K3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="N3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="18"/>
+      <c r="Q3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="Q3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" s="22"/>
-      <c r="T3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="22"/>
+      <c r="R3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -26513,16 +26592,16 @@
       <c r="F4">
         <v>120.020444444448</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -26540,34 +26619,34 @@
       <c r="F5">
         <v>120.020400000004</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="H5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="16">
         <v>2.7654759508129994E-2</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="20">
+      <c r="K5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="16">
         <v>0.10365527842296998</v>
       </c>
-      <c r="N5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="20">
+      <c r="N5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="16">
         <v>0.90449402464180051</v>
       </c>
-      <c r="Q5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="20">
+      <c r="Q5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="16">
         <v>8.4751969248428782</v>
       </c>
-      <c r="T5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="20">
+      <c r="T5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="16">
         <v>88.815110336073758</v>
       </c>
     </row>
@@ -26587,34 +26666,34 @@
       <c r="F6">
         <v>30.005100000001001</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="H6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="16">
         <v>1.2471441567679907E-3</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="20">
+      <c r="K6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="16">
         <v>3.1283518946860363E-3</v>
       </c>
-      <c r="N6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="20">
+      <c r="N6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="16">
         <v>2.7135102181909121E-2</v>
       </c>
-      <c r="Q6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="20">
+      <c r="Q6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="16">
         <v>0.22752000057372671</v>
       </c>
-      <c r="T6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" s="20">
+      <c r="T6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="16">
         <v>2.2934625577585459</v>
       </c>
     </row>
@@ -26634,34 +26713,34 @@
       <c r="F7">
         <v>60.010200000002001</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="H7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="16">
         <v>2.5716666675500002E-2</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="K7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="16">
         <v>0.10530000000299999</v>
       </c>
-      <c r="N7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="20">
+      <c r="N7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="16">
         <v>9.0153000000030001</v>
       </c>
-      <c r="T7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="20">
+      <c r="T7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="16">
         <v>90.015300000002995</v>
       </c>
     </row>
@@ -26681,34 +26760,34 @@
       <c r="F8">
         <v>90.015300000002995</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="16">
         <v>2.4300000003000002E-2</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="K8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="16">
         <v>0.10530000000299999</v>
       </c>
-      <c r="N8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="20">
+      <c r="N8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="16">
         <v>9.0153000000030001</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="U8" s="20">
+      <c r="T8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="16">
         <v>90.015300000002995</v>
       </c>
     </row>
@@ -26728,34 +26807,34 @@
       <c r="F9">
         <v>90.015300000002995</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>1.2471441567679906E-2</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="16">
         <v>3.1283518946860364E-2</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>0.27135102181909121</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="16">
         <v>2.275200005737267</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="16">
         <v>22.934625577585461</v>
       </c>
     </row>
@@ -26775,34 +26854,34 @@
       <c r="F10">
         <v>90.015300000002995</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="H10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="16">
         <v>1.5553685477605426E-4</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="20">
+      <c r="K10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="16">
         <v>9.7865855769857122E-4</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="20">
+      <c r="N10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="16">
         <v>7.3631377042264926E-2</v>
       </c>
-      <c r="Q10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="20">
+      <c r="Q10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="16">
         <v>5.1765350661068599</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="20">
+      <c r="T10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="16">
         <v>525.99705038403715</v>
       </c>
     </row>
@@ -26822,34 +26901,34 @@
       <c r="F11">
         <v>90.015300000002995</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="H11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="16">
         <v>31.0598151951367</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="20">
+      <c r="K11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="16">
         <v>0.22012811187686276</v>
       </c>
-      <c r="N11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="20">
+      <c r="N11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="16">
         <v>8.2575143882666069E-2</v>
       </c>
-      <c r="Q11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="20">
+      <c r="Q11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="16">
         <v>-0.18255680268391705</v>
       </c>
-      <c r="T11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="20">
+      <c r="T11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U11" s="16">
         <v>0.23705058136283474</v>
       </c>
     </row>
@@ -26869,34 +26948,34 @@
       <c r="F12">
         <v>60.010200000002001</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="H12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="16">
         <v>4.3885933774126427</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="20">
+      <c r="K12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="16">
         <v>0.13546334758149359</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="20">
+      <c r="N12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="16">
         <v>-0.34940133072128365</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="20">
+      <c r="Q12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="16">
         <v>-0.25586275919061979</v>
       </c>
-      <c r="T12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="U12" s="20">
+      <c r="T12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="16">
         <v>6.8021854875333757E-2</v>
       </c>
     </row>
@@ -26916,34 +26995,34 @@
       <c r="F13">
         <v>90.015300000002995</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="H13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="16">
         <v>0.112594030915</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="20">
+      <c r="K13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="16">
         <v>0.16284260142199999</v>
       </c>
-      <c r="N13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="20">
+      <c r="N13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="16">
         <v>1.2455994742050001</v>
       </c>
-      <c r="Q13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="20">
+      <c r="Q13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="16">
         <v>9.0235297948879989</v>
       </c>
-      <c r="T13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="20">
+      <c r="T13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13" s="16">
         <v>120.020400000004</v>
       </c>
     </row>
@@ -26963,34 +27042,34 @@
       <c r="F14">
         <v>90.015300000002995</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="H14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="16">
         <v>8.100000001E-3</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="20">
+      <c r="K14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="16">
         <v>3.5100000000999998E-2</v>
       </c>
-      <c r="N14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" s="20">
+      <c r="N14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="16">
         <v>0.30510000000100002</v>
       </c>
-      <c r="Q14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="20">
+      <c r="Q14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="16">
         <v>3.0051000000010002</v>
       </c>
-      <c r="T14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="20">
+      <c r="T14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="16">
         <v>30.005100000001001</v>
       </c>
     </row>
@@ -27010,34 +27089,34 @@
       <c r="F15">
         <v>120.020400000004</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="16">
         <v>0.12069403091600001</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="20">
+      <c r="K15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="16">
         <v>0.19794260142299999</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="20">
+      <c r="N15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" s="16">
         <v>1.5506994742060001</v>
       </c>
-      <c r="Q15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="R15" s="20">
+      <c r="Q15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="16">
         <v>12.028629794889</v>
       </c>
-      <c r="T15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="20">
+      <c r="T15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15" s="16">
         <v>150.025500000005</v>
       </c>
     </row>
@@ -27057,34 +27136,34 @@
       <c r="F16">
         <v>120.020400000004</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="20">
+      <c r="H16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="16">
         <v>2.7654759508129994</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="20">
+      <c r="K16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="16">
         <v>10.365527842296999</v>
       </c>
-      <c r="N16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="20">
+      <c r="N16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="16">
         <v>90.449402464180054</v>
       </c>
-      <c r="Q16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="R16" s="20">
+      <c r="Q16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="16">
         <v>847.51969248428782</v>
       </c>
-      <c r="T16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16" s="20">
+      <c r="T16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="16">
         <v>8881.5110336073758</v>
       </c>
     </row>
@@ -27104,34 +27183,34 @@
       <c r="F17">
         <v>120.020400000004</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="H17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="16">
         <v>100</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="K17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="16">
         <v>100</v>
       </c>
-      <c r="N17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="20">
+      <c r="N17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="16">
         <v>100</v>
       </c>
-      <c r="Q17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="20">
+      <c r="Q17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="16">
         <v>100</v>
       </c>
-      <c r="T17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U17" s="20">
+      <c r="T17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" s="16">
         <v>100</v>
       </c>
     </row>
@@ -27151,34 +27230,34 @@
       <c r="F18">
         <v>90.015300000002995</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="21">
+      <c r="H18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="17">
         <v>2.4746045769309943E-3</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="K18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="17">
         <v>6.2073288599635177E-3</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="21">
+      <c r="N18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="17">
         <v>5.3841929732373638E-2</v>
       </c>
-      <c r="Q18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" s="21">
+      <c r="Q18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="17">
         <v>0.45144904196333974</v>
       </c>
-      <c r="T18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="U18" s="21">
+      <c r="T18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="17">
         <v>4.5507272849332479</v>
       </c>
     </row>
@@ -27273,7 +27352,7 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22">
         <f>I18</f>
@@ -28682,7 +28761,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -28762,30 +28841,30 @@
       <c r="G4">
         <v>0.91603333333500003</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="M4" s="22" t="s">
+      <c r="J4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="M4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="Q4" s="18"/>
+      <c r="S4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="S4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="22"/>
-      <c r="V4" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="22"/>
-      <c r="Y4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="22"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="18"/>
+      <c r="Y4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -28806,18 +28885,18 @@
       <c r="G5">
         <v>0.61068888888999995</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -28838,40 +28917,40 @@
       <c r="G6">
         <v>0.91655531933400003</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="J6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="16">
         <v>0.91574297331867116</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="M6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="16">
         <v>0.90074036945079006</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="P6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="16">
         <v>0.84275304672511908</v>
       </c>
-      <c r="S6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="20">
+      <c r="S6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="16">
         <v>0.90029957616536993</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="20">
+      <c r="V6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="16">
         <v>0.86738051792505044</v>
       </c>
-      <c r="Y6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="20">
+      <c r="Y6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="16">
         <v>0.88954687804625943</v>
       </c>
     </row>
@@ -28894,40 +28973,40 @@
       <c r="G7">
         <v>0.91603333333500003</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="20">
+      <c r="J7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="16">
         <v>2.0797385369076635E-2</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="M7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="16">
         <v>2.3548452928601492E-2</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="P7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="16">
         <v>2.6369962605837065E-2</v>
       </c>
-      <c r="S7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="20">
+      <c r="S7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="16">
         <v>2.6868874904729435E-2</v>
       </c>
-      <c r="V7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="20">
+      <c r="V7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="16">
         <v>2.4444814223368444E-2</v>
       </c>
-      <c r="Y7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z7" s="20">
+      <c r="Y7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z7" s="16">
         <v>2.4554749416613952E-2</v>
       </c>
     </row>
@@ -28950,40 +29029,40 @@
       <c r="G8">
         <v>0.61068888888999995</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="20">
+      <c r="J8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="16">
         <v>0.91500000000299997</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="M8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="P8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="20">
+      <c r="P8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="16">
         <v>0.91510000000199998</v>
       </c>
-      <c r="S8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="20">
+      <c r="S8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="16">
         <v>0.91523333333400003</v>
       </c>
-      <c r="V8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="20">
+      <c r="V8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="16">
         <v>0.91550000000099996</v>
       </c>
-      <c r="Y8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z8" s="20">
+      <c r="Y8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z8" s="16">
         <v>0.91603333333500003</v>
       </c>
     </row>
@@ -29006,40 +29085,40 @@
       <c r="G9">
         <v>0.91758519256000004</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="20">
+      <c r="J9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="16">
         <v>0.91500000000299997</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="M9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="20">
+      <c r="P9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="16">
         <v>0.91510000000199998</v>
       </c>
-      <c r="S9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9" s="20">
+      <c r="S9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="16">
         <v>0.91523333333400003</v>
       </c>
-      <c r="V9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="W9" s="20">
+      <c r="V9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="16">
         <v>0.91550000000099996</v>
       </c>
-      <c r="Y9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z9" s="20">
+      <c r="Y9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="16">
         <v>0.91603333333500003</v>
       </c>
     </row>
@@ -29062,40 +29141,40 @@
       <c r="G10">
         <v>0.61068888888999995</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="16">
         <v>0.20797385369076635</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="16">
         <v>0.2354845292860149</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="16">
         <v>0.26369962605837066</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="16">
         <v>0.26868874904729434</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="W10" s="20">
+      <c r="W10" s="16">
         <v>0.24444814223368444</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="16">
         <v>0.24554749416613952</v>
       </c>
     </row>
@@ -29118,40 +29197,40 @@
       <c r="G11">
         <v>0.91638571041799999</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="20">
+      <c r="J11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="16">
         <v>4.3253123818988284E-2</v>
       </c>
-      <c r="M11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="M11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="16">
         <v>5.5452963533056017E-2</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="P11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="16">
         <v>6.9537492783324509E-2</v>
       </c>
-      <c r="S11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="20">
+      <c r="S11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" s="16">
         <v>7.2193643864599921E-2</v>
       </c>
-      <c r="V11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" s="20">
+      <c r="V11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="16">
         <v>5.9754894241499622E-2</v>
       </c>
-      <c r="Y11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" s="20">
+      <c r="Y11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z11" s="16">
         <v>6.0293571891270319E-2</v>
       </c>
     </row>
@@ -29174,40 +29253,40 @@
       <c r="G12">
         <v>0.91603333333500003</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="J12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="16">
         <v>0.38308113070838301</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="16">
         <v>0.34310097375881332</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="20">
+      <c r="P12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="16">
         <v>0.27591714554762525</v>
       </c>
-      <c r="S12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="20">
+      <c r="S12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="16">
         <v>0.19343217473959573</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="20">
+      <c r="V12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="16">
         <v>-9.8003112688642702E-2</v>
       </c>
-      <c r="Y12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z12" s="20">
+      <c r="Y12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="16">
         <v>0.15774914343360402</v>
       </c>
     </row>
@@ -29230,40 +29309,40 @@
       <c r="G13">
         <v>1.2213777777799999</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="20">
+      <c r="J13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="16">
         <v>-9.2875727455542633E-3</v>
       </c>
-      <c r="M13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="20">
+      <c r="M13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="16">
         <v>-0.58957728847054736</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="20">
+      <c r="P13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="16">
         <v>-0.18149738376009131</v>
       </c>
-      <c r="S13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="20">
+      <c r="S13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="16">
         <v>6.450046711238379E-3</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="20">
+      <c r="V13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="16">
         <v>-0.43098220742621396</v>
       </c>
-      <c r="Y13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z13" s="20">
+      <c r="Y13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z13" s="16">
         <v>0.28698310563254098</v>
       </c>
     </row>
@@ -29286,40 +29365,40 @@
       <c r="G14">
         <v>0.61068888888999995</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="20">
+      <c r="J14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="16">
         <v>1.2200000000039999</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="16">
         <v>0.94259108117399992</v>
       </c>
-      <c r="P14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="20">
+      <c r="P14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="16">
         <v>1.2201333333359998</v>
       </c>
-      <c r="S14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="20">
+      <c r="S14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="16">
         <v>1.222985577947</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="20">
+      <c r="V14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W14" s="16">
         <v>0.91689317025799999</v>
       </c>
-      <c r="Y14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" s="20">
+      <c r="Y14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="16">
         <v>1.2213777777800001</v>
       </c>
     </row>
@@ -29342,40 +29421,40 @@
       <c r="G15">
         <v>0.91724537237100001</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="J15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="16">
         <v>0.30500000000100003</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="M15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="16">
         <v>0.30501111111200002</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="20">
+      <c r="P15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="16">
         <v>0.30503333333400001</v>
       </c>
-      <c r="S15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="20">
+      <c r="S15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T15" s="16">
         <v>0.30507777777799999</v>
       </c>
-      <c r="V15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="20">
+      <c r="V15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="16">
         <v>0.30516666666699999</v>
       </c>
-      <c r="Y15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="20">
+      <c r="Y15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="16">
         <v>0.30534444444499997</v>
       </c>
     </row>
@@ -29398,40 +29477,40 @@
       <c r="G16">
         <v>1.2213777777799999</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="J16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="16">
         <v>1.5250000000049999</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="16">
         <v>1.2476021922859999</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="20">
+      <c r="P16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="16">
         <v>1.5251666666699999</v>
       </c>
-      <c r="S16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="20">
+      <c r="S16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="16">
         <v>1.5280633557250001</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="V16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="16">
         <v>1.222059836925</v>
       </c>
-      <c r="Y16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z16" s="20">
+      <c r="Y16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z16" s="16">
         <v>1.5267222222250001</v>
       </c>
     </row>
@@ -29454,40 +29533,40 @@
       <c r="G17">
         <v>1.2213777777799999</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="20">
+      <c r="J17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="16">
         <v>91.574297331867115</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="20">
+      <c r="M17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="16">
         <v>90.074036945079001</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="20">
+      <c r="P17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="16">
         <v>84.275304672511908</v>
       </c>
-      <c r="S17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="20">
+      <c r="S17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="16">
         <v>90.02995761653699</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="20">
+      <c r="V17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" s="16">
         <v>86.738051792505047</v>
       </c>
-      <c r="Y17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z17" s="20">
+      <c r="Y17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" s="16">
         <v>88.954687804625948</v>
       </c>
     </row>
@@ -29510,40 +29589,40 @@
       <c r="G18">
         <v>0.61068888888999995</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="J18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="16">
         <v>100</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="M18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="16">
         <v>100</v>
       </c>
-      <c r="P18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="20">
+      <c r="P18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="16">
         <v>100</v>
       </c>
-      <c r="S18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="20">
+      <c r="S18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" s="16">
         <v>100</v>
       </c>
-      <c r="V18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="V18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" s="16">
         <v>100</v>
       </c>
-      <c r="Y18" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z18" s="20">
+      <c r="Y18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" s="16">
         <v>100</v>
       </c>
     </row>
@@ -29566,40 +29645,40 @@
       <c r="G19">
         <v>0.91603333333500003</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="J19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="17">
         <v>4.1266524597997178E-2</v>
       </c>
-      <c r="M19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="21">
+      <c r="M19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="17">
         <v>4.6725239484565875E-2</v>
       </c>
-      <c r="P19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="21">
+      <c r="P19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="17">
         <v>5.2323726815201817E-2</v>
       </c>
-      <c r="S19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="T19" s="21">
+      <c r="S19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T19" s="17">
         <v>5.3313677056019006E-2</v>
       </c>
-      <c r="V19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" s="21">
+      <c r="V19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="17">
         <v>4.8503814760388411E-2</v>
       </c>
-      <c r="Y19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z19" s="21">
+      <c r="Y19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z19" s="17">
         <v>4.8721950034402078E-2</v>
       </c>
     </row>
@@ -29710,7 +29789,7 @@
         <v>0.61068888888999995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23">
         <f>K19</f>
@@ -31333,8 +31412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB00259A-76EF-42CC-A63F-F0BB8151E029}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31344,7 +31423,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -31395,26 +31474,26 @@
       <c r="F3">
         <v>0.61002222222400004</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="I3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="P3" s="18"/>
+      <c r="R3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="R3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="22"/>
-      <c r="U3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="22"/>
+      <c r="S3" s="18"/>
+      <c r="U3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -31432,16 +31511,16 @@
       <c r="F4">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -31459,34 +31538,34 @@
       <c r="F5">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="I5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="16">
         <v>0.86441294720018025</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="L5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="16">
         <v>0.91972956348449042</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="20">
+      <c r="O5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="16">
         <v>0.94591291899241059</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="20">
+      <c r="R5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="16">
         <v>0.89673388227925055</v>
       </c>
-      <c r="U5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" s="20">
+      <c r="U5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="16">
         <v>0.9119832222248806</v>
       </c>
     </row>
@@ -31506,34 +31585,34 @@
       <c r="F6">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="20">
+      <c r="I6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="16">
         <v>2.3882412940164906E-2</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="20">
+      <c r="L6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="16">
         <v>2.5222936990860211E-2</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="20">
+      <c r="O6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="16">
         <v>2.3545157287658654E-2</v>
       </c>
-      <c r="R6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="R6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="16">
         <v>2.4067576178354221E-2</v>
       </c>
-      <c r="U6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="20">
+      <c r="U6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="16">
         <v>2.4712764554024602E-2</v>
       </c>
     </row>
@@ -31553,34 +31632,34 @@
       <c r="F7">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="20">
+      <c r="I7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="20">
+      <c r="L7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="O7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="R7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="20">
+      <c r="R7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="U7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="V7" s="20">
+      <c r="U7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="16">
         <v>0.91503333333600001</v>
       </c>
     </row>
@@ -31600,34 +31679,34 @@
       <c r="F8">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="20">
+      <c r="L8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="20">
+      <c r="O8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="R8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="20">
+      <c r="R8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="U8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" s="20">
+      <c r="U8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="16">
         <v>0.91503333333600001</v>
       </c>
     </row>
@@ -31647,34 +31726,34 @@
       <c r="F9">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="16">
         <v>0.23882412940164907</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="16">
         <v>0.25222936990860212</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="16">
         <v>0.23545157287658655</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="16">
         <v>0.24067576178354222</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="16">
         <v>0.24712764554024602</v>
       </c>
     </row>
@@ -31694,34 +31773,34 @@
       <c r="F10">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="I10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="16">
         <v>5.7036964784455621E-2</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="20">
+      <c r="L10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="16">
         <v>6.361965504449045E-2</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="O10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="16">
         <v>5.5437443170058547E-2</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="20">
+      <c r="R10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="16">
         <v>5.7924822310088366E-2</v>
       </c>
-      <c r="U10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="20">
+      <c r="U10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V10" s="16">
         <v>6.1072073190265481E-2</v>
       </c>
     </row>
@@ -31741,34 +31820,34 @@
       <c r="F11">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="I11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="16">
         <v>0.53159568395877077</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="20">
+      <c r="L11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="16">
         <v>-0.41462062055324811</v>
       </c>
-      <c r="O11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" s="20">
+      <c r="O11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="16">
         <v>-0.1300213960497234</v>
       </c>
-      <c r="R11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="20">
+      <c r="R11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="16">
         <v>-0.21020432052284477</v>
       </c>
-      <c r="U11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="V11" s="20">
+      <c r="U11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V11" s="16">
         <v>1.9206503818258724E-3</v>
       </c>
     </row>
@@ -31788,34 +31867,34 @@
       <c r="F12">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="I12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="16">
         <v>-0.32818788954863826</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="20">
+      <c r="L12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="16">
         <v>-1.6859141044575279E-2</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="O12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="16">
         <v>-0.31347169584070739</v>
       </c>
-      <c r="R12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="20">
+      <c r="R12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="16">
         <v>-0.39614144330025841</v>
       </c>
-      <c r="U12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" s="20">
+      <c r="U12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" s="16">
         <v>-0.33040848667311717</v>
       </c>
     </row>
@@ -31835,34 +31914,34 @@
       <c r="F13">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="I13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="16">
         <v>1.2207893953590001</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="20">
+      <c r="L13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="16">
         <v>1.2205800604770001</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="20">
+      <c r="O13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="16">
         <v>1.2200444444480001</v>
       </c>
-      <c r="R13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" s="20">
+      <c r="R13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" s="16">
         <v>0.91515489433300012</v>
       </c>
-      <c r="U13" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="V13" s="20">
+      <c r="U13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V13" s="16">
         <v>1.2200444444480001</v>
       </c>
     </row>
@@ -31882,34 +31961,34 @@
       <c r="F14">
         <v>0.30501111111200002</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="16">
         <v>0.30501111111200002</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="20">
+      <c r="L14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="16">
         <v>0.30501111111200002</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="O14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="16">
         <v>0.30501111111200002</v>
       </c>
-      <c r="R14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="20">
+      <c r="R14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="16">
         <v>0.30501111111200002</v>
       </c>
-      <c r="U14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V14" s="20">
+      <c r="U14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="16">
         <v>0.30501111111200002</v>
       </c>
     </row>
@@ -31929,34 +32008,34 @@
       <c r="F15">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="I15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="16">
         <v>1.5258005064710001</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="20">
+      <c r="L15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="16">
         <v>1.525591171589</v>
       </c>
-      <c r="O15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="20">
+      <c r="O15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="16">
         <v>1.5250555555600001</v>
       </c>
-      <c r="R15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="20">
+      <c r="R15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="16">
         <v>1.2201660054450001</v>
       </c>
-      <c r="U15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="20">
+      <c r="U15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="16">
         <v>1.5250555555600001</v>
       </c>
     </row>
@@ -31976,34 +32055,34 @@
       <c r="F16">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="16">
         <v>86.441294720018021</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="20">
+      <c r="L16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="16">
         <v>91.972956348449046</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="20">
+      <c r="O16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="16">
         <v>94.591291899241057</v>
       </c>
-      <c r="R16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" s="20">
+      <c r="R16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="16">
         <v>89.673388227925059</v>
       </c>
-      <c r="U16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="V16" s="20">
+      <c r="U16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="16">
         <v>91.198322222488059</v>
       </c>
     </row>
@@ -32023,34 +32102,34 @@
       <c r="F17">
         <v>0.61002222222400004</v>
       </c>
-      <c r="I17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="20">
+      <c r="I17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="16">
         <v>100</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="20">
+      <c r="L17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="16">
         <v>100</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="20">
+      <c r="O17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="16">
         <v>100</v>
       </c>
-      <c r="R17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" s="20">
+      <c r="R17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="16">
         <v>100</v>
       </c>
-      <c r="U17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" s="20">
+      <c r="U17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" s="16">
         <v>100</v>
       </c>
     </row>
@@ -32070,34 +32149,34 @@
       <c r="F18">
         <v>1.2200444444480001</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="I18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="17">
         <v>4.7387888600661995E-2</v>
       </c>
-      <c r="L18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="L18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="17">
         <v>5.0047779146060907E-2</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="21">
+      <c r="O18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="17">
         <v>4.6718700217940758E-2</v>
       </c>
-      <c r="R18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" s="21">
+      <c r="R18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="17">
         <v>4.7755292636687867E-2</v>
       </c>
-      <c r="U18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="21">
+      <c r="U18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V18" s="17">
         <v>4.9035486348659542E-2</v>
       </c>
     </row>
@@ -32151,7 +32230,7 @@
       <c r="F21">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J21">
@@ -32191,8 +32270,8 @@
       <c r="F22">
         <v>0.91503333333600001</v>
       </c>
-      <c r="I22" t="s">
-        <v>83</v>
+      <c r="I22" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="J22">
         <f>J18</f>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0ED94-84D0-4BBA-A369-B545736FB722}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD4E97-9DC8-4ED8-9E27-27231D0A8986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="4335" yWindow="3165" windowWidth="21600" windowHeight="11160" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="92">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -312,6 +312,21 @@
   </si>
   <si>
     <t>Exection time: 14 s</t>
+  </si>
+  <si>
+    <t>Check average distance</t>
+  </si>
+  <si>
+    <t>Creaft network with same number of node but higer dist (watts - strogatz)</t>
+  </si>
+  <si>
+    <t>Do one more set with 20 evil</t>
+  </si>
+  <si>
+    <t>evaluate notmalizzation (R)</t>
+  </si>
+  <si>
+    <t>7.2 try with a slower than 7.2 mb</t>
   </si>
 </sst>
 </file>
@@ -604,6 +619,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -616,7 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="10"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -14915,8 +14930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5553074" y="595312"/>
-              <a:ext cx="4733925" cy="2743200"/>
+              <a:off x="5781674" y="585787"/>
+              <a:ext cx="4733925" cy="2647950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15029,8 +15044,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5667375" y="11801475"/>
-              <a:ext cx="4733925" cy="2743200"/>
+              <a:off x="5895975" y="11417300"/>
+              <a:ext cx="4733925" cy="2647950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15629,31 +15644,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -15700,8 +15715,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15743,8 +15758,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15784,8 +15799,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -15829,8 +15844,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -15871,8 +15886,8 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -15916,8 +15931,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -15958,8 +15973,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -16004,8 +16019,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16048,8 +16063,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16092,8 +16107,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16135,8 +16150,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16176,8 +16191,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16217,8 +16232,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16258,8 +16273,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16299,8 +16314,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16340,7 +16355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -16384,11 +16399,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -16430,8 +16445,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
         <v>2</v>
       </c>
       <c r="C19" s="1">
@@ -16473,8 +16488,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="10">
@@ -16516,8 +16531,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="21"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -16557,8 +16572,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="21"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -16586,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>7</v>
@@ -16598,8 +16613,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="21"/>
       <c r="B23" s="11">
         <v>4</v>
       </c>
@@ -16639,8 +16654,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="21"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -16680,8 +16695,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="12">
@@ -16726,8 +16741,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
       <c r="B26" s="12">
         <v>2</v>
       </c>
@@ -16767,8 +16782,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
       <c r="B27" s="12">
         <v>3</v>
       </c>
@@ -16808,8 +16823,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -16849,8 +16864,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
@@ -16890,8 +16905,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
       <c r="B30" s="12">
         <v>6</v>
       </c>
@@ -16931,8 +16946,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="14">
@@ -16974,8 +16989,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="21"/>
       <c r="B32" s="14">
         <v>2</v>
       </c>
@@ -17015,8 +17030,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
       <c r="B33" s="14">
         <v>3</v>
       </c>
@@ -17056,8 +17071,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="21"/>
       <c r="B34" s="14">
         <v>4</v>
       </c>
@@ -17097,8 +17112,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="21"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -17138,7 +17153,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -17151,7 +17169,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -17164,7 +17182,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -17177,7 +17195,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -17190,7 +17208,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -17203,7 +17221,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -17216,7 +17234,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -17229,7 +17247,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C49" s="7"/>
       <c r="F49" s="7"/>
     </row>
@@ -17251,17 +17269,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -17284,7 +17302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.91530000000300005</v>
       </c>
@@ -17304,7 +17322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.61020000000200003</v>
       </c>
@@ -17341,7 +17359,7 @@
       </c>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.30510000000100002</v>
       </c>
@@ -17368,7 +17386,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.30510000000100002</v>
       </c>
@@ -17415,7 +17433,7 @@
         <v>1.0695115236070001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.61020000000200003</v>
       </c>
@@ -17462,7 +17480,7 @@
         <v>8.5018079230275018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.61020000000200003</v>
       </c>
@@ -17509,7 +17527,7 @@
         <v>0.97033335269749998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.30510000000100002</v>
       </c>
@@ -17553,7 +17571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>1.2204000000040001</v>
       </c>
@@ -17597,7 +17615,7 @@
         <v>0.20825091302568619</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.91530000000300005</v>
       </c>
@@ -17641,7 +17659,7 @@
         <v>4.3368442776031912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.30510000000100002</v>
       </c>
@@ -17685,7 +17703,7 @@
         <v>0.33027136427514669</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>1.2204000000040001</v>
       </c>
@@ -17729,7 +17747,7 @@
         <v>1.2772222108687623</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.30510000000100002</v>
       </c>
@@ -17773,7 +17791,7 @@
         <v>0.50855585887099997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.61020000000200003</v>
       </c>
@@ -17817,7 +17835,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.61020000000200003</v>
       </c>
@@ -17861,7 +17879,7 @@
         <v>1.423855858874</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.61020000000200003</v>
       </c>
@@ -17905,7 +17923,7 @@
         <v>6.417069141642</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.61020000000200003</v>
       </c>
@@ -17949,7 +17967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>0.91530000000300005</v>
       </c>
@@ -17993,7 +18011,7 @@
         <v>0.21854593017003399</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.61020000000200003</v>
       </c>
@@ -18007,7 +18025,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.30511111111200001</v>
       </c>
@@ -18021,7 +18039,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.30510000000100002</v>
       </c>
@@ -18035,7 +18053,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.30510000000100002</v>
       </c>
@@ -18072,7 +18090,7 @@
         <v>1.0695115236070001</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.91530000000300005</v>
       </c>
@@ -18109,7 +18127,7 @@
         <v>0.21854593017003399</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0.91530000000300005</v>
       </c>
@@ -18123,7 +18141,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.61020000000200003</v>
       </c>
@@ -18137,7 +18155,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1.2204000000040001</v>
       </c>
@@ -18151,7 +18169,7 @@
         <v>0.91572428847099996</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.91530000000300005</v>
       </c>
@@ -18165,7 +18183,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.91530000000300005</v>
       </c>
@@ -18179,7 +18197,7 @@
         <v>0.91580119928699999</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.30510000000100002</v>
       </c>
@@ -18192,8 +18210,11 @@
       <c r="E29">
         <v>1.220789647273</v>
       </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0.61020000000200003</v>
       </c>
@@ -18206,8 +18227,11 @@
       <c r="E30">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.91530000000300005</v>
       </c>
@@ -18221,7 +18245,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>1.2204000000040001</v>
       </c>
@@ -18235,7 +18259,7 @@
         <v>0.91639452465600002</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.91530000000300005</v>
       </c>
@@ -18249,7 +18273,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.61020000000200003</v>
       </c>
@@ -18263,7 +18287,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.61293325438599999</v>
       </c>
@@ -18277,7 +18301,7 @@
         <v>0.91533333333599998</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.91530000000300005</v>
       </c>
@@ -18291,7 +18315,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.30510000000100002</v>
       </c>
@@ -18305,7 +18329,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.30510000000100002</v>
       </c>
@@ -18319,7 +18343,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.30510000000100002</v>
       </c>
@@ -18333,7 +18357,7 @@
         <v>0.915326595774</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>1.2204000000040001</v>
       </c>
@@ -18347,7 +18371,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.61020000000200003</v>
       </c>
@@ -18361,7 +18385,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1.2204000000040001</v>
       </c>
@@ -18375,7 +18399,7 @@
         <v>1.222507013815</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0.61020000000200003</v>
       </c>
@@ -18389,7 +18413,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0.30510000000100002</v>
       </c>
@@ -18403,7 +18427,7 @@
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0.30510000000100002</v>
       </c>
@@ -18417,7 +18441,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>0.61020000000200003</v>
       </c>
@@ -18431,7 +18455,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0.61020000000200003</v>
       </c>
@@ -18445,7 +18469,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0.91530000000300005</v>
       </c>
@@ -18459,7 +18483,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.61020000000200003</v>
       </c>
@@ -18473,7 +18497,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0.61020000000200003</v>
       </c>
@@ -18487,7 +18511,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0.30510000000100002</v>
       </c>
@@ -18501,7 +18525,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.65907088731205998</v>
@@ -18535,19 +18559,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -18561,7 +18585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.91530000000300005</v>
       </c>
@@ -18572,7 +18596,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.91530000000300005</v>
       </c>
@@ -18595,7 +18619,7 @@
       </c>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1.2204000000040001</v>
       </c>
@@ -18612,7 +18636,7 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.61020000000200003</v>
       </c>
@@ -18641,7 +18665,7 @@
         <v>0.88866890437745838</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.91530000000300005</v>
       </c>
@@ -18670,7 +18694,7 @@
         <v>2.2883776814626361E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.30510000000100002</v>
       </c>
@@ -18699,7 +18723,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>1.5506994742060001</v>
       </c>
@@ -18728,7 +18752,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.91530000000300005</v>
       </c>
@@ -18757,7 +18781,7 @@
         <v>0.29836794570006558</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.61020000000200003</v>
       </c>
@@ -18786,7 +18810,7 @@
         <v>8.9023431021277272E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.91610358299899997</v>
       </c>
@@ -18815,7 +18839,7 @@
         <v>-0.44256535023355958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>1.221610090177</v>
       </c>
@@ -18844,7 +18868,7 @@
         <v>-0.18942064705263315</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.91530000000300005</v>
       </c>
@@ -18873,7 +18897,7 @@
         <v>1.2333070988670001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.91621382376299998</v>
       </c>
@@ -18902,7 +18926,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.92268943506099999</v>
       </c>
@@ -18931,7 +18955,7 @@
         <v>1.5384070988680001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.61020000000200003</v>
       </c>
@@ -18960,7 +18984,7 @@
         <v>151.07371374416792</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.91530000000300005</v>
       </c>
@@ -18989,7 +19013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>0.91530000000300005</v>
       </c>
@@ -19018,7 +19042,7 @@
         <v>4.5174874047932294E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.91530000000300005</v>
       </c>
@@ -19029,7 +19053,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1.2204000000040001</v>
       </c>
@@ -19040,7 +19064,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.91530000000300005</v>
       </c>
@@ -19066,7 +19090,7 @@
         <v>0.88866890437745838</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.30510000000100002</v>
       </c>
@@ -19092,7 +19116,7 @@
         <v>4.5174874047932294E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.91530000000300005</v>
       </c>
@@ -19103,7 +19127,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1.2204000000040001</v>
       </c>
@@ -19114,7 +19138,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.91530000000300005</v>
       </c>
@@ -19125,7 +19149,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0.91572428847099996</v>
       </c>
@@ -19136,7 +19160,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.91530000000300005</v>
       </c>
@@ -19147,7 +19171,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.91580119928699999</v>
       </c>
@@ -19158,7 +19182,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1.220789647273</v>
       </c>
@@ -19168,8 +19192,11 @@
       <c r="D29">
         <v>0.92352396971999995</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1.2204000000040001</v>
       </c>
@@ -19180,7 +19207,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.61020000000200003</v>
       </c>
@@ -19191,7 +19218,7 @@
         <v>0.61022222222400002</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0.91639452465600002</v>
       </c>
@@ -19202,7 +19229,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.91530000000300005</v>
       </c>
@@ -19213,7 +19240,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.91530000000300005</v>
       </c>
@@ -19224,7 +19251,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.91533333333599998</v>
       </c>
@@ -19235,7 +19262,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.91530000000300005</v>
       </c>
@@ -19246,7 +19273,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.91530000000300005</v>
       </c>
@@ -19257,7 +19284,7 @@
         <v>0.91718800025799996</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.61020000000200003</v>
       </c>
@@ -19268,7 +19295,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.915326595774</v>
       </c>
@@ -19279,7 +19306,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.91530000000300005</v>
       </c>
@@ -19290,7 +19317,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.61020000000200003</v>
       </c>
@@ -19301,7 +19328,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>1.222507013815</v>
       </c>
@@ -19312,7 +19339,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>1.2204000000040001</v>
       </c>
@@ -19323,7 +19350,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>1.5255000000050001</v>
       </c>
@@ -19334,7 +19361,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0.91530000000300005</v>
       </c>
@@ -19345,7 +19372,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1.2204000000040001</v>
       </c>
@@ -19356,7 +19383,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0.61020000000200003</v>
       </c>
@@ -19367,7 +19394,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0.91530000000300005</v>
       </c>
@@ -19378,7 +19405,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.30510000000100002</v>
       </c>
@@ -19389,7 +19416,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0.91530000000300005</v>
       </c>
@@ -19400,7 +19427,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0.91530000000300005</v>
       </c>
@@ -19411,7 +19438,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.91610186017854023</v>
@@ -19423,7 +19450,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>1.5395876522780001</v>
       </c>
@@ -19431,7 +19458,7 @@
         <v>1.118633333337</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>0.91580119928699999</v>
       </c>
@@ -19439,7 +19466,7 @@
         <v>1.220582246283</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>1.2204000000040001</v>
       </c>
@@ -19447,7 +19474,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>1.2204000000040001</v>
       </c>
@@ -19455,7 +19482,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>0.91530000000300005</v>
       </c>
@@ -19463,7 +19490,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>1.2204000000040001</v>
       </c>
@@ -19471,7 +19498,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>1.5255000000050001</v>
       </c>
@@ -19479,7 +19506,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C60">
         <v>0.91530000000300005</v>
       </c>
@@ -19487,7 +19514,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C61">
         <v>1.2204000000040001</v>
       </c>
@@ -19495,7 +19522,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C62">
         <v>1.2204000000040001</v>
       </c>
@@ -19503,7 +19530,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C63">
         <v>1.2204000000040001</v>
       </c>
@@ -19511,7 +19538,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C64">
         <v>1.2204000000040001</v>
       </c>
@@ -19519,7 +19546,7 @@
         <v>1.2209736502540001</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C65">
         <v>1.2204000000040001</v>
       </c>
@@ -19527,7 +19554,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66">
         <v>0.91530000000300005</v>
       </c>
@@ -19535,7 +19562,7 @@
         <v>0.92289895828400004</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C67">
         <v>0.61020000000200003</v>
       </c>
@@ -19543,7 +19570,7 @@
         <v>0.30520000000300002</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C68">
         <v>1.2204000000040001</v>
       </c>
@@ -19551,7 +19578,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C69">
         <v>0.61022222222400002</v>
       </c>
@@ -19559,7 +19586,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C70">
         <v>0.91530000000300005</v>
       </c>
@@ -19567,7 +19594,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C71">
         <v>1.5276068351000001</v>
       </c>
@@ -19575,7 +19602,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C72">
         <v>0.91530000000300005</v>
       </c>
@@ -19583,7 +19610,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C73">
         <v>1.2204000000040001</v>
       </c>
@@ -19591,7 +19618,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C74">
         <v>0.61020000000200003</v>
       </c>
@@ -19599,7 +19626,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C75">
         <v>0.61020000000200003</v>
       </c>
@@ -19607,7 +19634,7 @@
         <v>1.3364599372699999</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C76">
         <v>0.915326595774</v>
       </c>
@@ -19615,7 +19642,7 @@
         <v>1.323053183736</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C77">
         <v>0.91530000000300005</v>
       </c>
@@ -19623,7 +19650,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C78">
         <v>1.5255000000050001</v>
       </c>
@@ -19631,7 +19658,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C79">
         <v>0.91530000000300005</v>
       </c>
@@ -19639,7 +19666,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C80">
         <v>0.61020000000200003</v>
       </c>
@@ -19647,7 +19674,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81">
         <v>1.5255000000050001</v>
       </c>
@@ -19655,7 +19682,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82">
         <v>0.91530000000300005</v>
       </c>
@@ -19663,7 +19690,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C83">
         <v>0.91530000000300005</v>
       </c>
@@ -19671,7 +19698,7 @@
         <v>0.61084038065199997</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C84">
         <v>1.2204000000040001</v>
       </c>
@@ -19679,7 +19706,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85">
         <v>0.30510000000100002</v>
       </c>
@@ -19687,7 +19714,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C86">
         <v>0.91530000000300005</v>
       </c>
@@ -19695,7 +19722,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C87">
         <v>0.61020000000200003</v>
       </c>
@@ -19703,7 +19730,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C88">
         <v>0.91530000000300005</v>
       </c>
@@ -19711,7 +19738,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89">
         <v>0.91530000000300005</v>
       </c>
@@ -19719,7 +19746,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C90">
         <v>1.5255000000050001</v>
       </c>
@@ -19727,7 +19754,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C91">
         <v>0.91530000000300005</v>
       </c>
@@ -19735,7 +19762,7 @@
         <v>1.5384070988680001</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C92">
         <v>0.30510000000100002</v>
       </c>
@@ -19743,7 +19770,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C93">
         <v>0.91530000000300005</v>
       </c>
@@ -19751,7 +19778,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C94">
         <v>1.220600000008</v>
       </c>
@@ -19759,7 +19786,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C95">
         <v>1.2210915012470001</v>
       </c>
@@ -19767,7 +19794,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C96">
         <v>0.30510000000100002</v>
       </c>
@@ -19775,7 +19802,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C97">
         <v>0.30511111111200001</v>
       </c>
@@ -19783,7 +19810,7 @@
         <v>0.91550000000700005</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C98">
         <v>1.2204000000040001</v>
       </c>
@@ -19791,7 +19818,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C99">
         <v>0.30510000000100002</v>
       </c>
@@ -19799,7 +19826,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C100">
         <v>0.91530000000300005</v>
       </c>
@@ -19807,7 +19834,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C101">
         <v>0.98059810808299996</v>
       </c>
@@ -19815,7 +19842,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C102" s="7">
         <f>AVERAGE(C2:C101)</f>
         <v>0.99138745213406054</v>
@@ -19824,352 +19851,352 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>0.91686666667000005</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>1.5304000000060001</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>1.2214198581310001</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.71176666666900001</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>1.2253000000050001</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.91674478006500004</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>1.2308922936190001</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>1.221645148516</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.61537386395000004</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.93349356470199996</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>0.93779698294799996</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.91533333333599998</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D162">
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D163">
         <v>0.91643363415099999</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D164">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D165">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D166">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D167">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D168">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D169">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D170">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D171">
         <v>0.91588086857700002</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D172" s="7">
         <f>AVERAGE(D2:D171)</f>
         <v>0.88866890437745838</v>
@@ -20185,17 +20212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D30" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -20218,7 +20245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>9.0206898844950008</v>
       </c>
@@ -20238,7 +20265,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>8.1138732029790006</v>
       </c>
@@ -20258,7 +20285,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>86.067229126341999</v>
       </c>
@@ -20278,7 +20305,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>54.070096199817002</v>
       </c>
@@ -20322,7 +20349,7 @@
       </c>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>14.367122357386</v>
       </c>
@@ -20354,7 +20381,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>12.070704133185</v>
       </c>
@@ -20410,7 +20437,7 @@
         <v>0.85210429759999984</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>18.447748734832</v>
       </c>
@@ -20466,7 +20493,7 @@
         <v>2.1618965876333159E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>23.197372250868</v>
       </c>
@@ -20522,7 +20549,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>44.948244063537999</v>
       </c>
@@ -20578,7 +20605,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>57.710943001135</v>
       </c>
@@ -20634,7 +20661,7 @@
         <v>0.1528691737339575</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>24.943014619688</v>
       </c>
@@ -20690,7 +20717,7 @@
         <v>2.336898427810288E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>72.021443379562996</v>
       </c>
@@ -20746,7 +20773,7 @@
         <v>0.54937545153038503</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13.29247041627</v>
       </c>
@@ -20802,7 +20829,7 @@
         <v>-0.27156897758618631</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>49.968599852063001</v>
       </c>
@@ -20858,7 +20885,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12.860552572982</v>
       </c>
@@ -20914,7 +20941,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>60.394606775823</v>
       </c>
@@ -20970,7 +20997,7 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>39.426105506888</v>
       </c>
@@ -21026,7 +21053,7 @@
         <v>42.605214879999991</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>3.972</v>
       </c>
@@ -21082,7 +21109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>9.0575738742429994</v>
       </c>
@@ -21138,7 +21165,7 @@
         <v>4.3444938477421133E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>13.397505731812</v>
       </c>
@@ -21158,7 +21185,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>143.93527849712899</v>
       </c>
@@ -21178,7 +21205,7 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>55.563554033761001</v>
       </c>
@@ -21225,7 +21252,7 @@
         <v>0.85210429759999984</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>93.640797061903996</v>
       </c>
@@ -21272,7 +21299,7 @@
         <v>4.3444938477421133E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>32.155406817093997</v>
       </c>
@@ -21292,7 +21319,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>18.171900619224999</v>
       </c>
@@ -21312,7 +21339,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>9.5322335704780006</v>
       </c>
@@ -21332,7 +21359,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>12.720240520995</v>
       </c>
@@ -21352,7 +21379,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>8.3306891203820008</v>
       </c>
@@ -21372,7 +21399,7 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>23.585135122760999</v>
       </c>
@@ -21392,7 +21419,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>48.680945211054997</v>
       </c>
@@ -21412,7 +21439,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>14.783931176242</v>
       </c>
@@ -21432,7 +21459,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>11.740539271312</v>
       </c>
@@ -21452,7 +21479,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>9.730876510621</v>
       </c>
@@ -21472,7 +21499,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>13.138436714696001</v>
       </c>
@@ -21492,7 +21519,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>16.969290059820999</v>
       </c>
@@ -21512,7 +21539,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>8.1146932180049998</v>
       </c>
@@ -21532,7 +21559,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>80.001357786857</v>
       </c>
@@ -21552,7 +21579,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>58.296201882939002</v>
       </c>
@@ -21572,7 +21599,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>14.434934680985</v>
       </c>
@@ -21592,7 +21619,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>8.3342570105539995</v>
       </c>
@@ -21612,7 +21639,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>26.973621089051999</v>
       </c>
@@ -21632,7 +21659,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>28.607744638524</v>
       </c>
@@ -21652,7 +21679,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>12.721196538475001</v>
       </c>
@@ -21672,7 +21699,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>8.1412469709550006</v>
       </c>
@@ -21692,7 +21719,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>23.976391888582999</v>
       </c>
@@ -21712,7 +21739,7 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>32.661469806021003</v>
       </c>
@@ -21732,7 +21759,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>39.767233249124999</v>
       </c>
@@ -21752,7 +21779,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>10.544</v>
       </c>
@@ -21772,7 +21799,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>14.722160793601001</v>
       </c>
@@ -21792,7 +21819,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>10.594007882210001</v>
       </c>
@@ -21812,7 +21839,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <f>AVERAGE(B3:B51)</f>
         <v>30.793815868219912</v>
@@ -21848,24 +21875,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -21873,7 +21900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
@@ -21881,12 +21908,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -21915,7 +21945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <f>D55</f>
         <v>0.91610186017854023</v>
@@ -21950,7 +21980,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <f>B5</f>
         <v>0.91610186017854023</v>
@@ -21985,7 +22015,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <f>B6</f>
         <v>0.91610186017854023</v>
@@ -22020,7 +22050,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <f>B7</f>
         <v>0.91610186017854023</v>
@@ -22055,7 +22085,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <f t="shared" ref="B9:B54" si="5">B8</f>
         <v>0.91610186017854023</v>
@@ -22090,7 +22120,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22125,7 +22155,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22160,7 +22190,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22195,7 +22225,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22230,7 +22260,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22265,7 +22295,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22300,7 +22330,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22335,7 +22365,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22370,7 +22400,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22405,7 +22435,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22440,7 +22470,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22475,7 +22505,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22510,7 +22540,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22545,7 +22575,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22580,7 +22610,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22615,7 +22645,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22650,7 +22680,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22685,7 +22715,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22720,7 +22750,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22755,7 +22785,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22790,7 +22820,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22825,7 +22855,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22860,7 +22890,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22895,7 +22925,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22930,7 +22960,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22965,7 +22995,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23000,7 +23030,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23035,7 +23065,7 @@
         <v>-2.949733433151597E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23070,7 +23100,7 @@
         <v>-2.9240982927106174E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23105,7 +23135,7 @@
         <v>-1.4365884498512879E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23140,7 +23170,7 @@
         <v>-1.1439574403560573E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23175,7 +23205,7 @@
         <v>6.5550037900623962E-6</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23210,7 +23240,7 @@
         <v>4.260001187246962E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23245,7 +23275,7 @@
         <v>1.1135326074616554E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23280,7 +23310,7 @@
         <v>2.5064468019412419E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23315,7 +23345,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23350,7 +23380,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23385,7 +23415,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23420,7 +23450,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23455,7 +23485,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23490,7 +23520,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23525,7 +23555,7 @@
         <v>1.1592790111378333</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23560,7 +23590,7 @@
         <v>1.1624006401585241</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23595,7 +23625,7 @@
         <v>1.165813263808597</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23630,7 +23660,7 @@
         <v>2.3186438802295499</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23665,7 +23695,7 @@
         <v>2.4145230810715312</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -23681,7 +23711,7 @@
         <v>0.91610186017854001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -23697,7 +23727,7 @@
         <v>0.26282524238527244</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -23706,12 +23736,12 @@
         <v>-0.17350563726348589</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>31</v>
       </c>
@@ -23734,7 +23764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D62">
         <v>0.91530000000300005</v>
       </c>
@@ -23761,7 +23791,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D63">
         <v>0.91530000000300005</v>
       </c>
@@ -23788,7 +23818,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D64">
         <v>1.2204000000040001</v>
       </c>
@@ -23815,7 +23845,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D65">
         <v>0.61020000000200003</v>
       </c>
@@ -23842,7 +23872,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D66">
         <v>0.91530000000300005</v>
       </c>
@@ -23869,7 +23899,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D67">
         <v>0.30510000000100002</v>
       </c>
@@ -23896,7 +23926,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D68">
         <v>1.5506994742060001</v>
       </c>
@@ -23923,7 +23953,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D69">
         <v>0.91530000000300005</v>
       </c>
@@ -23950,7 +23980,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D70">
         <v>0.61020000000200003</v>
       </c>
@@ -23977,7 +24007,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D71">
         <v>0.91610358299899997</v>
       </c>
@@ -24004,7 +24034,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D72">
         <v>1.221610090177</v>
       </c>
@@ -24031,7 +24061,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D73">
         <v>0.91530000000300005</v>
       </c>
@@ -24058,7 +24088,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D74">
         <v>0.91621382376299998</v>
       </c>
@@ -24085,7 +24115,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D75">
         <v>0.92268943506099999</v>
       </c>
@@ -24112,7 +24142,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D76">
         <v>0.61020000000200003</v>
       </c>
@@ -24139,7 +24169,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>0.91530000000300005</v>
       </c>
@@ -24166,7 +24196,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>0.91530000000300005</v>
       </c>
@@ -24193,7 +24223,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>0.91530000000300005</v>
       </c>
@@ -24220,7 +24250,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>1.2204000000040001</v>
       </c>
@@ -24247,7 +24277,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>0.91530000000300005</v>
       </c>
@@ -24274,7 +24304,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>0.30510000000100002</v>
       </c>
@@ -24301,7 +24331,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>0.91530000000300005</v>
       </c>
@@ -24328,7 +24358,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>1.2204000000040001</v>
       </c>
@@ -24355,7 +24385,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D85">
         <v>0.91530000000300005</v>
       </c>
@@ -24382,7 +24412,7 @@
         <v>-1.0817217722382295</v>
       </c>
     </row>
-    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>0.91572428847099996</v>
       </c>
@@ -24409,7 +24439,7 @@
         <v>-0.95887324401258467</v>
       </c>
     </row>
-    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>0.91530000000300005</v>
       </c>
@@ -24436,7 +24466,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>0.91580119928699999</v>
       </c>
@@ -24463,7 +24493,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D89">
         <v>1.220789647273</v>
       </c>
@@ -24490,7 +24520,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>1.2204000000040001</v>
       </c>
@@ -24517,7 +24547,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>0.61020000000200003</v>
       </c>
@@ -24544,7 +24574,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>0.91639452465600002</v>
       </c>
@@ -24571,7 +24601,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>0.91530000000300005</v>
       </c>
@@ -24598,7 +24628,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>0.91530000000300005</v>
       </c>
@@ -24625,7 +24655,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>0.91533333333599998</v>
       </c>
@@ -24652,7 +24682,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>0.91530000000300005</v>
       </c>
@@ -24679,7 +24709,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>0.91530000000300005</v>
       </c>
@@ -24706,7 +24736,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>0.61020000000200003</v>
       </c>
@@ -24733,7 +24763,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="99" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>0.915326595774</v>
       </c>
@@ -24760,7 +24790,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>0.91530000000300005</v>
       </c>
@@ -24787,7 +24817,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="101" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>0.61020000000200003</v>
       </c>
@@ -24814,7 +24844,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="102" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>1.222507013815</v>
       </c>
@@ -24841,7 +24871,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="103" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>1.2204000000040001</v>
       </c>
@@ -24868,7 +24898,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="104" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>1.5255000000050001</v>
       </c>
@@ -24895,7 +24925,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D105">
         <v>0.91530000000300005</v>
       </c>
@@ -24922,7 +24952,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="106" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>1.2204000000040001</v>
       </c>
@@ -24949,7 +24979,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>0.61020000000200003</v>
       </c>
@@ -24976,7 +25006,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>0.91530000000300005</v>
       </c>
@@ -25003,7 +25033,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="109" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>0.30510000000100002</v>
       </c>
@@ -25030,7 +25060,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>0.91530000000300005</v>
       </c>
@@ -25057,7 +25087,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>0.91530000000300005</v>
       </c>
@@ -25084,7 +25114,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>0.91530000000300005</v>
       </c>
@@ -25111,7 +25141,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>1.2204000000040001</v>
       </c>
@@ -25138,7 +25168,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>0.91530000000300005</v>
       </c>
@@ -25165,7 +25195,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>0.61020000000200003</v>
       </c>
@@ -25192,7 +25222,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>0.91530000000300005</v>
       </c>
@@ -25219,7 +25249,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>0.30510000000100002</v>
       </c>
@@ -25246,7 +25276,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>0.91530000000300005</v>
       </c>
@@ -25273,7 +25303,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>0.61020000000200003</v>
       </c>
@@ -25300,7 +25330,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>0.91530000000300005</v>
       </c>
@@ -25327,7 +25357,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>1.2204000000040001</v>
       </c>
@@ -25354,7 +25384,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>0.61020000000200003</v>
       </c>
@@ -25381,7 +25411,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D123">
         <v>0.61020000000200003</v>
       </c>
@@ -25408,7 +25438,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D124">
         <v>1.2204000000040001</v>
       </c>
@@ -25435,7 +25465,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D125">
         <v>0.64430279008400004</v>
       </c>
@@ -25462,7 +25492,7 @@
         <v>3.9920878350041163E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D126">
         <v>1.2204000000040001</v>
       </c>
@@ -25489,7 +25519,7 @@
         <v>3.994570804095153E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D127">
         <v>0.91530000000300005</v>
       </c>
@@ -25516,7 +25546,7 @@
         <v>4.1311977670285036E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D128">
         <v>0.93772873219300001</v>
       </c>
@@ -25543,7 +25573,7 @@
         <v>4.1386480706479323E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D129">
         <v>1.2205257633519999</v>
       </c>
@@ -25570,7 +25600,7 @@
         <v>4.1669917324791778E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D130">
         <v>0.91530000000300005</v>
       </c>
@@ -25597,7 +25627,7 @@
         <v>4.2784280963346917E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D131">
         <v>0.91530000000300005</v>
       </c>
@@ -25624,7 +25654,7 @@
         <v>4.3190547220466488E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D132">
         <v>0.91570407199600001</v>
       </c>
@@ -25651,7 +25681,7 @@
         <v>4.3856477614937286E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D133">
         <v>0.61020000000200003</v>
       </c>
@@ -25678,7 +25708,7 @@
         <v>4.4169432091506561E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D134">
         <v>0.30510000000100002</v>
       </c>
@@ -25705,7 +25735,7 @@
         <v>6.7054880785855808E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D135">
         <v>1.2208513528260001</v>
       </c>
@@ -25732,7 +25762,7 @@
         <v>0.12247865266325354</v>
       </c>
     </row>
-    <row r="136" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D136">
         <v>0.91530000000300005</v>
       </c>
@@ -25759,7 +25789,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="137" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D137">
         <v>1.2204000000040001</v>
       </c>
@@ -25786,7 +25816,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="138" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D138">
         <v>0.91530000000300005</v>
       </c>
@@ -25813,7 +25843,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="139" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D139">
         <v>0.30510000000100002</v>
       </c>
@@ -25840,7 +25870,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="140" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D140">
         <v>1.2214467787800001</v>
       </c>
@@ -25867,7 +25897,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="141" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D141">
         <v>1.2204000000040001</v>
       </c>
@@ -25894,7 +25924,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="142" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D142">
         <v>0.61020000000200003</v>
       </c>
@@ -25921,7 +25951,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="143" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D143">
         <v>0.91530000000300005</v>
       </c>
@@ -25948,7 +25978,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="144" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D144">
         <v>0.61020000000200003</v>
       </c>
@@ -25975,7 +26005,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="145" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D145">
         <v>0.91530000000300005</v>
       </c>
@@ -26002,7 +26032,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="146" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D146">
         <v>0.91530000000300005</v>
       </c>
@@ -26029,7 +26059,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="147" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D147">
         <v>1.2204000000040001</v>
       </c>
@@ -26056,7 +26086,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="148" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D148">
         <v>0.61020000000200003</v>
       </c>
@@ -26083,7 +26113,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="149" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D149">
         <v>1.2204000000040001</v>
       </c>
@@ -26110,7 +26140,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="150" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D150">
         <v>1.221454586945</v>
       </c>
@@ -26137,7 +26167,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="151" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D151">
         <v>0.91530000000300005</v>
       </c>
@@ -26164,7 +26194,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="152" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D152">
         <v>0.91530000000300005</v>
       </c>
@@ -26191,7 +26221,7 @@
         <v>1.1646602124126055</v>
       </c>
     </row>
-    <row r="153" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D153">
         <v>0.61020000000200003</v>
       </c>
@@ -26218,7 +26248,7 @@
         <v>1.1656326941789577</v>
       </c>
     </row>
-    <row r="154" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D154">
         <v>0.30510000000100002</v>
       </c>
@@ -26245,7 +26275,7 @@
         <v>1.1658600953974474</v>
       </c>
     </row>
-    <row r="155" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D155">
         <v>1.25854821737</v>
       </c>
@@ -26272,7 +26302,7 @@
         <v>1.168054396896695</v>
       </c>
     </row>
-    <row r="156" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D156">
         <v>1.2204000000040001</v>
       </c>
@@ -26299,7 +26329,7 @@
         <v>1.1680831720416993</v>
       </c>
     </row>
-    <row r="157" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D157">
         <v>0.91530000000300005</v>
       </c>
@@ -26326,7 +26356,7 @@
         <v>1.1686562424173239</v>
       </c>
     </row>
-    <row r="158" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D158">
         <v>0.91647944517299995</v>
       </c>
@@ -26353,7 +26383,7 @@
         <v>1.1719616423085322</v>
       </c>
     </row>
-    <row r="159" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D159">
         <v>0.61096771642100001</v>
       </c>
@@ -26380,7 +26410,7 @@
         <v>1.3047829720878932</v>
       </c>
     </row>
-    <row r="160" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:19" x14ac:dyDescent="0.35">
       <c r="D160">
         <v>1.2204000000040001</v>
       </c>
@@ -26407,7 +26437,7 @@
         <v>2.2885706167608397</v>
       </c>
     </row>
-    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:19" x14ac:dyDescent="0.35">
       <c r="D161">
         <v>0.91530000000300005</v>
       </c>
@@ -26434,7 +26464,7 @@
         <v>2.3814373177301857</v>
       </c>
     </row>
-    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C162" t="s">
         <v>29</v>
       </c>
@@ -26450,7 +26480,7 @@
         <v>0.90449402464180073</v>
       </c>
     </row>
-    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
         <v>30</v>
       </c>
@@ -26466,7 +26496,7 @@
         <v>0.27135102181909021</v>
       </c>
     </row>
-    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C164" t="s">
         <v>33</v>
       </c>
@@ -26493,16 +26523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -26522,7 +26552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26539,7 +26569,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2.4644617290999999E-2</v>
       </c>
@@ -26576,7 +26606,7 @@
       </c>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1.6200000002E-2</v>
       </c>
@@ -26603,7 +26633,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26650,7 +26680,7 @@
         <v>88.815110336073758</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26697,7 +26727,7 @@
         <v>2.2934625577585459</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26744,7 +26774,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>3.2795122231E-2</v>
       </c>
@@ -26791,7 +26821,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>3.2400000004E-2</v>
       </c>
@@ -26838,7 +26868,7 @@
         <v>22.934625577585461</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>2.9633333336999999E-2</v>
       </c>
@@ -26885,7 +26915,7 @@
         <v>525.99705038403715</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26932,7 +26962,7 @@
         <v>0.23705058136283474</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26979,7 +27009,7 @@
         <v>6.8021854875333757E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27026,7 +27056,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27073,7 +27103,7 @@
         <v>30.005100000001001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27120,7 +27150,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>2.5733333340000001E-2</v>
       </c>
@@ -27167,7 +27197,7 @@
         <v>8881.5110336073758</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2.4526741179999999E-2</v>
       </c>
@@ -27214,7 +27244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>2.696666667E-2</v>
       </c>
@@ -27261,7 +27291,7 @@
         <v>4.5507272849332479</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1.6200000002E-2</v>
       </c>
@@ -27278,7 +27308,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>3.0300000003999999E-2</v>
       </c>
@@ -27295,7 +27325,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>3.2400000004E-2</v>
       </c>
@@ -27335,7 +27365,7 @@
         <v>88.815110336073758</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2.7000000002999999E-2</v>
       </c>
@@ -27375,7 +27405,7 @@
         <v>4.5507272849332479</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2.5933333342999999E-2</v>
       </c>
@@ -27392,7 +27422,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>1.7533333341000001E-2</v>
       </c>
@@ -27409,7 +27439,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1.6200000002E-2</v>
       </c>
@@ -27426,7 +27456,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>2.4333333336000001E-2</v>
       </c>
@@ -27443,7 +27473,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27460,7 +27490,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27477,7 +27507,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1.8866666668999998E-2</v>
       </c>
@@ -27494,7 +27524,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27511,7 +27541,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>8.100000001E-3</v>
       </c>
@@ -27528,7 +27558,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>2.4754959478999999E-2</v>
       </c>
@@ -27545,7 +27575,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>3.1300000004000003E-2</v>
       </c>
@@ -27562,7 +27592,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27579,7 +27609,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>1.6200000002E-2</v>
       </c>
@@ -27596,7 +27626,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -27613,7 +27643,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>3.3600000009E-2</v>
       </c>
@@ -27630,7 +27660,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2.5833333340999999E-2</v>
       </c>
@@ -27647,7 +27677,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>5.2442095458999999E-2</v>
       </c>
@@ -27664,7 +27694,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>3.2400000004E-2</v>
       </c>
@@ -27681,7 +27711,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>3.5800000011999997E-2</v>
       </c>
@@ -27698,7 +27728,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>3.5633333337999999E-2</v>
       </c>
@@ -27715,7 +27745,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>1.7733333340000001E-2</v>
       </c>
@@ -27732,7 +27762,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>2.6986828327000001E-2</v>
       </c>
@@ -27749,7 +27779,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>3.0202053311E-2</v>
       </c>
@@ -27766,7 +27796,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>3.4856977349999999E-2</v>
       </c>
@@ -27783,7 +27813,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>2.8633333338E-2</v>
       </c>
@@ -27800,7 +27830,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27817,7 +27847,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>2.9739232094999998E-2</v>
       </c>
@@ -27834,7 +27864,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>3.0014655859000001E-2</v>
       </c>
@@ -27851,7 +27881,7 @@
         <v>30.005111111112001</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>1.6200000002E-2</v>
       </c>
@@ -27868,7 +27898,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>3.2400000004E-2</v>
       </c>
@@ -27885,7 +27915,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>4.0500000005000002E-2</v>
       </c>
@@ -27902,7 +27932,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>4.8500000012E-2</v>
       </c>
@@ -27919,7 +27949,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27936,7 +27966,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>3.2400000004E-2</v>
       </c>
@@ -27953,7 +27983,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>1.6200000002E-2</v>
       </c>
@@ -27970,7 +28000,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>3.4583902894999997E-2</v>
       </c>
@@ -27987,7 +28017,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28004,7 +28034,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>1.6200000002E-2</v>
       </c>
@@ -28021,7 +28051,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>5.6833333340999999E-2</v>
       </c>
@@ -28038,7 +28068,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>2.696666667E-2</v>
       </c>
@@ -28055,7 +28085,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>2.5400000012000001E-2</v>
       </c>
@@ -28072,7 +28102,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28089,7 +28119,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>4.0500000005000002E-2</v>
       </c>
@@ -28106,7 +28136,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>2.6633333344000001E-2</v>
       </c>
@@ -28123,7 +28153,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>3.2400000004E-2</v>
       </c>
@@ -28140,7 +28170,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>1.6200000002E-2</v>
       </c>
@@ -28157,7 +28187,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28174,7 +28204,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -28191,7 +28221,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0.12069403091600001</v>
       </c>
@@ -28208,7 +28238,7 @@
         <v>120.020444444448</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>2.5700000011E-2</v>
       </c>
@@ -28225,7 +28255,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>1.2433333335E-2</v>
       </c>
@@ -28242,7 +28272,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>1.7733333342000002E-2</v>
       </c>
@@ -28259,7 +28289,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>1.6200000002E-2</v>
       </c>
@@ -28276,7 +28306,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>3.2400000004E-2</v>
       </c>
@@ -28293,7 +28323,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>2.5833333340999999E-2</v>
       </c>
@@ -28310,7 +28340,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>2.696666667E-2</v>
       </c>
@@ -28327,7 +28357,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28344,7 +28374,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>3.2400000004E-2</v>
       </c>
@@ -28361,7 +28391,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -28378,7 +28408,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>2.8633333337000001E-2</v>
       </c>
@@ -28395,7 +28425,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>3.2400000004E-2</v>
       </c>
@@ -28412,7 +28442,7 @@
         <v>90.015333333336002</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>2.696666667E-2</v>
       </c>
@@ -28429,7 +28459,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>2.696666667E-2</v>
       </c>
@@ -28446,7 +28476,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>3.1218777297999999E-2</v>
       </c>
@@ -28463,7 +28493,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>2.3200000003000001E-2</v>
       </c>
@@ -28480,7 +28510,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>1.6200000002E-2</v>
       </c>
@@ -28497,7 +28527,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>2.1533333336E-2</v>
       </c>
@@ -28514,7 +28544,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>4.2064791759999998E-2</v>
       </c>
@@ -28531,7 +28561,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>8.100000001E-3</v>
       </c>
@@ -28548,7 +28578,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28565,7 +28595,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>3.2400000004E-2</v>
       </c>
@@ -28582,7 +28612,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>3.1300000004000003E-2</v>
       </c>
@@ -28599,7 +28629,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28616,7 +28646,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>3.3951164999E-2</v>
       </c>
@@ -28633,7 +28663,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>1.6200000002E-2</v>
       </c>
@@ -28650,7 +28680,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>4.1600000009999999E-2</v>
       </c>
@@ -28667,7 +28697,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>2.3200000003000001E-2</v>
       </c>
@@ -28684,7 +28714,7 @@
         <v>90.016600273750996</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>1.6200000002E-2</v>
       </c>
@@ -28701,7 +28731,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>1.7966666676000002E-2</v>
       </c>
@@ -28718,7 +28748,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>2.7654759508129994E-2</v>
@@ -28750,16 +28780,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -28782,7 +28812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>0.916170762207</v>
       </c>
@@ -28802,7 +28832,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1.2200000000040001</v>
       </c>
@@ -28822,7 +28852,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.61000000000200005</v>
       </c>
@@ -28866,7 +28896,7 @@
       </c>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1.2207939886120001</v>
       </c>
@@ -28898,7 +28928,7 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.91500000000299997</v>
       </c>
@@ -28954,7 +28984,7 @@
         <v>0.88954687804625943</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.61000000000200005</v>
       </c>
@@ -29010,7 +29040,7 @@
         <v>2.4554749416613952E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.61000000000200005</v>
       </c>
@@ -29066,7 +29096,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.91500000000299997</v>
       </c>
@@ -29122,7 +29152,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.91500000000299997</v>
       </c>
@@ -29178,7 +29208,7 @@
         <v>0.24554749416613952</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.91500000000299997</v>
       </c>
@@ -29234,7 +29264,7 @@
         <v>6.0293571891270319E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.61000000000200005</v>
       </c>
@@ -29290,7 +29320,7 @@
         <v>0.15774914343360402</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.91500000000299997</v>
       </c>
@@ -29346,7 +29376,7 @@
         <v>0.28698310563254098</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.91500000000299997</v>
       </c>
@@ -29402,7 +29432,7 @@
         <v>1.2213777777800001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.91500000000299997</v>
       </c>
@@ -29458,7 +29488,7 @@
         <v>0.30534444444499997</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.91500000000299997</v>
       </c>
@@ -29514,7 +29544,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.91524724544699998</v>
       </c>
@@ -29570,7 +29600,7 @@
         <v>88.954687804625948</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.91500000000299997</v>
       </c>
@@ -29626,7 +29656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>0.61000000000200005</v>
       </c>
@@ -29682,7 +29712,7 @@
         <v>4.8721950034402078E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>0.91629512614399999</v>
       </c>
@@ -29702,7 +29732,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.95015094174600001</v>
       </c>
@@ -29722,7 +29752,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1.2200000000040001</v>
       </c>
@@ -29769,7 +29799,7 @@
         <v>0.88954687804625943</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.94082165876000001</v>
       </c>
@@ -29816,7 +29846,7 @@
         <v>4.8721950034402078E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0.91500000000299997</v>
       </c>
@@ -29836,7 +29866,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.91500000000299997</v>
       </c>
@@ -29856,7 +29886,7 @@
         <v>0.91622756197099997</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0.91500000000299997</v>
       </c>
@@ -29876,7 +29906,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.91500000000299997</v>
       </c>
@@ -29896,7 +29926,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.91500000000299997</v>
       </c>
@@ -29916,7 +29946,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.91500000000299997</v>
       </c>
@@ -29936,7 +29966,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1.2200000000040001</v>
       </c>
@@ -29956,7 +29986,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.91500000000299997</v>
       </c>
@@ -29976,7 +30006,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>1.222522757191</v>
       </c>
@@ -29996,7 +30026,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.91500000000299997</v>
       </c>
@@ -30016,7 +30046,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.91500000000299997</v>
       </c>
@@ -30036,7 +30066,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.91556349220300004</v>
       </c>
@@ -30056,7 +30086,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.61000000000200005</v>
       </c>
@@ -30076,7 +30106,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.91500000000299997</v>
       </c>
@@ -30096,7 +30126,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.91544611383800001</v>
       </c>
@@ -30116,7 +30146,7 @@
         <v>0.91647793898499996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.61000000000200005</v>
       </c>
@@ -30136,7 +30166,7 @@
         <v>0.91606666666799996</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.61000000000200005</v>
       </c>
@@ -30156,7 +30186,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.91500000000299997</v>
       </c>
@@ -30176,7 +30206,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0.61000000000200005</v>
       </c>
@@ -30196,7 +30226,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0.61000000000200005</v>
       </c>
@@ -30216,7 +30246,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0.91500000000299997</v>
       </c>
@@ -30236,7 +30266,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1.5250000000049999</v>
       </c>
@@ -30256,7 +30286,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1.2200000000040001</v>
       </c>
@@ -30276,7 +30306,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0.91633192089799997</v>
       </c>
@@ -30296,7 +30326,7 @@
         <v>0.91763430309399996</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0.61000000000200005</v>
       </c>
@@ -30316,7 +30346,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.91500000000299997</v>
       </c>
@@ -30336,7 +30366,7 @@
         <v>0.64223455506899996</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0.91500000000299997</v>
       </c>
@@ -30356,7 +30386,7 @@
         <v>0.91648356280999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0.91533784900799997</v>
       </c>
@@ -30376,7 +30406,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0.61000000000200005</v>
       </c>
@@ -30396,7 +30426,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0.91504734007800004</v>
       </c>
@@ -30416,7 +30446,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>1.2200000000040001</v>
       </c>
@@ -30436,7 +30466,7 @@
         <v>1.2224174045709999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>1.2200000000040001</v>
       </c>
@@ -30456,7 +30486,7 @@
         <v>1.2230929117589999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>1.2200000000040001</v>
       </c>
@@ -30476,7 +30506,7 @@
         <v>0.928587188033</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>0.91500000000299997</v>
       </c>
@@ -30496,7 +30526,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0.91500000000299997</v>
       </c>
@@ -30516,7 +30546,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>1.2200000000040001</v>
       </c>
@@ -30536,7 +30566,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0.91500000000299997</v>
       </c>
@@ -30556,7 +30586,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>1.2200000000040001</v>
       </c>
@@ -30576,7 +30606,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>1.2200000000040001</v>
       </c>
@@ -30596,7 +30626,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0.91500000000299997</v>
       </c>
@@ -30616,7 +30646,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>0.91500000000299997</v>
       </c>
@@ -30636,7 +30666,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0.91500000000299997</v>
       </c>
@@ -30656,7 +30686,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>1.2200000000040001</v>
       </c>
@@ -30676,7 +30706,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>0.91500000000299997</v>
       </c>
@@ -30696,7 +30726,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0.61000000000200005</v>
       </c>
@@ -30716,7 +30746,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0.91500000000299997</v>
       </c>
@@ -30736,7 +30766,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>0.91519261229799997</v>
       </c>
@@ -30756,7 +30786,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0.61000000000200005</v>
       </c>
@@ -30776,7 +30806,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>0.61000000000200005</v>
       </c>
@@ -30796,7 +30826,7 @@
         <v>0.30534444444499997</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>0.30500000000100003</v>
       </c>
@@ -30816,7 +30846,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>0.91500000000299997</v>
       </c>
@@ -30836,7 +30866,7 @@
         <v>0.63505757988599998</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>0.61000000000200005</v>
       </c>
@@ -30856,7 +30886,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>0.91500000000299997</v>
       </c>
@@ -30876,7 +30906,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>1.2200000000040001</v>
       </c>
@@ -30896,7 +30926,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0.61000000000200005</v>
       </c>
@@ -30916,7 +30946,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>1.2200000000040001</v>
       </c>
@@ -30936,7 +30966,7 @@
         <v>1.2284880591509999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>1.2200000000040001</v>
       </c>
@@ -30956,7 +30986,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>1.2200000000040001</v>
       </c>
@@ -30976,7 +31006,7 @@
         <v>0.61163649369499995</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>0.91500000000299997</v>
       </c>
@@ -30996,7 +31026,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0.91500000000299997</v>
       </c>
@@ -31016,7 +31046,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0.91500000000299997</v>
       </c>
@@ -31036,7 +31066,7 @@
         <v>0.91742127945800001</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>0.91500000000299997</v>
       </c>
@@ -31056,7 +31086,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0.91500000000299997</v>
       </c>
@@ -31076,7 +31106,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>0.91500000000299997</v>
       </c>
@@ -31096,7 +31126,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>0.61160667558699999</v>
       </c>
@@ -31116,7 +31146,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>0.91500000000299997</v>
       </c>
@@ -31136,7 +31166,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>0.91500000000299997</v>
       </c>
@@ -31156,7 +31186,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>0.91500000000299997</v>
       </c>
@@ -31176,7 +31206,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0.91500000000299997</v>
       </c>
@@ -31196,7 +31226,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>0.91500000000299997</v>
       </c>
@@ -31216,7 +31246,7 @@
         <v>0.91655919102500005</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>0.91500000000299997</v>
       </c>
@@ -31236,7 +31266,7 @@
         <v>0.306202930742</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>1.2200000000040001</v>
       </c>
@@ -31256,7 +31286,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>1.2200000000040001</v>
       </c>
@@ -31276,7 +31306,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>0.91632610287600003</v>
       </c>
@@ -31296,7 +31326,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>0.91644274472300002</v>
       </c>
@@ -31316,7 +31346,7 @@
         <v>1.2324174717859999</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>0.91500000000299997</v>
       </c>
@@ -31336,7 +31366,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0.61000000000200005</v>
       </c>
@@ -31356,7 +31386,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>0.91500000000299997</v>
       </c>
@@ -31376,7 +31406,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>0.91574297331867116</v>
@@ -31412,16 +31442,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB00259A-76EF-42CC-A63F-F0BB8151E029}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -31441,7 +31471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>0.30501111111200002</v>
       </c>
@@ -31458,7 +31488,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.2200444444480001</v>
       </c>
@@ -31495,7 +31525,7 @@
       </c>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.61002222222400004</v>
       </c>
@@ -31522,7 +31552,7 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.91624015596800001</v>
       </c>
@@ -31569,7 +31599,7 @@
         <v>0.9119832222248806</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.61002222222400004</v>
       </c>
@@ -31616,7 +31646,7 @@
         <v>2.4712764554024602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.91503333333600001</v>
       </c>
@@ -31663,7 +31693,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.91503333333600001</v>
       </c>
@@ -31710,7 +31740,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.916055631717</v>
       </c>
@@ -31757,7 +31787,7 @@
         <v>0.24712764554024602</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.96103871142099995</v>
       </c>
@@ -31804,7 +31834,7 @@
         <v>6.1072073190265481E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.91503333333600001</v>
       </c>
@@ -31851,7 +31881,7 @@
         <v>1.9206503818258724E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.91503333333600001</v>
       </c>
@@ -31898,7 +31928,7 @@
         <v>-0.33040848667311717</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.91503333333600001</v>
       </c>
@@ -31945,7 +31975,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.91558121401500003</v>
       </c>
@@ -31992,7 +32022,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>1.2200444444480001</v>
       </c>
@@ -32039,7 +32069,7 @@
         <v>1.5250555555600001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>1.2200444444480001</v>
       </c>
@@ -32086,7 +32116,7 @@
         <v>91.198322222488059</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.61002222222400004</v>
       </c>
@@ -32133,7 +32163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1.227460455875</v>
       </c>
@@ -32180,7 +32210,7 @@
         <v>4.9035486348659542E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.91503333333600001</v>
       </c>
@@ -32197,7 +32227,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>1.2200444444480001</v>
       </c>
@@ -32214,7 +32244,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>0.91697334089500004</v>
       </c>
@@ -32254,7 +32284,7 @@
         <v>0.9119832222248806</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>0.91503333333600001</v>
       </c>
@@ -32294,7 +32324,7 @@
         <v>4.9035486348659542E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>0.91503333333600001</v>
       </c>
@@ -32311,7 +32341,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>0.61002222222400004</v>
       </c>
@@ -32328,7 +32358,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0.91503333333600001</v>
       </c>
@@ -32345,7 +32375,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>0.65612340258099999</v>
       </c>
@@ -32362,7 +32392,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>0.91503333333600001</v>
       </c>
@@ -32379,7 +32409,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>0.91503333333600001</v>
       </c>
@@ -32396,7 +32426,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>0.91503333333600001</v>
       </c>
@@ -32413,7 +32443,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>0.91521731987999999</v>
       </c>
@@ -32430,7 +32460,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>0.91654312403799998</v>
       </c>
@@ -32447,7 +32477,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>0.91503333333600001</v>
       </c>
@@ -32464,7 +32494,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>0.61002222222400004</v>
       </c>
@@ -32481,7 +32511,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>0.61002222222400004</v>
       </c>
@@ -32498,7 +32528,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>0.91554289391800003</v>
       </c>
@@ -32515,7 +32545,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>0.91587162336899997</v>
       </c>
@@ -32532,7 +32562,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>0.61002222222400004</v>
       </c>
@@ -32549,7 +32579,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>0.61002222222400004</v>
       </c>
@@ -32566,7 +32596,7 @@
         <v>1.5250555555600001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>0.91503333333600001</v>
       </c>
@@ -32583,7 +32613,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>0.91503333333600001</v>
       </c>
@@ -32600,7 +32630,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>0.91503333333600001</v>
       </c>
@@ -32617,7 +32647,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0.91503333333600001</v>
       </c>
@@ -32634,7 +32664,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>0.93468060279300003</v>
       </c>
@@ -32651,7 +32681,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>0.91503333333600001</v>
       </c>
@@ -32668,7 +32698,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0.91503333333600001</v>
       </c>
@@ -32685,7 +32715,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>0.64141482203599998</v>
       </c>
@@ -32702,7 +32732,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>0.91503333333600001</v>
       </c>
@@ -32719,7 +32749,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>0.91503333333600001</v>
       </c>
@@ -32736,7 +32766,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>0.30501111111200002</v>
       </c>
@@ -32753,7 +32783,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>0.91503333333600001</v>
       </c>
@@ -32770,7 +32800,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>0.61002222222400004</v>
       </c>
@@ -32787,7 +32817,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>0.91503333333600001</v>
       </c>
@@ -32804,7 +32834,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>0.61002222222400004</v>
       </c>
@@ -32821,7 +32851,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>0.91503333333600001</v>
       </c>
@@ -32838,7 +32868,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>1.2208991842579999</v>
       </c>
@@ -32855,7 +32885,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>1.222704626998</v>
       </c>
@@ -32872,7 +32902,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>0.91503333333600001</v>
       </c>
@@ -32889,7 +32919,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>0.91503333333600001</v>
       </c>
@@ -32906,7 +32936,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>1.2200444444480001</v>
       </c>
@@ -32923,7 +32953,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>0.91503333333600001</v>
       </c>
@@ -32940,7 +32970,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>0.91503333333600001</v>
       </c>
@@ -32957,7 +32987,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>0.30501111111200002</v>
       </c>
@@ -32974,7 +33004,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>0.91570979829700005</v>
       </c>
@@ -32991,7 +33021,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>1.2215543676159999</v>
       </c>
@@ -33008,7 +33038,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>0.92777551295399996</v>
       </c>
@@ -33025,7 +33055,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>0.30501111111200002</v>
       </c>
@@ -33042,7 +33072,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>1.5258005064710001</v>
       </c>
@@ -33059,7 +33089,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0.99248528832299998</v>
       </c>
@@ -33076,7 +33106,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>0.61002222222400004</v>
       </c>
@@ -33093,7 +33123,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>0.91503333333600001</v>
       </c>
@@ -33110,7 +33140,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>1.2200444444480001</v>
       </c>
@@ -33127,7 +33157,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>0.61166896979100005</v>
       </c>
@@ -33144,7 +33174,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>0.30501111111200002</v>
       </c>
@@ -33161,7 +33191,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>0.91503333333600001</v>
       </c>
@@ -33178,7 +33208,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>0.91503333333600001</v>
       </c>
@@ -33195,7 +33225,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>0.91503333333600001</v>
       </c>
@@ -33212,7 +33242,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>0.91503333333600001</v>
       </c>
@@ -33229,7 +33259,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>0.93549167319600002</v>
       </c>
@@ -33246,7 +33276,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>1.2200444444480001</v>
       </c>
@@ -33263,7 +33293,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0.61002222222400004</v>
       </c>
@@ -33280,7 +33310,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>1.261295621898</v>
       </c>
@@ -33297,7 +33327,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>0.91503333333600001</v>
       </c>
@@ -33314,7 +33344,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>0.91503333333600001</v>
       </c>
@@ -33331,7 +33361,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>0.61149029819199996</v>
       </c>
@@ -33348,7 +33378,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>0.91503333333600001</v>
       </c>
@@ -33365,7 +33395,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0.91503333333600001</v>
       </c>
@@ -33382,7 +33412,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>0.91503333333600001</v>
       </c>
@@ -33399,7 +33429,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>1.2200444444480001</v>
       </c>
@@ -33416,7 +33446,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>0.92908678728299998</v>
       </c>
@@ -33433,7 +33463,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>0.91503333333600001</v>
       </c>
@@ -33450,7 +33480,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>0.61002222222400004</v>
       </c>
@@ -33467,7 +33497,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0.61002222222400004</v>
       </c>
@@ -33484,7 +33514,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>0.91503333333600001</v>
       </c>
@@ -33501,7 +33531,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>1.220048097594</v>
       </c>
@@ -33518,7 +33548,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>0.61002222222400004</v>
       </c>
@@ -33535,7 +33565,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>0.91503333333600001</v>
       </c>
@@ -33552,7 +33582,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>0.305133712547</v>
       </c>
@@ -33569,7 +33599,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>0.61602036755199996</v>
       </c>
@@ -33586,7 +33616,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>0.69821994170199997</v>
       </c>
@@ -33603,7 +33633,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>0.91503333333600001</v>
       </c>
@@ -33620,7 +33650,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>0.61002222222400004</v>
       </c>
@@ -33637,7 +33667,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>0.86441294720018025</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD4E97-9DC8-4ED8-9E27-27231D0A8986}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4348D64E-BB65-4195-9F4E-5726F14571B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3165" windowWidth="21600" windowHeight="11160" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-1395" yWindow="5415" windowWidth="21600" windowHeight="11160" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -14930,8 +14930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5781674" y="585787"/>
-              <a:ext cx="4733925" cy="2647950"/>
+              <a:off x="5553074" y="595312"/>
+              <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15044,8 +15044,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5895975" y="11417300"/>
-              <a:ext cx="4733925" cy="2647950"/>
+              <a:off x="5667375" y="11801475"/>
+              <a:ext cx="4733925" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15648,27 +15648,27 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>24</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
       <c r="B3" s="4">
         <v>2</v>
@@ -15799,7 +15799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="4">
         <v>3</v>
@@ -15844,7 +15844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="4">
         <v>4</v>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="4">
         <v>5</v>
@@ -15931,7 +15931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="4">
         <v>6</v>
@@ -15973,7 +15973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>25</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="5">
         <v>2</v>
@@ -16063,7 +16063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -16107,7 +16107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="6">
         <v>2</v>
@@ -16191,7 +16191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="6">
         <v>3</v>
@@ -16232,7 +16232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="6">
         <v>4</v>
@@ -16273,7 +16273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="6">
         <v>5</v>
@@ -16314,7 +16314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="6">
         <v>6</v>
@@ -16355,7 +16355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>2</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>47</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="11">
         <v>2</v>
@@ -16572,7 +16572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="10">
         <v>3</v>
@@ -16613,7 +16613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="11">
         <v>4</v>
@@ -16654,7 +16654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="10">
         <v>5</v>
@@ -16695,7 +16695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>57</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12">
         <v>2</v>
@@ -16782,7 +16782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="12">
         <v>3</v>
@@ -16823,7 +16823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="12">
         <v>4</v>
@@ -16864,7 +16864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12">
         <v>5</v>
@@ -16905,7 +16905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12">
         <v>6</v>
@@ -16946,7 +16946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>58</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="14">
         <v>2</v>
@@ -17030,7 +17030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="14">
         <v>3</v>
@@ -17071,7 +17071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="14">
         <v>4</v>
@@ -17112,7 +17112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="14">
         <v>5</v>
@@ -17153,7 +17153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>91</v>
       </c>
@@ -17169,7 +17169,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -17182,7 +17182,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -17195,7 +17195,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -17208,7 +17208,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -17221,7 +17221,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -17234,7 +17234,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -17247,7 +17247,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="F49" s="7"/>
     </row>
@@ -17273,13 +17273,13 @@
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.91530000000300005</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.61020000000200003</v>
       </c>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.30510000000100002</v>
       </c>
@@ -17386,7 +17386,7 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.30510000000100002</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>1.0695115236070001</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.61020000000200003</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>8.5018079230275018E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.61020000000200003</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>0.97033335269749998</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.30510000000100002</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.2204000000040001</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>0.20825091302568619</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.91530000000300005</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>4.3368442776031912E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.30510000000100002</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>0.33027136427514669</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.2204000000040001</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>1.2772222108687623</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.30510000000100002</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>0.50855585887099997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.61020000000200003</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.61020000000200003</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>1.423855858874</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.61020000000200003</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>6.417069141642</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.61020000000200003</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.91530000000300005</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>0.21854593017003399</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.61020000000200003</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.30511111111200001</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.30510000000100002</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.30510000000100002</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>1.0695115236070001</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.91530000000300005</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>0.21854593017003399</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.91530000000300005</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.61020000000200003</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1.2204000000040001</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0.91572428847099996</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.91530000000300005</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.91530000000300005</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0.91580119928699999</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.30510000000100002</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.61020000000200003</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.91530000000300005</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.2204000000040001</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>0.91639452465600002</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.91530000000300005</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.61020000000200003</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.61293325438599999</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>0.91533333333599998</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.91530000000300005</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.30510000000100002</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.30510000000100002</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.30510000000100002</v>
       </c>
@@ -18357,7 +18357,7 @@
         <v>0.915326595774</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.2204000000040001</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.61020000000200003</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.2204000000040001</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>1.222507013815</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.61020000000200003</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.30510000000100002</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.30510000000100002</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.61020000000200003</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.61020000000200003</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.91530000000300005</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.61020000000200003</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.61020000000200003</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.30510000000100002</v>
       </c>
@@ -18525,7 +18525,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.65907088731205998</v>
@@ -18565,13 +18565,13 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.91530000000300005</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.91530000000300005</v>
       </c>
@@ -18619,7 +18619,7 @@
       </c>
       <c r="N3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.2204000000040001</v>
       </c>
@@ -18636,7 +18636,7 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.61020000000200003</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>0.88866890437745838</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.91530000000300005</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>2.2883776814626361E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.30510000000100002</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.5506994742060001</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.91530000000300005</v>
       </c>
@@ -18781,7 +18781,7 @@
         <v>0.29836794570006558</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.61020000000200003</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>8.9023431021277272E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.91610358299899997</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>-0.44256535023355958</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.221610090177</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>-0.18942064705263315</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.91530000000300005</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>1.2333070988670001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.91621382376299998</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.92268943506099999</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>1.5384070988680001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.61020000000200003</v>
       </c>
@@ -18984,7 +18984,7 @@
         <v>151.07371374416792</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.91530000000300005</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.91530000000300005</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>4.5174874047932294E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.91530000000300005</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1.2204000000040001</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.91530000000300005</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>0.88866890437745838</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.30510000000100002</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>4.5174874047932294E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.91530000000300005</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.2204000000040001</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.91530000000300005</v>
       </c>
@@ -19149,7 +19149,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.91572428847099996</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.91530000000300005</v>
       </c>
@@ -19171,7 +19171,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.91580119928699999</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.220789647273</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.2204000000040001</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.61020000000200003</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>0.61022222222400002</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.91639452465600002</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.91530000000300005</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.91530000000300005</v>
       </c>
@@ -19251,7 +19251,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.91533333333599998</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.91530000000300005</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.91530000000300005</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>0.91718800025799996</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.61020000000200003</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.915326595774</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.91530000000300005</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.61020000000200003</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.222507013815</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.2204000000040001</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1.5255000000050001</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.91530000000300005</v>
       </c>
@@ -19372,7 +19372,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1.2204000000040001</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.61020000000200003</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.91530000000300005</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.30510000000100002</v>
       </c>
@@ -19416,7 +19416,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.91530000000300005</v>
       </c>
@@ -19427,7 +19427,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.91530000000300005</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.91610186017854023</v>
@@ -19450,7 +19450,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>1.5395876522780001</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>1.118633333337</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>0.91580119928699999</v>
       </c>
@@ -19466,7 +19466,7 @@
         <v>1.220582246283</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>1.2204000000040001</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>1.2204000000040001</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>0.91530000000300005</v>
       </c>
@@ -19490,7 +19490,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>1.2204000000040001</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>1.5255000000050001</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>0.91530000000300005</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>1.2204000000040001</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>1.2204000000040001</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>1.2204000000040001</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>1.2204000000040001</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>1.2209736502540001</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>1.2204000000040001</v>
       </c>
@@ -19554,7 +19554,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>0.91530000000300005</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>0.92289895828400004</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>0.61020000000200003</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>0.30520000000300002</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>1.2204000000040001</v>
       </c>
@@ -19578,7 +19578,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>0.61022222222400002</v>
       </c>
@@ -19586,7 +19586,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>0.91530000000300005</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>1.5276068351000001</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>0.91530000000300005</v>
       </c>
@@ -19610,7 +19610,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>1.2204000000040001</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>0.61020000000200003</v>
       </c>
@@ -19626,7 +19626,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>0.61020000000200003</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>1.3364599372699999</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>0.915326595774</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>1.323053183736</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>0.91530000000300005</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>1.5255000000050001</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>0.91530000000300005</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>0.61020000000200003</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>1.5255000000050001</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>0.91530000000300005</v>
       </c>
@@ -19690,7 +19690,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>0.91530000000300005</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>0.61084038065199997</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>1.2204000000040001</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>0.30510000000100002</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>0.91530000000300005</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>0.61020000000200003</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>0.91530000000300005</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>0.91530000000300005</v>
       </c>
@@ -19746,7 +19746,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>1.5255000000050001</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>0.91530000000300005</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>1.5384070988680001</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>0.30510000000100002</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>0.91530000000300005</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>1.220600000008</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>1.2210915012470001</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>0.30510000000100002</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>0.30511111111200001</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>0.91550000000700005</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>1.2204000000040001</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>0.30510000000100002</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>0.91530000000300005</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>0.98059810808299996</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="7">
         <f>AVERAGE(C2:C101)</f>
         <v>0.99138745213406054</v>
@@ -19851,352 +19851,352 @@
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>0.91686666667000005</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>1.5304000000060001</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>1.2214198581310001</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.71176666666900001</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>1.2253000000050001</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.91674478006500004</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>1.2308922936190001</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>1.221645148516</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>0.61537386395000004</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>0.93349356470199996</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>0.93779698294799996</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>0.91533333333599998</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>1.5255000000050001</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>0.91643363415099999</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>0.91530000000300005</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>0.30510000000100002</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>1.2204000000040001</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>0.61020000000200003</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>0.91588086857700002</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="7">
         <f>AVERAGE(D2:D171)</f>
         <v>0.88866890437745838</v>
@@ -20216,13 +20216,13 @@
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>9.0206898844950008</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>8.1138732029790006</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>86.067229126341999</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>54.070096199817002</v>
       </c>
@@ -20349,7 +20349,7 @@
       </c>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.367122357386</v>
       </c>
@@ -20381,7 +20381,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>12.070704133185</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>0.85210429759999984</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>18.447748734832</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>2.1618965876333159E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>23.197372250868</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>44.948244063537999</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>57.710943001135</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>0.1528691737339575</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>24.943014619688</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>2.336898427810288E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>72.021443379562996</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>0.54937545153038503</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13.29247041627</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>-0.27156897758618631</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>49.968599852063001</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12.860552572982</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>60.394606775823</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>39.426105506888</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>42.605214879999991</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3.972</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>9.0575738742429994</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>4.3444938477421133E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>13.397505731812</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>143.93527849712899</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>55.563554033761001</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>0.85210429759999984</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>93.640797061903996</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>4.3444938477421133E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>32.155406817093997</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>18.171900619224999</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>9.5322335704780006</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>12.720240520995</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>8.3306891203820008</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>1.2001468799999999</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>23.585135122760999</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>48.680945211054997</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>14.783931176242</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>11.740539271312</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9.730876510621</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>13.138436714696001</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>16.969290059820999</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8.1146932180049998</v>
       </c>
@@ -21559,7 +21559,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>80.001357786857</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>58.296201882939002</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>14.434934680985</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>8.3342570105539995</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>26.973621089051999</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>28.607744638524</v>
       </c>
@@ -21679,7 +21679,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>12.721196538475001</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>8.1412469709550006</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>23.976391888582999</v>
       </c>
@@ -21739,7 +21739,7 @@
         <v>0.90011039999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>32.661469806021003</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>39.767233249124999</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>10.544</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>14.722160793601001</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>0.60007343999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>10.594007882210001</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>0.90011015999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f>AVERAGE(B3:B51)</f>
         <v>30.793815868219912</v>
@@ -21879,20 +21879,20 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
@@ -21908,12 +21908,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <f>D55</f>
         <v>0.91610186017854023</v>
@@ -21980,7 +21980,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <f>B5</f>
         <v>0.91610186017854023</v>
@@ -22015,7 +22015,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <f>B6</f>
         <v>0.91610186017854023</v>
@@ -22050,7 +22050,7 @@
         <v>-2.3247457307844104</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>B7</f>
         <v>0.91610186017854023</v>
@@ -22085,7 +22085,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <f t="shared" ref="B9:B54" si="5">B8</f>
         <v>0.91610186017854023</v>
@@ -22120,7 +22120,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22155,7 +22155,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22190,7 +22190,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22225,7 +22225,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22260,7 +22260,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22295,7 +22295,7 @@
         <v>-1.1638983280309203</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22330,7 +22330,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22365,7 +22365,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22400,7 +22400,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22435,7 +22435,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22470,7 +22470,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22505,7 +22505,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22540,7 +22540,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22575,7 +22575,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22610,7 +22610,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22645,7 +22645,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22680,7 +22680,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22715,7 +22715,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22750,7 +22750,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22785,7 +22785,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22820,7 +22820,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22855,7 +22855,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22890,7 +22890,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22925,7 +22925,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22960,7 +22960,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -22995,7 +22995,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23030,7 +23030,7 @@
         <v>-3.0509252774302462E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23065,7 +23065,7 @@
         <v>-2.949733433151597E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23100,7 +23100,7 @@
         <v>-2.9240982927106174E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23135,7 +23135,7 @@
         <v>-1.4365884498512879E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23170,7 +23170,7 @@
         <v>-1.1439574403560573E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23205,7 +23205,7 @@
         <v>6.5550037900623962E-6</v>
       </c>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23240,7 +23240,7 @@
         <v>4.260001187246962E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23275,7 +23275,7 @@
         <v>1.1135326074616554E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23310,7 +23310,7 @@
         <v>2.5064468019412419E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23345,7 +23345,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23380,7 +23380,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23415,7 +23415,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23450,7 +23450,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23485,7 +23485,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23520,7 +23520,7 @@
         <v>1.1577964774760598</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23555,7 +23555,7 @@
         <v>1.1592790111378333</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23590,7 +23590,7 @@
         <v>1.1624006401585241</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23625,7 +23625,7 @@
         <v>1.165813263808597</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23660,7 +23660,7 @@
         <v>2.3186438802295499</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <f t="shared" si="5"/>
         <v>0.91610186017854023</v>
@@ -23695,7 +23695,7 @@
         <v>2.4145230810715312</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>29</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>0.91610186017854001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>30</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>0.26282524238527244</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>33</v>
       </c>
@@ -23736,12 +23736,12 @@
         <v>-0.17350563726348589</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>31</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>0.91530000000300005</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>0.91530000000300005</v>
       </c>
@@ -23818,7 +23818,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>1.2204000000040001</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>0.61020000000200003</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>0.91530000000300005</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>0.30510000000100002</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>1.5506994742060001</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>-2.2089248849057839</v>
       </c>
     </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>0.91530000000300005</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>0.61020000000200003</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>0.91610358299899997</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>1.221610090177</v>
       </c>
@@ -24061,7 +24061,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>0.91530000000300005</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>0.91621382376299998</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>0.92268943506099999</v>
       </c>
@@ -24142,7 +24142,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>0.61020000000200003</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>0.91530000000300005</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>0.91530000000300005</v>
       </c>
@@ -24223,7 +24223,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>0.91530000000300005</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>1.2204000000040001</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="81" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>0.91530000000300005</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="82" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>0.30510000000100002</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="83" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>0.91530000000300005</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="84" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>1.2204000000040001</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>-1.084551009489128</v>
       </c>
     </row>
-    <row r="85" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>0.91530000000300005</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>-1.0817217722382295</v>
       </c>
     </row>
-    <row r="86" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>0.91572428847099996</v>
       </c>
@@ -24439,7 +24439,7 @@
         <v>-0.95887324401258467</v>
       </c>
     </row>
-    <row r="87" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>0.91530000000300005</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>0.91580119928699999</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>1.220789647273</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="90" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>1.2204000000040001</v>
       </c>
@@ -24547,7 +24547,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="91" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>0.61020000000200003</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>0.91639452465600002</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>0.91530000000300005</v>
       </c>
@@ -24628,7 +24628,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="94" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>0.91530000000300005</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="95" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>0.91533333333599998</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>0.91530000000300005</v>
       </c>
@@ -24709,7 +24709,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="97" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>0.91530000000300005</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="98" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>0.61020000000200003</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="99" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>0.915326595774</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="100" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>0.91530000000300005</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="101" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>0.61020000000200003</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="102" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>1.222507013815</v>
       </c>
@@ -24871,7 +24871,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="103" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>1.2204000000040001</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="104" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>1.5255000000050001</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="105" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>0.91530000000300005</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="106" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>1.2204000000040001</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="107" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>0.61020000000200003</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="108" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>0.91530000000300005</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="109" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>0.30510000000100002</v>
       </c>
@@ -25060,7 +25060,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="110" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>0.91530000000300005</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="111" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>0.91530000000300005</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="112" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>0.91530000000300005</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="113" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>1.2204000000040001</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="114" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>0.91530000000300005</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="115" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>0.61020000000200003</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="116" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>0.91530000000300005</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="117" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>0.30510000000100002</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="118" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>0.91530000000300005</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>0.61020000000200003</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="120" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>0.91530000000300005</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="121" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>1.2204000000040001</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="122" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.61020000000200003</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="123" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>0.61020000000200003</v>
       </c>
@@ -25438,7 +25438,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="124" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>1.2204000000040001</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>3.9822865927527859E-2</v>
       </c>
     </row>
-    <row r="125" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.64430279008400004</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>3.9920878350041163E-2</v>
       </c>
     </row>
-    <row r="126" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>1.2204000000040001</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>3.994570804095153E-2</v>
       </c>
     </row>
-    <row r="127" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.91530000000300005</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>4.1311977670285036E-2</v>
       </c>
     </row>
-    <row r="128" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>0.93772873219300001</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>4.1386480706479323E-2</v>
       </c>
     </row>
-    <row r="129" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>1.2205257633519999</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>4.1669917324791778E-2</v>
       </c>
     </row>
-    <row r="130" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>0.91530000000300005</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>4.2784280963346917E-2</v>
       </c>
     </row>
-    <row r="131" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>0.91530000000300005</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>4.3190547220466488E-2</v>
       </c>
     </row>
-    <row r="132" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>0.91570407199600001</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>4.3856477614937286E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>0.61020000000200003</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>4.4169432091506561E-2</v>
       </c>
     </row>
-    <row r="134" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>0.30510000000100002</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>6.7054880785855808E-2</v>
       </c>
     </row>
-    <row r="135" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>1.2208513528260001</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>0.12247865266325354</v>
       </c>
     </row>
-    <row r="136" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>0.91530000000300005</v>
       </c>
@@ -25789,7 +25789,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="137" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>1.2204000000040001</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="138" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>0.91530000000300005</v>
       </c>
@@ -25843,7 +25843,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="139" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>0.30510000000100002</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="140" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>1.2214467787800001</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="141" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>1.2204000000040001</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="142" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>0.61020000000200003</v>
       </c>
@@ -25951,7 +25951,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="143" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>0.91530000000300005</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="144" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>0.61020000000200003</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="145" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>0.91530000000300005</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="146" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>0.91530000000300005</v>
       </c>
@@ -26059,7 +26059,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="147" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>1.2204000000040001</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="148" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>0.61020000000200003</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="149" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>1.2204000000040001</v>
       </c>
@@ -26140,7 +26140,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="150" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>1.221454586945</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="151" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>0.91530000000300005</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>1.1641967413441838</v>
       </c>
     </row>
-    <row r="152" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>0.91530000000300005</v>
       </c>
@@ -26221,7 +26221,7 @@
         <v>1.1646602124126055</v>
       </c>
     </row>
-    <row r="153" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>0.61020000000200003</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>1.1656326941789577</v>
       </c>
     </row>
-    <row r="154" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>0.30510000000100002</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>1.1658600953974474</v>
       </c>
     </row>
-    <row r="155" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>1.25854821737</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>1.168054396896695</v>
       </c>
     </row>
-    <row r="156" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>1.2204000000040001</v>
       </c>
@@ -26329,7 +26329,7 @@
         <v>1.1680831720416993</v>
       </c>
     </row>
-    <row r="157" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>0.91530000000300005</v>
       </c>
@@ -26356,7 +26356,7 @@
         <v>1.1686562424173239</v>
       </c>
     </row>
-    <row r="158" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>0.91647944517299995</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>1.1719616423085322</v>
       </c>
     </row>
-    <row r="159" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>0.61096771642100001</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>1.3047829720878932</v>
       </c>
     </row>
-    <row r="160" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>1.2204000000040001</v>
       </c>
@@ -26437,7 +26437,7 @@
         <v>2.2885706167608397</v>
       </c>
     </row>
-    <row r="161" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>0.91530000000300005</v>
       </c>
@@ -26464,7 +26464,7 @@
         <v>2.3814373177301857</v>
       </c>
     </row>
-    <row r="162" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>29</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>0.90449402464180073</v>
       </c>
     </row>
-    <row r="163" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>30</v>
       </c>
@@ -26496,7 +26496,7 @@
         <v>0.27135102181909021</v>
       </c>
     </row>
-    <row r="164" spans="3:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>33</v>
       </c>
@@ -26527,12 +26527,12 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26569,7 +26569,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2.4644617290999999E-2</v>
       </c>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.6200000002E-2</v>
       </c>
@@ -26633,7 +26633,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>88.815110336073758</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26727,7 +26727,7 @@
         <v>2.2934625577585459</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26774,7 +26774,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3.2795122231E-2</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3.2400000004E-2</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>22.934625577585461</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2.9633333336999999E-2</v>
       </c>
@@ -26915,7 +26915,7 @@
         <v>525.99705038403715</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -26962,7 +26962,7 @@
         <v>0.23705058136283474</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>6.8021854875333757E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27056,7 +27056,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27103,7 +27103,7 @@
         <v>30.005100000001001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27150,7 +27150,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2.5733333340000001E-2</v>
       </c>
@@ -27197,7 +27197,7 @@
         <v>8881.5110336073758</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2.4526741179999999E-2</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2.696666667E-2</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>4.5507272849332479</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1.6200000002E-2</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3.0300000003999999E-2</v>
       </c>
@@ -27325,7 +27325,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.2400000004E-2</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>88.815110336073758</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2.7000000002999999E-2</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>4.5507272849332479</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2.5933333342999999E-2</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.7533333341000001E-2</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1.6200000002E-2</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2.4333333336000001E-2</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.8866666668999998E-2</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>8.100000001E-3</v>
       </c>
@@ -27558,7 +27558,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2.4754959478999999E-2</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3.1300000004000003E-2</v>
       </c>
@@ -27592,7 +27592,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27609,7 +27609,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.6200000002E-2</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3.3600000009E-2</v>
       </c>
@@ -27660,7 +27660,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2.5833333340999999E-2</v>
       </c>
@@ -27677,7 +27677,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5.2442095458999999E-2</v>
       </c>
@@ -27694,7 +27694,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3.2400000004E-2</v>
       </c>
@@ -27711,7 +27711,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3.5800000011999997E-2</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3.5633333337999999E-2</v>
       </c>
@@ -27745,7 +27745,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.7733333340000001E-2</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.6986828327000001E-2</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3.0202053311E-2</v>
       </c>
@@ -27796,7 +27796,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3.4856977349999999E-2</v>
       </c>
@@ -27813,7 +27813,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.8633333338E-2</v>
       </c>
@@ -27830,7 +27830,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.9739232094999998E-2</v>
       </c>
@@ -27864,7 +27864,7 @@
         <v>150.025500000005</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3.0014655859000001E-2</v>
       </c>
@@ -27881,7 +27881,7 @@
         <v>30.005111111112001</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1.6200000002E-2</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.2400000004E-2</v>
       </c>
@@ -27915,7 +27915,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4.0500000005000002E-2</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4.8500000012E-2</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.2400000004E-2</v>
       </c>
@@ -27983,7 +27983,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1.6200000002E-2</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.4583902894999997E-2</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1.6200000002E-2</v>
       </c>
@@ -28051,7 +28051,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>5.6833333340999999E-2</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2.696666667E-2</v>
       </c>
@@ -28085,7 +28085,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2.5400000012000001E-2</v>
       </c>
@@ -28102,7 +28102,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.0500000005000002E-2</v>
       </c>
@@ -28136,7 +28136,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2.6633333344000001E-2</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>3.2400000004E-2</v>
       </c>
@@ -28170,7 +28170,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1.6200000002E-2</v>
       </c>
@@ -28187,7 +28187,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.12069403091600001</v>
       </c>
@@ -28238,7 +28238,7 @@
         <v>120.020444444448</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2.5700000011E-2</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1.2433333335E-2</v>
       </c>
@@ -28272,7 +28272,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1.7733333342000002E-2</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>1.6200000002E-2</v>
       </c>
@@ -28306,7 +28306,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>3.2400000004E-2</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2.5833333340999999E-2</v>
       </c>
@@ -28340,7 +28340,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2.696666667E-2</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28374,7 +28374,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>3.2400000004E-2</v>
       </c>
@@ -28391,7 +28391,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>3.2300000003999997E-2</v>
       </c>
@@ -28408,7 +28408,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>2.8633333337000001E-2</v>
       </c>
@@ -28425,7 +28425,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>3.2400000004E-2</v>
       </c>
@@ -28442,7 +28442,7 @@
         <v>90.015333333336002</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>2.696666667E-2</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2.696666667E-2</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>3.1218777297999999E-2</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2.3200000003000001E-2</v>
       </c>
@@ -28510,7 +28510,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1.6200000002E-2</v>
       </c>
@@ -28527,7 +28527,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>2.1533333336E-2</v>
       </c>
@@ -28544,7 +28544,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>4.2064791759999998E-2</v>
       </c>
@@ -28561,7 +28561,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>8.100000001E-3</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>3.2400000004E-2</v>
       </c>
@@ -28612,7 +28612,7 @@
         <v>120.020400000004</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>3.1300000004000003E-2</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>2.4300000003000002E-2</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>3.3951164999E-2</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1.6200000002E-2</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>4.1600000009999999E-2</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>2.3200000003000001E-2</v>
       </c>
@@ -28714,7 +28714,7 @@
         <v>90.016600273750996</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1.6200000002E-2</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>60.010200000002001</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1.7966666676000002E-2</v>
       </c>
@@ -28748,7 +28748,7 @@
         <v>90.015300000002995</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>2.7654759508129994E-2</v>
@@ -28784,12 +28784,12 @@
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.916170762207</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1.2200000000040001</v>
       </c>
@@ -28852,7 +28852,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.61000000000200005</v>
       </c>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.2207939886120001</v>
       </c>
@@ -28928,7 +28928,7 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.91500000000299997</v>
       </c>
@@ -28984,7 +28984,7 @@
         <v>0.88954687804625943</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.61000000000200005</v>
       </c>
@@ -29040,7 +29040,7 @@
         <v>2.4554749416613952E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.61000000000200005</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.91500000000299997</v>
       </c>
@@ -29152,7 +29152,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.91500000000299997</v>
       </c>
@@ -29208,7 +29208,7 @@
         <v>0.24554749416613952</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.91500000000299997</v>
       </c>
@@ -29264,7 +29264,7 @@
         <v>6.0293571891270319E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.61000000000200005</v>
       </c>
@@ -29320,7 +29320,7 @@
         <v>0.15774914343360402</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.91500000000299997</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>0.28698310563254098</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.91500000000299997</v>
       </c>
@@ -29432,7 +29432,7 @@
         <v>1.2213777777800001</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.91500000000299997</v>
       </c>
@@ -29488,7 +29488,7 @@
         <v>0.30534444444499997</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.91500000000299997</v>
       </c>
@@ -29544,7 +29544,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.91524724544699998</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>88.954687804625948</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.91500000000299997</v>
       </c>
@@ -29656,7 +29656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0.61000000000200005</v>
       </c>
@@ -29712,7 +29712,7 @@
         <v>4.8721950034402078E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.91629512614399999</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.95015094174600001</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1.2200000000040001</v>
       </c>
@@ -29799,7 +29799,7 @@
         <v>0.88954687804625943</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.94082165876000001</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>4.8721950034402078E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.91500000000299997</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.91500000000299997</v>
       </c>
@@ -29886,7 +29886,7 @@
         <v>0.91622756197099997</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.91500000000299997</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.91500000000299997</v>
       </c>
@@ -29926,7 +29926,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.91500000000299997</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.91500000000299997</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.2200000000040001</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.91500000000299997</v>
       </c>
@@ -30006,7 +30006,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.222522757191</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.91500000000299997</v>
       </c>
@@ -30046,7 +30046,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.91500000000299997</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.91556349220300004</v>
       </c>
@@ -30086,7 +30086,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.61000000000200005</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.91500000000299997</v>
       </c>
@@ -30126,7 +30126,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.91544611383800001</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>0.91647793898499996</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.61000000000200005</v>
       </c>
@@ -30166,7 +30166,7 @@
         <v>0.91606666666799996</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.61000000000200005</v>
       </c>
@@ -30186,7 +30186,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.91500000000299997</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.61000000000200005</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.61000000000200005</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.91500000000299997</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1.5250000000049999</v>
       </c>
@@ -30286,7 +30286,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1.2200000000040001</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.91633192089799997</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>0.91763430309399996</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.61000000000200005</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.91500000000299997</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>0.64223455506899996</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.91500000000299997</v>
       </c>
@@ -30386,7 +30386,7 @@
         <v>0.91648356280999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.91533784900799997</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.61000000000200005</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.91504734007800004</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1.2200000000040001</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>1.2224174045709999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.2200000000040001</v>
       </c>
@@ -30486,7 +30486,7 @@
         <v>1.2230929117589999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1.2200000000040001</v>
       </c>
@@ -30506,7 +30506,7 @@
         <v>0.928587188033</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.91500000000299997</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.91500000000299997</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1.2200000000040001</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.91500000000299997</v>
       </c>
@@ -30586,7 +30586,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1.2200000000040001</v>
       </c>
@@ -30606,7 +30606,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1.2200000000040001</v>
       </c>
@@ -30626,7 +30626,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.91500000000299997</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.91500000000299997</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.91500000000299997</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1.2200000000040001</v>
       </c>
@@ -30706,7 +30706,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>0.91500000000299997</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.61000000000200005</v>
       </c>
@@ -30746,7 +30746,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.91500000000299997</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.91519261229799997</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>0.61000000000200005</v>
       </c>
@@ -30806,7 +30806,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.61000000000200005</v>
       </c>
@@ -30826,7 +30826,7 @@
         <v>0.30534444444499997</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.30500000000100003</v>
       </c>
@@ -30846,7 +30846,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.91500000000299997</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>0.63505757988599998</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.61000000000200005</v>
       </c>
@@ -30886,7 +30886,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.91500000000299997</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1.2200000000040001</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.61000000000200005</v>
       </c>
@@ -30946,7 +30946,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1.2200000000040001</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>1.2284880591509999</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1.2200000000040001</v>
       </c>
@@ -30986,7 +30986,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1.2200000000040001</v>
       </c>
@@ -31006,7 +31006,7 @@
         <v>0.61163649369499995</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0.91500000000299997</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.91500000000299997</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>1.5267222222250001</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0.91500000000299997</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>0.91742127945800001</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0.91500000000299997</v>
       </c>
@@ -31086,7 +31086,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0.91500000000299997</v>
       </c>
@@ -31106,7 +31106,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0.91500000000299997</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>1.2213777777799999</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0.61160667558699999</v>
       </c>
@@ -31146,7 +31146,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0.91500000000299997</v>
       </c>
@@ -31166,7 +31166,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0.91500000000299997</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0.91500000000299997</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0.91500000000299997</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0.91500000000299997</v>
       </c>
@@ -31246,7 +31246,7 @@
         <v>0.91655919102500005</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0.91500000000299997</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>0.306202930742</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1.2200000000040001</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1.2200000000040001</v>
       </c>
@@ -31306,7 +31306,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0.91632610287600003</v>
       </c>
@@ -31326,7 +31326,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0.91644274472300002</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>1.2324174717859999</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0.91500000000299997</v>
       </c>
@@ -31366,7 +31366,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0.61000000000200005</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0.91500000000299997</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>0.91574297331867116</v>
@@ -31446,12 +31446,12 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.30501111111200002</v>
       </c>
@@ -31488,7 +31488,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.2200444444480001</v>
       </c>
@@ -31525,7 +31525,7 @@
       </c>
       <c r="V3" s="18"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.61002222222400004</v>
       </c>
@@ -31552,7 +31552,7 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.91624015596800001</v>
       </c>
@@ -31599,7 +31599,7 @@
         <v>0.9119832222248806</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.61002222222400004</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>2.4712764554024602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.91503333333600001</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.91503333333600001</v>
       </c>
@@ -31740,7 +31740,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.916055631717</v>
       </c>
@@ -31787,7 +31787,7 @@
         <v>0.24712764554024602</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.96103871142099995</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>6.1072073190265481E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.91503333333600001</v>
       </c>
@@ -31881,7 +31881,7 @@
         <v>1.9206503818258724E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.91503333333600001</v>
       </c>
@@ -31928,7 +31928,7 @@
         <v>-0.33040848667311717</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.91503333333600001</v>
       </c>
@@ -31975,7 +31975,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.91558121401500003</v>
       </c>
@@ -32022,7 +32022,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.2200444444480001</v>
       </c>
@@ -32069,7 +32069,7 @@
         <v>1.5250555555600001</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.2200444444480001</v>
       </c>
@@ -32116,7 +32116,7 @@
         <v>91.198322222488059</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.61002222222400004</v>
       </c>
@@ -32163,7 +32163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1.227460455875</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>4.9035486348659542E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.91503333333600001</v>
       </c>
@@ -32227,7 +32227,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1.2200444444480001</v>
       </c>
@@ -32244,7 +32244,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.91697334089500004</v>
       </c>
@@ -32284,7 +32284,7 @@
         <v>0.9119832222248806</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.91503333333600001</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>4.9035486348659542E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.91503333333600001</v>
       </c>
@@ -32341,7 +32341,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.61002222222400004</v>
       </c>
@@ -32358,7 +32358,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.91503333333600001</v>
       </c>
@@ -32375,7 +32375,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.65612340258099999</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.91503333333600001</v>
       </c>
@@ -32409,7 +32409,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.91503333333600001</v>
       </c>
@@ -32426,7 +32426,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.91503333333600001</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.91521731987999999</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.91654312403799998</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.91503333333600001</v>
       </c>
@@ -32494,7 +32494,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.61002222222400004</v>
       </c>
@@ -32511,7 +32511,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.61002222222400004</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.91554289391800003</v>
       </c>
@@ -32545,7 +32545,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.91587162336899997</v>
       </c>
@@ -32562,7 +32562,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.61002222222400004</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.61002222222400004</v>
       </c>
@@ -32596,7 +32596,7 @@
         <v>1.5250555555600001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.91503333333600001</v>
       </c>
@@ -32613,7 +32613,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.91503333333600001</v>
       </c>
@@ -32630,7 +32630,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.91503333333600001</v>
       </c>
@@ -32647,7 +32647,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.91503333333600001</v>
       </c>
@@ -32664,7 +32664,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.93468060279300003</v>
       </c>
@@ -32681,7 +32681,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.91503333333600001</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.91503333333600001</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.64141482203599998</v>
       </c>
@@ -32732,7 +32732,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.91503333333600001</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.91503333333600001</v>
       </c>
@@ -32766,7 +32766,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.30501111111200002</v>
       </c>
@@ -32783,7 +32783,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.91503333333600001</v>
       </c>
@@ -32800,7 +32800,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.61002222222400004</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.91503333333600001</v>
       </c>
@@ -32834,7 +32834,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.61002222222400004</v>
       </c>
@@ -32851,7 +32851,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0.91503333333600001</v>
       </c>
@@ -32868,7 +32868,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.2208991842579999</v>
       </c>
@@ -32885,7 +32885,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1.222704626998</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.91503333333600001</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.91503333333600001</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1.2200444444480001</v>
       </c>
@@ -32953,7 +32953,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.91503333333600001</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.91503333333600001</v>
       </c>
@@ -32987,7 +32987,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.30501111111200002</v>
       </c>
@@ -33004,7 +33004,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.91570979829700005</v>
       </c>
@@ -33021,7 +33021,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1.2215543676159999</v>
       </c>
@@ -33038,7 +33038,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0.92777551295399996</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0.30501111111200002</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1.5258005064710001</v>
       </c>
@@ -33089,7 +33089,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0.99248528832299998</v>
       </c>
@@ -33106,7 +33106,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>0.61002222222400004</v>
       </c>
@@ -33123,7 +33123,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>0.91503333333600001</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1.2200444444480001</v>
       </c>
@@ -33157,7 +33157,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>0.61166896979100005</v>
       </c>
@@ -33174,7 +33174,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>0.30501111111200002</v>
       </c>
@@ -33191,7 +33191,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>0.91503333333600001</v>
       </c>
@@ -33208,7 +33208,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0.91503333333600001</v>
       </c>
@@ -33225,7 +33225,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0.91503333333600001</v>
       </c>
@@ -33242,7 +33242,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>0.91503333333600001</v>
       </c>
@@ -33259,7 +33259,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>0.93549167319600002</v>
       </c>
@@ -33276,7 +33276,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1.2200444444480001</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0.61002222222400004</v>
       </c>
@@ -33310,7 +33310,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1.261295621898</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0.91503333333600001</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>0.91503333333600001</v>
       </c>
@@ -33361,7 +33361,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>0.61149029819199996</v>
       </c>
@@ -33378,7 +33378,7 @@
         <v>0.30501111111200002</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>0.91503333333600001</v>
       </c>
@@ -33395,7 +33395,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>0.91503333333600001</v>
       </c>
@@ -33412,7 +33412,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>0.91503333333600001</v>
       </c>
@@ -33429,7 +33429,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1.2200444444480001</v>
       </c>
@@ -33446,7 +33446,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0.92908678728299998</v>
       </c>
@@ -33463,7 +33463,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0.91503333333600001</v>
       </c>
@@ -33480,7 +33480,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>0.61002222222400004</v>
       </c>
@@ -33497,7 +33497,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>0.61002222222400004</v>
       </c>
@@ -33514,7 +33514,7 @@
         <v>0.61002222222400004</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>0.91503333333600001</v>
       </c>
@@ -33531,7 +33531,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1.220048097594</v>
       </c>
@@ -33548,7 +33548,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>0.61002222222400004</v>
       </c>
@@ -33565,7 +33565,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>0.91503333333600001</v>
       </c>
@@ -33582,7 +33582,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0.305133712547</v>
       </c>
@@ -33599,7 +33599,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0.61602036755199996</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0.69821994170199997</v>
       </c>
@@ -33633,7 +33633,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0.91503333333600001</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>1.2200444444480001</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0.61002222222400004</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>0.91503333333600001</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>0.86441294720018025</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35634EB0-983E-4E42-A3C2-EA5371BACE93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1DC4F0-D606-43FB-AAA0-124041F17500}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="10680" yWindow="1425" windowWidth="14340" windowHeight="13950" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="Set8" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -700,6 +700,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -712,7 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6435,7 +6435,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6473,7 +6473,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6501,7 +6501,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6539,7 +6539,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -15016,7 +15016,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5553074" y="595312"/>
-              <a:ext cx="4733925" cy="2743200"/>
+              <a:ext cx="4733925" cy="2867025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15129,7 +15129,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5667375" y="11801475"/>
+              <a:off x="5667375" y="12277725"/>
               <a:ext cx="4733925" cy="2733675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15862,7 +15862,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15905,7 +15905,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15946,7 +15946,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -15991,7 +15991,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -16078,7 +16078,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -16120,7 +16120,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -16166,7 +16166,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16210,7 +16210,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16254,7 +16254,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16297,7 +16297,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16338,7 +16338,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16379,7 +16379,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16420,7 +16420,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16461,7 +16461,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16635,7 +16635,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="10">
@@ -16678,7 +16678,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -16719,7 +16719,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -16760,7 +16760,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="11">
         <v>4</v>
       </c>
@@ -16801,7 +16801,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -16842,7 +16842,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="12">
@@ -16888,7 +16888,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="12">
         <v>2</v>
       </c>
@@ -16929,7 +16929,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="12">
         <v>3</v>
       </c>
@@ -16970,7 +16970,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -17011,7 +17011,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
@@ -17052,7 +17052,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="12">
         <v>6</v>
       </c>
@@ -17093,7 +17093,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="14">
@@ -17136,7 +17136,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="14">
         <v>2</v>
       </c>
@@ -17177,7 +17177,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="14">
         <v>3</v>
       </c>
@@ -17218,7 +17218,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="14">
         <v>4</v>
       </c>
@@ -17259,7 +17259,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -17415,8 +17415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18513,15 +18513,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -18810,6 +18810,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N44:O44"/>
@@ -18826,9 +18829,6 @@
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22153,7 +22153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:AW164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
@@ -22358,7 +22358,7 @@
         <f>STANDARDIZE(AO5,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS5" s="27">
+      <c r="AS5" s="23">
         <f>NORMSDIST(AR5)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22451,7 +22451,7 @@
         <f t="shared" ref="AR6:AR54" si="7">STANDARDIZE(AO6,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS6" s="27">
+      <c r="AS6" s="23">
         <f t="shared" ref="AS6:AS54" si="8">NORMSDIST(AR6)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22544,7 +22544,7 @@
         <f t="shared" si="7"/>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS7" s="27">
+      <c r="AS7" s="23">
         <f t="shared" si="8"/>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22644,7 +22644,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS8" s="27">
+      <c r="AS8" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22737,7 +22737,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS9" s="27">
+      <c r="AS9" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22830,7 +22830,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS10" s="27">
+      <c r="AS10" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22916,7 +22916,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS11" s="27">
+      <c r="AS11" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23002,7 +23002,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS12" s="27">
+      <c r="AS12" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23088,7 +23088,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS13" s="27">
+      <c r="AS13" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23174,7 +23174,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS14" s="27">
+      <c r="AS14" s="23">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23260,7 +23260,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS15" s="27">
+      <c r="AS15" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23346,7 +23346,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS16" s="27">
+      <c r="AS16" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23432,7 +23432,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS17" s="27">
+      <c r="AS17" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23518,7 +23518,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS18" s="27">
+      <c r="AS18" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23604,7 +23604,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS19" s="27">
+      <c r="AS19" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23690,7 +23690,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS20" s="27">
+      <c r="AS20" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23776,7 +23776,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS21" s="27">
+      <c r="AS21" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23862,7 +23862,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS22" s="27">
+      <c r="AS22" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23948,7 +23948,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS23" s="27">
+      <c r="AS23" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24034,7 +24034,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS24" s="27">
+      <c r="AS24" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24120,7 +24120,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS25" s="27">
+      <c r="AS25" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24206,7 +24206,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS26" s="27">
+      <c r="AS26" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24292,7 +24292,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS27" s="27">
+      <c r="AS27" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24378,7 +24378,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS28" s="27">
+      <c r="AS28" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24464,7 +24464,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS29" s="27">
+      <c r="AS29" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24550,7 +24550,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS30" s="27">
+      <c r="AS30" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24636,7 +24636,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS31" s="27">
+      <c r="AS31" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24722,7 +24722,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS32" s="27">
+      <c r="AS32" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24808,7 +24808,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS33" s="27">
+      <c r="AS33" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24894,7 +24894,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS34" s="27">
+      <c r="AS34" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24980,7 +24980,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS35" s="27">
+      <c r="AS35" s="23">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25066,7 +25066,7 @@
         <f t="shared" si="7"/>
         <v>-2.949733433151597E-3</v>
       </c>
-      <c r="AS36" s="27">
+      <c r="AS36" s="23">
         <f t="shared" si="8"/>
         <v>0.4988232283241032</v>
       </c>
@@ -25152,7 +25152,7 @@
         <f t="shared" si="7"/>
         <v>-2.9240982927106174E-3</v>
       </c>
-      <c r="AS37" s="27">
+      <c r="AS37" s="23">
         <f t="shared" si="8"/>
         <v>0.49883345522138284</v>
       </c>
@@ -25238,7 +25238,7 @@
         <f t="shared" si="7"/>
         <v>-1.4365884498512879E-3</v>
       </c>
-      <c r="AS38" s="27">
+      <c r="AS38" s="23">
         <f t="shared" si="8"/>
         <v>0.49942688432494936</v>
       </c>
@@ -25324,7 +25324,7 @@
         <f t="shared" si="7"/>
         <v>-1.1439574403560573E-3</v>
       </c>
-      <c r="AS39" s="27">
+      <c r="AS39" s="23">
         <f t="shared" si="8"/>
         <v>0.49954362710960004</v>
       </c>
@@ -25410,7 +25410,7 @@
         <f t="shared" si="7"/>
         <v>6.5550037900623962E-6</v>
       </c>
-      <c r="AS40" s="27">
+      <c r="AS40" s="23">
         <f t="shared" si="8"/>
         <v>0.50000261506816002</v>
       </c>
@@ -25496,7 +25496,7 @@
         <f t="shared" si="7"/>
         <v>4.260001187246962E-4</v>
       </c>
-      <c r="AS41" s="27">
+      <c r="AS41" s="23">
         <f t="shared" si="8"/>
         <v>0.5001699494536751</v>
       </c>
@@ -25582,7 +25582,7 @@
         <f t="shared" si="7"/>
         <v>1.1135326074616554E-3</v>
       </c>
-      <c r="AS42" s="27">
+      <c r="AS42" s="23">
         <f t="shared" si="8"/>
         <v>0.50044423514591685</v>
       </c>
@@ -25668,7 +25668,7 @@
         <f t="shared" si="7"/>
         <v>2.5064468019412419E-2</v>
       </c>
-      <c r="AS43" s="27">
+      <c r="AS43" s="23">
         <f t="shared" si="8"/>
         <v>0.50999822915724069</v>
       </c>
@@ -25754,7 +25754,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS44" s="27">
+      <c r="AS44" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -25840,7 +25840,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS45" s="27">
+      <c r="AS45" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -25926,7 +25926,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS46" s="27">
+      <c r="AS46" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26012,7 +26012,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS47" s="27">
+      <c r="AS47" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26098,7 +26098,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS48" s="27">
+      <c r="AS48" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26184,7 +26184,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS49" s="27">
+      <c r="AS49" s="23">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26270,7 +26270,7 @@
         <f t="shared" si="7"/>
         <v>1.1592790111378333</v>
       </c>
-      <c r="AS50" s="27">
+      <c r="AS50" s="23">
         <f t="shared" si="8"/>
         <v>0.87682876286419187</v>
       </c>
@@ -26356,7 +26356,7 @@
         <f t="shared" si="7"/>
         <v>1.1624006401585241</v>
       </c>
-      <c r="AS51" s="27">
+      <c r="AS51" s="23">
         <f t="shared" si="8"/>
         <v>0.87746361830713249</v>
       </c>
@@ -26442,7 +26442,7 @@
         <f t="shared" si="7"/>
         <v>1.165813263808597</v>
       </c>
-      <c r="AS52" s="27">
+      <c r="AS52" s="23">
         <f t="shared" si="8"/>
         <v>0.87815502334545448</v>
       </c>
@@ -26528,7 +26528,7 @@
         <f t="shared" si="7"/>
         <v>2.3186438802295499</v>
       </c>
-      <c r="AS53" s="27">
+      <c r="AS53" s="23">
         <f t="shared" si="8"/>
         <v>0.9897928231174431</v>
       </c>
@@ -26614,7 +26614,7 @@
         <f t="shared" si="7"/>
         <v>2.4145230810715312</v>
       </c>
-      <c r="AS54" s="27">
+      <c r="AS54" s="23">
         <f t="shared" si="8"/>
         <v>0.99212208765952326</v>
       </c>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1DC4F0-D606-43FB-AAA0-124041F17500}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4FBC-55FC-4FFF-AC8C-DE62208D0B27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1425" windowWidth="14340" windowHeight="13950" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="Set6" sheetId="8" r:id="rId6"/>
     <sheet name="Set7" sheetId="9" r:id="rId7"/>
     <sheet name="Set8" sheetId="10" r:id="rId8"/>
+    <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="115">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -385,6 +386,18 @@
   <si>
     <t>Nodes</t>
   </si>
+  <si>
+    <t>9 - Average Path Length</t>
+  </si>
+  <si>
+    <t>Path Length</t>
+  </si>
+  <si>
+    <t>8 -  Average Path Length</t>
+  </si>
+  <si>
+    <t>dissemination + direct connection after the first message</t>
+  </si>
 </sst>
 </file>
 
@@ -503,7 +516,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +568,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -650,7 +669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -663,8 +682,9 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,10 +717,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="10"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -716,8 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
+    <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -6435,7 +6460,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6473,7 +6498,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6501,7 +6526,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6539,7 +6564,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -15788,33 +15813,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -15834,35 +15860,38 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15882,30 +15911,31 @@
       <c r="F2" s="1">
         <v>0.23</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="24"/>
+      <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15917,36 +15947,37 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E35" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E39" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
         <v>0.15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="24"/>
+      <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -15964,34 +15995,35 @@
       <c r="F4" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="24"/>
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>50</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -16009,31 +16041,32 @@
       <c r="F5" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="24"/>
+      <c r="H5" s="1">
         <v>10</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -16052,33 +16085,34 @@
         <f>E6</f>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="24"/>
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>50</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -16094,33 +16128,34 @@
         <v>9.210340371976184E-4</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="G7" s="24"/>
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>100</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>50</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -16140,33 +16175,34 @@
       <c r="F8" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="24"/>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>50</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16184,33 +16220,34 @@
       <c r="F9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="24"/>
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>50</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16228,33 +16265,34 @@
       <c r="F10" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="24"/>
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>100</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>50</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16274,30 +16312,31 @@
       <c r="F11" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="24"/>
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>100</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16315,30 +16354,31 @@
       <c r="F12" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="24"/>
+      <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>100</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16356,30 +16396,31 @@
       <c r="F13" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="24"/>
+      <c r="H13" s="1">
         <v>10</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>100</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16397,30 +16438,31 @@
       <c r="F14" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="24"/>
+      <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>100</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16438,30 +16480,31 @@
       <c r="F15" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="24"/>
+      <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>100</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16479,29 +16522,30 @@
       <c r="F16" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="24"/>
+      <c r="H16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
@@ -16523,29 +16567,30 @@
         <f>E17</f>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="24"/>
+      <c r="H17" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>100</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
@@ -16566,32 +16611,33 @@
       <c r="F18" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="24"/>
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>100</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>1</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>2</v>
       </c>
@@ -16609,33 +16655,34 @@
       <c r="F19" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="24"/>
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>100</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>1</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="10">
@@ -16655,30 +16702,31 @@
       <c r="F20" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="24"/>
+      <c r="H20" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>100</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -16696,30 +16744,31 @@
       <c r="F21" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="24"/>
+      <c r="H21" s="1">
         <v>10</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>100</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -16737,30 +16786,31 @@
       <c r="F22" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="24"/>
+      <c r="H22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>100</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
       <c r="B23" s="11">
         <v>4</v>
       </c>
@@ -16778,30 +16828,31 @@
       <c r="F23" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="24"/>
+      <c r="H23" s="1">
         <v>10</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>100</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -16819,30 +16870,31 @@
       <c r="F24" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="24"/>
+      <c r="H24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="12">
@@ -16862,33 +16914,34 @@
       <c r="F25" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="24"/>
+      <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>100</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>100</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
       <c r="B26" s="12">
         <v>2</v>
       </c>
@@ -16906,30 +16959,31 @@
       <c r="F26" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="24"/>
+      <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>100</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
       <c r="B27" s="12">
         <v>3</v>
       </c>
@@ -16947,30 +17001,31 @@
       <c r="F27" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="24"/>
+      <c r="H27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>100</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -16988,30 +17043,31 @@
       <c r="F28" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="24"/>
+      <c r="H28" s="1">
         <v>8</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>100</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
@@ -17029,30 +17085,31 @@
       <c r="F29" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="24"/>
+      <c r="H29" s="1">
         <v>16</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>100</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
       <c r="B30" s="12">
         <v>6</v>
       </c>
@@ -17070,30 +17127,31 @@
       <c r="F30" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="24"/>
+      <c r="H30" s="1">
         <v>32</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>100</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="14">
@@ -17113,30 +17171,31 @@
       <c r="F31" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="24"/>
+      <c r="H31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>100</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
       <c r="B32" s="14">
         <v>2</v>
       </c>
@@ -17154,30 +17213,31 @@
       <c r="F32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="24"/>
+      <c r="H32" s="1">
         <v>2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>100</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
       <c r="B33" s="14">
         <v>3</v>
       </c>
@@ -17195,30 +17255,31 @@
       <c r="F33" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="24"/>
+      <c r="H33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>100</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="14">
         <v>4</v>
       </c>
@@ -17236,30 +17297,31 @@
       <c r="F34" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="24"/>
+      <c r="H34" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>100</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -17277,125 +17339,273 @@
       <c r="F35" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="24"/>
+      <c r="H35" s="1">
         <v>2</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>100</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="30">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>500</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="24">
+        <v>100</v>
+      </c>
+      <c r="J36" s="24">
+        <v>1</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="30">
+        <v>2</v>
+      </c>
+      <c r="C37" s="24">
+        <v>500</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="24">
+        <v>2</v>
+      </c>
+      <c r="H37" s="24">
+        <v>2</v>
+      </c>
+      <c r="I37" s="24">
+        <v>100</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N37" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="30">
+        <v>3</v>
+      </c>
+      <c r="C38" s="24">
+        <v>500</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="24">
+        <v>5</v>
+      </c>
+      <c r="H38" s="24">
+        <v>2</v>
+      </c>
+      <c r="I38" s="24">
+        <v>100</v>
+      </c>
+      <c r="J38" s="24">
+        <v>1</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N38" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="30">
+        <v>4</v>
+      </c>
+      <c r="C39" s="24">
+        <v>500</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="24">
+        <v>10</v>
+      </c>
+      <c r="H39" s="24">
+        <v>2</v>
+      </c>
+      <c r="I39" s="24">
+        <v>100</v>
+      </c>
+      <c r="J39" s="24">
+        <v>1</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N39" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="30">
+        <v>5</v>
+      </c>
+      <c r="C40" s="24">
+        <v>500</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24">
+        <f t="shared" ref="E40" si="2">LN(C40)/(C40)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24">
+        <v>100</v>
+      </c>
+      <c r="H40" s="24">
+        <v>2</v>
+      </c>
+      <c r="I40" s="24">
+        <v>100</v>
+      </c>
+      <c r="J40" s="24">
+        <v>1</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="24"/>
+      <c r="J41" s="24">
+        <v>1</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17415,7 +17625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -18513,15 +18723,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -18539,18 +18749,18 @@
       <c r="I41" t="s">
         <v>110</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28" t="s">
+      <c r="K41" s="29"/>
+      <c r="L41" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28" t="s">
+      <c r="M41" s="29"/>
+      <c r="N41" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="O41" s="28"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -18571,18 +18781,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="29">
         <v>1.2</v>
       </c>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28">
+      <c r="K42" s="29"/>
+      <c r="L42" s="29">
         <v>3</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28">
+      <c r="M42" s="29"/>
+      <c r="N42" s="29">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="28"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -18603,18 +18813,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="29">
         <v>1.3</v>
       </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28">
+      <c r="K43" s="29"/>
+      <c r="L43" s="29">
         <v>4</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28">
+      <c r="M43" s="29"/>
+      <c r="N43" s="29">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="28"/>
+      <c r="O43" s="29"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -18635,18 +18845,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="29">
         <v>2.36</v>
       </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28">
+      <c r="K44" s="29"/>
+      <c r="L44" s="29">
         <v>6</v>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28">
+      <c r="M44" s="29"/>
+      <c r="N44" s="29">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="28"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -18667,18 +18877,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="29">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29">
         <v>8</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28">
+      <c r="M45" s="29"/>
+      <c r="N45" s="29">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="28"/>
+      <c r="O45" s="29"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -18699,18 +18909,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="29">
         <v>3.55</v>
       </c>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29">
         <v>12</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28">
+      <c r="M46" s="29"/>
+      <c r="N46" s="29">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="28"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -18810,13 +19020,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -18829,6 +19032,13 @@
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18840,7 +19050,7 @@
   <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22153,8 +22363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:AW164"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="AB2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22358,7 +22568,7 @@
         <f>STANDARDIZE(AO5,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS5" s="23">
+      <c r="AS5" s="22">
         <f>NORMSDIST(AR5)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22451,7 +22661,7 @@
         <f t="shared" ref="AR6:AR54" si="7">STANDARDIZE(AO6,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS6" s="23">
+      <c r="AS6" s="22">
         <f t="shared" ref="AS6:AS54" si="8">NORMSDIST(AR6)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22544,7 +22754,7 @@
         <f t="shared" si="7"/>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS7" s="23">
+      <c r="AS7" s="22">
         <f t="shared" si="8"/>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -22644,7 +22854,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS8" s="23">
+      <c r="AS8" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22737,7 +22947,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS9" s="23">
+      <c r="AS9" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22830,7 +23040,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS10" s="23">
+      <c r="AS10" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -22916,7 +23126,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS11" s="23">
+      <c r="AS11" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23002,7 +23212,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS12" s="23">
+      <c r="AS12" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23088,7 +23298,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS13" s="23">
+      <c r="AS13" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23174,7 +23384,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS14" s="23">
+      <c r="AS14" s="22">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -23260,7 +23470,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS15" s="23">
+      <c r="AS15" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23346,7 +23556,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS16" s="23">
+      <c r="AS16" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23432,7 +23642,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS17" s="23">
+      <c r="AS17" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23518,7 +23728,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS18" s="23">
+      <c r="AS18" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23604,7 +23814,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS19" s="23">
+      <c r="AS19" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23690,7 +23900,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS20" s="23">
+      <c r="AS20" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23776,7 +23986,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS21" s="23">
+      <c r="AS21" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23862,7 +24072,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS22" s="23">
+      <c r="AS22" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -23948,7 +24158,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS23" s="23">
+      <c r="AS23" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24034,7 +24244,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS24" s="23">
+      <c r="AS24" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24120,7 +24330,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS25" s="23">
+      <c r="AS25" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24206,7 +24416,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS26" s="23">
+      <c r="AS26" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24292,7 +24502,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS27" s="23">
+      <c r="AS27" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24378,7 +24588,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS28" s="23">
+      <c r="AS28" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24464,7 +24674,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS29" s="23">
+      <c r="AS29" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24550,7 +24760,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS30" s="23">
+      <c r="AS30" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24636,7 +24846,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS31" s="23">
+      <c r="AS31" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24722,7 +24932,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS32" s="23">
+      <c r="AS32" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24808,7 +25018,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS33" s="23">
+      <c r="AS33" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24894,7 +25104,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS34" s="23">
+      <c r="AS34" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24980,7 +25190,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS35" s="23">
+      <c r="AS35" s="22">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25066,7 +25276,7 @@
         <f t="shared" si="7"/>
         <v>-2.949733433151597E-3</v>
       </c>
-      <c r="AS36" s="23">
+      <c r="AS36" s="22">
         <f t="shared" si="8"/>
         <v>0.4988232283241032</v>
       </c>
@@ -25152,7 +25362,7 @@
         <f t="shared" si="7"/>
         <v>-2.9240982927106174E-3</v>
       </c>
-      <c r="AS37" s="23">
+      <c r="AS37" s="22">
         <f t="shared" si="8"/>
         <v>0.49883345522138284</v>
       </c>
@@ -25238,7 +25448,7 @@
         <f t="shared" si="7"/>
         <v>-1.4365884498512879E-3</v>
       </c>
-      <c r="AS38" s="23">
+      <c r="AS38" s="22">
         <f t="shared" si="8"/>
         <v>0.49942688432494936</v>
       </c>
@@ -25324,7 +25534,7 @@
         <f t="shared" si="7"/>
         <v>-1.1439574403560573E-3</v>
       </c>
-      <c r="AS39" s="23">
+      <c r="AS39" s="22">
         <f t="shared" si="8"/>
         <v>0.49954362710960004</v>
       </c>
@@ -25410,7 +25620,7 @@
         <f t="shared" si="7"/>
         <v>6.5550037900623962E-6</v>
       </c>
-      <c r="AS40" s="23">
+      <c r="AS40" s="22">
         <f t="shared" si="8"/>
         <v>0.50000261506816002</v>
       </c>
@@ -25496,7 +25706,7 @@
         <f t="shared" si="7"/>
         <v>4.260001187246962E-4</v>
       </c>
-      <c r="AS41" s="23">
+      <c r="AS41" s="22">
         <f t="shared" si="8"/>
         <v>0.5001699494536751</v>
       </c>
@@ -25582,7 +25792,7 @@
         <f t="shared" si="7"/>
         <v>1.1135326074616554E-3</v>
       </c>
-      <c r="AS42" s="23">
+      <c r="AS42" s="22">
         <f t="shared" si="8"/>
         <v>0.50044423514591685</v>
       </c>
@@ -25668,7 +25878,7 @@
         <f t="shared" si="7"/>
         <v>2.5064468019412419E-2</v>
       </c>
-      <c r="AS43" s="23">
+      <c r="AS43" s="22">
         <f t="shared" si="8"/>
         <v>0.50999822915724069</v>
       </c>
@@ -25754,7 +25964,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS44" s="23">
+      <c r="AS44" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -25840,7 +26050,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS45" s="23">
+      <c r="AS45" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -25926,7 +26136,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS46" s="23">
+      <c r="AS46" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26012,7 +26222,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS47" s="23">
+      <c r="AS47" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26098,7 +26308,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS48" s="23">
+      <c r="AS48" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26184,7 +26394,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS49" s="23">
+      <c r="AS49" s="22">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -26270,7 +26480,7 @@
         <f t="shared" si="7"/>
         <v>1.1592790111378333</v>
       </c>
-      <c r="AS50" s="23">
+      <c r="AS50" s="22">
         <f t="shared" si="8"/>
         <v>0.87682876286419187</v>
       </c>
@@ -26356,7 +26566,7 @@
         <f t="shared" si="7"/>
         <v>1.1624006401585241</v>
       </c>
-      <c r="AS51" s="23">
+      <c r="AS51" s="22">
         <f t="shared" si="8"/>
         <v>0.87746361830713249</v>
       </c>
@@ -26442,7 +26652,7 @@
         <f t="shared" si="7"/>
         <v>1.165813263808597</v>
       </c>
-      <c r="AS52" s="23">
+      <c r="AS52" s="22">
         <f t="shared" si="8"/>
         <v>0.87815502334545448</v>
       </c>
@@ -26528,7 +26738,7 @@
         <f t="shared" si="7"/>
         <v>2.3186438802295499</v>
       </c>
-      <c r="AS53" s="23">
+      <c r="AS53" s="22">
         <f t="shared" si="8"/>
         <v>0.9897928231174431</v>
       </c>
@@ -26614,7 +26824,7 @@
         <f t="shared" si="7"/>
         <v>2.4145230810715312</v>
       </c>
-      <c r="AS54" s="23">
+      <c r="AS54" s="22">
         <f t="shared" si="8"/>
         <v>0.99212208765952326</v>
       </c>
@@ -32420,8 +32630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34677,7 +34887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
@@ -37339,8 +37549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB00259A-76EF-42CC-A63F-F0BB8151E029}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39590,4 +39800,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4FBC-55FC-4FFF-AC8C-DE62208D0B27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AD2171-4C2C-4B90-9EFA-BA7B4A9BA3F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -315,9 +315,6 @@
     <t>Exection time: 14 s</t>
   </si>
   <si>
-    <t>Creaft network with same number of node but higer dist (watts - strogatz)</t>
-  </si>
-  <si>
     <t>Do one more set with 20 evil</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>Nodes</t>
   </si>
   <si>
-    <t>9 - Average Path Length</t>
-  </si>
-  <si>
     <t>Path Length</t>
   </si>
   <si>
@@ -397,6 +391,13 @@
   </si>
   <si>
     <t>dissemination + direct connection after the first message</t>
+  </si>
+  <si>
+    <t>9 - Average Path Length
+(WattsStrogatz)</t>
+  </si>
+  <si>
+    <t>simulation with many evil node</t>
   </si>
 </sst>
 </file>
@@ -684,7 +685,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,6 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -739,7 +741,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
@@ -6460,7 +6464,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6498,7 +6502,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6526,7 +6530,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6564,7 +6568,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -15815,8 +15819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15860,7 +15864,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -15891,7 +15895,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15935,7 +15939,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15977,7 +15981,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -16023,7 +16027,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -16066,7 +16070,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -16112,7 +16116,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -16155,7 +16159,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -16202,7 +16206,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16247,7 +16251,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16292,7 +16296,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16336,7 +16340,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16378,7 +16382,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16420,7 +16424,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16462,7 +16466,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16504,7 +16508,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16682,7 +16686,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="10">
@@ -16726,7 +16730,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -16768,7 +16772,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -16810,7 +16814,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="11">
         <v>4</v>
       </c>
@@ -16852,7 +16856,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -16894,7 +16898,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="12">
@@ -16941,7 +16945,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="12">
         <v>2</v>
       </c>
@@ -16983,7 +16987,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="12">
         <v>3</v>
       </c>
@@ -17025,7 +17029,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -17067,7 +17071,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
@@ -17109,7 +17113,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="12">
         <v>6</v>
       </c>
@@ -17151,7 +17155,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="14">
@@ -17195,7 +17199,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="14">
         <v>2</v>
       </c>
@@ -17237,7 +17241,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="14">
         <v>3</v>
       </c>
@@ -17279,7 +17283,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="14">
         <v>4</v>
       </c>
@@ -17321,7 +17325,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -17363,10 +17367,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="30">
+      <c r="A36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="25">
         <v>1</v>
       </c>
       <c r="C36" s="1">
@@ -17404,7 +17408,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="30">
+      <c r="A37" s="29"/>
+      <c r="B37" s="25">
         <v>2</v>
       </c>
       <c r="C37" s="24">
@@ -17442,7 +17447,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="30">
+      <c r="A38" s="29"/>
+      <c r="B38" s="25">
         <v>3</v>
       </c>
       <c r="C38" s="24">
@@ -17480,7 +17486,8 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="30">
+      <c r="A39" s="29"/>
+      <c r="B39" s="25">
         <v>4</v>
       </c>
       <c r="C39" s="24">
@@ -17518,8 +17525,8 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="30">
+      <c r="A40" s="29"/>
+      <c r="B40" s="25">
         <v>5</v>
       </c>
       <c r="C40" s="24">
@@ -17558,7 +17565,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -17584,6 +17591,9 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -17599,7 +17609,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
@@ -17608,7 +17618,8 @@
       <c r="G49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -17625,8 +17636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18580,9 +18591,6 @@
       <c r="E30">
         <v>1.2204000000040001</v>
       </c>
-      <c r="S30" s="21" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31">
@@ -18723,15 +18731,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
+      <c r="I40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -18747,20 +18755,20 @@
         <v>0.61020000000200003</v>
       </c>
       <c r="I41" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29" t="s">
+      <c r="M41" s="30"/>
+      <c r="N41" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="O41" s="29"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -18781,18 +18789,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="30">
         <v>1.2</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29">
+      <c r="K42" s="30"/>
+      <c r="L42" s="30">
         <v>3</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29">
+      <c r="M42" s="30"/>
+      <c r="N42" s="30">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="29"/>
+      <c r="O42" s="30"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -18813,18 +18821,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="30">
         <v>1.3</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29">
+      <c r="K43" s="30"/>
+      <c r="L43" s="30">
         <v>4</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29">
+      <c r="M43" s="30"/>
+      <c r="N43" s="30">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="29"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -18845,18 +18853,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="30">
         <v>2.36</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29">
+      <c r="K44" s="30"/>
+      <c r="L44" s="30">
         <v>6</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29">
+      <c r="M44" s="30"/>
+      <c r="N44" s="30">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="29"/>
+      <c r="O44" s="30"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -18877,18 +18885,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="30">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29">
+      <c r="K45" s="30"/>
+      <c r="L45" s="30">
         <v>8</v>
       </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29">
+      <c r="M45" s="30"/>
+      <c r="N45" s="30">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="29"/>
+      <c r="O45" s="30"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -18909,18 +18917,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="30">
         <v>3.55</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29">
+      <c r="K46" s="30"/>
+      <c r="L46" s="30">
         <v>12</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29">
+      <c r="M46" s="30"/>
+      <c r="N46" s="30">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="29"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -19020,6 +19028,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -19036,9 +19047,6 @@
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19050,7 +19058,7 @@
   <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19681,7 +19689,7 @@
         <v>0.92352396971999995</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -22363,7 +22371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2ED3A6-0B67-444E-AD81-36D910E53853}">
   <dimension ref="A1:AW164"/>
   <sheetViews>
-    <sheetView topLeftCell="AB2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
@@ -22410,7 +22418,7 @@
         <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -22445,43 +22453,43 @@
         <v>31</v>
       </c>
       <c r="AD4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s">
         <v>90</v>
       </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
       <c r="AF4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>102</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>103</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -22734,7 +22742,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -22763,7 +22771,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -22863,7 +22871,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -23020,7 +23028,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -26879,10 +26887,10 @@
         <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -26911,25 +26919,25 @@
         <v>31</v>
       </c>
       <c r="AD61" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE61" t="s">
         <v>90</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>91</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>92</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>93</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>94</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>95</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -27114,7 +27122,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -27296,7 +27304,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -37550,7 +37558,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39806,8 +39814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39817,7 +39825,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AD2171-4C2C-4B90-9EFA-BA7B4A9BA3F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767513A8-1E84-4CF1-A0C8-911C3C2F6894}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="6435" yWindow="495" windowWidth="16215" windowHeight="15240" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="115">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Do one more set with 20 evil</t>
   </si>
   <si>
-    <t>7.2 try with a slower than 7.2 mb</t>
-  </si>
-  <si>
     <t>Data Ordered</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>simulation with many evil node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2 - Initial transactions (slow speed) </t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +577,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -669,8 +675,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -684,8 +699,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,20 +736,17 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,12 +754,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="13" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -15817,15 +15838,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" hidden="1" customWidth="1"/>
@@ -15864,7 +15886,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -15895,7 +15917,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -15915,7 +15937,7 @@
       <c r="F2" s="1">
         <v>0.23</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1">
         <v>10</v>
       </c>
@@ -15939,7 +15961,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15957,7 +15979,7 @@
       <c r="F3" s="1">
         <v>0.15</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="1">
         <v>10</v>
       </c>
@@ -15981,7 +16003,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -15999,7 +16021,7 @@
       <c r="F4" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="1">
         <v>10</v>
       </c>
@@ -16027,7 +16049,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -16045,7 +16067,7 @@
       <c r="F5" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="1">
         <v>10</v>
       </c>
@@ -16070,7 +16092,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -16089,7 +16111,7 @@
         <f>E6</f>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="1">
         <v>10</v>
       </c>
@@ -16116,7 +16138,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -16132,7 +16154,7 @@
         <v>9.210340371976184E-4</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -16159,7 +16181,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -16179,7 +16201,7 @@
       <c r="F8" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="1">
         <v>10</v>
       </c>
@@ -16206,7 +16228,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -16224,7 +16246,7 @@
       <c r="F9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="1">
         <v>10</v>
       </c>
@@ -16251,7 +16273,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -16269,7 +16291,7 @@
       <c r="F10" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="1">
         <v>10</v>
       </c>
@@ -16296,7 +16318,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
@@ -16316,7 +16338,7 @@
       <c r="F11" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="1">
         <v>10</v>
       </c>
@@ -16340,7 +16362,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6">
         <v>2</v>
       </c>
@@ -16358,7 +16380,7 @@
       <c r="F12" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1">
         <v>10</v>
       </c>
@@ -16382,7 +16404,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6">
         <v>3</v>
       </c>
@@ -16400,7 +16422,7 @@
       <c r="F13" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
@@ -16424,7 +16446,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -16442,7 +16464,7 @@
       <c r="F14" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="1">
         <v>10</v>
       </c>
@@ -16466,7 +16488,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -16484,7 +16506,7 @@
       <c r="F15" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="1">
         <v>10</v>
       </c>
@@ -16508,7 +16530,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6">
         <v>6</v>
       </c>
@@ -16526,7 +16548,7 @@
       <c r="F16" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="1">
         <v>10</v>
       </c>
@@ -16550,7 +16572,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="8">
@@ -16571,7 +16593,7 @@
         <f>E17</f>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="1">
         <v>10</v>
       </c>
@@ -16595,7 +16617,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="20">
@@ -16615,7 +16637,7 @@
       <c r="F18" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="1">
         <v>10</v>
       </c>
@@ -16642,6 +16664,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
       <c r="B19" s="20">
         <v>2</v>
       </c>
@@ -16659,7 +16682,7 @@
       <c r="F19" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="1">
         <v>2</v>
       </c>
@@ -16686,7 +16709,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="10">
@@ -16706,7 +16729,7 @@
       <c r="F20" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="1">
         <v>10</v>
       </c>
@@ -16730,7 +16753,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -16748,7 +16771,7 @@
       <c r="F21" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="1">
         <v>10</v>
       </c>
@@ -16772,7 +16795,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="10">
         <v>3</v>
       </c>
@@ -16790,7 +16813,7 @@
       <c r="F22" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="1">
         <v>10</v>
       </c>
@@ -16814,7 +16837,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="11">
         <v>4</v>
       </c>
@@ -16832,7 +16855,7 @@
       <c r="F23" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="1">
         <v>10</v>
       </c>
@@ -16856,7 +16879,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="10">
         <v>5</v>
       </c>
@@ -16874,7 +16897,7 @@
       <c r="F24" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="1">
         <v>10</v>
       </c>
@@ -16898,7 +16921,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="12">
@@ -16918,7 +16941,7 @@
       <c r="F25" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1">
         <v>1</v>
       </c>
@@ -16945,7 +16968,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="12">
         <v>2</v>
       </c>
@@ -16963,7 +16986,7 @@
       <c r="F26" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="1">
         <v>2</v>
       </c>
@@ -16987,7 +17010,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="12">
         <v>3</v>
       </c>
@@ -17005,7 +17028,7 @@
       <c r="F27" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="1">
         <v>4</v>
       </c>
@@ -17029,7 +17052,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="12">
         <v>4</v>
       </c>
@@ -17047,7 +17070,7 @@
       <c r="F28" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="1">
         <v>8</v>
       </c>
@@ -17071,7 +17094,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
@@ -17089,7 +17112,7 @@
       <c r="F29" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="1">
         <v>16</v>
       </c>
@@ -17113,7 +17136,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="12">
         <v>6</v>
       </c>
@@ -17131,7 +17154,7 @@
       <c r="F30" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="1">
         <v>32</v>
       </c>
@@ -17155,7 +17178,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="14">
@@ -17175,7 +17198,7 @@
       <c r="F31" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="1">
         <v>2</v>
       </c>
@@ -17199,7 +17222,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="14">
         <v>2</v>
       </c>
@@ -17217,7 +17240,7 @@
       <c r="F32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="1">
         <v>2</v>
       </c>
@@ -17241,7 +17264,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="14">
         <v>3</v>
       </c>
@@ -17259,7 +17282,7 @@
       <c r="F33" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="1">
         <v>2</v>
       </c>
@@ -17283,7 +17306,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="14">
         <v>4</v>
       </c>
@@ -17301,7 +17324,7 @@
       <c r="F34" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="1">
         <v>2</v>
       </c>
@@ -17325,7 +17348,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -17343,7 +17366,7 @@
       <c r="F35" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="1">
         <v>2</v>
       </c>
@@ -17367,40 +17390,40 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="25">
+      <c r="A36" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="24">
         <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>500</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="24">
+      <c r="E36" s="23">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <v>100</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="23">
         <v>1</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="23" t="s">
         <v>63</v>
       </c>
       <c r="N36" s="1">
@@ -17408,217 +17431,361 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="24">
         <v>2</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>500</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>2</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="23">
         <v>2</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <v>100</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="23">
         <v>1</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="M37" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="24">
         <v>3</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>500</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>5</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <v>2</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <v>100</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="23">
         <v>1</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="24">
         <v>4</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>500</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>10</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <v>2</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>100</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="23">
         <v>1</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="M39" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N39" s="24">
+      <c r="N39" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="24">
         <v>5</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>500</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24">
-        <f t="shared" ref="E40" si="2">LN(C40)/(C40)</f>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23">
+        <f t="shared" ref="E40:E44" si="2">LN(C40)/(C40)</f>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24">
+      <c r="F40" s="23"/>
+      <c r="G40" s="23">
         <v>100</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>2</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <v>100</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="23">
         <v>1</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="24">
+      <c r="N40" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24">
+      <c r="A41" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="33">
         <v>1</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="C41" s="25">
+        <v>100</v>
+      </c>
+      <c r="D41" s="25">
+        <f>2*LOG(C41)/(C41-1)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F41" s="25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25">
+        <v>100</v>
+      </c>
+      <c r="J41" s="25">
+        <v>1</v>
+      </c>
+      <c r="K41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N41" s="24">
+      <c r="L41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="25">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="33">
+        <v>2</v>
+      </c>
+      <c r="C42" s="25">
+        <v>100</v>
+      </c>
+      <c r="D42" s="25">
+        <f>2*LOG(C42)/(C42-1)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F42" s="25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25">
+        <v>2</v>
+      </c>
+      <c r="I42" s="25">
+        <v>100</v>
+      </c>
+      <c r="J42" s="25">
+        <v>1</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="25">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="33">
+        <v>3</v>
+      </c>
+      <c r="C43" s="25">
+        <v>100</v>
+      </c>
+      <c r="D43" s="25">
+        <f t="shared" ref="D43:D44" si="3">2*LOG(C43)/(C43-1)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F43" s="25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25">
+        <v>4</v>
+      </c>
+      <c r="I43" s="25">
+        <v>100</v>
+      </c>
+      <c r="J43" s="25">
+        <v>1</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="33">
+        <v>4</v>
+      </c>
+      <c r="C44" s="25">
+        <v>100</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" si="3"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F44" s="25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25">
+        <v>8</v>
+      </c>
+      <c r="I44" s="25">
+        <v>100</v>
+      </c>
+      <c r="J44" s="25">
+        <v>1</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A41:A44"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A2:A7"/>
@@ -17626,6 +17793,7 @@
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18731,15 +18899,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
+      <c r="I40" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -18755,20 +18923,20 @@
         <v>0.61020000000200003</v>
       </c>
       <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30" t="s">
+      <c r="M41" s="29"/>
+      <c r="N41" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="30"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -18789,18 +18957,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>1.2</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30">
+      <c r="K42" s="29"/>
+      <c r="L42" s="29">
         <v>3</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30">
+      <c r="M42" s="29"/>
+      <c r="N42" s="29">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="30"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -18821,18 +18989,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>1.3</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30">
+      <c r="K43" s="29"/>
+      <c r="L43" s="29">
         <v>4</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30">
+      <c r="M43" s="29"/>
+      <c r="N43" s="29">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="30"/>
+      <c r="O43" s="29"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -18853,18 +19021,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="29">
         <v>2.36</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30">
+      <c r="K44" s="29"/>
+      <c r="L44" s="29">
         <v>6</v>
       </c>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30">
+      <c r="M44" s="29"/>
+      <c r="N44" s="29">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="30"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -18885,18 +19053,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29">
         <v>8</v>
       </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30">
+      <c r="M45" s="29"/>
+      <c r="N45" s="29">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="30"/>
+      <c r="O45" s="29"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -18917,18 +19085,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>3.55</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30">
+      <c r="K46" s="29"/>
+      <c r="L46" s="29">
         <v>12</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30">
+      <c r="M46" s="29"/>
+      <c r="N46" s="29">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="30"/>
+      <c r="O46" s="29"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -19028,6 +19196,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="N43:O43"/>
@@ -19035,18 +19209,12 @@
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
     <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
     <mergeCell ref="J41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N46:O46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22418,7 +22586,7 @@
         <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -22453,43 +22621,43 @@
         <v>31</v>
       </c>
       <c r="AD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" t="s">
         <v>89</v>
       </c>
-      <c r="AE4" t="s">
-        <v>90</v>
-      </c>
       <c r="AF4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR4" t="s">
         <v>100</v>
       </c>
-      <c r="AG4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>101</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>102</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -22742,7 +22910,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -22771,7 +22939,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -22871,7 +23039,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -23028,7 +23196,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -26887,10 +27055,10 @@
         <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -26919,25 +27087,25 @@
         <v>31</v>
       </c>
       <c r="AD61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE61" t="s">
         <v>89</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>90</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>91</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>92</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>93</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>94</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -27122,7 +27290,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -27304,7 +27472,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -39825,7 +39993,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767513A8-1E84-4CF1-A0C8-911C3C2F6894}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345FE7E1-EC0B-4A6F-8217-A97989A40B98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="495" windowWidth="16215" windowHeight="15240" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="115">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,13 +746,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,7 +761,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
@@ -2276,6 +2285,370 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Average Detection Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Set7'!$K$128:$P$128</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.82669053152025684</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.93118691348806781</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99068280302310585</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.6940537352400804</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.68373319581203207</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.73492869709265185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Set7'!$K$128:$P$128</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.82669053152025684</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.93118691348806781</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99068280302310585</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.6940537352400804</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.68373319581203207</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.73492869709265185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Set7'!$B$209:$G$209</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5063240880702509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0840979703459599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0032053638373206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6109293409708796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.000540097190469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6533698808326696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-156B-4214-B389-ED85254A2F18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1809447920"/>
+        <c:axId val="1810062544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1809447920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810062544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1810062544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809447920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6485,7 +6858,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6523,7 +6896,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6551,7 +6924,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6589,7 +6962,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6855,6 +7228,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10246,6 +10659,509 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15497,6 +16413,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB968E8-C4F7-4978-94A0-05F22C0E14E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15838,11 +16790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15961,7 +16913,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -15973,7 +16925,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E39" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E40" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -16003,7 +16955,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -16011,7 +16963,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D35" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D36" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -16049,7 +17001,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -16092,7 +17044,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -16138,7 +17090,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -16272,7 +17224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -16317,54 +17269,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27">
         <v>100</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="27">
         <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="27">
         <f t="shared" si="0"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="27">
         <v>4.7E-2</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="1">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="27">
         <v>100</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="27">
+        <v>20</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="27">
+        <v>50</v>
+      </c>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="6">
-        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
@@ -16394,7 +17347,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>10</v>
@@ -16406,7 +17359,7 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -16436,7 +17389,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>10</v>
@@ -16448,7 +17401,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -16478,7 +17431,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>10</v>
@@ -16490,7 +17443,7 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
@@ -16520,7 +17473,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
@@ -16529,10 +17482,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
@@ -16562,7 +17515,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -16571,12 +17524,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="6">
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
@@ -16590,8 +17541,7 @@
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F17" s="1">
-        <f>E17</f>
-        <v>4.6051701859880917E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="1">
@@ -16607,35 +17557,36 @@
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="20">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>500</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>1.0817515047438954E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>1.2429216196844383E-2</v>
+        <v>4.6051701859880917E-2</v>
       </c>
       <c r="F18" s="1">
-        <v>1.243E-2</v>
+        <f>E18</f>
+        <v>4.6051701859880917E-2</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="1">
@@ -16657,16 +17608,15 @@
         <v>10</v>
       </c>
       <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="20">
         <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="20">
-        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>500</v>
@@ -16684,7 +17634,7 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1">
         <v>100</v>
@@ -16705,33 +17655,31 @@
         <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="20">
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>4.0404040404040407E-2</v>
+        <v>1.0817515047438954E-2</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>4.6051701859880917E-2</v>
+        <v>1.2429216196844383E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>4.7E-2</v>
+        <v>1.243E-2</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -16740,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>7</v>
@@ -16749,13 +17697,18 @@
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="11">
-        <v>2</v>
+      <c r="A21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>100</v>
@@ -16782,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>7</v>
@@ -16795,9 +17748,9 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="10">
-        <v>3</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="11">
+        <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -16824,7 +17777,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>7</v>
@@ -16837,9 +17790,9 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="11">
-        <v>4</v>
+      <c r="A23" s="29"/>
+      <c r="B23" s="10">
+        <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>100</v>
@@ -16866,7 +17819,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>7</v>
@@ -16879,9 +17832,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="10">
-        <v>5</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="11">
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>100</v>
@@ -16908,7 +17861,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -16921,17 +17874,15 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="12">
-        <v>1</v>
+      <c r="A25" s="29"/>
+      <c r="B25" s="10">
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
       </c>
       <c r="D25" s="1">
-        <f>2*LOG(C25)/(C25-1)</f>
+        <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E25" s="1">
@@ -16943,7 +17894,7 @@
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
@@ -16952,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>7</v>
@@ -16963,14 +17914,13 @@
       <c r="N25" s="1">
         <v>100</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="B26" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
@@ -16988,7 +17938,7 @@
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -17008,17 +17958,20 @@
       <c r="N26" s="1">
         <v>100</v>
       </c>
+      <c r="P26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
         <v>100</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C27)/(C27-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E27" s="1">
@@ -17030,7 +17983,7 @@
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -17052,9 +18005,9 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <v>100</v>
@@ -17072,7 +18025,7 @@
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -17094,9 +18047,9 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
@@ -17114,7 +18067,7 @@
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -17136,9 +18089,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
@@ -17156,7 +18109,7 @@
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -17178,11 +18131,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="14">
-        <v>1</v>
+      <c r="A31" s="29"/>
+      <c r="B31" s="12">
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>100</v>
@@ -17200,7 +18151,7 @@
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -17215,16 +18166,18 @@
         <v>7</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="B32" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
         <v>100</v>
@@ -17257,16 +18210,16 @@
         <v>7</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N32" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
         <v>100</v>
@@ -17299,16 +18252,16 @@
         <v>7</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
@@ -17341,16 +18294,16 @@
         <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N34" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
         <v>100</v>
@@ -17383,59 +18336,62 @@
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N35" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="24">
-        <v>1</v>
+      <c r="A36" s="29"/>
+      <c r="B36" s="14">
+        <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>500</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="23">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="23">
-        <v>1</v>
-      </c>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G36" s="23"/>
       <c r="H36" s="1">
         <v>2</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="1">
         <v>100</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="N36" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29" t="s">
+        <v>112</v>
+      </c>
       <c r="B37" s="24">
-        <v>2</v>
-      </c>
-      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
         <v>500</v>
       </c>
       <c r="D37" s="1"/>
@@ -17445,9 +18401,9 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="23">
-        <v>2</v>
-      </c>
-      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>2</v>
       </c>
       <c r="I37" s="23">
@@ -17465,14 +18421,14 @@
       <c r="M37" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N37" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="23">
         <v>500</v>
@@ -17484,7 +18440,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="23">
         <v>2</v>
@@ -17509,9 +18465,9 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" s="23">
         <v>500</v>
@@ -17523,7 +18479,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" s="23">
         <v>2</v>
@@ -17548,21 +18504,21 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="23">
         <v>500</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="23">
-        <f t="shared" ref="E40:E44" si="2">LN(C40)/(C40)</f>
+        <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H40" s="23">
         <v>2</v>
@@ -17587,53 +18543,50 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="24">
+        <v>5</v>
+      </c>
+      <c r="C41" s="23">
+        <v>500</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23">
+        <f t="shared" ref="E41:E47" si="2">LN(C41)/(C41)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23">
+        <v>100</v>
+      </c>
+      <c r="H41" s="23">
+        <v>2</v>
+      </c>
+      <c r="I41" s="23">
+        <v>100</v>
+      </c>
+      <c r="J41" s="23">
+        <v>1</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N41" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B42" s="28">
         <v>1</v>
-      </c>
-      <c r="C41" s="25">
-        <v>100</v>
-      </c>
-      <c r="D41" s="25">
-        <f>2*LOG(C41)/(C41-1)</f>
-        <v>4.0404040404040407E-2</v>
-      </c>
-      <c r="E41" s="25">
-        <f t="shared" si="2"/>
-        <v>4.6051701859880917E-2</v>
-      </c>
-      <c r="F41" s="25">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25">
-        <v>100</v>
-      </c>
-      <c r="J41" s="25">
-        <v>1</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="33">
-        <v>2</v>
       </c>
       <c r="C42" s="25">
         <v>100</v>
@@ -17651,7 +18604,7 @@
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="25">
         <v>100</v>
@@ -17662,26 +18615,26 @@
       <c r="K42" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="25" t="s">
-        <v>53</v>
+      <c r="L42" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>10</v>
       </c>
       <c r="N42" s="25">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="33">
-        <v>3</v>
+      <c r="A43" s="29"/>
+      <c r="B43" s="28">
+        <v>2</v>
       </c>
       <c r="C43" s="25">
         <v>100</v>
       </c>
       <c r="D43" s="25">
-        <f t="shared" ref="D43:D44" si="3">2*LOG(C43)/(C43-1)</f>
+        <f>2*LOG(C43)/(C43-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E43" s="25">
@@ -17693,7 +18646,7 @@
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="25">
         <v>100</v>
@@ -17704,26 +18657,26 @@
       <c r="K43" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="25" t="s">
-        <v>53</v>
+      <c r="L43" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="25">
-        <v>50</v>
+      <c r="N43" s="27">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="33">
-        <v>4</v>
+      <c r="A44" s="29"/>
+      <c r="B44" s="28">
+        <v>3</v>
       </c>
       <c r="C44" s="25">
         <v>100</v>
       </c>
       <c r="D44" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D44:D46" si="3">2*LOG(C44)/(C44-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E44" s="25">
@@ -17735,7 +18688,7 @@
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I44" s="25">
         <v>100</v>
@@ -17746,54 +18699,177 @@
       <c r="K44" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="25" t="s">
-        <v>53</v>
+      <c r="L44" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="25">
-        <v>50</v>
+      <c r="N44" s="27">
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="28">
+        <v>4</v>
+      </c>
+      <c r="C45" s="25">
+        <v>100</v>
+      </c>
+      <c r="D45" s="25">
+        <f t="shared" si="3"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F45" s="25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25">
+        <v>8</v>
+      </c>
+      <c r="I45" s="25">
+        <v>100</v>
+      </c>
+      <c r="J45" s="25">
+        <v>1</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="28">
+        <v>5</v>
+      </c>
+      <c r="C46" s="27">
+        <v>100</v>
+      </c>
+      <c r="D46" s="27">
+        <f t="shared" si="3"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F46" s="27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27">
+        <v>16</v>
+      </c>
+      <c r="I46" s="27">
+        <v>100</v>
+      </c>
+      <c r="J46" s="27">
+        <v>1</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="28">
+        <v>6</v>
+      </c>
+      <c r="C47" s="27">
+        <v>100</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27">
+        <f t="shared" si="2"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F47" s="27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27">
+        <v>32</v>
+      </c>
+      <c r="I47" s="27">
+        <v>100</v>
+      </c>
+      <c r="J47" s="27">
+        <v>1</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A32:A36"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A42:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18899,15 +19975,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -18925,18 +20001,18 @@
       <c r="I41" t="s">
         <v>108</v>
       </c>
-      <c r="J41" s="29" t="s">
+      <c r="J41" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29" t="s">
+      <c r="K41" s="33"/>
+      <c r="L41" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29" t="s">
+      <c r="M41" s="33"/>
+      <c r="N41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="O41" s="29"/>
+      <c r="O41" s="33"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -18957,18 +20033,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="33">
         <v>1.2</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29">
+      <c r="K42" s="33"/>
+      <c r="L42" s="33">
         <v>3</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29">
+      <c r="M42" s="33"/>
+      <c r="N42" s="33">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="29"/>
+      <c r="O42" s="33"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -18989,18 +20065,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="33">
         <v>1.3</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29">
+      <c r="K43" s="33"/>
+      <c r="L43" s="33">
         <v>4</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29">
+      <c r="M43" s="33"/>
+      <c r="N43" s="33">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="29"/>
+      <c r="O43" s="33"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -19021,18 +20097,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="33">
         <v>2.36</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33">
         <v>6</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29">
+      <c r="M44" s="33"/>
+      <c r="N44" s="33">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="29"/>
+      <c r="O44" s="33"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -19053,18 +20129,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="33">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29">
+      <c r="K45" s="33"/>
+      <c r="L45" s="33">
         <v>8</v>
       </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29">
+      <c r="M45" s="33"/>
+      <c r="N45" s="33">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="29"/>
+      <c r="O45" s="33"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -19085,18 +20161,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="33">
         <v>3.55</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29">
+      <c r="K46" s="33"/>
+      <c r="L46" s="33">
         <v>12</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29">
+      <c r="M46" s="33"/>
+      <c r="N46" s="33">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="29"/>
+      <c r="O46" s="33"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -19196,15 +20272,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -19215,6 +20282,15 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20876,7 +21952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
@@ -35061,10 +36137,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="V130" sqref="V130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37589,7 +38665,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>0.91632610287600003</v>
       </c>
@@ -37609,7 +38685,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>0.91644274472300002</v>
       </c>
@@ -37629,7 +38705,7 @@
         <v>1.2324174717859999</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>0.91500000000299997</v>
       </c>
@@ -37649,7 +38725,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>0.61000000000200005</v>
       </c>
@@ -37669,7 +38745,7 @@
         <v>0.61068888888999995</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>0.91500000000299997</v>
       </c>
@@ -37689,7 +38765,7 @@
         <v>0.91603333333500003</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <f>AVERAGE(B2:B101)</f>
         <v>0.91574297331867116</v>
@@ -37715,7 +38791,2660 @@
         <v>0.88954687804625943</v>
       </c>
     </row>
+    <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>2</v>
+      </c>
+      <c r="D108" s="5">
+        <v>3</v>
+      </c>
+      <c r="E108" s="5">
+        <v>4</v>
+      </c>
+      <c r="F108" s="5">
+        <v>5</v>
+      </c>
+      <c r="G108" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
+      <c r="B109">
+        <v>1.32</v>
+      </c>
+      <c r="C109">
+        <v>5.2188119163250004</v>
+      </c>
+      <c r="D109">
+        <v>6.2662723996479999</v>
+      </c>
+      <c r="E109">
+        <v>1.9967999999999999</v>
+      </c>
+      <c r="F109">
+        <v>8.7024628270440001</v>
+      </c>
+      <c r="G109">
+        <v>1.6105677323450001</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="18"/>
+      <c r="M109" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N109" s="18"/>
+      <c r="P109" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="18"/>
+      <c r="S109" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T109" s="18"/>
+      <c r="V109" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W109" s="18"/>
+      <c r="Y109" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z109" s="18"/>
+    </row>
+    <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
+      <c r="B110">
+        <v>4.9858304269760003</v>
+      </c>
+      <c r="C110">
+        <v>5.7813122992560002</v>
+      </c>
+      <c r="D110">
+        <v>1.37178719777</v>
+      </c>
+      <c r="E110">
+        <v>1.8302559050780001</v>
+      </c>
+      <c r="F110">
+        <v>17.016194763632999</v>
+      </c>
+      <c r="G110">
+        <v>5.5092286183499999</v>
+      </c>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="V110" s="16"/>
+      <c r="W110" s="16"/>
+      <c r="Y110" s="16"/>
+      <c r="Z110" s="16"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A111" s="36"/>
+      <c r="B111">
+        <v>6.3728169473809997</v>
+      </c>
+      <c r="C111">
+        <v>3.1761858999200001</v>
+      </c>
+      <c r="D111">
+        <v>2.1639777671289999</v>
+      </c>
+      <c r="E111">
+        <v>7.1843882392160001</v>
+      </c>
+      <c r="F111">
+        <v>6.1803999999999997</v>
+      </c>
+      <c r="G111">
+        <v>3.3514066961809998</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K111" s="16">
+        <v>5.5063240880702509</v>
+      </c>
+      <c r="M111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N111" s="16">
+        <v>6.0840979703459599</v>
+      </c>
+      <c r="P111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q111" s="16">
+        <v>6.0032053638373206</v>
+      </c>
+      <c r="S111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T111" s="16">
+        <v>4.6109293409708796</v>
+      </c>
+      <c r="V111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W111" s="16">
+        <v>5.000540097190469</v>
+      </c>
+      <c r="Y111" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z111" s="16">
+        <v>4.6533698808326696</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A112" s="36"/>
+      <c r="B112">
+        <v>9.3210768256519998</v>
+      </c>
+      <c r="C112">
+        <v>4.8144513767420003</v>
+      </c>
+      <c r="D112">
+        <v>10.420156146437</v>
+      </c>
+      <c r="E112">
+        <v>5.6689786730850003</v>
+      </c>
+      <c r="F112">
+        <v>2.3611289796919999</v>
+      </c>
+      <c r="G112">
+        <v>2.6048</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K112" s="16">
+        <v>0.41663313624011888</v>
+      </c>
+      <c r="M112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N112" s="16">
+        <v>0.46929692478615675</v>
+      </c>
+      <c r="P112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q112" s="16">
+        <v>0.49928149350353923</v>
+      </c>
+      <c r="S112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T112" s="16">
+        <v>0.34978722194927936</v>
+      </c>
+      <c r="V112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W112" s="16">
+        <v>0.34458590592393401</v>
+      </c>
+      <c r="Y112" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z112" s="16">
+        <v>0.37038726864270732</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>9.8260909911700001</v>
+      </c>
+      <c r="C113">
+        <v>15.16382138895</v>
+      </c>
+      <c r="D113">
+        <v>2.6906631047310001</v>
+      </c>
+      <c r="E113">
+        <v>2.234911569946</v>
+      </c>
+      <c r="F113">
+        <v>13.620369960994999</v>
+      </c>
+      <c r="G113">
+        <v>8.9202881127640001</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K113" s="16">
+        <v>4.6852499907415002</v>
+      </c>
+      <c r="M113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N113" s="16">
+        <v>4.9785773755165001</v>
+      </c>
+      <c r="P113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q113" s="16">
+        <v>4.6896878583625004</v>
+      </c>
+      <c r="S113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T113" s="16">
+        <v>3.8669145686580002</v>
+      </c>
+      <c r="V113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="W113" s="16">
+        <v>3.8315547127620002</v>
+      </c>
+      <c r="Y113" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z113" s="16">
+        <v>3.4684029959834999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>8.4456321971020003</v>
+      </c>
+      <c r="C114">
+        <v>4.0705914629419997</v>
+      </c>
+      <c r="D114">
+        <v>4.7238363442490003</v>
+      </c>
+      <c r="E114">
+        <v>3.7824993285600002</v>
+      </c>
+      <c r="F114">
+        <v>3.7591248817220002</v>
+      </c>
+      <c r="G114">
+        <v>7.7433775497820001</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K114" s="16">
+        <v>1.32</v>
+      </c>
+      <c r="M114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N114" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q114" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T114" s="16">
+        <v>1.9967999999999999</v>
+      </c>
+      <c r="V114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W114" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="Y114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z114" s="16">
+        <v>1.3695999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>5.9765921376910001</v>
+      </c>
+      <c r="C115">
+        <v>5.1357921376910003</v>
+      </c>
+      <c r="D115">
+        <v>4.5324702768179996</v>
+      </c>
+      <c r="E115">
+        <v>4.9748822401719996</v>
+      </c>
+      <c r="F115">
+        <v>6.2088948408220004</v>
+      </c>
+      <c r="G115">
+        <v>9.2555042631479996</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="16">
+        <v>4.1663313624011886</v>
+      </c>
+      <c r="M115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N115" s="16">
+        <v>4.6929692478615674</v>
+      </c>
+      <c r="P115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q115" s="16">
+        <v>4.9928149350353923</v>
+      </c>
+      <c r="S115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T115" s="16">
+        <v>3.4978722194927934</v>
+      </c>
+      <c r="V115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W115" s="16">
+        <v>3.4458590592393401</v>
+      </c>
+      <c r="Y115" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z115" s="16">
+        <v>3.703872686427073</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>5.3181567560009997</v>
+      </c>
+      <c r="C116">
+        <v>2.3435343950759999</v>
+      </c>
+      <c r="D116">
+        <v>0.70619714721899995</v>
+      </c>
+      <c r="E116">
+        <v>3.8386515029880002</v>
+      </c>
+      <c r="F116">
+        <v>7.4797208123230003</v>
+      </c>
+      <c r="G116">
+        <v>2.3014952578800001</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K116" s="16">
+        <v>17.358317021327746</v>
+      </c>
+      <c r="M116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="N116" s="16">
+        <v>22.023960361374364</v>
+      </c>
+      <c r="P116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q116" s="16">
+        <v>24.928200975512468</v>
+      </c>
+      <c r="S116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T116" s="16">
+        <v>12.235110063899439</v>
+      </c>
+      <c r="V116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W116" s="16">
+        <v>11.87394465614183</v>
+      </c>
+      <c r="Y116" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z116" s="16">
+        <v>13.718672877260502</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>7.273479457004</v>
+      </c>
+      <c r="C117">
+        <v>1.4856798661690001</v>
+      </c>
+      <c r="D117">
+        <v>6.0016318191320002</v>
+      </c>
+      <c r="E117">
+        <v>2.2110169326669999</v>
+      </c>
+      <c r="F117">
+        <v>1.1105368737579999</v>
+      </c>
+      <c r="G117">
+        <v>4.4691999999999998</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K117" s="16">
+        <v>5.8491924943828444</v>
+      </c>
+      <c r="M117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N117" s="16">
+        <v>2.7020305783768106</v>
+      </c>
+      <c r="P117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q117" s="16">
+        <v>4.3536860338274916</v>
+      </c>
+      <c r="S117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T117" s="16">
+        <v>9.492200530535861</v>
+      </c>
+      <c r="V117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="W117" s="16">
+        <v>1.6492275397589942</v>
+      </c>
+      <c r="Y117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z117" s="16">
+        <v>5.4509568821735872</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1.674304923574</v>
+      </c>
+      <c r="C118">
+        <v>4.3034924588249996</v>
+      </c>
+      <c r="D118">
+        <v>2.7677859924230002</v>
+      </c>
+      <c r="E118">
+        <v>2.3824264668250001</v>
+      </c>
+      <c r="F118">
+        <v>3.0034346056099999</v>
+      </c>
+      <c r="G118">
+        <v>5.6507043805350001</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K118" s="16">
+        <v>1.9475876959810889</v>
+      </c>
+      <c r="M118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N118" s="16">
+        <v>1.6428920082360827</v>
+      </c>
+      <c r="P118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q118" s="16">
+        <v>1.9989245872276988</v>
+      </c>
+      <c r="S118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T118" s="16">
+        <v>2.550946306109215</v>
+      </c>
+      <c r="V118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W118" s="16">
+        <v>1.284383987831204</v>
+      </c>
+      <c r="Y118" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z118" s="16">
+        <v>1.9077801881445478</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>6.331475804438</v>
+      </c>
+      <c r="C119">
+        <v>3.2464876683649999</v>
+      </c>
+      <c r="D119">
+        <v>3.740805952174</v>
+      </c>
+      <c r="E119">
+        <v>3.0863506963349998</v>
+      </c>
+      <c r="F119">
+        <v>6.3742025647940004</v>
+      </c>
+      <c r="G119">
+        <v>0.945015343206</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K119" s="16">
+        <v>25.106048399683999</v>
+      </c>
+      <c r="M119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N119" s="16">
+        <v>21.295837435081999</v>
+      </c>
+      <c r="P119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q119" s="16">
+        <v>26.747768765387999</v>
+      </c>
+      <c r="S119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T119" s="16">
+        <v>22.858395109047002</v>
+      </c>
+      <c r="V119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="W119" s="16">
+        <v>16.344194763632999</v>
+      </c>
+      <c r="Y119" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z119" s="16">
+        <v>22.374759155123002</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>9.8531794112550006</v>
+      </c>
+      <c r="C120">
+        <v>2.3980964704560002</v>
+      </c>
+      <c r="D120">
+        <v>6.0295473887929996</v>
+      </c>
+      <c r="E120">
+        <v>2.7682135826219998</v>
+      </c>
+      <c r="F120">
+        <v>4.6293633881299998</v>
+      </c>
+      <c r="G120">
+        <v>10.613160139652001</v>
+      </c>
+      <c r="J120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K120" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="M120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N120" s="16">
+        <v>0.77452569173300001</v>
+      </c>
+      <c r="P120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q120" s="16">
+        <v>0.70619714721899995</v>
+      </c>
+      <c r="S120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="T120" s="16">
+        <v>0.84612346642299996</v>
+      </c>
+      <c r="V120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W120" s="16">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="Y120" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z120" s="16">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>3.7029402646420002</v>
+      </c>
+      <c r="C121">
+        <v>1.3562183242179999</v>
+      </c>
+      <c r="D121">
+        <v>3.4362806575980001</v>
+      </c>
+      <c r="E121">
+        <v>3.964315975261</v>
+      </c>
+      <c r="F121">
+        <v>2.7294058083010002</v>
+      </c>
+      <c r="G121">
+        <v>2.4354182640749999</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K121" s="16">
+        <v>25.766048399683999</v>
+      </c>
+      <c r="M121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N121" s="16">
+        <v>22.070363126815</v>
+      </c>
+      <c r="P121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q121" s="16">
+        <v>27.453965912607</v>
+      </c>
+      <c r="S121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="T121" s="16">
+        <v>23.704518575470001</v>
+      </c>
+      <c r="V121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="W121" s="16">
+        <v>17.016194763632999</v>
+      </c>
+      <c r="Y121" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z121" s="16">
+        <v>23.059559155123001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>2.2189251907659999</v>
+      </c>
+      <c r="C122">
+        <v>12.009342617418</v>
+      </c>
+      <c r="D122">
+        <v>6.1056280598150003</v>
+      </c>
+      <c r="E122">
+        <v>6.4612061446800002</v>
+      </c>
+      <c r="F122">
+        <v>3.8692134284740001</v>
+      </c>
+      <c r="G122">
+        <v>12.378754543814001</v>
+      </c>
+      <c r="J122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K122" s="16">
+        <v>550.63240880702506</v>
+      </c>
+      <c r="M122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N122" s="16">
+        <v>608.40979703459595</v>
+      </c>
+      <c r="P122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q122" s="16">
+        <v>600.32053638373202</v>
+      </c>
+      <c r="S122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T122" s="16">
+        <v>461.09293409708795</v>
+      </c>
+      <c r="V122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W122" s="16">
+        <v>500.05400971904686</v>
+      </c>
+      <c r="Y122" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z122" s="16">
+        <v>465.33698808326699</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>3.8762565502030002</v>
+      </c>
+      <c r="C123">
+        <v>3.1020499140850002</v>
+      </c>
+      <c r="D123">
+        <v>3.5913681055310001</v>
+      </c>
+      <c r="E123">
+        <v>9.9917994868729991</v>
+      </c>
+      <c r="F123">
+        <v>2.2951010380639998</v>
+      </c>
+      <c r="G123">
+        <v>1.5412254099730001</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K123" s="16">
+        <v>100</v>
+      </c>
+      <c r="M123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N123" s="16">
+        <v>100</v>
+      </c>
+      <c r="P123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q123" s="16">
+        <v>100</v>
+      </c>
+      <c r="S123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T123" s="16">
+        <v>100</v>
+      </c>
+      <c r="V123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W123" s="16">
+        <v>100</v>
+      </c>
+      <c r="Y123" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z123" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>8.8056297033180009</v>
+      </c>
+      <c r="C124">
+        <v>0.77452569173300001</v>
+      </c>
+      <c r="D124">
+        <v>3.7025450842610002</v>
+      </c>
+      <c r="E124">
+        <v>5.1885371209980002</v>
+      </c>
+      <c r="F124">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="G124">
+        <v>3.0915057995690001</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K124" s="17">
+        <v>0.82669053152025684</v>
+      </c>
+      <c r="M124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N124" s="17">
+        <v>0.93118691348806781</v>
+      </c>
+      <c r="P124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q124" s="17">
+        <v>0.99068280302310585</v>
+      </c>
+      <c r="S124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T124" s="17">
+        <v>0.6940537352400804</v>
+      </c>
+      <c r="V124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W124" s="17">
+        <v>0.68373319581203207</v>
+      </c>
+      <c r="Y124" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z124" s="17">
+        <v>0.73492869709265185</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>1.509937999398</v>
+      </c>
+      <c r="C125">
+        <v>8.7184203405339993</v>
+      </c>
+      <c r="D125">
+        <v>6.1417366492810004</v>
+      </c>
+      <c r="E125">
+        <v>5.1453966545760004</v>
+      </c>
+      <c r="F125">
+        <v>7.4645861248149998</v>
+      </c>
+      <c r="G125">
+        <v>6.2919956405989996</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>5.3392701799889997</v>
+      </c>
+      <c r="C126">
+        <v>3.3972257397879999</v>
+      </c>
+      <c r="D126">
+        <v>12.328418946500999</v>
+      </c>
+      <c r="E126">
+        <v>3.0655999999999999</v>
+      </c>
+      <c r="F126">
+        <v>15.282705449121</v>
+      </c>
+      <c r="G126">
+        <v>5.1819642833930004</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>3.2772130401520001</v>
+      </c>
+      <c r="C127">
+        <v>5.4739312515360004</v>
+      </c>
+      <c r="D127">
+        <v>1.7261439298870001</v>
+      </c>
+      <c r="E127">
+        <v>2.111605085256</v>
+      </c>
+      <c r="F127">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="G127">
+        <v>5.5584195789950002</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K127">
+        <f>K111</f>
+        <v>5.5063240880702509</v>
+      </c>
+      <c r="L127">
+        <f>N111</f>
+        <v>6.0840979703459599</v>
+      </c>
+      <c r="M127">
+        <f>Q111</f>
+        <v>6.0032053638373206</v>
+      </c>
+      <c r="N127">
+        <f>T111</f>
+        <v>4.6109293409708796</v>
+      </c>
+      <c r="O127">
+        <f>W111</f>
+        <v>5.000540097190469</v>
+      </c>
+      <c r="P127">
+        <f>Z111</f>
+        <v>4.6533698808326696</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>25.766048399683999</v>
+      </c>
+      <c r="C128">
+        <v>6.6348549638860002</v>
+      </c>
+      <c r="D128">
+        <v>3.7754764477320002</v>
+      </c>
+      <c r="E128">
+        <v>3.8951776343279998</v>
+      </c>
+      <c r="F128">
+        <v>6.9045927174869997</v>
+      </c>
+      <c r="G128">
+        <v>1.5895999999999999</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K128">
+        <f>K124</f>
+        <v>0.82669053152025684</v>
+      </c>
+      <c r="L128">
+        <f>N124</f>
+        <v>0.93118691348806781</v>
+      </c>
+      <c r="M128">
+        <f>Q124</f>
+        <v>0.99068280302310585</v>
+      </c>
+      <c r="N128">
+        <f>T124</f>
+        <v>0.6940537352400804</v>
+      </c>
+      <c r="O128">
+        <f>W124</f>
+        <v>0.68373319581203207</v>
+      </c>
+      <c r="P128">
+        <f>Z124</f>
+        <v>0.73492869709265185</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>7.0988081206290001</v>
+      </c>
+      <c r="C129">
+        <v>8.4043759485359999</v>
+      </c>
+      <c r="D129">
+        <v>2.4192274810529999</v>
+      </c>
+      <c r="E129">
+        <v>2.0995375888860002</v>
+      </c>
+      <c r="F129">
+        <v>6.6015492874300001</v>
+      </c>
+      <c r="G129">
+        <v>4.7408942397600002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2.1623446179369998</v>
+      </c>
+      <c r="C130">
+        <v>17.868589502441001</v>
+      </c>
+      <c r="D130">
+        <v>8.1219344806400002</v>
+      </c>
+      <c r="E130">
+        <v>2.6430848991949998</v>
+      </c>
+      <c r="F130">
+        <v>3.1775742459649998</v>
+      </c>
+      <c r="G130">
+        <v>6.8402759163770002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>8.5595520515550003</v>
+      </c>
+      <c r="C131">
+        <v>7.9296642831600002</v>
+      </c>
+      <c r="D131">
+        <v>3.8388048617449999</v>
+      </c>
+      <c r="E131">
+        <v>15.476555881531</v>
+      </c>
+      <c r="F131">
+        <v>3.6925205925940001</v>
+      </c>
+      <c r="G131">
+        <v>11.688825403245</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>2.6971584600030001</v>
+      </c>
+      <c r="C132">
+        <v>2.6995584600029998</v>
+      </c>
+      <c r="D132">
+        <v>7.3658171497750002</v>
+      </c>
+      <c r="E132">
+        <v>10.019439980122</v>
+      </c>
+      <c r="F132">
+        <v>12.966983821257999</v>
+      </c>
+      <c r="G132">
+        <v>4.9220790218220003</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>5.4135009083890004</v>
+      </c>
+      <c r="C133">
+        <v>7.2700398969720004</v>
+      </c>
+      <c r="D133">
+        <v>2.550623676316</v>
+      </c>
+      <c r="E133">
+        <v>2.8912492556770002</v>
+      </c>
+      <c r="F133">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G133">
+        <v>2.0543999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>4.8327189388859999</v>
+      </c>
+      <c r="C134">
+        <v>5.9899090296980004</v>
+      </c>
+      <c r="D134">
+        <v>4.4043355068189998</v>
+      </c>
+      <c r="E134">
+        <v>2.1037493044910001</v>
+      </c>
+      <c r="F134">
+        <v>2.1549163399869999</v>
+      </c>
+      <c r="G134">
+        <v>1.704727214761</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>2.7036507732150001</v>
+      </c>
+      <c r="C135">
+        <v>2.310437821112</v>
+      </c>
+      <c r="D135">
+        <v>11.787588373518</v>
+      </c>
+      <c r="E135">
+        <v>7.0653882428179999</v>
+      </c>
+      <c r="F135">
+        <v>5.1352176936190004</v>
+      </c>
+      <c r="G135">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>4.3644113112909997</v>
+      </c>
+      <c r="C136">
+        <v>12.571987666512999</v>
+      </c>
+      <c r="D136">
+        <v>1.5411117520349999</v>
+      </c>
+      <c r="E136">
+        <v>4.2537769909550001</v>
+      </c>
+      <c r="F136">
+        <v>2.894065807744</v>
+      </c>
+      <c r="G136">
+        <v>6.6292790346209998</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>6.2976537546889997</v>
+      </c>
+      <c r="C137">
+        <v>10.872735544262</v>
+      </c>
+      <c r="D137">
+        <v>1.4061736780759999</v>
+      </c>
+      <c r="E137">
+        <v>9.0688772314600001</v>
+      </c>
+      <c r="F137">
+        <v>6.1731216245390002</v>
+      </c>
+      <c r="G137">
+        <v>1.534444817956</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>9.3708398808620004</v>
+      </c>
+      <c r="C138">
+        <v>1.9842964070089999</v>
+      </c>
+      <c r="D138">
+        <v>8.0115291675999991</v>
+      </c>
+      <c r="E138">
+        <v>7.611461369793</v>
+      </c>
+      <c r="F138">
+        <v>7.9362795581209999</v>
+      </c>
+      <c r="G138">
+        <v>4.2997140241920002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>5.6572867156379996</v>
+      </c>
+      <c r="C139">
+        <v>7.0665015468260002</v>
+      </c>
+      <c r="D139">
+        <v>4.6555393724760004</v>
+      </c>
+      <c r="E139">
+        <v>11.024361350464</v>
+      </c>
+      <c r="F139">
+        <v>6.3465961475799997</v>
+      </c>
+      <c r="G139">
+        <v>3.5126200487519998</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>3.8944938391630002</v>
+      </c>
+      <c r="C140">
+        <v>3.0030799776169999</v>
+      </c>
+      <c r="D140">
+        <v>5.3330219194430004</v>
+      </c>
+      <c r="E140">
+        <v>1.4176370812050001</v>
+      </c>
+      <c r="F140">
+        <v>7.5395285313310003</v>
+      </c>
+      <c r="G140">
+        <v>6.8741344409699998</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>5.3282091157789999</v>
+      </c>
+      <c r="C141">
+        <v>4.3763685973959996</v>
+      </c>
+      <c r="D141">
+        <v>6.1647119005229998</v>
+      </c>
+      <c r="E141">
+        <v>3.3624260097819998</v>
+      </c>
+      <c r="F141">
+        <v>1.85579209785</v>
+      </c>
+      <c r="G141">
+        <v>4.000199836548</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>4.1850546314660004</v>
+      </c>
+      <c r="C142">
+        <v>8.0701749912369998</v>
+      </c>
+      <c r="D142">
+        <v>10.559282062147</v>
+      </c>
+      <c r="E142">
+        <v>2.3672224412329999</v>
+      </c>
+      <c r="F142">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G142">
+        <v>2.2114870884809998</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C143">
+        <v>2.1300739678239999</v>
+      </c>
+      <c r="D143">
+        <v>14.973949083122999</v>
+      </c>
+      <c r="E143">
+        <v>1.9967999999999999</v>
+      </c>
+      <c r="F143">
+        <v>3.1501945572640002</v>
+      </c>
+      <c r="G143">
+        <v>1.390228880524</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>8.2434377467729991</v>
+      </c>
+      <c r="C144">
+        <v>3.9948754629550001</v>
+      </c>
+      <c r="D144">
+        <v>2.2048550941460001</v>
+      </c>
+      <c r="E144">
+        <v>3.5823903020130001</v>
+      </c>
+      <c r="F144">
+        <v>2.3232492736169998</v>
+      </c>
+      <c r="G144">
+        <v>7.7189627490310002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>19.477523678465001</v>
+      </c>
+      <c r="C145">
+        <v>3.1621676432300001</v>
+      </c>
+      <c r="D145">
+        <v>1.737215796504</v>
+      </c>
+      <c r="E145">
+        <v>2.0809785447609999</v>
+      </c>
+      <c r="F145">
+        <v>5.2197328862430004</v>
+      </c>
+      <c r="G145">
+        <v>9.320774941582</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>6.1617675412599997</v>
+      </c>
+      <c r="C146">
+        <v>1.3216000000000001</v>
+      </c>
+      <c r="D146">
+        <v>5.2614757380789996</v>
+      </c>
+      <c r="E146">
+        <v>2.1019322346429998</v>
+      </c>
+      <c r="F146">
+        <v>6.379523071995</v>
+      </c>
+      <c r="G146">
+        <v>6.9938189388350001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>6.4389464797600002</v>
+      </c>
+      <c r="C147">
+        <v>5.74142559623</v>
+      </c>
+      <c r="D147">
+        <v>5.5934995606619999</v>
+      </c>
+      <c r="E147">
+        <v>3.3736648617360001</v>
+      </c>
+      <c r="F147">
+        <v>2.3652000000000002</v>
+      </c>
+      <c r="G147">
+        <v>7.7495274106409999</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>1.32</v>
+      </c>
+      <c r="C148">
+        <v>2.637042566536</v>
+      </c>
+      <c r="D148">
+        <v>18.758912270343998</v>
+      </c>
+      <c r="E148">
+        <v>2.6184472964949999</v>
+      </c>
+      <c r="F148">
+        <v>7.6056197631559996</v>
+      </c>
+      <c r="G148">
+        <v>6.5257218566650002</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>10.699173291165</v>
+      </c>
+      <c r="C149">
+        <v>2.162437347435</v>
+      </c>
+      <c r="D149">
+        <v>5.042972074803</v>
+      </c>
+      <c r="E149">
+        <v>3.4574974204050002</v>
+      </c>
+      <c r="F149">
+        <v>9.0359670396770007</v>
+      </c>
+      <c r="G149">
+        <v>1.4108280217339999</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>0.66</v>
+      </c>
+      <c r="C150">
+        <v>5.8135762379929998</v>
+      </c>
+      <c r="D150">
+        <v>9.5239371621389992</v>
+      </c>
+      <c r="E150">
+        <v>4.0414904799090001</v>
+      </c>
+      <c r="F150">
+        <v>1.664627588106</v>
+      </c>
+      <c r="G150">
+        <v>9.4751261484890001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>2.6389782715860002</v>
+      </c>
+      <c r="C151">
+        <v>5.8231790682269997</v>
+      </c>
+      <c r="D151">
+        <v>3.992237347968</v>
+      </c>
+      <c r="E151">
+        <v>2.0452420598329999</v>
+      </c>
+      <c r="F151">
+        <v>5.3026970537490001</v>
+      </c>
+      <c r="G151">
+        <v>2.574482276651</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>6.170118180457</v>
+      </c>
+      <c r="C152">
+        <v>22.070363126815</v>
+      </c>
+      <c r="D152">
+        <v>7.5391198926270002</v>
+      </c>
+      <c r="E152">
+        <v>5.1373950433879996</v>
+      </c>
+      <c r="F152">
+        <v>14.873520709256001</v>
+      </c>
+      <c r="G152">
+        <v>4.7226335008950002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>1.32</v>
+      </c>
+      <c r="C153">
+        <v>7.039188519324</v>
+      </c>
+      <c r="D153">
+        <v>0.74306967835600002</v>
+      </c>
+      <c r="E153">
+        <v>11.362962047542</v>
+      </c>
+      <c r="F153">
+        <v>9.73475439025</v>
+      </c>
+      <c r="G153">
+        <v>1.3695999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>2.0416217127139999</v>
+      </c>
+      <c r="C154">
+        <v>21.938516175572001</v>
+      </c>
+      <c r="D154">
+        <v>2.961869349743</v>
+      </c>
+      <c r="E154">
+        <v>7.4179316873200003</v>
+      </c>
+      <c r="F154">
+        <v>3.410280960508</v>
+      </c>
+      <c r="G154">
+        <v>2.2138397674279999</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1.39</v>
+      </c>
+      <c r="C155">
+        <v>1.9353944438649999</v>
+      </c>
+      <c r="D155">
+        <v>5.4302076659290002</v>
+      </c>
+      <c r="E155">
+        <v>2.594154511857</v>
+      </c>
+      <c r="F155">
+        <v>1.6918411546409999</v>
+      </c>
+      <c r="G155">
+        <v>14.074488300618</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>9.1610548459249994</v>
+      </c>
+      <c r="C156">
+        <v>18.558967570615</v>
+      </c>
+      <c r="D156">
+        <v>2.6475171637070001</v>
+      </c>
+      <c r="E156">
+        <v>6.8623261046430004</v>
+      </c>
+      <c r="F156">
+        <v>5.5842795149170001</v>
+      </c>
+      <c r="G156">
+        <v>1.8896662552850001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>6.9721126015949997</v>
+      </c>
+      <c r="C157">
+        <v>7.230469767922</v>
+      </c>
+      <c r="D157">
+        <v>13.983915464608</v>
+      </c>
+      <c r="E157">
+        <v>1.0056</v>
+      </c>
+      <c r="F157">
+        <v>1.5404671130409999</v>
+      </c>
+      <c r="G157">
+        <v>4.4201991696289999</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="7">
+        <v>3.5695664595540002</v>
+      </c>
+      <c r="C158">
+        <v>4.821362613342</v>
+      </c>
+      <c r="D158">
+        <v>17.773852227820001</v>
+      </c>
+      <c r="E158">
+        <v>16.138232415143001</v>
+      </c>
+      <c r="F158">
+        <v>1.475217617934</v>
+      </c>
+      <c r="G158">
+        <v>4.3421267561899999</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>2.855674825096</v>
+      </c>
+      <c r="C159">
+        <v>2.8807999999999998</v>
+      </c>
+      <c r="D159">
+        <v>2.7785523181260001</v>
+      </c>
+      <c r="E159">
+        <v>4.7256</v>
+      </c>
+      <c r="F159">
+        <v>2.8606528226500001</v>
+      </c>
+      <c r="G159">
+        <v>6.2337143509609998</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>2.7336031497739999</v>
+      </c>
+      <c r="C160">
+        <v>2.2374913095369999</v>
+      </c>
+      <c r="D160">
+        <v>6.8541151614810003</v>
+      </c>
+      <c r="E160">
+        <v>3.3793779959119998</v>
+      </c>
+      <c r="F160">
+        <v>1.549647336079</v>
+      </c>
+      <c r="G160">
+        <v>2.5132622785310001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>11.964395864247001</v>
+      </c>
+      <c r="C161">
+        <v>4.599607336649</v>
+      </c>
+      <c r="D161">
+        <v>5.6828420951779997</v>
+      </c>
+      <c r="E161">
+        <v>10.238224748975</v>
+      </c>
+      <c r="F161">
+        <v>3.503265778442</v>
+      </c>
+      <c r="G161">
+        <v>1.371426369595</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1.688742960686</v>
+      </c>
+      <c r="C162">
+        <v>2.018106243124</v>
+      </c>
+      <c r="D162">
+        <v>0.84144345628100004</v>
+      </c>
+      <c r="E162">
+        <v>5.2847148174619996</v>
+      </c>
+      <c r="F162">
+        <v>6.3448029083030004</v>
+      </c>
+      <c r="G162">
+        <v>2.1436510157059998</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>7.2440096232290001</v>
+      </c>
+      <c r="C163">
+        <v>3.6429616118629999</v>
+      </c>
+      <c r="D163">
+        <v>19.752766894926001</v>
+      </c>
+      <c r="E163">
+        <v>3.985614126672</v>
+      </c>
+      <c r="F163">
+        <v>2.2348586926539999</v>
+      </c>
+      <c r="G163">
+        <v>1.3695999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>8.1245017379890001</v>
+      </c>
+      <c r="C164">
+        <v>13.865551626043001</v>
+      </c>
+      <c r="D164">
+        <v>2.6137439777370002</v>
+      </c>
+      <c r="E164">
+        <v>4.3036984461319996</v>
+      </c>
+      <c r="F164">
+        <v>2.104567660711</v>
+      </c>
+      <c r="G164">
+        <v>2.7724839871259999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>1.8030633782779999</v>
+      </c>
+      <c r="C165">
+        <v>15.298598627141001</v>
+      </c>
+      <c r="D165">
+        <v>6.0211152729849999</v>
+      </c>
+      <c r="E165">
+        <v>6.4108273767609996</v>
+      </c>
+      <c r="F165">
+        <v>6.5598535457759999</v>
+      </c>
+      <c r="G165">
+        <v>23.059559155123001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>2.0293220845679998</v>
+      </c>
+      <c r="C166">
+        <v>6.6126802886520002</v>
+      </c>
+      <c r="D166">
+        <v>5.6457861498769999</v>
+      </c>
+      <c r="E166">
+        <v>4.0143375007369997</v>
+      </c>
+      <c r="F166">
+        <v>4.5766684197679997</v>
+      </c>
+      <c r="G166">
+        <v>0.68479999999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>3.5378912768399999</v>
+      </c>
+      <c r="C167">
+        <v>5.7686939313360002</v>
+      </c>
+      <c r="D167">
+        <v>3.4098215471</v>
+      </c>
+      <c r="E167">
+        <v>5.144814004373</v>
+      </c>
+      <c r="F167">
+        <v>8.2259091573380001</v>
+      </c>
+      <c r="G167">
+        <v>1.6742162853489999</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>4.853653536485</v>
+      </c>
+      <c r="C168">
+        <v>10.790958488627</v>
+      </c>
+      <c r="D168">
+        <v>6.7198881133999997</v>
+      </c>
+      <c r="E168">
+        <v>2.0112000000000001</v>
+      </c>
+      <c r="F168">
+        <v>3.7174627561340001</v>
+      </c>
+      <c r="G168">
+        <v>3.696807965963</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>8.9721279855539997</v>
+      </c>
+      <c r="C169">
+        <v>4.3931787505170004</v>
+      </c>
+      <c r="D169">
+        <v>4.269606424399</v>
+      </c>
+      <c r="E169">
+        <v>4.6374353051890003</v>
+      </c>
+      <c r="F169">
+        <v>10.102617848281</v>
+      </c>
+      <c r="G169">
+        <v>2.4242491129710002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>3.4461079977160001</v>
+      </c>
+      <c r="C170">
+        <v>2.823969771242</v>
+      </c>
+      <c r="D170">
+        <v>3.4732293882810001</v>
+      </c>
+      <c r="E170">
+        <v>2.3642540603889999</v>
+      </c>
+      <c r="F170">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G170">
+        <v>3.4241859432149999</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>4.5377810425970004</v>
+      </c>
+      <c r="C171">
+        <v>4.53280039844</v>
+      </c>
+      <c r="D171">
+        <v>13.378659606566</v>
+      </c>
+      <c r="E171">
+        <v>1.7060597753069999</v>
+      </c>
+      <c r="F171">
+        <v>8.5456385699359991</v>
+      </c>
+      <c r="G171">
+        <v>1.4938920954170001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>4.9084620446049998</v>
+      </c>
+      <c r="C172">
+        <v>11.463371992455</v>
+      </c>
+      <c r="D172">
+        <v>2.16311215657</v>
+      </c>
+      <c r="E172">
+        <v>2.3790543953159999</v>
+      </c>
+      <c r="F172">
+        <v>2.215288228675</v>
+      </c>
+      <c r="G172">
+        <v>1.43164085358</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>9.3138852950129998</v>
+      </c>
+      <c r="C173">
+        <v>2.657922959305</v>
+      </c>
+      <c r="D173">
+        <v>9.5394960151750006</v>
+      </c>
+      <c r="E173">
+        <v>3.2036349505069999</v>
+      </c>
+      <c r="F173">
+        <v>3.1877634512899999</v>
+      </c>
+      <c r="G173">
+        <v>2.1856307461900002</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>9.5316971553670005</v>
+      </c>
+      <c r="C174">
+        <v>1.4947069744449999</v>
+      </c>
+      <c r="D174">
+        <v>2.5481085905950001</v>
+      </c>
+      <c r="E174">
+        <v>10.890215037194</v>
+      </c>
+      <c r="F174">
+        <v>2.8701654061239998</v>
+      </c>
+      <c r="G174">
+        <v>4.4423600010689999</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>3.8381517232950002</v>
+      </c>
+      <c r="C175">
+        <v>2.8274143368360001</v>
+      </c>
+      <c r="D175">
+        <v>4.7648000000000001</v>
+      </c>
+      <c r="E175">
+        <v>2.117268621165</v>
+      </c>
+      <c r="F175">
+        <v>1.6046760571230001</v>
+      </c>
+      <c r="G175">
+        <v>10.589799507472</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>6.2189211098339996</v>
+      </c>
+      <c r="C176">
+        <v>6.9617255091279997</v>
+      </c>
+      <c r="D176">
+        <v>3.883752737819</v>
+      </c>
+      <c r="E176">
+        <v>5.7220043487429999</v>
+      </c>
+      <c r="F176">
+        <v>8.3328520740519991</v>
+      </c>
+      <c r="G176">
+        <v>2.5050020614249999</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>15.587507929466</v>
+      </c>
+      <c r="C177">
+        <v>14.515469336753</v>
+      </c>
+      <c r="D177">
+        <v>22.439992390977999</v>
+      </c>
+      <c r="E177">
+        <v>6.3448266510659996</v>
+      </c>
+      <c r="F177">
+        <v>2.4850608847309998</v>
+      </c>
+      <c r="G177">
+        <v>2.1950219584849999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>6.6714154118110001</v>
+      </c>
+      <c r="C178">
+        <v>7.1902193068970002</v>
+      </c>
+      <c r="D178">
+        <v>6.8301126596110002</v>
+      </c>
+      <c r="E178">
+        <v>1.400279296786</v>
+      </c>
+      <c r="F178">
+        <v>2.290048264772</v>
+      </c>
+      <c r="G178">
+        <v>3.8259833255009998</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1.32</v>
+      </c>
+      <c r="C179">
+        <v>5.4775032952010001</v>
+      </c>
+      <c r="D179">
+        <v>18.746392196654998</v>
+      </c>
+      <c r="E179">
+        <v>2.2039155752730002</v>
+      </c>
+      <c r="F179">
+        <v>1.686914437659</v>
+      </c>
+      <c r="G179">
+        <v>2.5056417227110002</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>4.0414697195959999</v>
+      </c>
+      <c r="C180">
+        <v>10.094418570706001</v>
+      </c>
+      <c r="D180">
+        <v>2.2222131018560001</v>
+      </c>
+      <c r="E180">
+        <v>1.5125499145750001</v>
+      </c>
+      <c r="F180">
+        <v>8.5799408520620002</v>
+      </c>
+      <c r="G180">
+        <v>6.7430873885410003</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>5.744879324986</v>
+      </c>
+      <c r="C181">
+        <v>2.2975233927869998</v>
+      </c>
+      <c r="D181">
+        <v>3.0900135532149999</v>
+      </c>
+      <c r="E181">
+        <v>8.179314787709</v>
+      </c>
+      <c r="F181">
+        <v>4.7132153796629996</v>
+      </c>
+      <c r="G181">
+        <v>1.7349098807050001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>2.1176805549300002</v>
+      </c>
+      <c r="C182">
+        <v>2.5100274128770002</v>
+      </c>
+      <c r="D182">
+        <v>6.1269484928870002</v>
+      </c>
+      <c r="E182">
+        <v>6.5440855360250003</v>
+      </c>
+      <c r="F182">
+        <v>2.5425397560120002</v>
+      </c>
+      <c r="G182">
+        <v>13.60860509928</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>6.380805303622</v>
+      </c>
+      <c r="C183">
+        <v>4.2460905679490004</v>
+      </c>
+      <c r="D183">
+        <v>3.7331883164319999</v>
+      </c>
+      <c r="E183">
+        <v>1.190493469515</v>
+      </c>
+      <c r="F183">
+        <v>4.7296948609039999</v>
+      </c>
+      <c r="G183">
+        <v>1.996106486345</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>2.8897160667540001</v>
+      </c>
+      <c r="C184">
+        <v>8.5704759859559996</v>
+      </c>
+      <c r="D184">
+        <v>4.2591066172599996</v>
+      </c>
+      <c r="E184">
+        <v>23.704518575470001</v>
+      </c>
+      <c r="F184">
+        <v>12.759190681673999</v>
+      </c>
+      <c r="G184">
+        <v>8.4374299343400008</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>3.4433240940049998</v>
+      </c>
+      <c r="C185">
+        <v>5.769372148465</v>
+      </c>
+      <c r="D185">
+        <v>3.0999331563119998</v>
+      </c>
+      <c r="E185">
+        <v>0.84612346642299996</v>
+      </c>
+      <c r="F185">
+        <v>10.373900675169001</v>
+      </c>
+      <c r="G185">
+        <v>1.682931336475</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>2.8070964074470002</v>
+      </c>
+      <c r="C186">
+        <v>9.3733744538879993</v>
+      </c>
+      <c r="D186">
+        <v>6.1774545469569997</v>
+      </c>
+      <c r="E186">
+        <v>4.4901031229679997</v>
+      </c>
+      <c r="F186">
+        <v>2.092152474573</v>
+      </c>
+      <c r="G186">
+        <v>4.4980803595190002</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2.163265399968</v>
+      </c>
+      <c r="C187">
+        <v>1.9267339032819999</v>
+      </c>
+      <c r="D187">
+        <v>2.2010445084339998</v>
+      </c>
+      <c r="E187">
+        <v>4.6942611237329999</v>
+      </c>
+      <c r="F187">
+        <v>2.7978400133260002</v>
+      </c>
+      <c r="G187">
+        <v>3.819854537441</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>7.6340967606129997</v>
+      </c>
+      <c r="C188">
+        <v>1.7616000000000001</v>
+      </c>
+      <c r="D188">
+        <v>6.0794852014430001</v>
+      </c>
+      <c r="E188">
+        <v>3.6254374908929998</v>
+      </c>
+      <c r="F188">
+        <v>7.9903904268780002</v>
+      </c>
+      <c r="G188">
+        <v>3.8288911145169999</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1.603439351906</v>
+      </c>
+      <c r="C189">
+        <v>7.9087289212160004</v>
+      </c>
+      <c r="D189">
+        <v>2.4729581092470001</v>
+      </c>
+      <c r="E189">
+        <v>2.2257704016959998</v>
+      </c>
+      <c r="F189">
+        <v>1.713500895366</v>
+      </c>
+      <c r="G189">
+        <v>1.4773247650000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>3.6131351655159998</v>
+      </c>
+      <c r="C190">
+        <v>5.37735142948</v>
+      </c>
+      <c r="D190">
+        <v>3.5335428545849998</v>
+      </c>
+      <c r="E190">
+        <v>4.7262733431840003</v>
+      </c>
+      <c r="F190">
+        <v>6.0522884906099996</v>
+      </c>
+      <c r="G190">
+        <v>6.1114359542059997</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>0.70829972229000004</v>
+      </c>
+      <c r="C191">
+        <v>21.168589366193</v>
+      </c>
+      <c r="D191">
+        <v>1.3838646902780001</v>
+      </c>
+      <c r="E191">
+        <v>2.2388122887419999</v>
+      </c>
+      <c r="F191">
+        <v>2.0463177641530002</v>
+      </c>
+      <c r="G191">
+        <v>5.6829231032329997</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1.76</v>
+      </c>
+      <c r="C192">
+        <v>2.953877046718</v>
+      </c>
+      <c r="D192">
+        <v>2.0728157005229999</v>
+      </c>
+      <c r="E192">
+        <v>1.3311999999999999</v>
+      </c>
+      <c r="F192">
+        <v>3.5200592750839999</v>
+      </c>
+      <c r="G192">
+        <v>2.1637570083150002</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>2.5787633833469998</v>
+      </c>
+      <c r="C193">
+        <v>10.734619588380999</v>
+      </c>
+      <c r="D193">
+        <v>5.4099532814640003</v>
+      </c>
+      <c r="E193">
+        <v>5.8090163311309997</v>
+      </c>
+      <c r="F193">
+        <v>3.5864635070199999</v>
+      </c>
+      <c r="G193">
+        <v>10.138695799413</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>5.6636692587380004</v>
+      </c>
+      <c r="C194">
+        <v>7.1221043124680001</v>
+      </c>
+      <c r="D194">
+        <v>7.6375125215199997</v>
+      </c>
+      <c r="E194">
+        <v>6.2758199744610002</v>
+      </c>
+      <c r="F194">
+        <v>2.1141682318739998</v>
+      </c>
+      <c r="G194">
+        <v>0.70390451965599998</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2.376807678584</v>
+      </c>
+      <c r="C195">
+        <v>2.2093151125269999</v>
+      </c>
+      <c r="D195">
+        <v>4.821758324318</v>
+      </c>
+      <c r="E195">
+        <v>1.385530257821</v>
+      </c>
+      <c r="F195">
+        <v>6.983271186074</v>
+      </c>
+      <c r="G195">
+        <v>2.1558705179530002</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>16.579103568870998</v>
+      </c>
+      <c r="C196">
+        <v>6.8151056782520003</v>
+      </c>
+      <c r="D196">
+        <v>16.281040602882001</v>
+      </c>
+      <c r="E196">
+        <v>6.1626242275500003</v>
+      </c>
+      <c r="F196">
+        <v>4.4027516637069999</v>
+      </c>
+      <c r="G196">
+        <v>3.0980190663260001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>12.001504962976</v>
+      </c>
+      <c r="C197">
+        <v>1.3942844760490001</v>
+      </c>
+      <c r="D197">
+        <v>2.2424474681589999</v>
+      </c>
+      <c r="E197">
+        <v>5.8245287450459999</v>
+      </c>
+      <c r="F197">
+        <v>4.1247957770130004</v>
+      </c>
+      <c r="G197">
+        <v>6.433122145674</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>3.2455455597489999</v>
+      </c>
+      <c r="C198">
+        <v>7.7967877823920002</v>
+      </c>
+      <c r="D198">
+        <v>2.2186103653270002</v>
+      </c>
+      <c r="E198">
+        <v>4.4529952785900004</v>
+      </c>
+      <c r="F198">
+        <v>3.5677735562900001</v>
+      </c>
+      <c r="G198">
+        <v>3.3993677228350001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2.5537902786400002</v>
+      </c>
+      <c r="C199">
+        <v>2.163328415089</v>
+      </c>
+      <c r="D199">
+        <v>5.0708706813509998</v>
+      </c>
+      <c r="E199">
+        <v>1.5331396391729999</v>
+      </c>
+      <c r="F199">
+        <v>7.1960862154290002</v>
+      </c>
+      <c r="G199">
+        <v>1.5259309458949999</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2.3328766520799999</v>
+      </c>
+      <c r="C200">
+        <v>1.1935694207700001</v>
+      </c>
+      <c r="D200">
+        <v>5.3508124414580003</v>
+      </c>
+      <c r="E200">
+        <v>4.4646281955080003</v>
+      </c>
+      <c r="F200">
+        <v>2.510370894936</v>
+      </c>
+      <c r="G200">
+        <v>9.7256390192439994</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>7.6924532798109997</v>
+      </c>
+      <c r="C201">
+        <v>1.3784528885739999</v>
+      </c>
+      <c r="D201">
+        <v>3.6867703774490002</v>
+      </c>
+      <c r="E201">
+        <v>4.1743691087480004</v>
+      </c>
+      <c r="F201">
+        <v>4.8114680589230003</v>
+      </c>
+      <c r="G201">
+        <v>2.4896421952679999</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2.1316463086290001</v>
+      </c>
+      <c r="C202">
+        <v>4.261956156918</v>
+      </c>
+      <c r="D202">
+        <v>7.379287929258</v>
+      </c>
+      <c r="E202">
+        <v>2.0358959466659998</v>
+      </c>
+      <c r="F202">
+        <v>7.1961251546599998</v>
+      </c>
+      <c r="G202">
+        <v>4.3592907158490002</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>0.66</v>
+      </c>
+      <c r="C203">
+        <v>7.2800324211660001</v>
+      </c>
+      <c r="D203">
+        <v>27.453965912607</v>
+      </c>
+      <c r="E203">
+        <v>4.4008287784539997</v>
+      </c>
+      <c r="F203">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="G203">
+        <v>1.3695999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>2.145793377895</v>
+      </c>
+      <c r="C204">
+        <v>7.89957047575</v>
+      </c>
+      <c r="D204">
+        <v>7.1628609938109999</v>
+      </c>
+      <c r="E204">
+        <v>5.5567321097290003</v>
+      </c>
+      <c r="F204">
+        <v>8.6845497476309994</v>
+      </c>
+      <c r="G204">
+        <v>5.6636998605560001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>14.148220777229</v>
+      </c>
+      <c r="C205">
+        <v>5.254617840721</v>
+      </c>
+      <c r="D205">
+        <v>2.0791035457399998</v>
+      </c>
+      <c r="E205">
+        <v>3.1421368484890002</v>
+      </c>
+      <c r="F205">
+        <v>3.5056019246029999</v>
+      </c>
+      <c r="G205">
+        <v>2.860230552954</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>8.8088068479209998</v>
+      </c>
+      <c r="C206">
+        <v>2.478498117325</v>
+      </c>
+      <c r="D206">
+        <v>2.0630500105339999</v>
+      </c>
+      <c r="E206">
+        <v>2.0000674837010002</v>
+      </c>
+      <c r="F206">
+        <v>3.7938959970499999</v>
+      </c>
+      <c r="G206">
+        <v>12.993423447782</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>6.707233795084</v>
+      </c>
+      <c r="C207">
+        <v>6.0763042855140004</v>
+      </c>
+      <c r="D207">
+        <v>2.212766184785</v>
+      </c>
+      <c r="E207">
+        <v>4.6231382919410002</v>
+      </c>
+      <c r="F207">
+        <v>5.2232798359360002</v>
+      </c>
+      <c r="G207">
+        <v>2.239016952569</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3.7332279382359999</v>
+      </c>
+      <c r="C208">
+        <v>2.9361688044099998</v>
+      </c>
+      <c r="D208">
+        <v>11.888783370046999</v>
+      </c>
+      <c r="E208">
+        <v>2.4703564484220002</v>
+      </c>
+      <c r="F208">
+        <v>4.3529046147720001</v>
+      </c>
+      <c r="G208">
+        <v>2.9197312410429999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>29</v>
+      </c>
+      <c r="B209" s="7">
+        <f>AVERAGE(B109:B208)</f>
+        <v>5.5063240880702509</v>
+      </c>
+      <c r="C209" s="7">
+        <f>AVERAGE(C109:C208)</f>
+        <v>6.0840979703459599</v>
+      </c>
+      <c r="D209" s="7">
+        <f>AVERAGE(D109:D208)</f>
+        <v>6.0032053638373206</v>
+      </c>
+      <c r="E209" s="7">
+        <f>AVERAGE(E109:E208)</f>
+        <v>4.6109293409708796</v>
+      </c>
+      <c r="F209" s="7">
+        <f>AVERAGE(F109:F208)</f>
+        <v>5.000540097190469</v>
+      </c>
+      <c r="G209" s="7">
+        <f>AVERAGE(G109:G208)</f>
+        <v>4.6533698808326696</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A108:A112"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345FE7E1-EC0B-4A6F-8217-A97989A40B98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6311906-B5C4-4C1F-8CA5-FB29B8088E06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="114">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Exection time: 14 s</t>
   </si>
   <si>
-    <t>Do one more set with 20 evil</t>
-  </si>
-  <si>
     <t>Data Ordered</t>
   </si>
   <si>
@@ -404,7 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,20 +501,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,11 +554,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -685,7 +670,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,11 +682,10 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -733,12 +717,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="10"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,10 +745,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,13 +757,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+  <cellStyles count="13">
+    <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="12" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
-    <cellStyle name="Bad" xfId="11" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3103,10 +3085,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Set2'!$H$22:$J$22</c:f>
+                <c:f>'Set2'!$H$22:$K$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>7.4694107430797102E-2</c:v>
                   </c:pt>
@@ -3116,15 +3098,18 @@
                   <c:pt idx="2">
                     <c:v>4.5174874047932294E-2</c:v>
                   </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2445183962255252E-2</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Set2'!$H$22:$J$22</c:f>
+                <c:f>'Set2'!$H$22:$K$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
+                  <c:ptCount val="4"/>
                   <c:pt idx="0">
                     <c:v>7.4694107430797102E-2</c:v>
                   </c:pt>
@@ -3133,6 +3118,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>4.5174874047932294E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.2445183962255252E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3153,10 +3141,10 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>'Set2'!$H$21:$J$21</c:f>
+              <c:f>'Set2'!$H$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.91610186017854023</c:v>
                 </c:pt>
@@ -3165,6 +3153,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.88866890437745838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8980710464160877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,7 +6849,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6896,7 +6887,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -6924,7 +6915,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6962,7 +6953,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -15782,16 +15773,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:colOff>71437</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16792,9 +16783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="A11:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16838,7 +16829,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -16869,7 +16860,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -16889,7 +16880,7 @@
       <c r="F2" s="1">
         <v>0.23</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="1">
         <v>10</v>
       </c>
@@ -16913,7 +16904,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -16931,7 +16922,7 @@
       <c r="F3" s="1">
         <v>0.15</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="1">
         <v>10</v>
       </c>
@@ -16955,7 +16946,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -16973,7 +16964,7 @@
       <c r="F4" s="1">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="1">
         <v>10</v>
       </c>
@@ -17001,7 +16992,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -17019,7 +17010,7 @@
       <c r="F5" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1">
         <v>10</v>
       </c>
@@ -17044,7 +17035,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -17063,7 +17054,7 @@
         <f>E6</f>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1">
         <v>10</v>
       </c>
@@ -17090,7 +17081,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -17106,7 +17097,7 @@
         <v>9.210340371976184E-4</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -17133,7 +17124,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -17153,7 +17144,7 @@
       <c r="F8" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="1">
         <v>10</v>
       </c>
@@ -17180,7 +17171,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -17198,7 +17189,7 @@
       <c r="F9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="1">
         <v>10</v>
       </c>
@@ -17225,7 +17216,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -17243,7 +17234,7 @@
       <c r="F10" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="1">
         <v>10</v>
       </c>
@@ -17270,50 +17261,50 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>100</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27">
+      <c r="G11" s="26"/>
+      <c r="H11" s="26">
         <v>10</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>100</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>20</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="27">
-        <v>50</v>
-      </c>
-      <c r="T11" s="27"/>
+      <c r="N11" s="26">
+        <v>30</v>
+      </c>
+      <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6">
@@ -17333,7 +17324,7 @@
       <c r="F12" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="1">
         <v>10</v>
       </c>
@@ -17357,7 +17348,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -17375,7 +17366,7 @@
       <c r="F13" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
@@ -17399,7 +17390,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -17417,7 +17408,7 @@
       <c r="F14" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="1">
         <v>10</v>
       </c>
@@ -17441,7 +17432,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -17459,7 +17450,7 @@
       <c r="F15" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="1">
         <v>10</v>
       </c>
@@ -17483,7 +17474,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -17501,7 +17492,7 @@
       <c r="F16" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="1">
         <v>10</v>
       </c>
@@ -17525,7 +17516,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
@@ -17543,7 +17534,7 @@
       <c r="F17" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="1">
         <v>10</v>
       </c>
@@ -17567,7 +17558,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="8">
@@ -17588,7 +17579,7 @@
         <f>E18</f>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="1">
         <v>10</v>
       </c>
@@ -17612,7 +17603,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="20">
@@ -17632,7 +17623,7 @@
       <c r="F19" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="1">
         <v>10</v>
       </c>
@@ -17659,7 +17650,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -17677,7 +17668,7 @@
       <c r="F20" s="1">
         <v>1.243E-2</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="1">
         <v>2</v>
       </c>
@@ -17704,7 +17695,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="10">
@@ -17724,7 +17715,7 @@
       <c r="F21" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="1">
         <v>10</v>
       </c>
@@ -17748,7 +17739,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="11">
         <v>2</v>
       </c>
@@ -17766,7 +17757,7 @@
       <c r="F22" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="1">
         <v>10</v>
       </c>
@@ -17790,7 +17781,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -17808,7 +17799,7 @@
       <c r="F23" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="1">
         <v>10</v>
       </c>
@@ -17832,7 +17823,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="11">
         <v>4</v>
       </c>
@@ -17850,7 +17841,7 @@
       <c r="F24" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="1">
         <v>10</v>
       </c>
@@ -17874,7 +17865,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -17892,7 +17883,7 @@
       <c r="F25" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="1">
         <v>10</v>
       </c>
@@ -17916,7 +17907,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="12">
@@ -17936,7 +17927,7 @@
       <c r="F26" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="1">
         <v>1</v>
       </c>
@@ -17963,7 +17954,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="12">
         <v>2</v>
       </c>
@@ -17981,7 +17972,7 @@
       <c r="F27" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="1">
         <v>2</v>
       </c>
@@ -18005,7 +17996,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="12">
         <v>3</v>
       </c>
@@ -18023,7 +18014,7 @@
       <c r="F28" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="1">
         <v>4</v>
       </c>
@@ -18047,7 +18038,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12">
         <v>4</v>
       </c>
@@ -18065,7 +18056,7 @@
       <c r="F29" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="1">
         <v>8</v>
       </c>
@@ -18089,7 +18080,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="12">
         <v>5</v>
       </c>
@@ -18107,7 +18098,7 @@
       <c r="F30" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="1">
         <v>16</v>
       </c>
@@ -18131,7 +18122,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="12">
         <v>6</v>
       </c>
@@ -18149,7 +18140,7 @@
       <c r="F31" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="1">
         <v>32</v>
       </c>
@@ -18173,7 +18164,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="14">
@@ -18193,7 +18184,7 @@
       <c r="F32" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="1">
         <v>2</v>
       </c>
@@ -18217,7 +18208,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="14">
         <v>2</v>
       </c>
@@ -18235,7 +18226,7 @@
       <c r="F33" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G33" s="23"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="1">
         <v>2</v>
       </c>
@@ -18259,7 +18250,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="14">
         <v>3</v>
       </c>
@@ -18277,7 +18268,7 @@
       <c r="F34" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="1">
         <v>2</v>
       </c>
@@ -18301,7 +18292,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="14">
         <v>4</v>
       </c>
@@ -18319,7 +18310,7 @@
       <c r="F35" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="1">
         <v>2</v>
       </c>
@@ -18343,7 +18334,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="14">
         <v>5</v>
       </c>
@@ -18361,7 +18352,7 @@
       <c r="F36" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G36" s="23"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="1">
         <v>2</v>
       </c>
@@ -18385,40 +18376,40 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="24">
+      <c r="A37" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="23">
         <v>1</v>
       </c>
       <c r="C37" s="1">
         <v>500</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>1</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <v>100</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="22">
         <v>1</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="22" t="s">
         <v>63</v>
       </c>
       <c r="N37" s="1">
@@ -18426,421 +18417,421 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="24">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23">
         <v>2</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>500</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>2</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <v>2</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <v>100</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>1</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="23" t="s">
+      <c r="M38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="24">
+      <c r="A39" s="28"/>
+      <c r="B39" s="23">
         <v>3</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <v>500</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>5</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <v>2</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <v>100</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>1</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="23" t="s">
+      <c r="M39" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="24">
+      <c r="A40" s="28"/>
+      <c r="B40" s="23">
         <v>4</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>500</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>10</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>2</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <v>100</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>1</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N40" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="24">
+      <c r="A41" s="28"/>
+      <c r="B41" s="23">
         <v>5</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>500</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22">
         <f t="shared" ref="E41:E47" si="2">LN(C41)/(C41)</f>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22">
         <v>100</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <v>2</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="22">
         <v>100</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="22">
         <v>1</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="M41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="28">
+      <c r="A42" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="27">
         <v>1</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <v>100</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <f>2*LOG(C42)/(C42-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24">
         <v>1</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="24">
         <v>100</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="24">
         <v>1</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="27" t="s">
+      <c r="L42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M42" s="25" t="s">
+      <c r="M42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="28">
+      <c r="A43" s="28"/>
+      <c r="B43" s="27">
         <v>2</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>100</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <f>2*LOG(C43)/(C43-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24">
         <v>2</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="24">
         <v>100</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="24">
         <v>1</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="28">
+      <c r="A44" s="28"/>
+      <c r="B44" s="27">
         <v>3</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="24">
         <v>100</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <f t="shared" ref="D44:D46" si="3">2*LOG(C44)/(C44-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25">
+      <c r="G44" s="24"/>
+      <c r="H44" s="24">
         <v>4</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="24">
         <v>100</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="24">
         <v>1</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="K44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="28">
+      <c r="A45" s="28"/>
+      <c r="B45" s="27">
         <v>4</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>100</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
         <f t="shared" si="3"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25">
+      <c r="G45" s="24"/>
+      <c r="H45" s="24">
         <v>8</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="24">
         <v>100</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="24">
         <v>1</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M45" s="25" t="s">
+      <c r="M45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N45" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="28">
+      <c r="A46" s="28"/>
+      <c r="B46" s="27">
         <v>5</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <v>100</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="26">
         <f t="shared" si="3"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27">
+      <c r="G46" s="26"/>
+      <c r="H46" s="26">
         <v>16</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="26">
         <v>100</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="26">
         <v>1</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="27" t="s">
+      <c r="L46" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="27" t="s">
+      <c r="M46" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N46" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28">
+      <c r="A47" s="28"/>
+      <c r="B47" s="27">
         <v>6</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="26">
         <v>100</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27">
+      <c r="D47" s="26"/>
+      <c r="E47" s="26">
         <f t="shared" si="2"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27">
+      <c r="G47" s="26"/>
+      <c r="H47" s="26">
         <v>32</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="26">
         <v>100</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="26">
         <v>1</v>
       </c>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M47" s="27" t="s">
+      <c r="M47" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="23"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -18851,7 +18842,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -18861,6 +18852,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A42:A47"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A2:A7"/>
@@ -18869,7 +18861,6 @@
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A42:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19975,15 +19966,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
+      <c r="I40" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -19999,18 +19990,18 @@
         <v>0.61020000000200003</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="33"/>
       <c r="L41" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M41" s="33"/>
       <c r="N41" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O41" s="33"/>
     </row>
@@ -20272,6 +20263,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -20282,15 +20282,6 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20299,10 +20290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:Q591"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20311,7 +20302,7 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -20324,8 +20315,11 @@
       <c r="D1" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.91530000000300005</v>
       </c>
@@ -20335,8 +20329,11 @@
       <c r="D2">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.91530000000300005</v>
       </c>
@@ -20345,6 +20342,9 @@
       </c>
       <c r="D3">
         <v>0.91530000000300005</v>
+      </c>
+      <c r="E3">
+        <v>1.2204000000040001</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>64</v>
@@ -20358,8 +20358,12 @@
         <v>80</v>
       </c>
       <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.2204000000040001</v>
       </c>
@@ -20368,6 +20372,9 @@
       </c>
       <c r="D4">
         <v>0.30510000000100002</v>
+      </c>
+      <c r="E4">
+        <v>1.5287333333390001</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -20375,8 +20382,10 @@
       <c r="K4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.61020000000200003</v>
       </c>
@@ -20386,6 +20395,9 @@
       <c r="D5">
         <v>0.30510000000100002</v>
       </c>
+      <c r="E5">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G5" s="16" t="s">
         <v>65</v>
       </c>
@@ -20404,8 +20416,14 @@
       <c r="N5" s="16">
         <v>0.88866890437745838</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.8980710464160877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.91530000000300005</v>
       </c>
@@ -20415,6 +20433,9 @@
       <c r="D6">
         <v>1.5255000000050001</v>
       </c>
+      <c r="E6">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G6" s="16" t="s">
         <v>66</v>
       </c>
@@ -20433,8 +20454,14 @@
       <c r="N6" s="16">
         <v>2.2883776814626361E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>1.1428262794991121E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.30510000000100002</v>
       </c>
@@ -20444,6 +20471,9 @@
       <c r="D7">
         <v>0.91530000000300005</v>
       </c>
+      <c r="E7">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G7" s="16" t="s">
         <v>67</v>
       </c>
@@ -20462,8 +20492,14 @@
       <c r="N7" s="16">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.5506994742060001</v>
       </c>
@@ -20473,6 +20509,9 @@
       <c r="D8">
         <v>1.2204000000040001</v>
       </c>
+      <c r="E8">
+        <v>0.61020000000200003</v>
+      </c>
       <c r="G8" s="16" t="s">
         <v>68</v>
       </c>
@@ -20491,8 +20530,14 @@
       <c r="N8" s="16">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.91530000000300005</v>
       </c>
@@ -20502,6 +20547,9 @@
       <c r="D9">
         <v>0.94558310152400005</v>
       </c>
+      <c r="E9">
+        <v>0.91553299609500005</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>30</v>
       </c>
@@ -20520,8 +20568,14 @@
       <c r="N9" s="16">
         <v>0.29836794570006558</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.27735619194674888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.61020000000200003</v>
       </c>
@@ -20531,6 +20585,9 @@
       <c r="D10">
         <v>0.91530000000300005</v>
       </c>
+      <c r="E10">
+        <v>1.222772126605</v>
+      </c>
       <c r="G10" s="16" t="s">
         <v>69</v>
       </c>
@@ -20549,8 +20606,14 @@
       <c r="N10" s="16">
         <v>8.9023431021277272E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>7.6926457211201796E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.91610358299899997</v>
       </c>
@@ -20560,6 +20623,9 @@
       <c r="D11">
         <v>1.2204000000040001</v>
       </c>
+      <c r="E11">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G11" s="16" t="s">
         <v>70</v>
       </c>
@@ -20578,8 +20644,14 @@
       <c r="N11" s="16">
         <v>-0.44256535023355958</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.28650857691477016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.221610090177</v>
       </c>
@@ -20589,6 +20661,9 @@
       <c r="D12">
         <v>1.2204000000040001</v>
       </c>
+      <c r="E12">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G12" s="16" t="s">
         <v>71</v>
       </c>
@@ -20607,8 +20682,14 @@
       <c r="N12" s="16">
         <v>-0.18942064705263315</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>5.233044476791162E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.91530000000300005</v>
       </c>
@@ -20618,6 +20699,9 @@
       <c r="D13">
         <v>0.30510000000100002</v>
       </c>
+      <c r="E13">
+        <v>1.2204000000040001</v>
+      </c>
       <c r="G13" s="16" t="s">
         <v>72</v>
       </c>
@@ -20636,8 +20720,14 @@
       <c r="N13" s="16">
         <v>1.2333070988670001</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>1.6622260725369999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.91621382376299998</v>
       </c>
@@ -20647,6 +20737,9 @@
       <c r="D14">
         <v>0.61020000000200003</v>
       </c>
+      <c r="E14">
+        <v>0.91530000000300005</v>
+      </c>
       <c r="G14" s="16" t="s">
         <v>73</v>
       </c>
@@ -20665,8 +20758,14 @@
       <c r="N14" s="16">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.92268943506099999</v>
       </c>
@@ -20676,6 +20775,9 @@
       <c r="D15">
         <v>0.61020000000200003</v>
       </c>
+      <c r="E15">
+        <v>1.2204000000040001</v>
+      </c>
       <c r="G15" s="16" t="s">
         <v>74</v>
       </c>
@@ -20694,8 +20796,14 @@
       <c r="N15" s="16">
         <v>1.5384070988680001</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>1.967326072538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.61020000000200003</v>
       </c>
@@ -20705,6 +20813,9 @@
       <c r="D16">
         <v>0.61020000000200003</v>
       </c>
+      <c r="E16">
+        <v>0.61178463906199998</v>
+      </c>
       <c r="G16" s="16" t="s">
         <v>75</v>
       </c>
@@ -20723,8 +20834,14 @@
       <c r="N16" s="16">
         <v>151.07371374416792</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>528.96384633907564</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.91530000000300005</v>
       </c>
@@ -20733,6 +20850,9 @@
       </c>
       <c r="D17">
         <v>0.91530000000300005</v>
+      </c>
+      <c r="E17">
+        <v>1.220450811913</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>76</v>
@@ -20752,8 +20872,14 @@
       <c r="N17" s="16">
         <v>170</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.91530000000300005</v>
       </c>
@@ -20763,6 +20889,9 @@
       <c r="D18">
         <v>0.91530000000300005</v>
       </c>
+      <c r="E18">
+        <v>1.2204000000040001</v>
+      </c>
       <c r="G18" s="17" t="s">
         <v>77</v>
       </c>
@@ -20781,8 +20910,14 @@
       <c r="N18" s="17">
         <v>4.5174874047932294E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>2.2445183962255252E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.91530000000300005</v>
       </c>
@@ -20792,8 +20927,11 @@
       <c r="D19">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.30511111111200001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1.2204000000040001</v>
       </c>
@@ -20803,8 +20941,11 @@
       <c r="D20">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.91530000000300005</v>
       </c>
@@ -20813,6 +20954,9 @@
       </c>
       <c r="D21">
         <v>0.61020000000200003</v>
+      </c>
+      <c r="E21">
+        <v>0.91579826745799997</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>29</v>
@@ -20829,8 +20973,12 @@
         <f>N5</f>
         <v>0.88866890437745838</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>Q5</f>
+        <v>0.8980710464160877</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.30510000000100002</v>
       </c>
@@ -20839,6 +20987,9 @@
       </c>
       <c r="D22">
         <v>1.2204000000040001</v>
+      </c>
+      <c r="E22">
+        <v>0.61020000000200003</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>82</v>
@@ -20855,8 +21006,12 @@
         <f>N18</f>
         <v>4.5174874047932294E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f>Q18</f>
+        <v>2.2445183962255252E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.91530000000300005</v>
       </c>
@@ -20866,8 +21021,11 @@
       <c r="D23">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.2204000000040001</v>
       </c>
@@ -20877,8 +21035,11 @@
       <c r="D24">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.91530000000300005</v>
       </c>
@@ -20888,8 +21049,11 @@
       <c r="D25">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.91572428847099996</v>
       </c>
@@ -20899,8 +21063,11 @@
       <c r="D26">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.91530000000300005</v>
       </c>
@@ -20910,8 +21077,11 @@
       <c r="D27">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.91580119928699999</v>
       </c>
@@ -20921,8 +21091,11 @@
       <c r="D28">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.220789647273</v>
       </c>
@@ -20932,11 +21105,11 @@
       <c r="D29">
         <v>0.92352396971999995</v>
       </c>
-      <c r="O29" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1.2204816374530001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.2204000000040001</v>
       </c>
@@ -20946,8 +21119,11 @@
       <c r="D30">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.61020000000200003</v>
       </c>
@@ -20957,8 +21133,11 @@
       <c r="D31">
         <v>0.61022222222400002</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.91639452465600002</v>
       </c>
@@ -20968,8 +21147,11 @@
       <c r="D32">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.91530000000300005</v>
       </c>
@@ -20979,8 +21161,11 @@
       <c r="D33">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.91530000000300005</v>
       </c>
@@ -20990,8 +21175,11 @@
       <c r="D34">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.91533333333599998</v>
       </c>
@@ -21001,8 +21189,11 @@
       <c r="D35">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.91530000000300005</v>
       </c>
@@ -21012,8 +21203,11 @@
       <c r="D36">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.91530000000300005</v>
       </c>
@@ -21023,8 +21217,11 @@
       <c r="D37">
         <v>0.91718800025799996</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.61020000000200003</v>
       </c>
@@ -21034,8 +21231,11 @@
       <c r="D38">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.915326595774</v>
       </c>
@@ -21045,8 +21245,11 @@
       <c r="D39">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.91530000000300005</v>
       </c>
@@ -21056,8 +21259,11 @@
       <c r="D40">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.61020000000200003</v>
       </c>
@@ -21067,8 +21273,11 @@
       <c r="D41">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.222507013815</v>
       </c>
@@ -21078,8 +21287,11 @@
       <c r="D42">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.2204000000040001</v>
       </c>
@@ -21089,8 +21301,11 @@
       <c r="D43">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0.91546799718100003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1.5255000000050001</v>
       </c>
@@ -21100,8 +21315,11 @@
       <c r="D44">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.91530000000300005</v>
       </c>
@@ -21111,8 +21329,11 @@
       <c r="D45">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1.967326072538</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>1.2204000000040001</v>
       </c>
@@ -21122,8 +21343,11 @@
       <c r="D46">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.61020000000200003</v>
       </c>
@@ -21133,8 +21357,11 @@
       <c r="D47">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.91530000000300005</v>
       </c>
@@ -21144,8 +21371,11 @@
       <c r="D48">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.30510000000100002</v>
       </c>
@@ -21155,8 +21385,11 @@
       <c r="D49">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.91530000000300005</v>
       </c>
@@ -21166,8 +21399,11 @@
       <c r="D50">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>0.91656936532099997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0.91530000000300005</v>
       </c>
@@ -21177,8 +21413,11 @@
       <c r="D51">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f>AVERAGE(B2:B51)</f>
         <v>0.91610186017854023</v>
@@ -21189,400 +21428,550 @@
       <c r="D52">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>1.5395876522780001</v>
       </c>
       <c r="D53">
         <v>1.118633333337</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>0.91580119928699999</v>
       </c>
       <c r="D54">
         <v>1.220582246283</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>1.2204000000040001</v>
       </c>
       <c r="D55">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>1.2204000000040001</v>
       </c>
       <c r="D56">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>0.91530000000300005</v>
       </c>
       <c r="D57">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>1.2204000000040001</v>
       </c>
       <c r="D58">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>1.5255000000050001</v>
       </c>
       <c r="D59">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>0.91530000000300005</v>
       </c>
       <c r="D60">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1.221014225042</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>1.2204000000040001</v>
       </c>
       <c r="D61">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>1.2204000000040001</v>
       </c>
       <c r="D62">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>1.2204000000040001</v>
       </c>
       <c r="D63">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>1.2204000000040001</v>
       </c>
       <c r="D64">
         <v>1.2209736502540001</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>0.91629214413500004</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>1.2204000000040001</v>
       </c>
       <c r="D65">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>0.91530000000300005</v>
       </c>
       <c r="D66">
         <v>0.92289895828400004</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>0.61020000000200003</v>
       </c>
       <c r="D67">
         <v>0.30520000000300002</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>1.2204000000040001</v>
       </c>
       <c r="D68">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>0.61022222222400002</v>
       </c>
       <c r="D69">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>0.91530000000300005</v>
       </c>
       <c r="D70">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>1.5276068351000001</v>
       </c>
       <c r="D71">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>0.91530000000300005</v>
       </c>
       <c r="D72">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>0.91684217033799997</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>1.2204000000040001</v>
       </c>
       <c r="D73">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>0.61020000000200003</v>
       </c>
       <c r="D74">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>0.61020000000200003</v>
       </c>
       <c r="D75">
         <v>1.3364599372699999</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>0.915326595774</v>
       </c>
       <c r="D76">
         <v>1.323053183736</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>0.91530000000300005</v>
       </c>
       <c r="D77">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>1.5255000000050001</v>
       </c>
       <c r="D78">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>0.91530000000300005</v>
       </c>
       <c r="D79">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>0.61020000000200003</v>
       </c>
       <c r="D80">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>1.5255000000050001</v>
       </c>
       <c r="D81">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>0.92371612357499999</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>0.91530000000300005</v>
       </c>
       <c r="D82">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>0.91530000000300005</v>
       </c>
       <c r="D83">
         <v>0.61084038065199997</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>1.2204000000040001</v>
       </c>
       <c r="D84">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>0.30510000000100002</v>
       </c>
       <c r="D85">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>0.91530000000300005</v>
       </c>
       <c r="D86">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>0.61020000000200003</v>
       </c>
       <c r="D87">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>0.91530000000300005</v>
       </c>
       <c r="D88">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>0.65088199458200002</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>0.91530000000300005</v>
       </c>
       <c r="D89">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>1.5255000000050001</v>
       </c>
       <c r="D90">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>0.91530000000300005</v>
       </c>
       <c r="D91">
         <v>1.5384070988680001</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>0.61106566023499997</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>0.30510000000100002</v>
       </c>
       <c r="D92">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>0.91530000000300005</v>
       </c>
       <c r="D93">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>1.220600000008</v>
       </c>
       <c r="D94">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>1.2210915012470001</v>
       </c>
       <c r="D95">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>0.30510000000100002</v>
       </c>
       <c r="D96">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>0.30511111111200001</v>
       </c>
       <c r="D97">
         <v>0.91550000000700005</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>0.61040000000600003</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>1.2204000000040001</v>
       </c>
       <c r="D98">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>0.61030000000399998</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>0.30510000000100002</v>
       </c>
       <c r="D99">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>0.91530000000300005</v>
       </c>
       <c r="D100">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>0.98059810808299996</v>
       </c>
       <c r="D101">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1.2241732077850001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="7">
         <f>AVERAGE(C2:C101)</f>
         <v>0.99138745213406054</v>
@@ -21590,356 +21979,2665 @@
       <c r="D102">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>0.91686666667000005</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>1.5304000000060001</v>
       </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1.2220979184909999</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>1.2214198581310001</v>
       </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>0.71176666666900001</v>
       </c>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>1.2253000000050001</v>
       </c>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>0.91674478006500004</v>
       </c>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>1.2308922936190001</v>
       </c>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>1.221645148516</v>
       </c>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>0.61537386395000004</v>
       </c>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>0.93349356470199996</v>
       </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>1.858833333345</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>1.5255000000050001</v>
       </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>0.91637025238699998</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>0.916857525605</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1.264306003982</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>0.93779698294799996</v>
       </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>0.91533333333599998</v>
       </c>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>1.5270666666720001</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>1.5255000000050001</v>
       </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>0.91643363415099999</v>
       </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>0.916161956118</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>0.91530000000300005</v>
       </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>0.30510000000100002</v>
       </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>1.2204000000040001</v>
       </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>0.61020000000200003</v>
       </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>0.91588086857700002</v>
       </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D172" s="7">
         <f>AVERAGE(D2:D171)</f>
         <v>0.88866890437745838</v>
+      </c>
+      <c r="E172">
+        <v>1.256663510516</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>0.61034923804200003</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>1.3286333333389999</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>0.61993651771900005</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>1.220444444448</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>0.91686666667000005</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>0.91571933653399995</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>1.2215340288550001</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>0.61122934448199995</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>0.91533333333599998</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>1.627398719019</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>0.61037986364600005</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>0.61103933567699997</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>0.61053077585299997</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>0.95007157192199998</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>0.95989322148900003</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>0.93889457993100001</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>0.61040000000600003</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>0.91778044503800005</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>0.915625564374</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>0.91652419302800003</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>0.91641542049500002</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>0.91714199557300002</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>1.2210324570740001</v>
+      </c>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>0.91630535614099995</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>0.91644360987999995</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>1.2209654238680001</v>
+      </c>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>0.95750338138299995</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>1.2212247413849999</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>1.6320666666729999</v>
+      </c>
+    </row>
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>1.2236889431269999</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>0.61755069837999998</v>
+      </c>
+    </row>
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>0.91655445331499996</v>
+      </c>
+    </row>
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>1.0185333333369999</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>1.221452984086</v>
+      </c>
+    </row>
+    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>0.62146023687899998</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>0.30518151936999999</v>
+      </c>
+    </row>
+    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <v>0.61024886566699998</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <v>1.123633333338</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412">
+        <v>1.5270666666720001</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417">
+        <v>0.92020000000400004</v>
+      </c>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421">
+        <v>0.92283694277499995</v>
+      </c>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428">
+        <v>0.82520000000500005</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429">
+        <v>0.93758712911300002</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436">
+        <v>1.2753138865960001</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437">
+        <v>0.91533333333599998</v>
+      </c>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E440">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E442">
+        <v>1.5255000000050001</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E444">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445">
+        <v>0.91580385613299997</v>
+      </c>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E446">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E448">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E450">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E452">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E454">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E456">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E458">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E460">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E462">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463">
+        <v>0.91546712299800004</v>
+      </c>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E464">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465">
+        <v>0.91575105118300004</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E466">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E468">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E470">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E472">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E474">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E476">
+        <v>0.61126409985600005</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E478">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E480">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E482">
+        <v>0.91583333334000006</v>
+      </c>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E484">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E485">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E486">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E488">
+        <v>0.91599156979600005</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E490">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E492">
+        <v>0.91628051916499997</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E494">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E496">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497">
+        <v>1.2219666666710001</v>
+      </c>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E498">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E500">
+        <v>0.61139871719200001</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E502">
+        <v>0.61050291574399995</v>
+      </c>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E503">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E504">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E505">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E506">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E507">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E508">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E509">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E510">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E511">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E512">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E513">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E514">
+        <v>0.61022222222400002</v>
+      </c>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E515">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E516">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E517">
+        <v>1.242923067192</v>
+      </c>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E518">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E519">
+        <v>1.3303000000059999</v>
+      </c>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E520">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E521">
+        <v>0.91520000000299995</v>
+      </c>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E522">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E523">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E524">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E525">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E526">
+        <v>1.2217674219420001</v>
+      </c>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E527">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E528">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E529">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E530">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E531">
+        <v>0.94464515829700002</v>
+      </c>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E532">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E533">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E534">
+        <v>0.61180585512100005</v>
+      </c>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E535">
+        <v>0.93224204074100003</v>
+      </c>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E536">
+        <v>0.91631993274599999</v>
+      </c>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E537">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E538">
+        <v>1.2219666666710001</v>
+      </c>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E539">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E540">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E541">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E542">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E543">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E545">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E546">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E547">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E548">
+        <v>1.0235333333379999</v>
+      </c>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E549">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E550">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E551">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E552">
+        <v>0.30511111111200001</v>
+      </c>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E553">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E554">
+        <v>0.61077451899400004</v>
+      </c>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E555">
+        <v>0.91531703242399998</v>
+      </c>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E556">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E557">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E558">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E559">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E560">
+        <v>0.91533333333599998</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E561">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E562">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E563">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E564">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E565">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E566">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E567">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E568">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E569">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E570">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E571">
+        <v>0.61072251749799999</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E572">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E573">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E574">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E575">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E576">
+        <v>0.30510000000100002</v>
+      </c>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E577">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E578">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E579">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E580">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E581">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E582">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E583">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E584">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E585">
+        <v>1.2204000000040001</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E586">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E587">
+        <v>0.61020000000200003</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E588">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E589">
+        <v>1.220916442269</v>
+      </c>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E590">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E591" s="7">
+        <f>AVERAGE(E2:E590)</f>
+        <v>0.8980710464160877</v>
       </c>
     </row>
   </sheetData>
@@ -23662,7 +26360,7 @@
         <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -23697,43 +26395,43 @@
         <v>31</v>
       </c>
       <c r="AD4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE4" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" t="s">
-        <v>89</v>
-      </c>
       <c r="AF4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR4" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>100</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>101</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -23820,7 +26518,7 @@
         <f>STANDARDIZE(AO5,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS5" s="22">
+      <c r="AS5" s="21">
         <f>NORMSDIST(AR5)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -23913,7 +26611,7 @@
         <f t="shared" ref="AR6:AR54" si="7">STANDARDIZE(AO6,$AM$6,$AM$7)</f>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS6" s="22">
+      <c r="AS6" s="21">
         <f t="shared" ref="AS6:AS54" si="8">NORMSDIST(AR6)</f>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -23986,7 +26684,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -24006,7 +26704,7 @@
         <f t="shared" si="7"/>
         <v>-2.3247457307844104</v>
       </c>
-      <c r="AS7" s="22">
+      <c r="AS7" s="21">
         <f t="shared" si="8"/>
         <v>1.0042780206055512E-2</v>
       </c>
@@ -24015,7 +26713,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -24106,7 +26804,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS8" s="22">
+      <c r="AS8" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24115,7 +26813,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -24199,7 +26897,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS9" s="22">
+      <c r="AS9" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24272,7 +26970,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -24292,7 +26990,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS10" s="22">
+      <c r="AS10" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24378,7 +27076,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS11" s="22">
+      <c r="AS11" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24464,7 +27162,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS12" s="22">
+      <c r="AS12" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24550,7 +27248,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS13" s="22">
+      <c r="AS13" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24636,7 +27334,7 @@
         <f t="shared" si="7"/>
         <v>-1.1638983280309203</v>
       </c>
-      <c r="AS14" s="22">
+      <c r="AS14" s="21">
         <f t="shared" si="8"/>
         <v>0.12223260863025018</v>
       </c>
@@ -24722,7 +27420,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS15" s="22">
+      <c r="AS15" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24808,7 +27506,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS16" s="22">
+      <c r="AS16" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24894,7 +27592,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS17" s="22">
+      <c r="AS17" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -24980,7 +27678,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS18" s="22">
+      <c r="AS18" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25066,7 +27764,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS19" s="22">
+      <c r="AS19" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25152,7 +27850,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS20" s="22">
+      <c r="AS20" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25238,7 +27936,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS21" s="22">
+      <c r="AS21" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25324,7 +28022,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS22" s="22">
+      <c r="AS22" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25410,7 +28108,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS23" s="22">
+      <c r="AS23" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25496,7 +28194,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS24" s="22">
+      <c r="AS24" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25582,7 +28280,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS25" s="22">
+      <c r="AS25" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25668,7 +28366,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS26" s="22">
+      <c r="AS26" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25754,7 +28452,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS27" s="22">
+      <c r="AS27" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25840,7 +28538,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS28" s="22">
+      <c r="AS28" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -25926,7 +28624,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS29" s="22">
+      <c r="AS29" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26012,7 +28710,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS30" s="22">
+      <c r="AS30" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26098,7 +28796,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS31" s="22">
+      <c r="AS31" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26184,7 +28882,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS32" s="22">
+      <c r="AS32" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26270,7 +28968,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS33" s="22">
+      <c r="AS33" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26356,7 +29054,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS34" s="22">
+      <c r="AS34" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26442,7 +29140,7 @@
         <f t="shared" si="7"/>
         <v>-3.0509252774302462E-3</v>
       </c>
-      <c r="AS35" s="22">
+      <c r="AS35" s="21">
         <f t="shared" si="8"/>
         <v>0.49878285880070905</v>
       </c>
@@ -26528,7 +29226,7 @@
         <f t="shared" si="7"/>
         <v>-2.949733433151597E-3</v>
       </c>
-      <c r="AS36" s="22">
+      <c r="AS36" s="21">
         <f t="shared" si="8"/>
         <v>0.4988232283241032</v>
       </c>
@@ -26614,7 +29312,7 @@
         <f t="shared" si="7"/>
         <v>-2.9240982927106174E-3</v>
       </c>
-      <c r="AS37" s="22">
+      <c r="AS37" s="21">
         <f t="shared" si="8"/>
         <v>0.49883345522138284</v>
       </c>
@@ -26700,7 +29398,7 @@
         <f t="shared" si="7"/>
         <v>-1.4365884498512879E-3</v>
       </c>
-      <c r="AS38" s="22">
+      <c r="AS38" s="21">
         <f t="shared" si="8"/>
         <v>0.49942688432494936</v>
       </c>
@@ -26786,7 +29484,7 @@
         <f t="shared" si="7"/>
         <v>-1.1439574403560573E-3</v>
       </c>
-      <c r="AS39" s="22">
+      <c r="AS39" s="21">
         <f t="shared" si="8"/>
         <v>0.49954362710960004</v>
       </c>
@@ -26872,7 +29570,7 @@
         <f t="shared" si="7"/>
         <v>6.5550037900623962E-6</v>
       </c>
-      <c r="AS40" s="22">
+      <c r="AS40" s="21">
         <f t="shared" si="8"/>
         <v>0.50000261506816002</v>
       </c>
@@ -26958,7 +29656,7 @@
         <f t="shared" si="7"/>
         <v>4.260001187246962E-4</v>
       </c>
-      <c r="AS41" s="22">
+      <c r="AS41" s="21">
         <f t="shared" si="8"/>
         <v>0.5001699494536751</v>
       </c>
@@ -27044,7 +29742,7 @@
         <f t="shared" si="7"/>
         <v>1.1135326074616554E-3</v>
       </c>
-      <c r="AS42" s="22">
+      <c r="AS42" s="21">
         <f t="shared" si="8"/>
         <v>0.50044423514591685</v>
       </c>
@@ -27130,7 +29828,7 @@
         <f t="shared" si="7"/>
         <v>2.5064468019412419E-2</v>
       </c>
-      <c r="AS43" s="22">
+      <c r="AS43" s="21">
         <f t="shared" si="8"/>
         <v>0.50999822915724069</v>
       </c>
@@ -27216,7 +29914,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS44" s="22">
+      <c r="AS44" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27302,7 +30000,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS45" s="22">
+      <c r="AS45" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27388,7 +30086,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS46" s="22">
+      <c r="AS46" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27474,7 +30172,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS47" s="22">
+      <c r="AS47" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27560,7 +30258,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS48" s="22">
+      <c r="AS48" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27646,7 +30344,7 @@
         <f t="shared" si="7"/>
         <v>1.1577964774760598</v>
       </c>
-      <c r="AS49" s="22">
+      <c r="AS49" s="21">
         <f t="shared" si="8"/>
         <v>0.87652644938718871</v>
       </c>
@@ -27732,7 +30430,7 @@
         <f t="shared" si="7"/>
         <v>1.1592790111378333</v>
       </c>
-      <c r="AS50" s="22">
+      <c r="AS50" s="21">
         <f t="shared" si="8"/>
         <v>0.87682876286419187</v>
       </c>
@@ -27818,7 +30516,7 @@
         <f t="shared" si="7"/>
         <v>1.1624006401585241</v>
       </c>
-      <c r="AS51" s="22">
+      <c r="AS51" s="21">
         <f t="shared" si="8"/>
         <v>0.87746361830713249</v>
       </c>
@@ -27904,7 +30602,7 @@
         <f t="shared" si="7"/>
         <v>1.165813263808597</v>
       </c>
-      <c r="AS52" s="22">
+      <c r="AS52" s="21">
         <f t="shared" si="8"/>
         <v>0.87815502334545448</v>
       </c>
@@ -27990,7 +30688,7 @@
         <f t="shared" si="7"/>
         <v>2.3186438802295499</v>
       </c>
-      <c r="AS53" s="22">
+      <c r="AS53" s="21">
         <f t="shared" si="8"/>
         <v>0.9897928231174431</v>
       </c>
@@ -28076,7 +30774,7 @@
         <f t="shared" si="7"/>
         <v>2.4145230810715312</v>
       </c>
-      <c r="AS54" s="22">
+      <c r="AS54" s="21">
         <f t="shared" si="8"/>
         <v>0.99212208765952326</v>
       </c>
@@ -28131,10 +30829,10 @@
         <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -28163,25 +30861,25 @@
         <v>31</v>
       </c>
       <c r="AD61" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE61" t="s">
         <v>88</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>89</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>90</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>91</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>92</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>93</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -28366,7 +31064,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -28548,7 +31246,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -36139,7 +38837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="V130" sqref="V130"/>
     </sheetView>
   </sheetViews>
@@ -38792,8 +41490,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="s">
-        <v>114</v>
+      <c r="A108" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="B108" s="5">
         <v>1</v>
@@ -38815,7 +41513,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36"/>
+      <c r="A109" s="35"/>
       <c r="B109">
         <v>1.32</v>
       </c>
@@ -38860,7 +41558,7 @@
       <c r="Z109" s="18"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36"/>
+      <c r="A110" s="35"/>
       <c r="B110">
         <v>4.9858304269760003</v>
       </c>
@@ -38893,7 +41591,7 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="36"/>
+      <c r="A111" s="35"/>
       <c r="B111">
         <v>6.3728169473809997</v>
       </c>
@@ -38950,7 +41648,7 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="36"/>
+      <c r="A112" s="35"/>
       <c r="B112">
         <v>9.3210768256519998</v>
       </c>
@@ -41417,27 +44115,27 @@
         <v>29</v>
       </c>
       <c r="B209" s="7">
-        <f>AVERAGE(B109:B208)</f>
+        <f t="shared" ref="B209:G209" si="1">AVERAGE(B109:B208)</f>
         <v>5.5063240880702509</v>
       </c>
       <c r="C209" s="7">
-        <f>AVERAGE(C109:C208)</f>
+        <f t="shared" si="1"/>
         <v>6.0840979703459599</v>
       </c>
       <c r="D209" s="7">
-        <f>AVERAGE(D109:D208)</f>
+        <f t="shared" si="1"/>
         <v>6.0032053638373206</v>
       </c>
       <c r="E209" s="7">
-        <f>AVERAGE(E109:E208)</f>
+        <f t="shared" si="1"/>
         <v>4.6109293409708796</v>
       </c>
       <c r="F209" s="7">
-        <f>AVERAGE(F109:F208)</f>
+        <f t="shared" si="1"/>
         <v>5.000540097190469</v>
       </c>
       <c r="G209" s="7">
-        <f>AVERAGE(G109:G208)</f>
+        <f t="shared" si="1"/>
         <v>4.6533698808326696</v>
       </c>
     </row>
@@ -43722,7 +46420,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6311906-B5C4-4C1F-8CA5-FB29B8088E06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15831E4-517C-46E5-9875-C19BBE026685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -745,10 +745,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -16783,9 +16783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19966,15 +19966,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -19992,18 +19992,18 @@
       <c r="I41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33" t="s">
+      <c r="K41" s="32"/>
+      <c r="L41" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33" t="s">
+      <c r="M41" s="32"/>
+      <c r="N41" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="33"/>
+      <c r="O41" s="32"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -20024,18 +20024,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="32">
         <v>1.2</v>
       </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33">
+      <c r="K42" s="32"/>
+      <c r="L42" s="32">
         <v>3</v>
       </c>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33">
+      <c r="M42" s="32"/>
+      <c r="N42" s="32">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="32"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -20056,18 +20056,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="32">
         <v>1.3</v>
       </c>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33">
+      <c r="K43" s="32"/>
+      <c r="L43" s="32">
         <v>4</v>
       </c>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="33"/>
+      <c r="O43" s="32"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -20088,18 +20088,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="33">
+      <c r="J44" s="32">
         <v>2.36</v>
       </c>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33">
+      <c r="K44" s="32"/>
+      <c r="L44" s="32">
         <v>6</v>
       </c>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33">
+      <c r="M44" s="32"/>
+      <c r="N44" s="32">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="32"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -20120,18 +20120,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="32">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33">
+      <c r="K45" s="32"/>
+      <c r="L45" s="32">
         <v>8</v>
       </c>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33">
+      <c r="M45" s="32"/>
+      <c r="N45" s="32">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="33"/>
+      <c r="O45" s="32"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -20152,18 +20152,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="33">
+      <c r="J46" s="32">
         <v>3.55</v>
       </c>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33">
+      <c r="K46" s="32"/>
+      <c r="L46" s="32">
         <v>12</v>
       </c>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33">
+      <c r="M46" s="32"/>
+      <c r="N46" s="32">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="32"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -20263,15 +20263,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -20282,6 +20273,15 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20292,8 +20292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
   <dimension ref="A1:Q591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15831E4-517C-46E5-9875-C19BBE026685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D6F39-31DA-40C6-8A03-F727A92A478C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="112">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -381,20 +381,14 @@
     <t>Path Length</t>
   </si>
   <si>
-    <t>8 -  Average Path Length</t>
-  </si>
-  <si>
-    <t>dissemination + direct connection after the first message</t>
-  </si>
-  <si>
     <t>9 - Average Path Length
 (WattsStrogatz)</t>
   </si>
   <si>
-    <t>simulation with many evil node</t>
+    <t xml:space="preserve">7.2 - Initial transactions (slow speed) </t>
   </si>
   <si>
-    <t xml:space="preserve">7.2 - Initial transactions (slow speed) </t>
+    <t>9 -  Average Path Length</t>
   </si>
 </sst>
 </file>
@@ -16783,9 +16777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18377,7 +18371,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B37" s="23">
         <v>1</v>
@@ -18574,7 +18568,7 @@
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" s="27">
         <v>1</v>
@@ -18824,9 +18818,6 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -18840,12 +18831,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -41491,7 +41477,7 @@
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5">
         <v>1</v>
@@ -46409,9 +46395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46420,7 +46404,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoga\Desktop\University\Thesis\TrustChain-Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D6F39-31DA-40C6-8A03-F727A92A478C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4031691C-9456-4D4C-A3F2-CCDFDCC82727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="119">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -390,11 +390,37 @@
   <si>
     <t>9 -  Average Path Length</t>
   </si>
+  <si>
+    <t>0.406666666668</t>
+  </si>
+  <si>
+    <t>Too long</t>
+  </si>
+  <si>
+    <t>0.40666666667</t>
+  </si>
+  <si>
+    <t>0.406819158163</t>
+  </si>
+  <si>
+    <t>0.305000000001</t>
+  </si>
+  <si>
+    <t>0.408242231292</t>
+  </si>
+  <si>
+    <t>0.408334545058</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="174" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000"/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,7 +705,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,6 +753,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="12" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -739,10 +769,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -750,6 +780,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
@@ -16778,8 +16811,8 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16854,7 +16887,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -16898,7 +16931,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -16940,7 +16973,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -16986,7 +17019,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -17029,7 +17062,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -17075,7 +17108,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -17118,7 +17151,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -17165,7 +17198,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -17210,7 +17243,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -17255,7 +17288,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -17298,7 +17331,7 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6">
@@ -17342,7 +17375,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -17384,7 +17417,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -17426,7 +17459,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -17468,7 +17501,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -17510,7 +17543,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
@@ -17597,7 +17630,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="20">
@@ -17644,7 +17677,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -17689,7 +17722,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="10">
@@ -17733,7 +17766,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="11">
         <v>2</v>
       </c>
@@ -17775,7 +17808,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -17817,7 +17850,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="11">
         <v>4</v>
       </c>
@@ -17859,7 +17892,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -17901,7 +17934,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="12">
@@ -17948,7 +17981,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="12">
         <v>2</v>
       </c>
@@ -17990,7 +18023,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="12">
         <v>3</v>
       </c>
@@ -18032,7 +18065,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="12">
         <v>4</v>
       </c>
@@ -18074,7 +18107,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="12">
         <v>5</v>
       </c>
@@ -18116,7 +18149,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="12">
         <v>6</v>
       </c>
@@ -18158,7 +18191,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="14">
@@ -18202,7 +18235,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="14">
         <v>2</v>
       </c>
@@ -18244,7 +18277,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="14">
         <v>3</v>
       </c>
@@ -18286,7 +18319,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="14">
         <v>4</v>
       </c>
@@ -18328,7 +18361,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="14">
         <v>5</v>
       </c>
@@ -18370,7 +18403,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="23">
@@ -18403,15 +18436,15 @@
       <c r="L37" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="22" t="s">
-        <v>63</v>
+      <c r="M37" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="N37" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="23">
         <v>2</v>
       </c>
@@ -18442,15 +18475,15 @@
       <c r="L38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="22" t="s">
-        <v>63</v>
+      <c r="M38" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="N38" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="23">
         <v>3</v>
       </c>
@@ -18481,15 +18514,15 @@
       <c r="L39" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="22" t="s">
-        <v>63</v>
+      <c r="M39" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="N39" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="23">
         <v>4</v>
       </c>
@@ -18520,15 +18553,15 @@
       <c r="L40" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="22" t="s">
-        <v>63</v>
+      <c r="M40" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="N40" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="23">
         <v>5</v>
       </c>
@@ -18559,15 +18592,15 @@
       <c r="L41" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="22" t="s">
-        <v>63</v>
+      <c r="M41" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="N41" s="22">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="30" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="27">
@@ -18611,7 +18644,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="27">
         <v>2</v>
       </c>
@@ -18653,7 +18686,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="27">
         <v>3</v>
       </c>
@@ -18695,7 +18728,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="27">
         <v>4</v>
       </c>
@@ -18737,7 +18770,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="27">
         <v>5</v>
       </c>
@@ -18779,7 +18812,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="27">
         <v>6</v>
       </c>
@@ -18857,7 +18890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -19952,15 +19985,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -19978,18 +20011,18 @@
       <c r="I41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="J41" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32" t="s">
+      <c r="M41" s="35"/>
+      <c r="N41" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="32"/>
+      <c r="O41" s="35"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -20010,18 +20043,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="35">
         <v>1.2</v>
       </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32">
+      <c r="K42" s="35"/>
+      <c r="L42" s="35">
         <v>3</v>
       </c>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32">
+      <c r="M42" s="35"/>
+      <c r="N42" s="35">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="32"/>
+      <c r="O42" s="35"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -20042,18 +20075,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="35">
         <v>1.3</v>
       </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32">
+      <c r="K43" s="35"/>
+      <c r="L43" s="35">
         <v>4</v>
       </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32">
+      <c r="M43" s="35"/>
+      <c r="N43" s="35">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="32"/>
+      <c r="O43" s="35"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -20074,18 +20107,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="35">
         <v>2.36</v>
       </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32">
+      <c r="K44" s="35"/>
+      <c r="L44" s="35">
         <v>6</v>
       </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32">
+      <c r="M44" s="35"/>
+      <c r="N44" s="35">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="32"/>
+      <c r="O44" s="35"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -20106,18 +20139,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="35">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32">
+      <c r="K45" s="35"/>
+      <c r="L45" s="35">
         <v>8</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32">
+      <c r="M45" s="35"/>
+      <c r="N45" s="35">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="32"/>
+      <c r="O45" s="35"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -20138,18 +20171,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="35">
         <v>3.55</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32">
+      <c r="K46" s="35"/>
+      <c r="L46" s="35">
         <v>12</v>
       </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32">
+      <c r="M46" s="35"/>
+      <c r="N46" s="35">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="32"/>
+      <c r="O46" s="35"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -20249,6 +20282,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -20259,15 +20301,6 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38823,7 +38856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="V130" sqref="V130"/>
     </sheetView>
   </sheetViews>
@@ -41476,7 +41509,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="36" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="5">
@@ -41499,7 +41532,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
+      <c r="A109" s="37"/>
       <c r="B109">
         <v>1.32</v>
       </c>
@@ -41544,7 +41577,7 @@
       <c r="Z109" s="18"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="37"/>
       <c r="B110">
         <v>4.9858304269760003</v>
       </c>
@@ -41577,7 +41610,7 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="37"/>
       <c r="B111">
         <v>6.3728169473809997</v>
       </c>
@@ -41634,7 +41667,7 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="37"/>
       <c r="B112">
         <v>9.3210768256519998</v>
       </c>
@@ -46393,16 +46426,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
@@ -46420,6 +46459,1154 @@
       </c>
       <c r="F1" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="40">
+        <v>0.91563134253</v>
+      </c>
+      <c r="E2" s="39">
+        <v>1.118953564755</v>
+      </c>
+      <c r="F2" s="38">
+        <v>13.725000000045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E3" s="39">
+        <v>1.5255667304439999</v>
+      </c>
+      <c r="F3" s="38">
+        <v>16.970000000079999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E4" s="39">
+        <v>1.4150000000089999</v>
+      </c>
+      <c r="F4" s="38">
+        <v>22.671705261644998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E5" s="39">
+        <v>1.3223165833999999</v>
+      </c>
+      <c r="F5" s="38">
+        <v>15.656666666717999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.91621866739400004</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F6" s="38">
+        <v>24.400000000079999</v>
+      </c>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="40">
+        <v>0.71206885930599995</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1.525307829498</v>
+      </c>
+      <c r="F7" s="38">
+        <v>5.3733333333919999</v>
+      </c>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E8" s="39">
+        <v>1.7283333333390001</v>
+      </c>
+      <c r="F8" s="38">
+        <v>25.315000000083</v>
+      </c>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F9" s="38">
+        <v>2.9483333333430002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.814149369949</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="F10" s="38">
+        <v>23.180000000075999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.71255452715699996</v>
+      </c>
+      <c r="E11" s="39">
+        <v>1.118333333337</v>
+      </c>
+      <c r="F11" s="38">
+        <v>10.370000000034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E12" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F12" s="38">
+        <v>10.573333333368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E13" s="39">
+        <v>1.1150000000069999</v>
+      </c>
+      <c r="F13" s="38">
+        <v>16.876666666721999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E14" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.71182149176099996</v>
+      </c>
+      <c r="E15" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F15" s="38">
+        <v>9.7600000000320009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="40">
+        <v>0.61063478136299998</v>
+      </c>
+      <c r="E16" s="39">
+        <v>1.0181384666819999</v>
+      </c>
+      <c r="F16" s="38">
+        <v>2.135000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F17" s="38">
+        <v>22.875755746039999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="40">
+        <v>0.81333720015199995</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F18" s="38">
+        <v>4.2700000000139999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E19" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1.4233333333380001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E20" s="39">
+        <v>1.014315111173</v>
+      </c>
+      <c r="F20" s="38">
+        <v>13.521666666711001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1.3218432239610001</v>
+      </c>
+      <c r="F21" s="38">
+        <v>2.135000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E22" s="39">
+        <v>1.119344530545</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1.7283333333390001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="40">
+        <v>0.81374060575200002</v>
+      </c>
+      <c r="E23" s="39">
+        <v>1.223608787598</v>
+      </c>
+      <c r="F23" s="38">
+        <v>7.1166666666899996</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E24" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F24" s="38">
+        <v>10.370000000034</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E25" s="39">
+        <v>1.7283333333390001</v>
+      </c>
+      <c r="F25" s="38">
+        <v>17.181666666723</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E26" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F26" s="38">
+        <v>23.891666666745</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E27" s="39">
+        <v>1.3209963622459999</v>
+      </c>
+      <c r="F27" s="38">
+        <v>11.991666666784999</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="40">
+        <v>0.50959073004800004</v>
+      </c>
+      <c r="E28" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F28" s="38">
+        <v>6.6083333333549996</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E29" s="39">
+        <v>0.813333333336</v>
+      </c>
+      <c r="F29" s="38">
+        <v>10.675000000035</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E30" s="39">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F30" s="38">
+        <v>3.761666666679</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E31" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F31" s="38">
+        <v>24.908333333415001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E32" s="39">
+        <v>1.626666666672</v>
+      </c>
+      <c r="F32" s="38">
+        <v>6.4050000000210003</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E33" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F33" s="38">
+        <v>2.745000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F34" s="38">
+        <v>7.5233333333579999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="40">
+        <v>0.398333333337</v>
+      </c>
+      <c r="E35" s="39">
+        <v>0.915453912383</v>
+      </c>
+      <c r="F35" s="38">
+        <v>20.028333333399001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E36" s="39">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F36" s="38">
+        <v>24.400000000079999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E37" s="39">
+        <v>1.7283333333390001</v>
+      </c>
+      <c r="F37" s="38">
+        <v>15.758333333385</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="40">
+        <v>0.71245119639200005</v>
+      </c>
+      <c r="E38" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F38" s="38">
+        <v>5.998333333353</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E39" s="39">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="F39" s="38">
+        <v>15.148333333383</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E40" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F40" s="38">
+        <v>9.251666666697</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E41" s="39">
+        <v>1.7200000000119999</v>
+      </c>
+      <c r="F41" s="38">
+        <v>19.723333333397999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E42" s="39">
+        <v>1.423643264589</v>
+      </c>
+      <c r="F42" s="38">
+        <v>13.521666666711001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="40">
+        <v>0.71232650197799996</v>
+      </c>
+      <c r="E43" s="39">
+        <v>1.9316666666769999</v>
+      </c>
+      <c r="F43" s="38">
+        <v>17.588333333390999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E44" s="39">
+        <v>1.3229549666210001</v>
+      </c>
+      <c r="F44" s="38">
+        <v>2.5416666666749999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="40">
+        <v>0.81421186804400003</v>
+      </c>
+      <c r="E45" s="39">
+        <v>0.70333333334000003</v>
+      </c>
+      <c r="F45" s="38">
+        <v>12.200000000039999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E46" s="39">
+        <v>1.11858909058</v>
+      </c>
+      <c r="F46" s="38">
+        <v>24.298333333413002</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0.81166666667300003</v>
+      </c>
+      <c r="F47" s="38">
+        <v>5.1850000000170002</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E48" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F48" s="38">
+        <v>25.111666666748999</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="40">
+        <v>0.712881519766</v>
+      </c>
+      <c r="E49" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F49" s="38">
+        <v>14.843333333382001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E50" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F50" s="38">
+        <v>5.3883333333510004</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="40">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="E51" s="39">
+        <v>0.813333333336</v>
+      </c>
+      <c r="F51" s="38">
+        <v>23.485000000077001</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="40">
+        <v>0.712674432518</v>
+      </c>
+      <c r="E52" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F52" s="38">
+        <v>21.451666666737001</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="40">
+        <v>0.50000000000400002</v>
+      </c>
+      <c r="E53" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F53" s="38">
+        <v>9.1500000000299995</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="40">
+        <v>0.71290905487300005</v>
+      </c>
+      <c r="E54" s="39">
+        <v>0.813333333336</v>
+      </c>
+      <c r="F54" s="38">
+        <v>17.893333333392</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E55" s="39">
+        <v>1.0086411079199999</v>
+      </c>
+      <c r="F55" s="38">
+        <v>9.6583333333650003</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E56" s="39">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="F56" s="38">
+        <v>22.163333333406001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E57" s="39">
+        <v>1.0116666666730001</v>
+      </c>
+      <c r="F57" s="38">
+        <v>13.521666666711001</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E58" s="39">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F58" s="38">
+        <v>24.705000000081</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="40">
+        <v>0.81392381531500002</v>
+      </c>
+      <c r="E59" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F59" s="38">
+        <v>5.0833333333499997</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E60" s="39">
+        <v>1.118333333337</v>
+      </c>
+      <c r="F60" s="38">
+        <v>13.725000000045</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E61" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F61" s="38">
+        <v>25.41666666675</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E62" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F62" s="38">
+        <v>11.081666666703001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E63" s="39">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="F63" s="38">
+        <v>16.470000000054</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="40">
+        <v>0.61253165500399998</v>
+      </c>
+      <c r="E64" s="39">
+        <v>1.118333333337</v>
+      </c>
+      <c r="F64" s="38">
+        <v>3.5583333333449998</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E65" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F65" s="38">
+        <v>18.503333333394</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="40">
+        <v>0.61105895923300002</v>
+      </c>
+      <c r="E66" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F66" s="38">
+        <v>1.8300000000059999</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E67" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F67" s="38">
+        <v>1.118333333337</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E68" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F68" s="38">
+        <v>22.570000000074</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E69" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F69" s="38">
+        <v>10.573333333368</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E70" s="39">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="F70" s="38">
+        <v>4.8800000000160004</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E71" s="39">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F71" s="38">
+        <v>2.4400000000080002</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="40">
+        <v>0.50862001970100001</v>
+      </c>
+      <c r="E72" s="39">
+        <v>1.626666666672</v>
+      </c>
+      <c r="F72" s="38">
+        <v>10.878333333369</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E73" s="39">
+        <v>1.118333333337</v>
+      </c>
+      <c r="F73" s="38">
+        <v>14.436666666714</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="40">
+        <v>0.71283777864700004</v>
+      </c>
+      <c r="E74" s="39">
+        <v>1.1206611285170001</v>
+      </c>
+      <c r="F74" s="38">
+        <v>20.435000000066999</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="40">
+        <v>0.915249587127</v>
+      </c>
+      <c r="E75" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F75" s="38">
+        <v>4.5750000000149997</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="40">
+        <v>0.91594992243700002</v>
+      </c>
+      <c r="E76" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F76" s="38">
+        <v>4.3716666666809996</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E77" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F77" s="38">
+        <v>21.756666666737999</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E78" s="39">
+        <v>1.626666666672</v>
+      </c>
+      <c r="F78" s="38">
+        <v>19.520000000064002</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="40">
+        <v>0.71259857409000005</v>
+      </c>
+      <c r="E79" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F79" s="38">
+        <v>15.555000000051001</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E80" s="39">
+        <v>1.321666666671</v>
+      </c>
+      <c r="F80" s="38">
+        <v>8.6300000001299999</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E81" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F81" s="38">
+        <v>6.501666666717</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E82" s="39">
+        <v>1.6268751444189999</v>
+      </c>
+      <c r="F82" s="38">
+        <v>1.0166666666699999</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E83" s="39">
+        <v>0.91642535700500005</v>
+      </c>
+      <c r="F83" s="38">
+        <v>11.183333333369999</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E84" s="39">
+        <v>1.2206580116700001</v>
+      </c>
+      <c r="F84" s="38">
+        <v>21.960000000072</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E85" s="39">
+        <v>2.0342196351139998</v>
+      </c>
+      <c r="F85" s="38">
+        <v>3.253333333344</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E86" s="39">
+        <v>1.8300000000059999</v>
+      </c>
+      <c r="F86" s="38">
+        <v>3.863333333346</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E87" s="39">
+        <v>1.220709063518</v>
+      </c>
+      <c r="F87" s="38">
+        <v>9.3533333333640005</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E88" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F88" s="38">
+        <v>0.406666666668</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="40">
+        <v>0.81438485076199996</v>
+      </c>
+      <c r="E89" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F89" s="38">
+        <v>19.418333333397001</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E90" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F90" s="38">
+        <v>3.3550000000110001</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E91" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F91" s="38">
+        <v>14.538333333381001</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="40">
+        <v>0.81449857277299997</v>
+      </c>
+      <c r="E92" s="39">
+        <v>1.2200000000040001</v>
+      </c>
+      <c r="F92" s="38">
+        <v>13.623333333378</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E93" s="39">
+        <v>1.6279593533309999</v>
+      </c>
+      <c r="F93" s="38">
+        <v>8.2350000000270001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="40">
+        <v>0.61006028218099995</v>
+      </c>
+      <c r="E94" s="39">
+        <v>1.931666666673</v>
+      </c>
+      <c r="F94" s="38">
+        <v>11.590000000038</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E95" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F95" s="38">
+        <v>11.793333333372001</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E96" s="39">
+        <v>1.1191459290379999</v>
+      </c>
+      <c r="F96" s="38">
+        <v>19.825000000065</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E97" s="39">
+        <v>1.7227540103900001</v>
+      </c>
+      <c r="F97" s="38">
+        <v>9.8616666666989996</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E98" s="39">
+        <v>1.8300000000059999</v>
+      </c>
+      <c r="F98" s="38">
+        <v>0.30500000000100003</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E99" s="39">
+        <v>1.931666666673</v>
+      </c>
+      <c r="F99" s="38">
+        <v>23.586666666744001</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E100" s="39">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F100" s="38">
+        <v>8.7433333333619991</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E101" s="39">
+        <v>1.5250000000049999</v>
+      </c>
+      <c r="F101" s="38">
+        <v>10.776666666702001</v>
       </c>
     </row>
   </sheetData>

--- a/Data Collection.xlsx
+++ b/Data Collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4031691C-9456-4D4C-A3F2-CCDFDCC82727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6049BD-D25A-4420-8FA4-B35D501289B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="112">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -390,36 +390,15 @@
   <si>
     <t>9 -  Average Path Length</t>
   </si>
-  <si>
-    <t>0.406666666668</t>
-  </si>
-  <si>
-    <t>Too long</t>
-  </si>
-  <si>
-    <t>0.40666666667</t>
-  </si>
-  <si>
-    <t>0.406819158163</t>
-  </si>
-  <si>
-    <t>0.305000000001</t>
-  </si>
-  <si>
-    <t>0.408242231292</t>
-  </si>
-  <si>
-    <t>0.408334545058</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="174" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="175" formatCode="#,##0.0000000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -705,7 +684,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,7 +734,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,10 +750,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,9 +761,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
@@ -2964,6 +2945,1124 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="975535712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Detection time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> inflenced by AVG path lenght variations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Set9'!$J$25:$N$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1938268958860343E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5129154651290515</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Set9'!$J$25:$N$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1938268958860343E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.5129154651290515</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Set9'!$J$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30500000000100003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39059678193986036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70968916166425022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2735574783240902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.234124610118215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24BB-49D6-AC5A-18AF2EFA3761}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2113123600"/>
+        <c:axId val="2021043840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113123600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021043840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113123600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Detection time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> inflenced by AVG path lenght variations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'Set9'!$J$25:$N$25</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>'Set9'!$J$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1938268958860343E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'Set9'!$J$25:$N$25</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>'Set9'!$J$25:$M$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1938268958860343E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Set9'!$J$24:$N$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Set9'!$J$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30500000000100003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39059678193986036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70968916166425022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2735574783240902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF29-4D48-9886-E7A7C5413DA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2113123600"/>
+        <c:axId val="2021043840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113123600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021043840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113123600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Detection time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> inflenced by AVG path lenght variations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'Set9'!$J$25:$N$25</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>'Set9'!$J$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'Set9'!$J$25:$N$25</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>'Set9'!$J$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.035609576717985E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5230902372088648E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Set9'!$J$24:$N$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Set9'!$J$24:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.30500000000100003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39059678193986036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70968916166425022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB8-44BC-B57A-481B96F578F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2113123600"/>
+        <c:axId val="2021043840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2113123600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021043840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021043840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113123600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7325,6 +8424,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11180,6 +12399,1515 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16511,6 +19239,123 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E7B734-56DD-4EFA-B219-D78598BF2BD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB42357-310B-4326-A1DF-26288CD35ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9E1A2A-0AC6-4419-BFD5-B49215E4CB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16887,7 +19732,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -16931,7 +19776,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -16973,7 +19818,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -17019,7 +19864,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -17062,7 +19907,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -17108,7 +19953,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -17151,7 +19996,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5">
@@ -17198,7 +20043,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -17243,7 +20088,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -17288,7 +20133,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -17331,7 +20176,7 @@
       <c r="T11" s="26"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="6">
@@ -17375,7 +20220,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="6">
         <v>2</v>
       </c>
@@ -17417,7 +20262,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="6">
         <v>3</v>
       </c>
@@ -17459,7 +20304,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="6">
         <v>4</v>
       </c>
@@ -17501,7 +20346,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="6">
         <v>5</v>
       </c>
@@ -17543,7 +20388,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="6">
         <v>6</v>
       </c>
@@ -17630,7 +20475,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="20">
@@ -17677,7 +20522,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -17722,7 +20567,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="10">
@@ -17766,7 +20611,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11">
         <v>2</v>
       </c>
@@ -17808,7 +20653,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -17850,7 +20695,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="11">
         <v>4</v>
       </c>
@@ -17892,7 +20737,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -17934,7 +20779,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="12">
@@ -17981,7 +20826,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="12">
         <v>2</v>
       </c>
@@ -18023,7 +20868,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="12">
         <v>3</v>
       </c>
@@ -18065,7 +20910,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="12">
         <v>4</v>
       </c>
@@ -18107,7 +20952,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="12">
         <v>5</v>
       </c>
@@ -18149,7 +20994,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="12">
         <v>6</v>
       </c>
@@ -18191,7 +21036,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="14">
@@ -18235,7 +21080,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="14">
         <v>2</v>
       </c>
@@ -18277,7 +21122,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="14">
         <v>3</v>
       </c>
@@ -18319,7 +21164,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="14">
         <v>4</v>
       </c>
@@ -18361,7 +21206,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="14">
         <v>5</v>
       </c>
@@ -18403,7 +21248,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="23">
@@ -18444,7 +21289,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="23">
         <v>2</v>
       </c>
@@ -18483,7 +21328,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="23">
         <v>3</v>
       </c>
@@ -18522,7 +21367,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="23">
         <v>4</v>
       </c>
@@ -18561,7 +21406,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="23">
         <v>5</v>
       </c>
@@ -18600,7 +21445,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B42" s="27">
@@ -18644,7 +21489,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="27">
         <v>2</v>
       </c>
@@ -18686,7 +21531,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="27">
         <v>3</v>
       </c>
@@ -18728,7 +21573,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="27">
         <v>4</v>
       </c>
@@ -18770,7 +21615,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="27">
         <v>5</v>
       </c>
@@ -18812,7 +21657,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="27">
         <v>6</v>
       </c>
@@ -19985,15 +22830,15 @@
       <c r="E40">
         <v>0.91530000000300005</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -20011,18 +22856,18 @@
       <c r="I41" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35" t="s">
+      <c r="K41" s="36"/>
+      <c r="L41" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35" t="s">
+      <c r="M41" s="36"/>
+      <c r="N41" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="O41" s="35"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -20043,18 +22888,18 @@
       <c r="I42">
         <v>10</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="36">
         <v>1.2</v>
       </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35">
+      <c r="K42" s="36"/>
+      <c r="L42" s="36">
         <v>3</v>
       </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35">
+      <c r="M42" s="36"/>
+      <c r="N42" s="36">
         <v>1.7929999999999999</v>
       </c>
-      <c r="O42" s="35"/>
+      <c r="O42" s="36"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
@@ -20075,18 +22920,18 @@
       <c r="I43">
         <v>20</v>
       </c>
-      <c r="J43" s="35">
+      <c r="J43" s="36">
         <v>1.3</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35">
+      <c r="K43" s="36"/>
+      <c r="L43" s="36">
         <v>4</v>
       </c>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35">
+      <c r="M43" s="36"/>
+      <c r="N43" s="36">
         <v>1.8839999999999999</v>
       </c>
-      <c r="O43" s="35"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
@@ -20107,18 +22952,18 @@
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="36">
         <v>2.36</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35">
+      <c r="K44" s="36"/>
+      <c r="L44" s="36">
         <v>6</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35">
+      <c r="M44" s="36"/>
+      <c r="N44" s="36">
         <v>2.2669999999999999</v>
       </c>
-      <c r="O44" s="35"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -20139,18 +22984,18 @@
       <c r="I45">
         <v>100</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="36">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35">
+      <c r="K45" s="36"/>
+      <c r="L45" s="36">
         <v>8</v>
       </c>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35">
+      <c r="M45" s="36"/>
+      <c r="N45" s="36">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="35"/>
+      <c r="O45" s="36"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -20171,18 +23016,18 @@
       <c r="I46">
         <v>1000</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="36">
         <v>3.55</v>
       </c>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35">
+      <c r="K46" s="36"/>
+      <c r="L46" s="36">
         <v>12</v>
       </c>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35">
+      <c r="M46" s="36"/>
+      <c r="N46" s="36">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="35"/>
+      <c r="O46" s="36"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
@@ -20282,15 +23127,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="I40:O40"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="J44:K44"/>
@@ -20301,6 +23137,15 @@
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41509,7 +44354,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="36" t="s">
+      <c r="A108" s="38" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="5">
@@ -41532,7 +44377,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="39"/>
       <c r="B109">
         <v>1.32</v>
       </c>
@@ -41577,7 +44422,7 @@
       <c r="Z109" s="18"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+      <c r="A110" s="39"/>
       <c r="B110">
         <v>4.9858304269760003</v>
       </c>
@@ -41610,7 +44455,7 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="39"/>
       <c r="B111">
         <v>6.3728169473809997</v>
       </c>
@@ -41667,7 +44512,7 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
+      <c r="A112" s="39"/>
       <c r="B112">
         <v>9.3210768256519998</v>
       </c>
@@ -46426,22 +49271,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE4954-B822-463F-AF49-CD5C62D3DBE0}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
@@ -46461,1155 +49308,1895 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="40">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C2" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D2" s="31">
         <v>0.91563134253</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="30">
         <v>1.118953564755</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="29">
         <v>13.725000000045</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="40">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D3" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="30">
         <v>1.5255667304439999</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="29">
         <v>16.970000000079999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="40">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D4" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="30">
         <v>1.4150000000089999</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="29">
         <v>22.671705261644998</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="40">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="40">
+        <f>AVERAGE(B2:B4)</f>
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.40824223129199999</v>
+      </c>
+      <c r="D5" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="30">
         <v>1.3223165833999999</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="29">
         <v>15.656666666717999</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="40">
+      <c r="I5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="O5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="U5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="31">
+        <v>0.40833454505799999</v>
+      </c>
+      <c r="D6" s="31">
         <v>0.91621866739400004</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="30">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="29">
         <v>24.400000000079999</v>
       </c>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D7" s="31">
         <v>0.71206885930599995</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="30">
         <v>1.525307829498</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="29">
         <v>5.3733333333919999</v>
       </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="I7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.39059678193986036</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.70968916166425022</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="16">
+        <v>1.2735574783240902</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="16">
+        <v>12.234124610118215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="31">
+        <v>0.40961805721799999</v>
+      </c>
+      <c r="D8" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="30">
         <v>1.7283333333390001</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="29">
         <v>25.315000000083</v>
       </c>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="I8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="16">
+        <v>4.0421909092859731E-3</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="16">
+        <v>1.2715798215470387E-2</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="16">
+        <v>3.1215472133397308E-2</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.76247482107208531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="31">
+        <v>0.41125858449500002</v>
+      </c>
+      <c r="D9" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="29">
         <v>2.9483333333430002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="40">
+      <c r="I9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="16">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="16">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="16">
+        <v>1.2221589255579999</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" s="16">
+        <v>11.132500000036501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D10" s="31">
         <v>0.814149369949</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="30">
         <v>0.71166666666900003</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="29">
         <v>23.180000000075999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="I10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="16">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" s="16">
+        <v>13.521666666711001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D11" s="31">
         <v>0.71255452715699996</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="30">
         <v>1.118333333337</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="29">
         <v>10.370000000034</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="I11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3.7703046815860022E-2</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.12715798215470386</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.3121547213339731</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="16">
+        <v>7.6247482107208535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="31">
+        <v>0.40714972608599997</v>
+      </c>
+      <c r="D12" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="29">
         <v>10.573333333368</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="I12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1.4215197391989323E-3</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1.6169152425655985E-2</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="16">
+        <v>9.7440570051090414E-2</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="16">
+        <v>58.136785276890862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D13" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="30">
         <v>1.1150000000069999</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="29">
         <v>16.876666666721999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="40">
+      <c r="I13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1.5397884364271444</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="16">
+        <v>-0.16880954737971487</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="16">
+        <v>-0.26993667918979591</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" s="16">
+        <v>-1.177666198334109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="31">
+        <v>0.40683412515400003</v>
+      </c>
+      <c r="D14" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="29">
         <v>0.71166666666900003</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="40">
+      <c r="I14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="16">
+        <v>-1.8678461520873109</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="16">
+        <v>-0.22888033972378199</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.16410983342915833</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.18574374450620518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D15" s="31">
         <v>0.71182149176099996</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="29">
         <v>9.7600000000320009</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="40">
+      <c r="I15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.106258584494</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.61833333333299989</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="16">
+        <v>1.5258863017789999</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V15" s="16">
+        <v>25.111666666748999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="31">
+        <v>0.40821199720700002</v>
+      </c>
+      <c r="D16" s="31">
         <v>0.61063478136299998</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="30">
         <v>1.0181384666819999</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="29">
         <v>2.135000000007</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="40">
+      <c r="I16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.398333333337</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D17" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="30">
         <v>0.50833333333499997</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="29">
         <v>22.875755746039999</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="40">
+      <c r="I17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0.41125858449500002</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="16">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="16">
+        <v>2.0342196351139998</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="16">
+        <v>25.41666666675</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D18" s="31">
         <v>0.81333720015199995</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="29">
         <v>4.2700000000139999</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="40">
+      <c r="I18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.91500000000300008</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="16">
+        <v>33.981920028767853</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="16">
+        <v>70.968916166425018</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="16">
+        <v>127.35574783240901</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="16">
+        <v>1223.4124610118215</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D19" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="29">
         <v>1.4233333333380001</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="40">
+      <c r="I19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="16">
+        <v>3</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="16">
+        <v>87</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="16">
+        <v>100</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="16">
+        <v>100</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D20" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="30">
         <v>1.014315111173</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="29">
         <v>13.521666666711001</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="40">
+      <c r="I20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="17">
+        <v>8.035609576717985E-3</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="17">
+        <v>2.5230902372088648E-2</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="17">
+        <v>6.1938268958860343E-2</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="17">
+        <v>1.5129154651290515</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C21" s="31">
+        <v>0.40877581955300002</v>
+      </c>
+      <c r="D21" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="30">
         <v>1.3218432239610001</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="29">
         <v>2.135000000007</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="40">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C22" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D22" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="30">
         <v>1.119344530545</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="29">
         <v>1.7283333333390001</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="40">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C23" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D23" s="31">
         <v>0.81374060575200002</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="30">
         <v>1.223608787598</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="29">
         <v>7.1166666666899996</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="40">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C24" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D24" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="29">
         <v>10.370000000034</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="40">
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <f>J7</f>
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="K24">
+        <f>M7</f>
+        <v>0.39059678193986036</v>
+      </c>
+      <c r="L24">
+        <f>P7</f>
+        <v>0.70968916166425022</v>
+      </c>
+      <c r="M24">
+        <f>S7</f>
+        <v>1.2735574783240902</v>
+      </c>
+      <c r="N24">
+        <f>V7</f>
+        <v>12.234124610118215</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" s="31">
+        <v>0.40715116082300001</v>
+      </c>
+      <c r="D25" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="30">
         <v>1.7283333333390001</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="29">
         <v>17.181666666723</v>
       </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="40">
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>M20</f>
+        <v>8.035609576717985E-3</v>
+      </c>
+      <c r="L25">
+        <f>P20</f>
+        <v>2.5230902372088648E-2</v>
+      </c>
+      <c r="M25">
+        <f>S20</f>
+        <v>6.1938268958860343E-2</v>
+      </c>
+      <c r="N25">
+        <f>V20</f>
+        <v>1.5129154651290515</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26" s="31">
+        <v>0.40738377859300001</v>
+      </c>
+      <c r="D26" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="29">
         <v>23.891666666745</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="40">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D27" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="30">
         <v>1.3209963622459999</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="29">
         <v>11.991666666784999</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="40">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D28" s="31">
         <v>0.50959073004800004</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="29">
         <v>6.6083333333549996</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="40">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D29" s="31">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="30">
         <v>0.813333333336</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="29">
         <v>10.675000000035</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="40">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D30" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="30">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="29">
         <v>3.761666666679</v>
       </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="40">
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D31" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="29">
         <v>24.908333333415001</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="40">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32" s="31">
+        <v>0.40789590184899999</v>
+      </c>
+      <c r="D32" s="31">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="30">
         <v>1.626666666672</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="29">
         <v>6.4050000000210003</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="40">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C33" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D33" s="31">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="29">
         <v>2.745000000009</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="40">
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C34" s="31">
+        <v>0.40718022313899999</v>
+      </c>
+      <c r="D34" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="29">
         <v>7.5233333333579999</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="40">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C35" s="31">
+        <v>0.40745763126500001</v>
+      </c>
+      <c r="D35" s="31">
         <v>0.398333333337</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="30">
         <v>0.915453912383</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="29">
         <v>20.028333333399001</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="40">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C36" s="31">
+        <v>0.40707791118600001</v>
+      </c>
+      <c r="D36" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="30">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="29">
         <v>24.400000000079999</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="40">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C37" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D37" s="31">
         <v>0.406666666668</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="30">
         <v>1.7283333333390001</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="29">
         <v>15.758333333385</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="40">
+    <row r="38" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C38" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D38" s="31">
         <v>0.71245119639200005</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="29">
         <v>5.998333333353</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="40">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D39" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="30">
         <v>0.91500000000299997</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="29">
         <v>15.148333333383</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="40">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C40" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D40" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="29">
         <v>9.251666666697</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="40">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C41" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D41" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="30">
         <v>1.7200000000119999</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="29">
         <v>19.723333333397999</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="40">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C42" s="31">
+        <v>0.40759504170100003</v>
+      </c>
+      <c r="D42" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="30">
         <v>1.423643264589</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="29">
         <v>13.521666666711001</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="40">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C43" s="31">
+        <v>0.408332527743</v>
+      </c>
+      <c r="D43" s="31">
         <v>0.71232650197799996</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="30">
         <v>1.9316666666769999</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="29">
         <v>17.588333333390999</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="40">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C44" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D44" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="30">
         <v>1.3229549666210001</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="29">
         <v>2.5416666666749999</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="40">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C45" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D45" s="31">
         <v>0.81421186804400003</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="30">
         <v>0.70333333334000003</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="29">
         <v>12.200000000039999</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="40">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C46" s="31">
+        <v>0.407778928333</v>
+      </c>
+      <c r="D46" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="30">
         <v>1.11858909058</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="29">
         <v>24.298333333413002</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="40">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C47" s="31">
+        <v>0.40743495244</v>
+      </c>
+      <c r="D47" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="30">
         <v>0.81166666667300003</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="29">
         <v>5.1850000000170002</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="40">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C48" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D48" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="29">
         <v>25.111666666748999</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="40">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D49" s="31">
         <v>0.712881519766</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="29">
         <v>14.843333333382001</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D50" s="40">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D50" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="29">
         <v>5.3883333333510004</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="40">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D51" s="31">
         <v>1.0166666666699999</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="30">
         <v>0.813333333336</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="29">
         <v>23.485000000077001</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="40">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D52" s="31">
         <v>0.712674432518</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="29">
         <v>21.451666666737001</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="40">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D53" s="31">
         <v>0.50000000000400002</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="29">
         <v>9.1500000000299995</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="40">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D54" s="31">
         <v>0.71290905487300005</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="30">
         <v>0.813333333336</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="29">
         <v>17.893333333392</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D55" s="40">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D55" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="30">
         <v>1.0086411079199999</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="29">
         <v>9.6583333333650003</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56" s="40">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D56" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="30">
         <v>0.91500000000299997</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="29">
         <v>22.163333333406001</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="40">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D57" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="30">
         <v>1.0116666666730001</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="29">
         <v>13.521666666711001</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="40">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="31">
+        <v>0.40681915816300002</v>
+      </c>
+      <c r="D58" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="30">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="29">
         <v>24.705000000081</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="40">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D59" s="31">
         <v>0.81392381531500002</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="29">
         <v>5.0833333333499997</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="40">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D60" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E60" s="30">
         <v>1.118333333337</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="29">
         <v>13.725000000045</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="40">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="31">
+        <v>0.40695075281100002</v>
+      </c>
+      <c r="D61" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E61" s="39">
+      <c r="E61" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="29">
         <v>25.41666666675</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="40">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D62" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="29">
         <v>11.081666666703001</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D63" s="40">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D63" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="30">
         <v>0.71166666666900003</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="29">
         <v>16.470000000054</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="40">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="31">
+        <v>0.408333333337</v>
+      </c>
+      <c r="D64" s="31">
         <v>0.61253165500399998</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="30">
         <v>1.118333333337</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="29">
         <v>3.5583333333449998</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="40">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="31">
+        <v>0.408333333337</v>
+      </c>
+      <c r="D65" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="29">
         <v>18.503333333394</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="40">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D66" s="31">
         <v>0.61105895923300002</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E66" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="29">
         <v>1.8300000000059999</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="40">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D67" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="29">
         <v>1.118333333337</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="40">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D68" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="29">
         <v>22.570000000074</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="40">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D69" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="29">
         <v>10.573333333368</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="40">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="31">
+        <v>0.40720906633600001</v>
+      </c>
+      <c r="D70" s="31">
         <v>0.406666666668</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="30">
         <v>0.71166666666900003</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="29">
         <v>4.8800000000160004</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="40">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="31">
+        <v>0.40894545487200001</v>
+      </c>
+      <c r="D71" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="30">
         <v>1.4233333333380001</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="29">
         <v>2.4400000000080002</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="40">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="31">
+        <v>0.40876328628000003</v>
+      </c>
+      <c r="D72" s="31">
         <v>0.50862001970100001</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="30">
         <v>1.626666666672</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="29">
         <v>10.878333333369</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="40">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D73" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="30">
         <v>1.118333333337</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="29">
         <v>14.436666666714</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="40">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D74" s="31">
         <v>0.71283777864700004</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="30">
         <v>1.1206611285170001</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="29">
         <v>20.435000000066999</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="40">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="31">
+        <v>0.408333333337</v>
+      </c>
+      <c r="D75" s="31">
         <v>0.915249587127</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="29">
         <v>4.5750000000149997</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="40">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="31">
+        <v>0.409668273513</v>
+      </c>
+      <c r="D76" s="31">
         <v>0.91594992243700002</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="29">
         <v>4.3716666666809996</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="40">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="31">
+        <v>0.30662373452500002</v>
+      </c>
+      <c r="D77" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E77" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="29">
         <v>21.756666666737999</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="40">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D78" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E78" s="30">
         <v>1.626666666672</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="29">
         <v>19.520000000064002</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="40">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D79" s="31">
         <v>0.71259857409000005</v>
       </c>
-      <c r="E79" s="39">
+      <c r="E79" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="29">
         <v>15.555000000051001</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="40">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D80" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E80" s="30">
         <v>1.321666666671</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="29">
         <v>8.6300000001299999</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="40">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="31">
+        <v>0.40810912723800002</v>
+      </c>
+      <c r="D81" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E81" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="29">
         <v>6.501666666717</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="40">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D82" s="31">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E82" s="39">
+      <c r="E82" s="30">
         <v>1.6268751444189999</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="29">
         <v>1.0166666666699999</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="40">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="31">
+        <v>0.40767901446799998</v>
+      </c>
+      <c r="D83" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="30">
         <v>0.91642535700500005</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="29">
         <v>11.183333333369999</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="40">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D84" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="30">
         <v>1.2206580116700001</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="29">
         <v>21.960000000072</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="40">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="31">
+        <v>0.40684223535699998</v>
+      </c>
+      <c r="D85" s="31">
         <v>0.91500000000299997</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E85" s="30">
         <v>2.0342196351139998</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="29">
         <v>3.253333333344</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="40">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="31">
+        <v>0.40666666667000001</v>
+      </c>
+      <c r="D86" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E86" s="30">
         <v>1.8300000000059999</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="29">
         <v>3.863333333346</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="40">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="31">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D87" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="30">
         <v>1.220709063518</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="29">
         <v>9.3533333333640005</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="40">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="40">
+        <f>AVERAGE(C2:C87)</f>
+        <v>0.39059678193986036</v>
+      </c>
+      <c r="D88" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E88" s="39">
+      <c r="E88" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="29">
         <v>0.406666666668</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="40">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="31">
         <v>0.81438485076199996</v>
       </c>
-      <c r="E89" s="39">
+      <c r="E89" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="29">
         <v>19.418333333397001</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="40">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E90" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="29">
         <v>3.3550000000110001</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="40">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E91" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="29">
         <v>14.538333333381001</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="40">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="31">
         <v>0.81449857277299997</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="30">
         <v>1.2200000000040001</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="29">
         <v>13.623333333378</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="40">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E93" s="39">
+      <c r="E93" s="30">
         <v>1.6279593533309999</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="29">
         <v>8.2350000000270001</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="40">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="31">
         <v>0.61006028218099995</v>
       </c>
-      <c r="E94" s="39">
+      <c r="E94" s="30">
         <v>1.931666666673</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="29">
         <v>11.590000000038</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="40">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="31">
         <v>0.813333333336</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E95" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="29">
         <v>11.793333333372001</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="40">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="31">
         <v>0.50833333333499997</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="30">
         <v>1.1191459290379999</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="29">
         <v>19.825000000065</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="40">
+      <c r="D97" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="30">
         <v>1.7227540103900001</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="29">
         <v>9.8616666666989996</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="40">
+      <c r="D98" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="30">
         <v>1.8300000000059999</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="29">
         <v>0.30500000000100003</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="40">
+      <c r="D99" s="31">
         <v>0.61000000000200005</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="30">
         <v>1.931666666673</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="29">
         <v>23.586666666744001</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="40">
+      <c r="D100" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="30">
         <v>1.0166666666699999</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="29">
         <v>8.7433333333619991</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="40">
+      <c r="D101" s="31">
         <v>0.71166666666900003</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="30">
         <v>1.5250000000049999</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="29">
         <v>10.776666666702001</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="40">
+        <f>AVERAGE(D2:D101)</f>
+        <v>0.70968916166425022</v>
+      </c>
+      <c r="E102" s="41">
+        <f>AVERAGE(E2:E101)</f>
+        <v>1.2735574783240902</v>
+      </c>
+      <c r="F102" s="42">
+        <f>AVERAGE(F2:F101)</f>
+        <v>12.234124610118215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>